--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1122">
   <si>
     <t>String name</t>
   </si>
@@ -3370,6 +3370,18 @@
   </si>
   <si>
     <t>Allowable blocking in slip plane</t>
+  </si>
+  <si>
+    <t>st_err_type</t>
+  </si>
+  <si>
+    <t>Optical error type (SolTrace only)</t>
+  </si>
+  <si>
+    <t>Error distribution of the reflected rays from the heliostat optical surface</t>
+  </si>
+  <si>
+    <t>Gaussian=0;Pillbox=1</t>
   </si>
 </sst>
 </file>
@@ -3605,8 +3617,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L379" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L379"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L380" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L380"/>
   <sortState ref="A2:L390">
     <sortCondition ref="A1:A390"/>
   </sortState>
@@ -3915,11 +3927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L379"/>
+  <dimension ref="A1:L380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E362" sqref="A2:L379"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I195" sqref="I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10179,7 +10191,7 @@
         <v>56</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>104</v>
+        <v>1118</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>1037</v>
@@ -10187,8 +10199,8 @@
       <c r="D194" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="E194" s="12">
-        <v>1</v>
+      <c r="E194" s="14">
+        <v>0</v>
       </c>
       <c r="F194" s="11" t="s">
         <v>22</v>
@@ -10200,14 +10212,14 @@
         <v>133</v>
       </c>
       <c r="I194" s="10" t="s">
-        <v>157</v>
+        <v>1121</v>
       </c>
       <c r="J194" s="10"/>
-      <c r="K194" s="9" t="s">
-        <v>156</v>
+      <c r="K194" s="10" t="s">
+        <v>1119</v>
       </c>
       <c r="L194" s="10" t="s">
-        <v>105</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -10215,31 +10227,35 @@
         <v>56</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E195" s="14">
-        <v>12.2</v>
+        <v>1027</v>
+      </c>
+      <c r="E195" s="12">
+        <v>1</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G195" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H195" s="10"/>
-      <c r="I195" s="10"/>
+      <c r="H195" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I195" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="J195" s="10"/>
       <c r="K195" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L195" s="10" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -10247,29 +10263,31 @@
         <v>56</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>341</v>
+        <v>38</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E196" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="F196" s="11"/>
+        <v>1028</v>
+      </c>
+      <c r="E196" s="14">
+        <v>12.2</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="G196" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" s="10"/>
       <c r="I196" s="10"/>
       <c r="J196" s="10"/>
-      <c r="K196" s="10" t="s">
-        <v>342</v>
+      <c r="K196" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="L196" s="10" t="s">
-        <v>342</v>
+        <v>236</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -10277,31 +10295,29 @@
         <v>56</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>30</v>
+        <v>341</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E197" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F197" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>1027</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F197" s="11"/>
       <c r="G197" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
       <c r="J197" s="10"/>
-      <c r="K197" s="9" t="s">
-        <v>30</v>
+      <c r="K197" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="L197" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -10309,31 +10325,31 @@
         <v>56</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E198" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F198" s="11"/>
+        <v>1026</v>
+      </c>
+      <c r="E198" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G198" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H198" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="H198" s="10"/>
       <c r="I198" s="10"/>
       <c r="J198" s="10"/>
-      <c r="K198" s="10" t="s">
-        <v>255</v>
+      <c r="K198" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="L198" s="10" t="s">
-        <v>256</v>
+        <v>347</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -10341,7 +10357,7 @@
         <v>56</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>1037</v>
@@ -10350,11 +10366,9 @@
         <v>1029</v>
       </c>
       <c r="E199" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F199" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F199" s="11"/>
       <c r="G199" s="11" t="b">
         <v>0</v>
       </c>
@@ -10364,10 +10378,10 @@
       <c r="I199" s="10"/>
       <c r="J199" s="10"/>
       <c r="K199" s="10" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L199" s="10" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -10375,7 +10389,7 @@
         <v>56</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>344</v>
+        <v>247</v>
       </c>
       <c r="C200" s="9" t="s">
         <v>1037</v>
@@ -10383,21 +10397,25 @@
       <c r="D200" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="E200" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F200" s="11"/>
+      <c r="E200" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F200" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G200" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H200" s="10"/>
+      <c r="H200" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="I200" s="10"/>
       <c r="J200" s="10"/>
       <c r="K200" s="10" t="s">
-        <v>346</v>
+        <v>249</v>
       </c>
       <c r="L200" s="10" t="s">
-        <v>346</v>
+        <v>248</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -10405,7 +10423,7 @@
         <v>56</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>543</v>
+        <v>344</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>1037</v>
@@ -10413,25 +10431,21 @@
       <c r="D201" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="E201" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F201" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="E201" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F201" s="11"/>
       <c r="G201" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H201" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="H201" s="10"/>
       <c r="I201" s="10"/>
       <c r="J201" s="10"/>
       <c r="K201" s="10" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="L201" s="10" t="s">
-        <v>253</v>
+        <v>346</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -10439,7 +10453,7 @@
         <v>56</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>264</v>
+        <v>543</v>
       </c>
       <c r="C202" s="9" t="s">
         <v>1037</v>
@@ -10447,7 +10461,7 @@
       <c r="D202" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="E202" s="12" t="b">
+      <c r="E202" s="14" t="b">
         <v>1</v>
       </c>
       <c r="F202" s="11" t="s">
@@ -10462,10 +10476,10 @@
       <c r="I202" s="10"/>
       <c r="J202" s="10"/>
       <c r="K202" s="10" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="L202" s="10" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -10473,16 +10487,16 @@
         <v>56</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E203" s="12">
-        <v>0</v>
+        <v>1029</v>
+      </c>
+      <c r="E203" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="F203" s="11" t="s">
         <v>22</v>
@@ -10491,17 +10505,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I203" s="10" t="s">
-        <v>154</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="I203" s="10"/>
       <c r="J203" s="10"/>
-      <c r="K203" s="9" t="s">
-        <v>153</v>
+      <c r="K203" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="L203" s="10" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -10509,16 +10521,16 @@
         <v>56</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E204" s="12" t="b">
-        <v>1</v>
+        <v>1027</v>
+      </c>
+      <c r="E204" s="12">
+        <v>0</v>
       </c>
       <c r="F204" s="11" t="s">
         <v>22</v>
@@ -10527,15 +10539,17 @@
         <v>0</v>
       </c>
       <c r="H204" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="I204" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="I204" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="J204" s="10"/>
       <c r="K204" s="9" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="L204" s="10" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -10543,7 +10557,7 @@
         <v>56</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>1037</v>
@@ -10566,10 +10580,10 @@
       <c r="I205" s="10"/>
       <c r="J205" s="10"/>
       <c r="K205" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L205" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -10577,29 +10591,33 @@
         <v>56</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E206" s="14">
-        <v>2</v>
-      </c>
-      <c r="F206" s="11"/>
+        <v>1029</v>
+      </c>
+      <c r="E206" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G206" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H206" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="I206" s="10"/>
       <c r="J206" s="10"/>
       <c r="K206" s="9" t="s">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="L206" s="10" t="s">
-        <v>28</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -10607,7 +10625,7 @@
         <v>56</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C207" s="9" t="s">
         <v>1037</v>
@@ -10616,7 +10634,7 @@
         <v>1026</v>
       </c>
       <c r="E207" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F207" s="11"/>
       <c r="G207" s="11" t="b">
@@ -10626,10 +10644,10 @@
       <c r="I207" s="10"/>
       <c r="J207" s="10"/>
       <c r="K207" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L207" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -10637,20 +10655,18 @@
         <v>56</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C208" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E208" s="14">
-        <v>0.97</v>
-      </c>
-      <c r="F208" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F208" s="11"/>
       <c r="G208" s="11" t="b">
         <v>1</v>
       </c>
@@ -10658,10 +10674,10 @@
       <c r="I208" s="10"/>
       <c r="J208" s="10"/>
       <c r="K208" s="9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L208" s="10" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -10669,7 +10685,7 @@
         <v>56</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C209" s="9" t="s">
         <v>1037</v>
@@ -10678,7 +10694,7 @@
         <v>1028</v>
       </c>
       <c r="E209" s="14">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F209" s="11" t="s">
         <v>22</v>
@@ -10690,10 +10706,10 @@
       <c r="I209" s="10"/>
       <c r="J209" s="10"/>
       <c r="K209" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L209" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -10701,7 +10717,7 @@
         <v>56</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>1037</v>
@@ -10710,22 +10726,22 @@
         <v>1028</v>
       </c>
       <c r="E210" s="14">
-        <v>1000</v>
+        <v>0.95</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G210" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" s="10"/>
       <c r="I210" s="10"/>
       <c r="J210" s="10"/>
       <c r="K210" s="9" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="L210" s="10" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -10733,7 +10749,7 @@
         <v>56</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>1037</v>
@@ -10754,10 +10770,10 @@
       <c r="I211" s="10"/>
       <c r="J211" s="10"/>
       <c r="K211" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L211" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -10765,7 +10781,7 @@
         <v>56</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="C212" s="9" t="s">
         <v>1037</v>
@@ -10774,22 +10790,22 @@
         <v>1028</v>
       </c>
       <c r="E212" s="14">
-        <v>0.95</v>
+        <v>1000</v>
       </c>
       <c r="F212" s="11" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="G212" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" s="10"/>
       <c r="I212" s="10"/>
       <c r="J212" s="10"/>
       <c r="K212" s="9" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="L212" s="10" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -10797,7 +10813,7 @@
         <v>56</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>1037</v>
@@ -10805,23 +10821,23 @@
       <c r="D213" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="E213" s="12">
-        <v>180</v>
+      <c r="E213" s="14">
+        <v>0.95</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G213" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" s="10"/>
       <c r="I213" s="10"/>
       <c r="J213" s="10"/>
-      <c r="K213" s="10" t="s">
-        <v>285</v>
+      <c r="K213" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="L213" s="10" t="s">
-        <v>287</v>
+        <v>170</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -10829,7 +10845,7 @@
         <v>56</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C214" s="9" t="s">
         <v>1037</v>
@@ -10838,7 +10854,7 @@
         <v>1028</v>
       </c>
       <c r="E214" s="12">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="F214" s="11" t="s">
         <v>57</v>
@@ -10850,10 +10866,10 @@
       <c r="I214" s="10"/>
       <c r="J214" s="10"/>
       <c r="K214" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L214" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -10861,7 +10877,7 @@
         <v>56</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>1037</v>
@@ -10870,10 +10886,10 @@
         <v>1028</v>
       </c>
       <c r="E215" s="12">
-        <v>10</v>
+        <v>-180</v>
       </c>
       <c r="F215" s="11" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G215" s="11" t="b">
         <v>0</v>
@@ -10882,10 +10898,10 @@
       <c r="I215" s="10"/>
       <c r="J215" s="10"/>
       <c r="K215" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L215" s="10" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -10893,7 +10909,7 @@
         <v>56</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C216" s="9" t="s">
         <v>1037</v>
@@ -10902,7 +10918,7 @@
         <v>1028</v>
       </c>
       <c r="E216" s="12">
-        <v>0.75</v>
+        <v>10</v>
       </c>
       <c r="F216" s="11" t="s">
         <v>22</v>
@@ -10914,10 +10930,10 @@
       <c r="I216" s="10"/>
       <c r="J216" s="10"/>
       <c r="K216" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L216" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -10925,16 +10941,16 @@
         <v>56</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>999</v>
+        <v>276</v>
       </c>
       <c r="C217" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E217" s="14">
-        <v>-1</v>
+        <v>1028</v>
+      </c>
+      <c r="E217" s="12">
+        <v>0.75</v>
       </c>
       <c r="F217" s="11" t="s">
         <v>22</v>
@@ -10945,11 +10961,11 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
       <c r="J217" s="10"/>
-      <c r="K217" s="9" t="s">
-        <v>999</v>
-      </c>
-      <c r="L217" s="9" t="s">
-        <v>999</v>
+      <c r="K217" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="L217" s="10" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -10957,37 +10973,31 @@
         <v>56</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E218" s="14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F218" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G218" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I218" s="10" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J218" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="K218" s="10" t="s">
-        <v>1001</v>
-      </c>
-      <c r="L218" s="10" t="s">
-        <v>1003</v>
+        <v>0</v>
+      </c>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="10"/>
+      <c r="K218" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="L218" s="9" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -10995,33 +11005,37 @@
         <v>56</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C219" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E219" s="14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F219" s="11" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="G219" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H219" s="10"/>
-      <c r="I219" s="10"/>
+      <c r="H219" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I219" s="10" t="s">
+        <v>1006</v>
+      </c>
       <c r="J219" s="10" t="s">
         <v>857</v>
       </c>
       <c r="K219" s="10" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="L219" s="10" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -11029,29 +11043,33 @@
         <v>56</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>34</v>
+        <v>1005</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E220" s="14">
-        <v>0</v>
-      </c>
-      <c r="F220" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F220" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="G220" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220" s="10"/>
       <c r="I220" s="10"/>
-      <c r="J220" s="10"/>
-      <c r="K220" s="9" t="s">
-        <v>34</v>
+      <c r="J220" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="K220" s="10" t="s">
+        <v>1004</v>
       </c>
       <c r="L220" s="10" t="s">
-        <v>27</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -11059,31 +11077,29 @@
         <v>56</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C221" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E221" s="14">
-        <v>12.2</v>
-      </c>
-      <c r="F221" s="11" t="s">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F221" s="11"/>
       <c r="G221" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221" s="10"/>
       <c r="I221" s="10"/>
       <c r="J221" s="10"/>
       <c r="K221" s="9" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="L221" s="10" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -11091,7 +11107,7 @@
         <v>56</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C222" s="9" t="s">
         <v>1037</v>
@@ -11100,7 +11116,7 @@
         <v>1028</v>
       </c>
       <c r="E222" s="14">
-        <v>1000</v>
+        <v>12.2</v>
       </c>
       <c r="F222" s="11" t="s">
         <v>24</v>
@@ -11112,10 +11128,10 @@
       <c r="I222" s="10"/>
       <c r="J222" s="10"/>
       <c r="K222" s="9" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="L222" s="10" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -11123,7 +11139,7 @@
         <v>56</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>1037</v>
@@ -11132,7 +11148,7 @@
         <v>1028</v>
       </c>
       <c r="E223" s="14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F223" s="11" t="s">
         <v>24</v>
@@ -11144,10 +11160,10 @@
       <c r="I223" s="10"/>
       <c r="J223" s="10"/>
       <c r="K223" s="9" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L223" s="10" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -11155,7 +11171,7 @@
         <v>56</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C224" s="9" t="s">
         <v>1037</v>
@@ -11164,7 +11180,7 @@
         <v>1028</v>
       </c>
       <c r="E224" s="14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F224" s="11" t="s">
         <v>24</v>
@@ -11176,10 +11192,10 @@
       <c r="I224" s="10"/>
       <c r="J224" s="10"/>
       <c r="K224" s="9" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="L224" s="10" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -11187,7 +11203,7 @@
         <v>56</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C225" s="9" t="s">
         <v>1037</v>
@@ -11196,7 +11212,7 @@
         <v>1028</v>
       </c>
       <c r="E225" s="14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F225" s="11" t="s">
         <v>24</v>
@@ -11208,10 +11224,10 @@
       <c r="I225" s="10"/>
       <c r="J225" s="10"/>
       <c r="K225" s="9" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L225" s="10" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -11219,10 +11235,10 @@
         <v>56</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>1045</v>
+        <v>40</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>1028</v>
@@ -11231,19 +11247,19 @@
         <v>0</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="G226" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" s="10"/>
       <c r="I226" s="10"/>
       <c r="J226" s="10"/>
-      <c r="K226" s="10" t="s">
-        <v>812</v>
+      <c r="K226" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="L226" s="10" t="s">
-        <v>813</v>
+        <v>125</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -11251,7 +11267,7 @@
         <v>56</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>796</v>
+        <v>1045</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>1038</v>
@@ -11263,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="F227" s="11" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="G227" s="11" t="b">
         <v>0</v>
@@ -11272,10 +11288,10 @@
       <c r="I227" s="10"/>
       <c r="J227" s="10"/>
       <c r="K227" s="10" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="L227" s="10" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -11283,7 +11299,7 @@
         <v>56</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>1038</v>
@@ -11304,10 +11320,10 @@
       <c r="I228" s="10"/>
       <c r="J228" s="10"/>
       <c r="K228" s="10" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="L228" s="10" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -11315,7 +11331,7 @@
         <v>56</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>1038</v>
@@ -11336,10 +11352,10 @@
       <c r="I229" s="10"/>
       <c r="J229" s="10"/>
       <c r="K229" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L229" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -11347,7 +11363,7 @@
         <v>56</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>1038</v>
@@ -11368,10 +11384,10 @@
       <c r="I230" s="10"/>
       <c r="J230" s="10"/>
       <c r="K230" s="10" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="L230" s="10" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -11379,7 +11395,7 @@
         <v>56</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C231" s="9" t="s">
         <v>1038</v>
@@ -11400,10 +11416,10 @@
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
       <c r="K231" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="L231" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -11411,7 +11427,7 @@
         <v>56</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C232" s="9" t="s">
         <v>1038</v>
@@ -11432,10 +11448,10 @@
       <c r="I232" s="10"/>
       <c r="J232" s="10"/>
       <c r="K232" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L232" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -11443,7 +11459,7 @@
         <v>56</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>97</v>
+        <v>798</v>
       </c>
       <c r="C233" s="9" t="s">
         <v>1038</v>
@@ -11452,10 +11468,10 @@
         <v>1028</v>
       </c>
       <c r="E233" s="14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G233" s="11" t="b">
         <v>0</v>
@@ -11463,11 +11479,11 @@
       <c r="H233" s="10"/>
       <c r="I233" s="10"/>
       <c r="J233" s="10"/>
-      <c r="K233" s="9" t="s">
-        <v>164</v>
+      <c r="K233" s="10" t="s">
+        <v>804</v>
       </c>
       <c r="L233" s="10" t="s">
-        <v>98</v>
+        <v>804</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -11475,7 +11491,7 @@
         <v>56</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>790</v>
+        <v>97</v>
       </c>
       <c r="C234" s="9" t="s">
         <v>1038</v>
@@ -11484,10 +11500,10 @@
         <v>1028</v>
       </c>
       <c r="E234" s="14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="G234" s="11" t="b">
         <v>0</v>
@@ -11495,11 +11511,11 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
       <c r="J234" s="10"/>
-      <c r="K234" s="10" t="s">
-        <v>793</v>
+      <c r="K234" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="L234" s="10" t="s">
-        <v>794</v>
+        <v>98</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -11507,7 +11523,7 @@
         <v>56</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C235" s="9" t="s">
         <v>1038</v>
@@ -11528,10 +11544,10 @@
       <c r="I235" s="10"/>
       <c r="J235" s="10"/>
       <c r="K235" s="10" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="L235" s="10" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -11539,7 +11555,7 @@
         <v>56</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="C236" s="9" t="s">
         <v>1038</v>
@@ -11551,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G236" s="11" t="b">
         <v>0</v>
@@ -11560,10 +11576,10 @@
       <c r="I236" s="10"/>
       <c r="J236" s="10"/>
       <c r="K236" s="10" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="L236" s="10" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -11571,7 +11587,7 @@
         <v>56</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>55</v>
+        <v>807</v>
       </c>
       <c r="C237" s="9" t="s">
         <v>1038</v>
@@ -11579,11 +11595,11 @@
       <c r="D237" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="E237" s="12">
+      <c r="E237" s="14">
         <v>0</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G237" s="11" t="b">
         <v>0</v>
@@ -11591,11 +11607,11 @@
       <c r="H237" s="10"/>
       <c r="I237" s="10"/>
       <c r="J237" s="10"/>
-      <c r="K237" s="9" t="s">
-        <v>251</v>
+      <c r="K237" s="10" t="s">
+        <v>808</v>
       </c>
       <c r="L237" s="10" t="s">
-        <v>250</v>
+        <v>809</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -11603,7 +11619,7 @@
         <v>56</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>810</v>
+        <v>55</v>
       </c>
       <c r="C238" s="9" t="s">
         <v>1038</v>
@@ -11611,11 +11627,11 @@
       <c r="D238" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="E238" s="14">
+      <c r="E238" s="12">
         <v>0</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G238" s="11" t="b">
         <v>0</v>
@@ -11623,28 +11639,28 @@
       <c r="H238" s="10"/>
       <c r="I238" s="10"/>
       <c r="J238" s="10"/>
-      <c r="K238" s="10" t="s">
-        <v>811</v>
+      <c r="K238" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="L238" s="10" t="s">
-        <v>864</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>586</v>
+        <v>810</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E239" s="12" t="s">
-        <v>405</v>
+        <v>1028</v>
+      </c>
+      <c r="E239" s="14">
+        <v>0</v>
       </c>
       <c r="F239" s="11" t="s">
         <v>22</v>
@@ -11656,10 +11672,10 @@
       <c r="I239" s="10"/>
       <c r="J239" s="10"/>
       <c r="K239" s="10" t="s">
-        <v>588</v>
+        <v>811</v>
       </c>
       <c r="L239" s="10" t="s">
-        <v>588</v>
+        <v>864</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -11667,16 +11683,20 @@
         <v>70</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>218</v>
+        <v>586</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E240" s="12"/>
-      <c r="F240" s="11"/>
+        <v>1027</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G240" s="11" t="b">
         <v>0</v>
       </c>
@@ -11684,10 +11704,10 @@
       <c r="I240" s="10"/>
       <c r="J240" s="10"/>
       <c r="K240" s="10" t="s">
-        <v>218</v>
+        <v>588</v>
       </c>
       <c r="L240" s="10" t="s">
-        <v>219</v>
+        <v>588</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -11695,20 +11715,16 @@
         <v>70</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>565</v>
+        <v>218</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E241" s="12">
-        <v>0</v>
-      </c>
-      <c r="F241" s="11" t="s">
-        <v>57</v>
-      </c>
+        <v>1030</v>
+      </c>
+      <c r="E241" s="12"/>
+      <c r="F241" s="11"/>
       <c r="G241" s="11" t="b">
         <v>0</v>
       </c>
@@ -11716,10 +11732,10 @@
       <c r="I241" s="10"/>
       <c r="J241" s="10"/>
       <c r="K241" s="10" t="s">
-        <v>570</v>
+        <v>218</v>
       </c>
       <c r="L241" s="10" t="s">
-        <v>570</v>
+        <v>219</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -11727,7 +11743,7 @@
         <v>70</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>1037</v>
@@ -11748,10 +11764,10 @@
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
       <c r="K242" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L242" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -11759,19 +11775,19 @@
         <v>70</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E243" s="12" t="b">
+        <v>1028</v>
+      </c>
+      <c r="E243" s="12">
         <v>0</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G243" s="11" t="b">
         <v>0</v>
@@ -11780,10 +11796,10 @@
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
       <c r="K243" s="10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L243" s="10" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -11791,16 +11807,20 @@
         <v>70</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>216</v>
+        <v>567</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E244" s="12"/>
-      <c r="F244" s="11"/>
+        <v>1029</v>
+      </c>
+      <c r="E244" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G244" s="11" t="b">
         <v>0</v>
       </c>
@@ -11808,10 +11828,10 @@
       <c r="I244" s="10"/>
       <c r="J244" s="10"/>
       <c r="K244" s="10" t="s">
-        <v>216</v>
+        <v>569</v>
       </c>
       <c r="L244" s="10" t="s">
-        <v>217</v>
+        <v>568</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -11819,33 +11839,27 @@
         <v>70</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C245" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E245" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F245" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>1030</v>
+      </c>
+      <c r="E245" s="12"/>
+      <c r="F245" s="11"/>
       <c r="G245" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H245" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="H245" s="10"/>
       <c r="I245" s="10"/>
       <c r="J245" s="10"/>
       <c r="K245" s="10" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L245" s="10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -11853,7 +11867,7 @@
         <v>70</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C246" s="9" t="s">
         <v>1037</v>
@@ -11876,10 +11890,10 @@
       <c r="I246" s="10"/>
       <c r="J246" s="10"/>
       <c r="K246" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L246" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -11887,7 +11901,7 @@
         <v>70</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C247" s="9" t="s">
         <v>1037</v>
@@ -11896,7 +11910,7 @@
         <v>1029</v>
       </c>
       <c r="E247" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247" s="11" t="s">
         <v>22</v>
@@ -11910,10 +11924,10 @@
       <c r="I247" s="10"/>
       <c r="J247" s="10"/>
       <c r="K247" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L247" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -11921,7 +11935,7 @@
         <v>70</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>1100</v>
+        <v>201</v>
       </c>
       <c r="C248" s="9" t="s">
         <v>1037</v>
@@ -11930,13 +11944,13 @@
         <v>1029</v>
       </c>
       <c r="E248" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G248" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H248" s="10" t="s">
         <v>204</v>
@@ -11944,10 +11958,10 @@
       <c r="I248" s="10"/>
       <c r="J248" s="10"/>
       <c r="K248" s="10" t="s">
-        <v>1101</v>
+        <v>205</v>
       </c>
       <c r="L248" s="10" t="s">
-        <v>1102</v>
+        <v>206</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -11955,31 +11969,33 @@
         <v>70</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>969</v>
+        <v>1100</v>
       </c>
       <c r="C249" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E249" s="12">
-        <v>45</v>
+        <v>1029</v>
+      </c>
+      <c r="E249" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>968</v>
+        <v>22</v>
       </c>
       <c r="G249" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H249" s="10"/>
+      <c r="H249" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="I249" s="10"/>
       <c r="J249" s="10"/>
       <c r="K249" s="10" t="s">
-        <v>961</v>
+        <v>1101</v>
       </c>
       <c r="L249" s="10" t="s">
-        <v>965</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -11987,7 +12003,7 @@
         <v>70</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C250" s="9" t="s">
         <v>1037</v>
@@ -11996,10 +12012,10 @@
         <v>1028</v>
       </c>
       <c r="E250" s="12">
-        <v>1.3</v>
+        <v>45</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>22</v>
+        <v>968</v>
       </c>
       <c r="G250" s="11" t="b">
         <v>1</v>
@@ -12008,10 +12024,10 @@
       <c r="I250" s="10"/>
       <c r="J250" s="10"/>
       <c r="K250" s="10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L250" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -12019,7 +12035,7 @@
         <v>70</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>184</v>
+        <v>970</v>
       </c>
       <c r="C251" s="9" t="s">
         <v>1037</v>
@@ -12028,10 +12044,10 @@
         <v>1028</v>
       </c>
       <c r="E251" s="12">
-        <v>2000</v>
+        <v>1.3</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G251" s="11" t="b">
         <v>1</v>
@@ -12040,10 +12056,10 @@
       <c r="I251" s="10"/>
       <c r="J251" s="10"/>
       <c r="K251" s="10" t="s">
-        <v>186</v>
+        <v>962</v>
       </c>
       <c r="L251" s="10" t="s">
-        <v>188</v>
+        <v>966</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -12051,7 +12067,7 @@
         <v>70</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C252" s="9" t="s">
         <v>1037</v>
@@ -12060,10 +12076,10 @@
         <v>1028</v>
       </c>
       <c r="E252" s="12">
-        <v>9.5</v>
+        <v>2000</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G252" s="11" t="b">
         <v>1</v>
@@ -12072,10 +12088,10 @@
       <c r="I252" s="10"/>
       <c r="J252" s="10"/>
       <c r="K252" s="10" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="L252" s="10" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -12083,7 +12099,7 @@
         <v>70</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C253" s="9" t="s">
         <v>1037</v>
@@ -12092,10 +12108,10 @@
         <v>1028</v>
       </c>
       <c r="E253" s="12">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="F253" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G253" s="11" t="b">
         <v>1</v>
@@ -12104,10 +12120,10 @@
       <c r="I253" s="10"/>
       <c r="J253" s="10"/>
       <c r="K253" s="10" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="L253" s="10" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -12115,7 +12131,7 @@
         <v>70</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C254" s="9" t="s">
         <v>1037</v>
@@ -12124,10 +12140,10 @@
         <v>1028</v>
       </c>
       <c r="E254" s="12">
-        <v>0.75</v>
+        <v>100</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G254" s="11" t="b">
         <v>1</v>
@@ -12136,10 +12152,10 @@
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="10" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="L254" s="10" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -12147,7 +12163,7 @@
         <v>70</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>1089</v>
+        <v>199</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>1037</v>
@@ -12156,10 +12172,10 @@
         <v>1028</v>
       </c>
       <c r="E255" s="12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F255" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G255" s="11" t="b">
         <v>1</v>
@@ -12168,10 +12184,10 @@
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
       <c r="K255" s="10" t="s">
-        <v>1091</v>
+        <v>200</v>
       </c>
       <c r="L255" s="10" t="s">
-        <v>1093</v>
+        <v>63</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -12179,7 +12195,7 @@
         <v>70</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C256" s="9" t="s">
         <v>1037</v>
@@ -12200,10 +12216,10 @@
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
       <c r="K256" s="10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="L256" s="10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -12211,10 +12227,10 @@
         <v>70</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>971</v>
+        <v>1090</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>1028</v>
@@ -12223,19 +12239,19 @@
         <v>0</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>968</v>
+        <v>24</v>
       </c>
       <c r="G257" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
       <c r="J257" s="10"/>
       <c r="K257" s="10" t="s">
-        <v>963</v>
+        <v>1092</v>
       </c>
       <c r="L257" s="10" t="s">
-        <v>972</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -12243,7 +12259,7 @@
         <v>70</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>1051</v>
+        <v>971</v>
       </c>
       <c r="C258" s="9" t="s">
         <v>1038</v>
@@ -12264,10 +12280,10 @@
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
       <c r="K258" s="10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L258" s="10" t="s">
-        <v>1052</v>
+        <v>972</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -12275,7 +12291,7 @@
         <v>70</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="C259" s="9" t="s">
         <v>1038</v>
@@ -12287,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="F259" s="11" t="s">
-        <v>24</v>
+        <v>968</v>
       </c>
       <c r="G259" s="11" t="b">
         <v>0</v>
@@ -12296,10 +12312,10 @@
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
       <c r="K259" s="10" t="s">
-        <v>1062</v>
+        <v>964</v>
       </c>
       <c r="L259" s="10" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -12307,7 +12323,7 @@
         <v>70</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>1038</v>
@@ -12328,46 +12344,42 @@
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
       <c r="K260" s="10" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="L260" s="10" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>936</v>
+        <v>70</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>984</v>
+        <v>1059</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E261" s="12">
-        <v>1</v>
-      </c>
-      <c r="F261" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="G261" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I261" s="10" t="s">
-        <v>995</v>
-      </c>
-      <c r="J261" s="10" t="s">
-        <v>857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" s="10"/>
+      <c r="I261" s="10"/>
+      <c r="J261" s="10"/>
       <c r="K261" s="10" t="s">
-        <v>985</v>
+        <v>1061</v>
       </c>
       <c r="L261" s="10" t="s">
-        <v>985</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -12375,7 +12387,7 @@
         <v>936</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>586</v>
+        <v>984</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>1037</v>
@@ -12383,57 +12395,61 @@
       <c r="D262" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="E262" s="12" t="s">
-        <v>994</v>
+      <c r="E262" s="12">
+        <v>1</v>
       </c>
       <c r="F262" s="11"/>
       <c r="G262" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H262" s="10"/>
-      <c r="I262" s="10"/>
-      <c r="J262" s="10"/>
-      <c r="K262" s="10"/>
-      <c r="L262" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H262" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I262" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="J262" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="K262" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="L262" s="10" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>936</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>939</v>
+        <v>586</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E263" s="12">
-        <v>1E-4</v>
-      </c>
-      <c r="F263" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>1027</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="F263" s="11"/>
       <c r="G263" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
       <c r="J263" s="10"/>
-      <c r="K263" s="10" t="s">
-        <v>947</v>
-      </c>
-      <c r="L263" s="10" t="s">
-        <v>948</v>
-      </c>
+      <c r="K263" s="10"/>
+      <c r="L263" s="10"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>936</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>1037</v>
@@ -12442,7 +12458,7 @@
         <v>1028</v>
       </c>
       <c r="E264" s="12">
-        <v>0.35</v>
+        <v>1E-4</v>
       </c>
       <c r="F264" s="11" t="s">
         <v>22</v>
@@ -12452,14 +12468,12 @@
       </c>
       <c r="H264" s="10"/>
       <c r="I264" s="10"/>
-      <c r="J264" s="10" t="s">
-        <v>857</v>
-      </c>
+      <c r="J264" s="10"/>
       <c r="K264" s="10" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="L264" s="10" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -12467,22 +12481,22 @@
         <v>936</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C265" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E265" s="12">
-        <v>20</v>
+        <v>0.35</v>
       </c>
       <c r="F265" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G265" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265" s="10"/>
       <c r="I265" s="10"/>
@@ -12490,10 +12504,10 @@
         <v>857</v>
       </c>
       <c r="K265" s="10" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="L265" s="10" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -12501,7 +12515,7 @@
         <v>936</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>1037</v>
@@ -12510,7 +12524,7 @@
         <v>1026</v>
       </c>
       <c r="E266" s="12">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F266" s="11" t="s">
         <v>22</v>
@@ -12524,10 +12538,10 @@
         <v>857</v>
       </c>
       <c r="K266" s="10" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="L266" s="10" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -12535,7 +12549,7 @@
         <v>936</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>1037</v>
@@ -12544,22 +12558,24 @@
         <v>1026</v>
       </c>
       <c r="E267" s="12">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F267" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G267" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267" s="10"/>
       <c r="I267" s="10"/>
-      <c r="J267" s="10"/>
+      <c r="J267" s="10" t="s">
+        <v>857</v>
+      </c>
       <c r="K267" s="10" t="s">
-        <v>982</v>
+        <v>951</v>
       </c>
       <c r="L267" s="10" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -12567,16 +12583,16 @@
         <v>936</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E268" s="12">
-        <v>0.06</v>
+        <v>200</v>
       </c>
       <c r="F268" s="11" t="s">
         <v>22</v>
@@ -12588,10 +12604,10 @@
       <c r="I268" s="10"/>
       <c r="J268" s="10"/>
       <c r="K268" s="10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L268" s="10" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -12599,7 +12615,7 @@
         <v>936</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C269" s="9" t="s">
         <v>1037</v>
@@ -12608,7 +12624,7 @@
         <v>1028</v>
       </c>
       <c r="E269" s="12">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="F269" s="11" t="s">
         <v>22</v>
@@ -12620,10 +12636,10 @@
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
       <c r="K269" s="10" t="s">
-        <v>957</v>
+        <v>983</v>
       </c>
       <c r="L269" s="10" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -12631,29 +12647,31 @@
         <v>936</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="E270" s="12"/>
+      <c r="E270" s="12">
+        <v>2</v>
+      </c>
       <c r="F270" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G270" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270" s="10"/>
       <c r="I270" s="10"/>
       <c r="J270" s="10"/>
       <c r="K270" s="10" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="L270" s="10" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -12661,7 +12679,7 @@
         <v>936</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
       <c r="C271" s="9" t="s">
         <v>1038</v>
@@ -12678,32 +12696,28 @@
       </c>
       <c r="H271" s="10"/>
       <c r="I271" s="10"/>
-      <c r="J271" s="10" t="s">
-        <v>857</v>
-      </c>
+      <c r="J271" s="10"/>
       <c r="K271" s="10" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="L271" s="10" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
-        <v>544</v>
+        <v>936</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>586</v>
+        <v>942</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E272" s="12" t="s">
-        <v>595</v>
-      </c>
+        <v>1028</v>
+      </c>
+      <c r="E272" s="12"/>
       <c r="F272" s="11" t="s">
         <v>22</v>
       </c>
@@ -12712,12 +12726,14 @@
       </c>
       <c r="H272" s="10"/>
       <c r="I272" s="10"/>
-      <c r="J272" s="10"/>
+      <c r="J272" s="10" t="s">
+        <v>857</v>
+      </c>
       <c r="K272" s="10" t="s">
-        <v>588</v>
+        <v>953</v>
       </c>
       <c r="L272" s="10" t="s">
-        <v>588</v>
+        <v>954</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -12725,7 +12741,7 @@
         <v>544</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>1037</v>
@@ -12734,9 +12750,11 @@
         <v>1027</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F273" s="11"/>
+        <v>595</v>
+      </c>
+      <c r="F273" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G273" s="11" t="b">
         <v>0</v>
       </c>
@@ -12744,10 +12762,10 @@
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
       <c r="K273" s="10" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
       <c r="L273" s="10" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -12755,7 +12773,7 @@
         <v>544</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>1037</v>
@@ -12764,7 +12782,7 @@
         <v>1027</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>549</v>
+        <v>1098</v>
       </c>
       <c r="F274" s="11"/>
       <c r="G274" s="11" t="b">
@@ -12774,10 +12792,10 @@
       <c r="I274" s="10"/>
       <c r="J274" s="10"/>
       <c r="K274" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L274" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -12785,7 +12803,7 @@
         <v>544</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>1037</v>
@@ -12793,25 +12811,21 @@
       <c r="D275" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="E275" s="12">
-        <v>0</v>
+      <c r="E275" s="12" t="s">
+        <v>549</v>
       </c>
       <c r="F275" s="11"/>
       <c r="G275" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H275" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I275" s="10" t="s">
-        <v>556</v>
-      </c>
+      <c r="H275" s="10"/>
+      <c r="I275" s="10"/>
       <c r="J275" s="10"/>
       <c r="K275" s="10" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L275" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -12819,31 +12833,33 @@
         <v>544</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E276" s="12" t="b">
-        <v>1</v>
+        <v>1027</v>
+      </c>
+      <c r="E276" s="12">
+        <v>0</v>
       </c>
       <c r="F276" s="11"/>
       <c r="G276" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H276" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="I276" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="I276" s="10" t="s">
+        <v>556</v>
+      </c>
       <c r="J276" s="10"/>
       <c r="K276" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L276" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
@@ -12851,7 +12867,7 @@
         <v>544</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>918</v>
+        <v>550</v>
       </c>
       <c r="C277" s="9" t="s">
         <v>1037</v>
@@ -12860,11 +12876,9 @@
         <v>1029</v>
       </c>
       <c r="E277" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F277" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F277" s="11"/>
       <c r="G277" s="11" t="b">
         <v>0</v>
       </c>
@@ -12874,10 +12888,10 @@
       <c r="I277" s="10"/>
       <c r="J277" s="10"/>
       <c r="K277" s="10" t="s">
-        <v>919</v>
+        <v>559</v>
       </c>
       <c r="L277" s="10" t="s">
-        <v>919</v>
+        <v>560</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -12885,7 +12899,7 @@
         <v>544</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>1037</v>
@@ -12908,10 +12922,10 @@
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
       <c r="K278" s="10" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="L278" s="10" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -12919,7 +12933,7 @@
         <v>544</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C279" s="9" t="s">
         <v>1037</v>
@@ -12942,10 +12956,10 @@
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
       <c r="K279" s="10" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="L279" s="10" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
@@ -12953,7 +12967,7 @@
         <v>544</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>872</v>
+        <v>920</v>
       </c>
       <c r="C280" s="9" t="s">
         <v>1037</v>
@@ -12976,10 +12990,10 @@
       <c r="I280" s="10"/>
       <c r="J280" s="10"/>
       <c r="K280" s="10" t="s">
-        <v>873</v>
+        <v>921</v>
       </c>
       <c r="L280" s="10" t="s">
-        <v>874</v>
+        <v>921</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -12987,7 +13001,7 @@
         <v>544</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>1037</v>
@@ -13010,10 +13024,10 @@
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
       <c r="K281" s="10" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="L281" s="10" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -13021,7 +13035,7 @@
         <v>544</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>1103</v>
+        <v>875</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>1037</v>
@@ -13044,10 +13058,10 @@
       <c r="I282" s="10"/>
       <c r="J282" s="10"/>
       <c r="K282" s="10" t="s">
-        <v>1108</v>
+        <v>876</v>
       </c>
       <c r="L282" s="10" t="s">
-        <v>919</v>
+        <v>877</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -13055,7 +13069,7 @@
         <v>544</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>1037</v>
@@ -13078,10 +13092,10 @@
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
       <c r="K283" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="L283" s="10" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -13089,7 +13103,7 @@
         <v>544</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>1037</v>
@@ -13112,10 +13126,10 @@
       <c r="I284" s="10"/>
       <c r="J284" s="10"/>
       <c r="K284" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="L284" s="10" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -13123,7 +13137,7 @@
         <v>544</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>1037</v>
@@ -13146,10 +13160,10 @@
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
       <c r="K285" s="10" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="L285" s="10" t="s">
-        <v>874</v>
+        <v>921</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -13157,7 +13171,7 @@
         <v>544</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>1037</v>
@@ -13180,10 +13194,10 @@
       <c r="I286" s="10"/>
       <c r="J286" s="10"/>
       <c r="K286" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="L286" s="10" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -13191,27 +13205,33 @@
         <v>544</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>547</v>
+        <v>1107</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E287" s="12"/>
-      <c r="F287" s="11"/>
+        <v>1029</v>
+      </c>
+      <c r="E287" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F287" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G287" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H287" s="10"/>
+      <c r="H287" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
       <c r="K287" s="10" t="s">
-        <v>555</v>
+        <v>1112</v>
       </c>
       <c r="L287" s="10" t="s">
-        <v>555</v>
+        <v>877</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -13219,7 +13239,7 @@
         <v>544</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>761</v>
+        <v>547</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>1037</v>
@@ -13228,9 +13248,7 @@
         <v>1027</v>
       </c>
       <c r="E288" s="12"/>
-      <c r="F288" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="F288" s="11"/>
       <c r="G288" s="11" t="b">
         <v>0</v>
       </c>
@@ -13238,10 +13256,10 @@
       <c r="I288" s="10"/>
       <c r="J288" s="10"/>
       <c r="K288" s="10" t="s">
-        <v>762</v>
+        <v>555</v>
       </c>
       <c r="L288" s="10" t="s">
-        <v>762</v>
+        <v>555</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -13249,7 +13267,7 @@
         <v>544</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>1095</v>
+        <v>761</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>1037</v>
@@ -13257,35 +13275,29 @@
       <c r="D289" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="E289" s="12">
-        <v>0</v>
-      </c>
+      <c r="E289" s="12"/>
       <c r="F289" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G289" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H289" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I289" s="10" t="s">
-        <v>1096</v>
-      </c>
+      <c r="H289" s="10"/>
+      <c r="I289" s="10"/>
       <c r="J289" s="10"/>
       <c r="K289" s="10" t="s">
-        <v>1097</v>
+        <v>762</v>
       </c>
       <c r="L289" s="10" t="s">
-        <v>1097</v>
+        <v>762</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
-        <v>308</v>
+        <v>544</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>586</v>
+        <v>1095</v>
       </c>
       <c r="C290" s="9" t="s">
         <v>1037</v>
@@ -13293,8 +13305,8 @@
       <c r="D290" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="E290" s="12" t="s">
-        <v>592</v>
+      <c r="E290" s="12">
+        <v>0</v>
       </c>
       <c r="F290" s="11" t="s">
         <v>22</v>
@@ -13302,14 +13314,18 @@
       <c r="G290" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H290" s="10"/>
-      <c r="I290" s="10"/>
+      <c r="H290" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I290" s="10" t="s">
+        <v>1096</v>
+      </c>
       <c r="J290" s="10"/>
       <c r="K290" s="10" t="s">
-        <v>588</v>
+        <v>1097</v>
       </c>
       <c r="L290" s="10" t="s">
-        <v>588</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -13317,31 +13333,31 @@
         <v>308</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>312</v>
+        <v>586</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E291" s="12">
-        <v>0.41199999999999998</v>
+        <v>1027</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>592</v>
       </c>
       <c r="F291" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G291" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
       <c r="J291" s="10"/>
       <c r="K291" s="10" t="s">
-        <v>325</v>
+        <v>588</v>
       </c>
       <c r="L291" s="10" t="s">
-        <v>331</v>
+        <v>588</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -13349,7 +13365,7 @@
         <v>308</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>1037</v>
@@ -13358,10 +13374,10 @@
         <v>1028</v>
       </c>
       <c r="E292" s="12">
-        <v>10</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="G292" s="11" t="b">
         <v>1</v>
@@ -13370,10 +13386,10 @@
       <c r="I292" s="10"/>
       <c r="J292" s="10"/>
       <c r="K292" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L292" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -13381,7 +13397,7 @@
         <v>308</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>1037</v>
@@ -13390,10 +13406,10 @@
         <v>1028</v>
       </c>
       <c r="E293" s="12">
-        <v>0.87</v>
+        <v>10</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="G293" s="11" t="b">
         <v>1</v>
@@ -13402,10 +13418,10 @@
       <c r="I293" s="10"/>
       <c r="J293" s="10"/>
       <c r="K293" s="10" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L293" s="10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -13413,7 +13429,7 @@
         <v>308</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>1037</v>
@@ -13422,7 +13438,7 @@
         <v>1028</v>
       </c>
       <c r="E294" s="12">
-        <v>2.4</v>
+        <v>0.87</v>
       </c>
       <c r="F294" s="11" t="s">
         <v>22</v>
@@ -13434,10 +13450,10 @@
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
       <c r="K294" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L294" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -13445,31 +13461,31 @@
         <v>308</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>1028</v>
       </c>
       <c r="E295" s="12">
-        <v>115</v>
+        <v>2.4</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>321</v>
+        <v>22</v>
       </c>
       <c r="G295" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
       <c r="J295" s="10"/>
       <c r="K295" s="10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L295" s="10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -13477,7 +13493,7 @@
         <v>308</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C296" s="9" t="s">
         <v>1038</v>
@@ -13486,7 +13502,7 @@
         <v>1028</v>
       </c>
       <c r="E296" s="12">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F296" s="11" t="s">
         <v>321</v>
@@ -13498,42 +13514,42 @@
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
       <c r="K296" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L296" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>8</v>
+        <v>308</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>1028</v>
       </c>
       <c r="E297" s="12">
-        <v>0.94</v>
+        <v>100</v>
       </c>
       <c r="F297" s="11" t="s">
-        <v>22</v>
+        <v>321</v>
       </c>
       <c r="G297" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H297" s="10"/>
       <c r="I297" s="10"/>
       <c r="J297" s="10"/>
       <c r="K297" s="10" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="L297" s="10" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
@@ -13541,16 +13557,16 @@
         <v>8</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>924</v>
+        <v>291</v>
       </c>
       <c r="C298" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E298" s="12">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="F298" s="11" t="s">
         <v>22</v>
@@ -13558,18 +13574,14 @@
       <c r="G298" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H298" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I298" s="10" t="s">
-        <v>454</v>
-      </c>
+      <c r="H298" s="10"/>
+      <c r="I298" s="10"/>
       <c r="J298" s="10"/>
       <c r="K298" s="10" t="s">
-        <v>927</v>
+        <v>293</v>
       </c>
       <c r="L298" s="10" t="s">
-        <v>928</v>
+        <v>294</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -13577,31 +13589,35 @@
         <v>8</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C299" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E299" s="12">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G299" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H299" s="10"/>
-      <c r="I299" s="10"/>
+      <c r="H299" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I299" s="10" t="s">
+        <v>454</v>
+      </c>
       <c r="J299" s="10"/>
       <c r="K299" s="10" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="L299" s="10" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
@@ -13609,7 +13625,7 @@
         <v>8</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C300" s="9" t="s">
         <v>1037</v>
@@ -13630,10 +13646,10 @@
       <c r="I300" s="10"/>
       <c r="J300" s="10"/>
       <c r="K300" s="10" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="L300" s="10" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
@@ -13641,33 +13657,31 @@
         <v>8</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>453</v>
+        <v>926</v>
       </c>
       <c r="C301" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E301" s="12">
-        <v>0</v>
-      </c>
-      <c r="F301" s="11"/>
+        <v>180</v>
+      </c>
+      <c r="F301" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="G301" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H301" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I301" s="10" t="s">
-        <v>992</v>
-      </c>
+      <c r="H301" s="10"/>
+      <c r="I301" s="10"/>
       <c r="J301" s="10"/>
       <c r="K301" s="10" t="s">
-        <v>455</v>
+        <v>931</v>
       </c>
       <c r="L301" s="10" t="s">
-        <v>456</v>
+        <v>932</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -13675,31 +13689,33 @@
         <v>8</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>1057</v>
+        <v>453</v>
       </c>
       <c r="C302" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E302" s="14">
-        <v>0</v>
-      </c>
-      <c r="F302" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>1027</v>
+      </c>
+      <c r="E302" s="12">
+        <v>0</v>
+      </c>
+      <c r="F302" s="11"/>
       <c r="G302" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H302" s="10"/>
-      <c r="I302" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H302" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I302" s="10" t="s">
+        <v>992</v>
+      </c>
       <c r="J302" s="10"/>
       <c r="K302" s="10" t="s">
-        <v>1056</v>
+        <v>455</v>
       </c>
       <c r="L302" s="10" t="s">
-        <v>1056</v>
+        <v>456</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
@@ -13707,16 +13723,16 @@
         <v>8</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>586</v>
+        <v>1057</v>
       </c>
       <c r="C303" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E303" s="12" t="s">
-        <v>589</v>
+        <v>1058</v>
+      </c>
+      <c r="E303" s="14">
+        <v>0</v>
       </c>
       <c r="F303" s="11" t="s">
         <v>22</v>
@@ -13728,10 +13744,10 @@
       <c r="I303" s="10"/>
       <c r="J303" s="10"/>
       <c r="K303" s="10" t="s">
-        <v>588</v>
+        <v>1056</v>
       </c>
       <c r="L303" s="10" t="s">
-        <v>588</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
@@ -13739,18 +13755,20 @@
         <v>8</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>30</v>
+        <v>586</v>
       </c>
       <c r="C304" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E304" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F304" s="11"/>
+        <v>1027</v>
+      </c>
+      <c r="E304" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="F304" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G304" s="11" t="b">
         <v>0</v>
       </c>
@@ -13758,10 +13776,10 @@
       <c r="I304" s="10"/>
       <c r="J304" s="10"/>
       <c r="K304" s="10" t="s">
-        <v>345</v>
+        <v>588</v>
       </c>
       <c r="L304" s="10" t="s">
-        <v>345</v>
+        <v>588</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
@@ -13769,31 +13787,29 @@
         <v>8</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>933</v>
+        <v>30</v>
       </c>
       <c r="C305" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E305" s="12" t="b">
-        <v>1</v>
+        <v>1026</v>
+      </c>
+      <c r="E305" s="12">
+        <v>-1</v>
       </c>
       <c r="F305" s="11"/>
       <c r="G305" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H305" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="H305" s="10"/>
       <c r="I305" s="10"/>
       <c r="J305" s="10"/>
       <c r="K305" s="10" t="s">
-        <v>934</v>
+        <v>345</v>
       </c>
       <c r="L305" s="10" t="s">
-        <v>935</v>
+        <v>345</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -13801,7 +13817,7 @@
         <v>8</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>344</v>
+        <v>933</v>
       </c>
       <c r="C306" s="9" t="s">
         <v>1037</v>
@@ -13816,14 +13832,16 @@
       <c r="G306" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H306" s="10"/>
+      <c r="H306" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="I306" s="10"/>
       <c r="J306" s="10"/>
       <c r="K306" s="10" t="s">
-        <v>346</v>
+        <v>934</v>
       </c>
       <c r="L306" s="10" t="s">
-        <v>346</v>
+        <v>935</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
@@ -13831,7 +13849,7 @@
         <v>8</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>447</v>
+        <v>344</v>
       </c>
       <c r="C307" s="9" t="s">
         <v>1037</v>
@@ -13840,24 +13858,20 @@
         <v>1029</v>
       </c>
       <c r="E307" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F307" s="11"/>
       <c r="G307" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H307" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="H307" s="10"/>
       <c r="I307" s="10"/>
-      <c r="J307" s="10" t="s">
-        <v>857</v>
-      </c>
+      <c r="J307" s="10"/>
       <c r="K307" s="10" t="s">
-        <v>448</v>
+        <v>346</v>
       </c>
       <c r="L307" s="10" t="s">
-        <v>449</v>
+        <v>346</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
@@ -13865,7 +13879,7 @@
         <v>8</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C308" s="9" t="s">
         <v>1037</v>
@@ -13878,7 +13892,7 @@
       </c>
       <c r="F308" s="11"/>
       <c r="G308" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H308" s="10" t="s">
         <v>204</v>
@@ -13888,10 +13902,10 @@
         <v>857</v>
       </c>
       <c r="K308" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L308" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
@@ -13899,33 +13913,33 @@
         <v>8</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C309" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E309" s="12">
-        <v>12</v>
-      </c>
-      <c r="F309" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>1029</v>
+      </c>
+      <c r="E309" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F309" s="11"/>
       <c r="G309" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H309" s="10"/>
+      <c r="H309" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="I309" s="10"/>
       <c r="J309" s="10" t="s">
         <v>857</v>
       </c>
       <c r="K309" s="10" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="L309" s="10" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -13933,19 +13947,19 @@
         <v>8</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="C310" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E310" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F310" s="11" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G310" s="11" t="b">
         <v>1</v>
@@ -13956,10 +13970,10 @@
         <v>857</v>
       </c>
       <c r="K310" s="10" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="L310" s="10" t="s">
-        <v>862</v>
+        <v>446</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -13967,7 +13981,7 @@
         <v>8</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>292</v>
+        <v>468</v>
       </c>
       <c r="C311" s="9" t="s">
         <v>1037</v>
@@ -13976,22 +13990,24 @@
         <v>1028</v>
       </c>
       <c r="E311" s="12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F311" s="11" t="s">
-        <v>295</v>
+        <v>57</v>
       </c>
       <c r="G311" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H311" s="10"/>
       <c r="I311" s="10"/>
-      <c r="J311" s="10"/>
+      <c r="J311" s="10" t="s">
+        <v>857</v>
+      </c>
       <c r="K311" s="10" t="s">
-        <v>296</v>
+        <v>469</v>
       </c>
       <c r="L311" s="10" t="s">
-        <v>297</v>
+        <v>862</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
@@ -13999,7 +14015,7 @@
         <v>8</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="C312" s="9" t="s">
         <v>1037</v>
@@ -14008,10 +14024,10 @@
         <v>1028</v>
       </c>
       <c r="E312" s="12">
-        <v>10.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="F312" s="11" t="s">
-        <v>769</v>
+        <v>295</v>
       </c>
       <c r="G312" s="11" t="b">
         <v>1</v>
@@ -14020,10 +14036,10 @@
       <c r="I312" s="10"/>
       <c r="J312" s="10"/>
       <c r="K312" s="10" t="s">
-        <v>770</v>
+        <v>296</v>
       </c>
       <c r="L312" s="10" t="s">
-        <v>771</v>
+        <v>297</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
@@ -14031,7 +14047,7 @@
         <v>8</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>772</v>
+        <v>319</v>
       </c>
       <c r="C313" s="9" t="s">
         <v>1037</v>
@@ -14040,10 +14056,10 @@
         <v>1028</v>
       </c>
       <c r="E313" s="12">
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F313" s="11" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="G313" s="11" t="b">
         <v>1</v>
@@ -14052,10 +14068,10 @@
       <c r="I313" s="10"/>
       <c r="J313" s="10"/>
       <c r="K313" s="10" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="L313" s="10" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
@@ -14063,7 +14079,7 @@
         <v>8</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>15</v>
+        <v>772</v>
       </c>
       <c r="C314" s="9" t="s">
         <v>1037</v>
@@ -14075,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="F314" s="11" t="s">
-        <v>57</v>
+        <v>750</v>
       </c>
       <c r="G314" s="11" t="b">
         <v>1</v>
@@ -14083,11 +14099,11 @@
       <c r="H314" s="10"/>
       <c r="I314" s="10"/>
       <c r="J314" s="10"/>
-      <c r="K314" s="9" t="s">
-        <v>147</v>
+      <c r="K314" s="10" t="s">
+        <v>773</v>
       </c>
       <c r="L314" s="10" t="s">
-        <v>463</v>
+        <v>774</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
@@ -14095,7 +14111,7 @@
         <v>8</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>302</v>
+        <v>15</v>
       </c>
       <c r="C315" s="9" t="s">
         <v>1037</v>
@@ -14107,21 +14123,19 @@
         <v>0</v>
       </c>
       <c r="F315" s="11" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="G315" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H315" s="10"/>
       <c r="I315" s="10"/>
-      <c r="J315" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="K315" s="10" t="s">
-        <v>304</v>
+      <c r="J315" s="10"/>
+      <c r="K315" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="L315" s="10" t="s">
-        <v>305</v>
+        <v>463</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
@@ -14129,7 +14143,7 @@
         <v>8</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C316" s="9" t="s">
         <v>1037</v>
@@ -14138,7 +14152,7 @@
         <v>1028</v>
       </c>
       <c r="E316" s="12">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="F316" s="11" t="s">
         <v>24</v>
@@ -14152,10 +14166,10 @@
         <v>857</v>
       </c>
       <c r="K316" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L316" s="10" t="s">
-        <v>464</v>
+        <v>305</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
@@ -14163,7 +14177,7 @@
         <v>8</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="C317" s="9" t="s">
         <v>1037</v>
@@ -14172,7 +14186,7 @@
         <v>1028</v>
       </c>
       <c r="E317" s="12">
-        <v>17.649999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="F317" s="11" t="s">
         <v>24</v>
@@ -14182,12 +14196,14 @@
       </c>
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
-      <c r="J317" s="10"/>
-      <c r="K317" s="9" t="s">
-        <v>121</v>
+      <c r="J317" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="K317" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="L317" s="10" t="s">
-        <v>144</v>
+        <v>464</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
@@ -14195,7 +14211,7 @@
         <v>8</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>472</v>
+        <v>11</v>
       </c>
       <c r="C318" s="9" t="s">
         <v>1037</v>
@@ -14204,10 +14220,10 @@
         <v>1028</v>
       </c>
       <c r="E318" s="12">
-        <v>0</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="F318" s="11" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="G318" s="11" t="b">
         <v>1</v>
@@ -14216,10 +14232,10 @@
       <c r="I318" s="10"/>
       <c r="J318" s="10"/>
       <c r="K318" s="9" t="s">
-        <v>470</v>
+        <v>121</v>
       </c>
       <c r="L318" s="10" t="s">
-        <v>471</v>
+        <v>144</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
@@ -14227,7 +14243,7 @@
         <v>8</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>12</v>
+        <v>472</v>
       </c>
       <c r="C319" s="9" t="s">
         <v>1037</v>
@@ -14236,10 +14252,10 @@
         <v>1028</v>
       </c>
       <c r="E319" s="12">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="F319" s="11" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="G319" s="11" t="b">
         <v>1</v>
@@ -14248,10 +14264,10 @@
       <c r="I319" s="10"/>
       <c r="J319" s="10"/>
       <c r="K319" s="9" t="s">
-        <v>122</v>
+        <v>470</v>
       </c>
       <c r="L319" s="10" t="s">
-        <v>145</v>
+        <v>471</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
@@ -14259,29 +14275,31 @@
         <v>8</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="C320" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E320" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="F320" s="11"/>
+        <v>1028</v>
+      </c>
+      <c r="E320" s="12">
+        <v>21.6</v>
+      </c>
+      <c r="F320" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="G320" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
       <c r="J320" s="10"/>
-      <c r="K320" s="10" t="s">
-        <v>340</v>
+      <c r="K320" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="L320" s="10" t="s">
-        <v>340</v>
+        <v>145</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
@@ -14289,31 +14307,29 @@
         <v>8</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="C321" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E321" s="12">
-        <v>0</v>
-      </c>
-      <c r="F321" s="11" t="s">
-        <v>24</v>
-      </c>
+        <v>1027</v>
+      </c>
+      <c r="E321" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="F321" s="11"/>
       <c r="G321" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
       <c r="J321" s="10"/>
-      <c r="K321" s="9" t="s">
-        <v>148</v>
+      <c r="K321" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="L321" s="10" t="s">
-        <v>150</v>
+        <v>340</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
@@ -14321,7 +14337,7 @@
         <v>8</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C322" s="9" t="s">
         <v>1037</v>
@@ -14342,10 +14358,10 @@
       <c r="I322" s="10"/>
       <c r="J322" s="10"/>
       <c r="K322" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L322" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
@@ -14353,7 +14369,7 @@
         <v>8</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>306</v>
+        <v>17</v>
       </c>
       <c r="C323" s="9" t="s">
         <v>1037</v>
@@ -14374,10 +14390,10 @@
       <c r="I323" s="10"/>
       <c r="J323" s="10"/>
       <c r="K323" s="9" t="s">
-        <v>307</v>
+        <v>149</v>
       </c>
       <c r="L323" s="10" t="s">
-        <v>467</v>
+        <v>151</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
@@ -14385,35 +14401,31 @@
         <v>8</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="C324" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E324" s="12">
         <v>0</v>
       </c>
       <c r="F324" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G324" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H324" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I324" s="10" t="s">
-        <v>993</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H324" s="10"/>
+      <c r="I324" s="10"/>
       <c r="J324" s="10"/>
       <c r="K324" s="9" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="L324" s="10" t="s">
-        <v>152</v>
+        <v>467</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
@@ -14421,31 +14433,35 @@
         <v>8</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C325" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E325" s="12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F325" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G325" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" s="10"/>
-      <c r="I325" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H325" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I325" s="10" t="s">
+        <v>993</v>
+      </c>
       <c r="J325" s="10"/>
       <c r="K325" s="9" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="L325" s="10" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
@@ -14453,7 +14469,7 @@
         <v>8</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>458</v>
+        <v>10</v>
       </c>
       <c r="C326" s="9" t="s">
         <v>1037</v>
@@ -14462,24 +14478,22 @@
         <v>1028</v>
       </c>
       <c r="E326" s="12">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="F326" s="11" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="G326" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H326" s="10"/>
       <c r="I326" s="10"/>
-      <c r="J326" s="10" t="s">
-        <v>857</v>
-      </c>
+      <c r="J326" s="10"/>
       <c r="K326" s="9" t="s">
-        <v>461</v>
+        <v>120</v>
       </c>
       <c r="L326" s="10" t="s">
-        <v>462</v>
+        <v>143</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
@@ -14487,7 +14501,7 @@
         <v>8</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C327" s="9" t="s">
         <v>1037</v>
@@ -14496,7 +14510,7 @@
         <v>1028</v>
       </c>
       <c r="E327" s="12">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="F327" s="11" t="s">
         <v>57</v>
@@ -14510,10 +14524,10 @@
         <v>857</v>
       </c>
       <c r="K327" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L327" s="10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
@@ -14521,7 +14535,7 @@
         <v>8</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>763</v>
+        <v>457</v>
       </c>
       <c r="C328" s="9" t="s">
         <v>1037</v>
@@ -14530,22 +14544,24 @@
         <v>1028</v>
       </c>
       <c r="E328" s="12">
-        <v>30</v>
+        <v>-180</v>
       </c>
       <c r="F328" s="11" t="s">
-        <v>295</v>
+        <v>57</v>
       </c>
       <c r="G328" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H328" s="10"/>
       <c r="I328" s="10"/>
-      <c r="J328" s="10"/>
-      <c r="K328" s="10" t="s">
-        <v>764</v>
+      <c r="J328" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="K328" s="9" t="s">
+        <v>459</v>
       </c>
       <c r="L328" s="10" t="s">
-        <v>765</v>
+        <v>460</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
@@ -14553,31 +14569,31 @@
         <v>8</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C329" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E329" s="10" t="s">
-        <v>334</v>
+        <v>1028</v>
+      </c>
+      <c r="E329" s="12">
+        <v>30</v>
       </c>
       <c r="F329" s="11" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="G329" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H329" s="10"/>
       <c r="I329" s="10"/>
       <c r="J329" s="10"/>
       <c r="K329" s="10" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="L329" s="10" t="s">
-        <v>316</v>
+        <v>765</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
@@ -14585,7 +14601,7 @@
         <v>8</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>315</v>
+        <v>766</v>
       </c>
       <c r="C330" s="9" t="s">
         <v>1037</v>
@@ -14606,10 +14622,10 @@
       <c r="I330" s="10"/>
       <c r="J330" s="10"/>
       <c r="K330" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L330" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
@@ -14617,19 +14633,19 @@
         <v>8</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E331" s="12">
-        <v>0</v>
+        <v>1025</v>
+      </c>
+      <c r="E331" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="F331" s="11" t="s">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="G331" s="11" t="b">
         <v>0</v>
@@ -14638,10 +14654,10 @@
       <c r="I331" s="10"/>
       <c r="J331" s="10"/>
       <c r="K331" s="10" t="s">
-        <v>336</v>
+        <v>768</v>
       </c>
       <c r="L331" s="10" t="s">
-        <v>465</v>
+        <v>317</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
@@ -14649,7 +14665,7 @@
         <v>8</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>26</v>
+        <v>335</v>
       </c>
       <c r="C332" s="9" t="s">
         <v>1038</v>
@@ -14658,10 +14674,10 @@
         <v>1028</v>
       </c>
       <c r="E332" s="12">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F332" s="11" t="s">
-        <v>24</v>
+        <v>320</v>
       </c>
       <c r="G332" s="11" t="b">
         <v>0</v>
@@ -14669,11 +14685,11 @@
       <c r="H332" s="10"/>
       <c r="I332" s="10"/>
       <c r="J332" s="10"/>
-      <c r="K332" s="9" t="s">
-        <v>142</v>
+      <c r="K332" s="10" t="s">
+        <v>336</v>
       </c>
       <c r="L332" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
@@ -14681,7 +14697,7 @@
         <v>8</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>779</v>
+        <v>26</v>
       </c>
       <c r="C333" s="9" t="s">
         <v>1038</v>
@@ -14690,10 +14706,10 @@
         <v>1028</v>
       </c>
       <c r="E333" s="12">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F333" s="11" t="s">
-        <v>776</v>
+        <v>24</v>
       </c>
       <c r="G333" s="11" t="b">
         <v>0</v>
@@ -14701,11 +14717,11 @@
       <c r="H333" s="10"/>
       <c r="I333" s="10"/>
       <c r="J333" s="10"/>
-      <c r="K333" s="10" t="s">
-        <v>780</v>
+      <c r="K333" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="L333" s="10" t="s">
-        <v>781</v>
+        <v>466</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
@@ -14713,7 +14729,7 @@
         <v>8</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>298</v>
+        <v>779</v>
       </c>
       <c r="C334" s="9" t="s">
         <v>1038</v>
@@ -14722,22 +14738,22 @@
         <v>1028</v>
       </c>
       <c r="E334" s="12">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F334" s="11" t="s">
-        <v>22</v>
+        <v>776</v>
       </c>
       <c r="G334" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H334" s="10"/>
       <c r="I334" s="10"/>
       <c r="J334" s="10"/>
       <c r="K334" s="10" t="s">
-        <v>299</v>
+        <v>780</v>
       </c>
       <c r="L334" s="10" t="s">
-        <v>300</v>
+        <v>781</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
@@ -14745,7 +14761,7 @@
         <v>8</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1046</v>
+        <v>298</v>
       </c>
       <c r="C335" s="9" t="s">
         <v>1038</v>
@@ -14754,22 +14770,22 @@
         <v>1028</v>
       </c>
       <c r="E335" s="12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F335" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G335" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H335" s="10"/>
       <c r="I335" s="10"/>
       <c r="J335" s="10"/>
       <c r="K335" s="10" t="s">
-        <v>1047</v>
+        <v>299</v>
       </c>
       <c r="L335" s="10" t="s">
-        <v>1047</v>
+        <v>300</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
@@ -14777,7 +14793,7 @@
         <v>8</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>775</v>
+        <v>1046</v>
       </c>
       <c r="C336" s="9" t="s">
         <v>1038</v>
@@ -14789,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="F336" s="11" t="s">
-        <v>776</v>
+        <v>22</v>
       </c>
       <c r="G336" s="11" t="b">
         <v>0</v>
@@ -14798,42 +14814,42 @@
       <c r="I336" s="10"/>
       <c r="J336" s="10"/>
       <c r="K336" s="10" t="s">
-        <v>777</v>
+        <v>1047</v>
       </c>
       <c r="L336" s="10" t="s">
-        <v>778</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>19</v>
+        <v>775</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>1028</v>
       </c>
       <c r="E337" s="12">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F337" s="11" t="s">
-        <v>57</v>
+        <v>776</v>
       </c>
       <c r="G337" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H337" s="10"/>
       <c r="I337" s="10"/>
       <c r="J337" s="10"/>
       <c r="K337" s="10" t="s">
-        <v>140</v>
+        <v>777</v>
       </c>
       <c r="L337" s="10" t="s">
-        <v>112</v>
+        <v>778</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
@@ -14841,7 +14857,7 @@
         <v>4</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C338" s="9" t="s">
         <v>1037</v>
@@ -14850,7 +14866,7 @@
         <v>1028</v>
       </c>
       <c r="E338" s="12">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="F338" s="11" t="s">
         <v>57</v>
@@ -14862,10 +14878,10 @@
       <c r="I338" s="10"/>
       <c r="J338" s="10"/>
       <c r="K338" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L338" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
@@ -14873,7 +14889,7 @@
         <v>4</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="C339" s="9" t="s">
         <v>1037</v>
@@ -14882,10 +14898,10 @@
         <v>1028</v>
       </c>
       <c r="E339" s="12">
-        <v>2</v>
+        <v>-180</v>
       </c>
       <c r="F339" s="11" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G339" s="11" t="b">
         <v>1</v>
@@ -14893,11 +14909,11 @@
       <c r="H339" s="10"/>
       <c r="I339" s="10"/>
       <c r="J339" s="10"/>
-      <c r="K339" s="9" t="s">
-        <v>129</v>
+      <c r="K339" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="L339" s="10" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
@@ -14905,31 +14921,31 @@
         <v>4</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>586</v>
+        <v>101</v>
       </c>
       <c r="C340" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E340" s="12" t="s">
-        <v>587</v>
+        <v>1028</v>
+      </c>
+      <c r="E340" s="12">
+        <v>2</v>
       </c>
       <c r="F340" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G340" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H340" s="10"/>
       <c r="I340" s="10"/>
       <c r="J340" s="10"/>
-      <c r="K340" s="10" t="s">
-        <v>588</v>
+      <c r="K340" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="L340" s="10" t="s">
-        <v>588</v>
+        <v>215</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
@@ -14937,7 +14953,7 @@
         <v>4</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>106</v>
+        <v>586</v>
       </c>
       <c r="C341" s="9" t="s">
         <v>1037</v>
@@ -14945,27 +14961,23 @@
       <c r="D341" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="E341" s="12">
-        <v>5</v>
+      <c r="E341" s="12" t="s">
+        <v>587</v>
       </c>
       <c r="F341" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G341" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I341" s="10" t="s">
-        <v>683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H341" s="10"/>
+      <c r="I341" s="10"/>
       <c r="J341" s="10"/>
-      <c r="K341" s="9" t="s">
-        <v>137</v>
+      <c r="K341" s="10" t="s">
+        <v>588</v>
       </c>
       <c r="L341" s="10" t="s">
-        <v>107</v>
+        <v>588</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
@@ -14973,16 +14985,16 @@
         <v>4</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="C342" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E342" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F342" s="11" t="s">
         <v>22</v>
@@ -14990,14 +15002,18 @@
       <c r="G342" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H342" s="10"/>
-      <c r="I342" s="10"/>
+      <c r="H342" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I342" s="10" t="s">
+        <v>683</v>
+      </c>
       <c r="J342" s="10"/>
-      <c r="K342" s="10" t="s">
-        <v>195</v>
+      <c r="K342" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="L342" s="10" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
@@ -15005,7 +15021,7 @@
         <v>4</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>786</v>
+        <v>194</v>
       </c>
       <c r="C343" s="9" t="s">
         <v>1037</v>
@@ -15014,7 +15030,7 @@
         <v>1026</v>
       </c>
       <c r="E343" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F343" s="11" t="s">
         <v>22</v>
@@ -15026,10 +15042,10 @@
       <c r="I343" s="10"/>
       <c r="J343" s="10"/>
       <c r="K343" s="10" t="s">
-        <v>787</v>
+        <v>195</v>
       </c>
       <c r="L343" s="10" t="s">
-        <v>788</v>
+        <v>196</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
@@ -15037,19 +15053,19 @@
         <v>4</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>190</v>
+        <v>786</v>
       </c>
       <c r="C344" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E344" s="12">
-        <v>950</v>
+        <v>2</v>
       </c>
       <c r="F344" s="11" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="G344" s="11" t="b">
         <v>1</v>
@@ -15058,10 +15074,10 @@
       <c r="I344" s="10"/>
       <c r="J344" s="10"/>
       <c r="K344" s="10" t="s">
-        <v>192</v>
+        <v>787</v>
       </c>
       <c r="L344" s="10" t="s">
-        <v>193</v>
+        <v>788</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
@@ -15069,35 +15085,31 @@
         <v>4</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>562</v>
+        <v>190</v>
       </c>
       <c r="C345" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E345" s="12">
-        <v>7</v>
+        <v>950</v>
       </c>
       <c r="F345" s="11" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="G345" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H345" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I345" s="10" t="s">
-        <v>564</v>
-      </c>
+      <c r="H345" s="10"/>
+      <c r="I345" s="10"/>
       <c r="J345" s="10"/>
       <c r="K345" s="10" t="s">
-        <v>682</v>
+        <v>192</v>
       </c>
       <c r="L345" s="10" t="s">
-        <v>563</v>
+        <v>193</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
@@ -15105,16 +15117,16 @@
         <v>4</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>1113</v>
+        <v>562</v>
       </c>
       <c r="C346" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D346" s="9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E346" s="12" t="b">
-        <v>0</v>
+        <v>1027</v>
+      </c>
+      <c r="E346" s="12">
+        <v>7</v>
       </c>
       <c r="F346" s="11" t="s">
         <v>22</v>
@@ -15123,15 +15135,17 @@
         <v>1</v>
       </c>
       <c r="H346" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="I346" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="I346" s="10" t="s">
+        <v>564</v>
+      </c>
       <c r="J346" s="10"/>
       <c r="K346" s="10" t="s">
-        <v>1114</v>
+        <v>682</v>
       </c>
       <c r="L346" s="10" t="s">
-        <v>1115</v>
+        <v>563</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
@@ -15139,7 +15153,7 @@
         <v>4</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>853</v>
+        <v>1113</v>
       </c>
       <c r="C347" s="9" t="s">
         <v>1037</v>
@@ -15148,13 +15162,13 @@
         <v>1029</v>
       </c>
       <c r="E347" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F347" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G347" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H347" s="10" t="s">
         <v>204</v>
@@ -15162,10 +15176,10 @@
       <c r="I347" s="10"/>
       <c r="J347" s="10"/>
       <c r="K347" s="10" t="s">
-        <v>854</v>
+        <v>1114</v>
       </c>
       <c r="L347" s="10" t="s">
-        <v>855</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
@@ -15173,7 +15187,7 @@
         <v>4</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="C348" s="9" t="s">
         <v>1037</v>
@@ -15182,13 +15196,13 @@
         <v>1029</v>
       </c>
       <c r="E348" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F348" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G348" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H348" s="10" t="s">
         <v>204</v>
@@ -15196,10 +15210,10 @@
       <c r="I348" s="10"/>
       <c r="J348" s="10"/>
       <c r="K348" s="10" t="s">
-        <v>827</v>
+        <v>854</v>
       </c>
       <c r="L348" s="10" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
@@ -15207,7 +15221,7 @@
         <v>4</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>211</v>
+        <v>829</v>
       </c>
       <c r="C349" s="9" t="s">
         <v>1037</v>
@@ -15216,13 +15230,13 @@
         <v>1029</v>
       </c>
       <c r="E349" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F349" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G349" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H349" s="10" t="s">
         <v>204</v>
@@ -15230,10 +15244,10 @@
       <c r="I349" s="10"/>
       <c r="J349" s="10"/>
       <c r="K349" s="10" t="s">
-        <v>212</v>
+        <v>827</v>
       </c>
       <c r="L349" s="10" t="s">
-        <v>213</v>
+        <v>828</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
@@ -15241,27 +15255,33 @@
         <v>4</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>428</v>
+        <v>211</v>
       </c>
       <c r="C350" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E350" s="12"/>
-      <c r="F350" s="11"/>
+        <v>1029</v>
+      </c>
+      <c r="E350" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F350" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G350" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H350" s="10"/>
+      <c r="H350" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="I350" s="10"/>
       <c r="J350" s="10"/>
       <c r="K350" s="10" t="s">
-        <v>429</v>
+        <v>212</v>
       </c>
       <c r="L350" s="10" t="s">
-        <v>429</v>
+        <v>213</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
@@ -15269,7 +15289,7 @@
         <v>4</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>6</v>
+        <v>428</v>
       </c>
       <c r="C351" s="9" t="s">
         <v>1037</v>
@@ -15277,27 +15297,19 @@
       <c r="D351" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="E351" s="12">
-        <v>0</v>
-      </c>
-      <c r="F351" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="E351" s="12"/>
+      <c r="F351" s="11"/>
       <c r="G351" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H351" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I351" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="H351" s="10"/>
+      <c r="I351" s="10"/>
       <c r="J351" s="10"/>
-      <c r="K351" s="9" t="s">
-        <v>135</v>
+      <c r="K351" s="10" t="s">
+        <v>429</v>
       </c>
       <c r="L351" s="10" t="s">
-        <v>66</v>
+        <v>429</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
@@ -15305,31 +15317,35 @@
         <v>4</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>840</v>
+        <v>6</v>
       </c>
       <c r="C352" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E352" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F352" s="11" t="s">
-        <v>842</v>
+        <v>22</v>
       </c>
       <c r="G352" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H352" s="10"/>
-      <c r="I352" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H352" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I352" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="J352" s="10"/>
-      <c r="K352" s="10" t="s">
-        <v>844</v>
+      <c r="K352" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="L352" s="10" t="s">
-        <v>849</v>
+        <v>66</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
@@ -15337,7 +15353,7 @@
         <v>4</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>1037</v>
@@ -15358,10 +15374,10 @@
       <c r="I353" s="10"/>
       <c r="J353" s="10"/>
       <c r="K353" s="10" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="L353" s="10" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
@@ -15369,7 +15385,7 @@
         <v>4</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C354" s="9" t="s">
         <v>1037</v>
@@ -15378,7 +15394,7 @@
         <v>1028</v>
       </c>
       <c r="E354" s="12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F354" s="11" t="s">
         <v>842</v>
@@ -15390,10 +15406,10 @@
       <c r="I354" s="10"/>
       <c r="J354" s="10"/>
       <c r="K354" s="10" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="L354" s="10" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
@@ -15401,7 +15417,7 @@
         <v>4</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C355" s="9" t="s">
         <v>1037</v>
@@ -15422,10 +15438,10 @@
       <c r="I355" s="10"/>
       <c r="J355" s="10"/>
       <c r="K355" s="10" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L355" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
@@ -15433,7 +15449,7 @@
         <v>4</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="C356" s="9" t="s">
         <v>1037</v>
@@ -15442,10 +15458,10 @@
         <v>1028</v>
       </c>
       <c r="E356" s="12">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F356" s="11" t="s">
-        <v>22</v>
+        <v>842</v>
       </c>
       <c r="G356" s="11" t="b">
         <v>1</v>
@@ -15454,10 +15470,10 @@
       <c r="I356" s="10"/>
       <c r="J356" s="10"/>
       <c r="K356" s="10" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="L356" s="10" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
@@ -15465,7 +15481,7 @@
         <v>4</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>5</v>
+        <v>830</v>
       </c>
       <c r="C357" s="9" t="s">
         <v>1037</v>
@@ -15474,10 +15490,10 @@
         <v>1028</v>
       </c>
       <c r="E357" s="12">
-        <v>670</v>
+        <v>0.03</v>
       </c>
       <c r="F357" s="11" t="s">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="G357" s="11" t="b">
         <v>1</v>
@@ -15485,11 +15501,11 @@
       <c r="H357" s="10"/>
       <c r="I357" s="10"/>
       <c r="J357" s="10"/>
-      <c r="K357" s="9" t="s">
-        <v>128</v>
+      <c r="K357" s="10" t="s">
+        <v>831</v>
       </c>
       <c r="L357" s="10" t="s">
-        <v>65</v>
+        <v>832</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
@@ -15497,35 +15513,31 @@
         <v>4</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="C358" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E358" s="12">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="F358" s="11" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="G358" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H358" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I358" s="10" t="s">
-        <v>1008</v>
-      </c>
+      <c r="H358" s="10"/>
+      <c r="I358" s="10"/>
       <c r="J358" s="10"/>
       <c r="K358" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L358" s="10" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
@@ -15533,16 +15545,16 @@
         <v>4</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>572</v>
+        <v>102</v>
       </c>
       <c r="C359" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E359" s="12">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F359" s="11" t="s">
         <v>22</v>
@@ -15550,14 +15562,18 @@
       <c r="G359" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H359" s="10"/>
-      <c r="I359" s="10"/>
+      <c r="H359" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I359" s="10" t="s">
+        <v>1008</v>
+      </c>
       <c r="J359" s="10"/>
-      <c r="K359" s="10" t="s">
-        <v>576</v>
+      <c r="K359" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="L359" s="10" t="s">
-        <v>579</v>
+        <v>103</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
@@ -15565,7 +15581,7 @@
         <v>4</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C360" s="9" t="s">
         <v>1037</v>
@@ -15586,10 +15602,10 @@
       <c r="I360" s="10"/>
       <c r="J360" s="10"/>
       <c r="K360" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L360" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
@@ -15597,7 +15613,7 @@
         <v>4</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>14</v>
+        <v>573</v>
       </c>
       <c r="C361" s="9" t="s">
         <v>1037</v>
@@ -15606,22 +15622,22 @@
         <v>1028</v>
       </c>
       <c r="E361" s="12">
-        <v>195</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F361" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G361" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H361" s="10"/>
       <c r="I361" s="10"/>
       <c r="J361" s="10"/>
-      <c r="K361" s="9" t="s">
-        <v>139</v>
+      <c r="K361" s="10" t="s">
+        <v>577</v>
       </c>
       <c r="L361" s="10" t="s">
-        <v>69</v>
+        <v>580</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
@@ -15629,7 +15645,7 @@
         <v>4</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C362" s="9" t="s">
         <v>1037</v>
@@ -15638,7 +15654,7 @@
         <v>1028</v>
       </c>
       <c r="E362" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="F362" s="11" t="s">
         <v>24</v>
@@ -15650,10 +15666,10 @@
       <c r="I362" s="10"/>
       <c r="J362" s="10"/>
       <c r="K362" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L362" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
@@ -15661,7 +15677,7 @@
         <v>4</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>1116</v>
+        <v>13</v>
       </c>
       <c r="C363" s="9" t="s">
         <v>1037</v>
@@ -15670,22 +15686,22 @@
         <v>1028</v>
       </c>
       <c r="E363" s="12">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="F363" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G363" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H363" s="10"/>
       <c r="I363" s="10"/>
       <c r="J363" s="10"/>
-      <c r="K363" s="10" t="s">
-        <v>1117</v>
+      <c r="K363" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="L363" s="10" t="s">
-        <v>1117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
@@ -15693,7 +15709,7 @@
         <v>4</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>99</v>
+        <v>1116</v>
       </c>
       <c r="C364" s="9" t="s">
         <v>1037</v>
@@ -15702,7 +15718,7 @@
         <v>1028</v>
       </c>
       <c r="E364" s="12">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="F364" s="11" t="s">
         <v>22</v>
@@ -15713,11 +15729,11 @@
       <c r="H364" s="10"/>
       <c r="I364" s="10"/>
       <c r="J364" s="10"/>
-      <c r="K364" s="9" t="s">
-        <v>130</v>
+      <c r="K364" s="10" t="s">
+        <v>1117</v>
       </c>
       <c r="L364" s="10" t="s">
-        <v>100</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
@@ -15725,7 +15741,7 @@
         <v>4</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>1076</v>
+        <v>99</v>
       </c>
       <c r="C365" s="9" t="s">
         <v>1037</v>
@@ -15734,10 +15750,10 @@
         <v>1028</v>
       </c>
       <c r="E365" s="12">
-        <v>180</v>
+        <v>1.33</v>
       </c>
       <c r="F365" s="11" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G365" s="11" t="b">
         <v>1</v>
@@ -15745,11 +15761,11 @@
       <c r="H365" s="10"/>
       <c r="I365" s="10"/>
       <c r="J365" s="10"/>
-      <c r="K365" s="10" t="s">
-        <v>1079</v>
+      <c r="K365" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="L365" s="10" t="s">
-        <v>541</v>
+        <v>100</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
@@ -15757,7 +15773,7 @@
         <v>4</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C366" s="9" t="s">
         <v>1037</v>
@@ -15766,7 +15782,7 @@
         <v>1028</v>
       </c>
       <c r="E366" s="12">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F366" s="11" t="s">
         <v>57</v>
@@ -15778,10 +15794,10 @@
       <c r="I366" s="10"/>
       <c r="J366" s="10"/>
       <c r="K366" s="10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="L366" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
@@ -15789,35 +15805,31 @@
         <v>4</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>538</v>
+        <v>1077</v>
       </c>
       <c r="C367" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E367" s="12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F367" s="11" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G367" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H367" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I367" s="10" t="s">
-        <v>561</v>
-      </c>
+      <c r="H367" s="10"/>
+      <c r="I367" s="10"/>
       <c r="J367" s="10"/>
       <c r="K367" s="10" t="s">
-        <v>539</v>
+        <v>1080</v>
       </c>
       <c r="L367" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
@@ -15825,7 +15837,7 @@
         <v>4</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>996</v>
+        <v>538</v>
       </c>
       <c r="C368" s="9" t="s">
         <v>1037</v>
@@ -15845,13 +15857,15 @@
       <c r="H368" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I368" s="10"/>
+      <c r="I368" s="10" t="s">
+        <v>561</v>
+      </c>
       <c r="J368" s="10"/>
       <c r="K368" s="10" t="s">
-        <v>997</v>
+        <v>539</v>
       </c>
       <c r="L368" s="10" t="s">
-        <v>998</v>
+        <v>540</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
@@ -15859,7 +15873,7 @@
         <v>4</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>273</v>
+        <v>996</v>
       </c>
       <c r="C369" s="9" t="s">
         <v>1037</v>
@@ -15870,22 +15884,22 @@
       <c r="E369" s="12">
         <v>0</v>
       </c>
-      <c r="F369" s="11"/>
+      <c r="F369" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G369" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H369" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I369" s="10" t="s">
-        <v>275</v>
-      </c>
+      <c r="I369" s="10"/>
       <c r="J369" s="10"/>
       <c r="K369" s="10" t="s">
-        <v>274</v>
+        <v>997</v>
       </c>
       <c r="L369" s="10" t="s">
-        <v>288</v>
+        <v>998</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
@@ -15893,31 +15907,33 @@
         <v>4</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
       <c r="C370" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E370" s="12">
-        <v>195</v>
-      </c>
-      <c r="F370" s="11" t="s">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F370" s="11"/>
       <c r="G370" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H370" s="10"/>
-      <c r="I370" s="10"/>
+      <c r="H370" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I370" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="J370" s="10"/>
-      <c r="K370" s="9" t="s">
-        <v>289</v>
+      <c r="K370" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="L370" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
@@ -15925,7 +15941,7 @@
         <v>4</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>1009</v>
+        <v>9</v>
       </c>
       <c r="C371" s="9" t="s">
         <v>1037</v>
@@ -15934,10 +15950,10 @@
         <v>1028</v>
       </c>
       <c r="E371" s="12">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="F371" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G371" s="11" t="b">
         <v>1</v>
@@ -15945,11 +15961,11 @@
       <c r="H371" s="10"/>
       <c r="I371" s="10"/>
       <c r="J371" s="10"/>
-      <c r="K371" s="10" t="s">
-        <v>1010</v>
+      <c r="K371" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="L371" s="10" t="s">
-        <v>1011</v>
+        <v>290</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
@@ -15957,33 +15973,31 @@
         <v>4</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>574</v>
+        <v>1009</v>
       </c>
       <c r="C372" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E372" s="12">
-        <v>0</v>
-      </c>
-      <c r="F372" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="F372" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G372" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H372" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I372" s="10" t="s">
-        <v>575</v>
-      </c>
+      <c r="H372" s="10"/>
+      <c r="I372" s="10"/>
       <c r="J372" s="10"/>
       <c r="K372" s="10" t="s">
-        <v>578</v>
+        <v>1010</v>
       </c>
       <c r="L372" s="10" t="s">
-        <v>581</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
@@ -15991,31 +16005,33 @@
         <v>4</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C373" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D373" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E373" s="12">
-        <v>1</v>
-      </c>
-      <c r="F373" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F373" s="11"/>
       <c r="G373" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H373" s="10"/>
-      <c r="I373" s="10"/>
+      <c r="H373" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I373" s="10" t="s">
+        <v>575</v>
+      </c>
       <c r="J373" s="10"/>
       <c r="K373" s="10" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L373" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
@@ -16023,7 +16039,7 @@
         <v>4</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>837</v>
+        <v>582</v>
       </c>
       <c r="C374" s="9" t="s">
         <v>1037</v>
@@ -16032,7 +16048,7 @@
         <v>1028</v>
       </c>
       <c r="E374" s="12">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="F374" s="11" t="s">
         <v>22</v>
@@ -16044,10 +16060,10 @@
       <c r="I374" s="10"/>
       <c r="J374" s="10"/>
       <c r="K374" s="10" t="s">
-        <v>847</v>
+        <v>583</v>
       </c>
       <c r="L374" s="10" t="s">
-        <v>852</v>
+        <v>584</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
@@ -16055,31 +16071,31 @@
         <v>4</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>1050</v>
+        <v>837</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D375" s="9" t="s">
         <v>1028</v>
       </c>
       <c r="E375" s="12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F375" s="11" t="s">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="G375" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H375" s="10"/>
       <c r="I375" s="10"/>
       <c r="J375" s="10"/>
       <c r="K375" s="10" t="s">
-        <v>1053</v>
+        <v>847</v>
       </c>
       <c r="L375" s="10" t="s">
-        <v>1054</v>
+        <v>852</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
@@ -16087,7 +16103,7 @@
         <v>4</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C376" s="9" t="s">
         <v>1038</v>
@@ -16108,10 +16124,10 @@
       <c r="I376" s="10"/>
       <c r="J376" s="10"/>
       <c r="K376" s="10" t="s">
-        <v>1023</v>
+        <v>1053</v>
       </c>
       <c r="L376" s="10" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
@@ -16119,17 +16135,19 @@
         <v>4</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>430</v>
+        <v>1049</v>
       </c>
       <c r="C377" s="9" t="s">
         <v>1038</v>
       </c>
       <c r="D377" s="9" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E377" s="12"/>
+        <v>1028</v>
+      </c>
+      <c r="E377" s="12">
+        <v>0</v>
+      </c>
       <c r="F377" s="11" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="G377" s="11" t="b">
         <v>0</v>
@@ -16138,10 +16156,10 @@
       <c r="I377" s="10"/>
       <c r="J377" s="10"/>
       <c r="K377" s="10" t="s">
-        <v>431</v>
+        <v>1023</v>
       </c>
       <c r="L377" s="10" t="s">
-        <v>431</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
@@ -16149,19 +16167,17 @@
         <v>4</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>1078</v>
+        <v>430</v>
       </c>
       <c r="C378" s="9" t="s">
         <v>1038</v>
       </c>
       <c r="D378" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E378" s="12">
-        <v>0</v>
-      </c>
+        <v>1035</v>
+      </c>
+      <c r="E378" s="12"/>
       <c r="F378" s="11" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G378" s="11" t="b">
         <v>0</v>
@@ -16170,10 +16186,10 @@
       <c r="I378" s="10"/>
       <c r="J378" s="10"/>
       <c r="K378" s="10" t="s">
-        <v>1081</v>
+        <v>431</v>
       </c>
       <c r="L378" s="10" t="s">
-        <v>1081</v>
+        <v>431</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
@@ -16181,7 +16197,7 @@
         <v>4</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C379" s="9" t="s">
         <v>1038</v>
@@ -16202,9 +16218,41 @@
       <c r="I379" s="10"/>
       <c r="J379" s="10"/>
       <c r="K379" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L379" s="10" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A380" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B380" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C380" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D380" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E380" s="12">
+        <v>0</v>
+      </c>
+      <c r="F380" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G380" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H380" s="10"/>
+      <c r="I380" s="10"/>
+      <c r="J380" s="10"/>
+      <c r="K380" s="10" t="s">
         <v>1082</v>
       </c>
-      <c r="L379" s="10" t="s">
+      <c r="L380" s="10" t="s">
         <v>1082</v>
       </c>
     </row>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C58C90D-A838-4B59-AAE4-5742A2B2984E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="8220" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,9 +257,6 @@
     <t>time_zone</t>
   </si>
   <si>
-    <t>CA Daggett.tm2</t>
-  </si>
-  <si>
     <t>[deg,deg]</t>
   </si>
   <si>
@@ -2723,6 +2721,9 @@
   </si>
   <si>
     <t>Distance between heliostat center and maximum radial extent of structure</t>
+  </si>
+  <si>
+    <t>USA CA Daggett (TMY2).csv</t>
   </si>
 </sst>
 </file>
@@ -3307,9 +3308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,31 +3337,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>7</v>
@@ -3371,16 +3372,16 @@
         <v>71</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>21</v>
@@ -3390,14 +3391,14 @@
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3405,13 +3406,13 @@
         <v>71</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
@@ -3423,17 +3424,17 @@
         <v>1</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3441,16 +3442,16 @@
         <v>71</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>21</v>
@@ -3462,10 +3463,10 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3473,19 +3474,19 @@
         <v>71</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E5" s="12">
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="11" t="b">
         <v>0</v>
@@ -3494,10 +3495,10 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3505,19 +3506,19 @@
         <v>71</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E6" s="12">
         <v>950</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G6" s="11" t="b">
         <v>1</v>
@@ -3526,10 +3527,10 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>649</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3537,19 +3538,19 @@
         <v>71</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>644</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>645</v>
       </c>
       <c r="G7" s="11" t="b">
         <v>1</v>
@@ -3558,10 +3559,10 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>646</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3572,10 +3573,10 @@
         <v>78</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E8" s="12">
         <v>588</v>
@@ -3590,10 +3591,10 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3601,13 +3602,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
@@ -3619,17 +3620,17 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3640,10 +3641,10 @@
         <v>76</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E10" s="12">
         <v>34.866999999999997</v>
@@ -3658,10 +3659,10 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3669,16 +3670,16 @@
         <v>71</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>21</v>
@@ -3690,10 +3691,10 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3701,16 +3702,16 @@
         <v>71</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>847</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>848</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>21</v>
@@ -3722,10 +3723,10 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>849</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3736,10 +3737,10 @@
         <v>77</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E13" s="13">
         <v>-116.783</v>
@@ -3754,10 +3755,10 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3765,13 +3766,13 @@
         <v>71</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E14" s="12">
         <v>0.1</v>
@@ -3786,10 +3787,10 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>618</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3800,14 +3801,14 @@
         <v>75</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="11" t="b">
         <v>0</v>
@@ -3819,7 +3820,7 @@
         <v>75</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3827,19 +3828,19 @@
         <v>71</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E16" s="12">
         <v>4.6500000000000004</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G16" s="11" t="b">
         <v>1</v>
@@ -3848,10 +3849,10 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3862,10 +3863,10 @@
         <v>72</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E17" s="12">
         <v>2</v>
@@ -3877,17 +3878,17 @@
         <v>1</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3898,10 +3899,10 @@
         <v>79</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E18" s="12">
         <v>-8</v>
@@ -3916,10 +3917,10 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3930,14 +3931,14 @@
         <v>74</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="11" t="b">
         <v>0</v>
@@ -3949,7 +3950,7 @@
         <v>74</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3960,13 +3961,13 @@
         <v>73</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>80</v>
+        <v>902</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>21</v>
@@ -3978,10 +3979,10 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3989,13 +3990,13 @@
         <v>71</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="11" t="s">
@@ -4008,10 +4009,10 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4019,19 +4020,19 @@
         <v>71</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E22" s="12">
         <v>0</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G22" s="11" t="b">
         <v>0</v>
@@ -4040,10 +4041,10 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>853</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4051,19 +4052,19 @@
         <v>71</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" s="11" t="b">
         <v>0</v>
@@ -4072,27 +4073,27 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>21</v>
@@ -4104,30 +4105,30 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E25" s="12">
         <v>7</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G25" s="11" t="b">
         <v>1</v>
@@ -4136,24 +4137,24 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -4168,24 +4169,24 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E27" s="12">
         <v>145</v>
@@ -4200,24 +4201,24 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>362</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E28" s="12" t="b">
         <v>0</v>
@@ -4227,35 +4228,35 @@
         <v>0</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>400</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E29" s="12">
         <v>10000</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G29" s="11" t="b">
         <v>1</v>
@@ -4264,27 +4265,27 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="12" t="s">
         <v>811</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>812</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>21</v>
@@ -4296,24 +4297,24 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E31" s="12">
         <v>0.7</v>
@@ -4328,30 +4329,30 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="L31" s="10" t="s">
         <v>357</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E32" s="12">
         <v>1571</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G32" s="11" t="b">
         <v>1</v>
@@ -4360,24 +4361,24 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>355</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E33" s="12">
         <v>103000000</v>
@@ -4392,30 +4393,30 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="L33" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E34" s="12">
         <v>80</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G34" s="11" t="b">
         <v>1</v>
@@ -4424,30 +4425,30 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="L34" s="10" t="s">
         <v>377</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E35" s="12">
         <v>5</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G35" s="11" t="b">
         <v>1</v>
@@ -4456,24 +4457,24 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="L35" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E36" s="12">
         <v>16</v>
@@ -4488,24 +4489,24 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="L36" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>325</v>
-      </c>
       <c r="C37" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E37" s="12">
         <v>1.1299999999999999E-2</v>
@@ -4520,24 +4521,24 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="L37" s="10" t="s">
         <v>351</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E38" s="15">
         <v>3000000</v>
@@ -4552,27 +4553,27 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="L38" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11" t="b">
@@ -4582,27 +4583,27 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11" t="b">
@@ -4612,24 +4613,24 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E41" s="12">
         <v>0</v>
@@ -4644,24 +4645,24 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="L41" s="10" t="s">
         <v>366</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E42" s="12">
         <v>0</v>
@@ -4676,24 +4677,24 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E43" s="12">
         <v>0</v>
@@ -4708,24 +4709,24 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E44" s="12">
         <v>0</v>
@@ -4740,24 +4741,24 @@
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E45" s="12">
         <v>0</v>
@@ -4772,24 +4773,24 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="L45" s="10" t="s">
         <v>819</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E46" s="12">
         <v>0</v>
@@ -4804,24 +4805,24 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E47" s="12">
         <v>0</v>
@@ -4836,24 +4837,24 @@
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E48" s="12">
         <v>0</v>
@@ -4868,24 +4869,24 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="L48" s="10" t="s">
         <v>822</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E49" s="12">
         <v>0</v>
@@ -4900,24 +4901,24 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E50" s="12">
         <v>0</v>
@@ -4932,24 +4933,24 @@
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="L50" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E51" s="12">
         <v>0</v>
@@ -4964,24 +4965,24 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="L51" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E52" s="12">
         <v>0</v>
@@ -4996,24 +4997,24 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E53" s="12">
         <v>14736146</v>
@@ -5036,16 +5037,16 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E54" s="12">
         <v>0</v>
@@ -5060,24 +5061,24 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E55" s="12">
         <v>3</v>
@@ -5087,34 +5088,34 @@
         <v>1</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="L55" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>21</v>
@@ -5126,24 +5127,24 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E57" s="12">
         <v>250</v>
@@ -5158,24 +5159,24 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E58" s="12">
         <v>200</v>
@@ -5190,24 +5191,24 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E59" s="12">
         <v>200</v>
@@ -5222,24 +5223,24 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E60" s="12">
         <v>0.8</v>
@@ -5254,24 +5255,24 @@
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E61" s="12">
         <v>1</v>
@@ -5284,24 +5285,24 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E62" s="12">
         <v>2</v>
@@ -5314,24 +5315,24 @@
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E63" s="12">
         <v>0</v>
@@ -5341,31 +5342,31 @@
         <v>1</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J63" s="10"/>
       <c r="K63" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E64" s="12">
         <v>35</v>
@@ -5380,24 +5381,24 @@
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="L64" s="10" t="s">
         <v>675</v>
-      </c>
-      <c r="L64" s="10" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E65" s="12">
         <v>500</v>
@@ -5412,24 +5413,24 @@
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="11"/>
@@ -5440,24 +5441,24 @@
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="L66" s="10" t="s">
         <v>769</v>
-      </c>
-      <c r="L66" s="10" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E67" s="12">
         <v>20</v>
@@ -5470,24 +5471,24 @@
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E68" s="12">
         <v>0</v>
@@ -5497,37 +5498,37 @@
         <v>1</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="L68" s="10" t="s">
         <v>483</v>
-      </c>
-      <c r="L68" s="10" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E69" s="12">
         <v>950</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G69" s="11" t="b">
         <v>1</v>
@@ -5536,24 +5537,24 @@
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="L69" s="10" t="s">
         <v>766</v>
-      </c>
-      <c r="L69" s="10" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E70" s="12">
         <v>12</v>
@@ -5568,24 +5569,24 @@
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E71" s="12">
         <v>0</v>
@@ -5597,31 +5598,31 @@
         <v>0</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="L71" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="L71" s="10" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E72" s="12">
         <v>3</v>
@@ -5634,24 +5635,24 @@
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E73" s="12">
         <v>180</v>
@@ -5664,24 +5665,24 @@
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E74" s="12">
         <v>85</v>
@@ -5694,24 +5695,24 @@
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E75" s="12">
         <v>1</v>
@@ -5723,31 +5724,31 @@
         <v>0</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J75" s="10"/>
       <c r="K75" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="L75" s="10" t="s">
         <v>441</v>
-      </c>
-      <c r="L75" s="10" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E76" s="12" t="b">
         <v>1</v>
@@ -5759,29 +5760,29 @@
         <v>0</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="L76" s="10" t="s">
         <v>753</v>
-      </c>
-      <c r="L76" s="10" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E77" s="12" t="b">
         <v>1</v>
@@ -5791,29 +5792,29 @@
         <v>1</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="L77" s="10" t="s">
         <v>677</v>
-      </c>
-      <c r="L77" s="10" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E78" s="12" t="b">
         <v>1</v>
@@ -5823,29 +5824,29 @@
         <v>1</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E79" s="12" t="b">
         <v>1</v>
@@ -5855,29 +5856,29 @@
         <v>1</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E80" s="12" t="b">
         <v>0</v>
@@ -5887,29 +5888,29 @@
         <v>1</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="L80" s="10" t="s">
         <v>669</v>
-      </c>
-      <c r="L80" s="10" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E81" s="12" t="b">
         <v>0</v>
@@ -5921,31 +5922,31 @@
         <v>1</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K81" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="L81" s="10" t="s">
         <v>792</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E82" s="12" t="b">
         <v>1</v>
@@ -5955,29 +5956,29 @@
         <v>0</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="L82" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="L82" s="10" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E83" s="12" t="b">
         <v>0</v>
@@ -5989,31 +5990,31 @@
         <v>1</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K83" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="L83" s="10" t="s">
         <v>795</v>
-      </c>
-      <c r="L83" s="10" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E84" s="12" t="b">
         <v>1</v>
@@ -6023,29 +6024,29 @@
         <v>0</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="L84" s="10" t="s">
         <v>490</v>
-      </c>
-      <c r="L84" s="10" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E85" s="12">
         <v>1000000</v>
@@ -6060,24 +6061,24 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="L85" s="10" t="s">
         <v>470</v>
-      </c>
-      <c r="L85" s="10" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E86" s="12">
         <v>10000</v>
@@ -6092,24 +6093,24 @@
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="L86" s="10" t="s">
         <v>467</v>
-      </c>
-      <c r="L86" s="10" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E87" s="12">
         <v>0.25</v>
@@ -6122,24 +6123,24 @@
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E88" s="9">
         <v>1000</v>
@@ -6154,24 +6155,24 @@
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E89" s="9">
         <v>0</v>
@@ -6186,27 +6187,27 @@
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B90" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>797</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>798</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>21</v>
@@ -6215,31 +6216,31 @@
         <v>1</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K90" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="L90" s="10" t="s">
         <v>799</v>
-      </c>
-      <c r="L90" s="10" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E91" s="12" t="b">
         <v>0</v>
@@ -6249,32 +6250,32 @@
         <v>0</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>494</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>495</v>
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="11" t="b">
@@ -6284,24 +6285,24 @@
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="L92" s="10" t="s">
         <v>496</v>
-      </c>
-      <c r="L92" s="10" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E93" s="12">
         <v>-1</v>
@@ -6316,24 +6317,24 @@
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="L93" s="10" t="s">
         <v>473</v>
-      </c>
-      <c r="L93" s="10" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E94" s="12">
         <v>2</v>
@@ -6346,24 +6347,24 @@
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E95" s="12">
         <v>2</v>
@@ -6378,24 +6379,24 @@
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
       <c r="K95" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="L95" s="10" t="s">
         <v>865</v>
-      </c>
-      <c r="L95" s="10" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>434</v>
-      </c>
       <c r="C96" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E96" s="12">
         <v>25</v>
@@ -6410,24 +6411,24 @@
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
       <c r="K96" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E97" s="12">
         <v>25</v>
@@ -6442,24 +6443,24 @@
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E98" s="12">
         <v>180</v>
@@ -6474,24 +6475,24 @@
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E99" s="12">
         <v>85</v>
@@ -6506,10 +6507,10 @@
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -6520,10 +6521,10 @@
         <v>41</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E100" s="14">
         <v>82</v>
@@ -6538,10 +6539,10 @@
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -6552,10 +6553,10 @@
         <v>40</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E101" s="14">
         <v>0</v>
@@ -6570,10 +6571,10 @@
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
       <c r="K101" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -6581,13 +6582,13 @@
         <v>55</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E102" s="12">
         <v>1</v>
@@ -6599,17 +6600,17 @@
         <v>1</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J102" s="10"/>
       <c r="K102" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -6617,13 +6618,13 @@
         <v>55</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E103" s="14">
         <v>6</v>
@@ -6638,10 +6639,10 @@
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="L103" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="L103" s="10" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -6649,13 +6650,13 @@
         <v>55</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E104" s="14">
         <v>0</v>
@@ -6670,10 +6671,10 @@
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
       <c r="K104" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L104" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="L104" s="10" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -6681,13 +6682,13 @@
         <v>55</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E105" s="14">
         <v>0</v>
@@ -6702,10 +6703,10 @@
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -6713,13 +6714,13 @@
         <v>55</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E106" s="14">
         <v>1</v>
@@ -6734,10 +6735,10 @@
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
       <c r="K106" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -6745,13 +6746,13 @@
         <v>55</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E107" s="14">
         <v>400</v>
@@ -6766,10 +6767,10 @@
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -6777,13 +6778,13 @@
         <v>55</v>
       </c>
       <c r="B108" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>836</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>837</v>
       </c>
       <c r="E108" s="14">
         <v>0</v>
@@ -6798,10 +6799,10 @@
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6809,16 +6810,16 @@
         <v>55</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>21</v>
@@ -6830,10 +6831,10 @@
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -6841,13 +6842,13 @@
         <v>55</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E110" s="14">
         <v>13.77</v>
@@ -6862,10 +6863,10 @@
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="L110" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="L110" s="10" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -6876,10 +6877,10 @@
         <v>45</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E111" s="14">
         <v>0</v>
@@ -6894,10 +6895,10 @@
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L111" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -6908,10 +6909,10 @@
         <v>44</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E112" s="14">
         <v>0</v>
@@ -6926,10 +6927,10 @@
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
       <c r="K112" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -6940,10 +6941,10 @@
         <v>48</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E113" s="14">
         <v>2.0000000000000001E-4</v>
@@ -6958,10 +6959,10 @@
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -6972,10 +6973,10 @@
         <v>49</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E114" s="14">
         <v>2.0000000000000001E-4</v>
@@ -6990,10 +6991,10 @@
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
       <c r="K114" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -7004,10 +7005,10 @@
         <v>46</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E115" s="14">
         <v>1.5299999999999999E-3</v>
@@ -7022,10 +7023,10 @@
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L115" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -7036,10 +7037,10 @@
         <v>47</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E116" s="14">
         <v>1.5299999999999999E-3</v>
@@ -7054,10 +7055,10 @@
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
       <c r="K116" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -7065,13 +7066,13 @@
         <v>55</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E117" s="14">
         <v>0</v>
@@ -7083,17 +7084,17 @@
         <v>1</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J117" s="10"/>
       <c r="K117" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="L117" s="10" t="s">
         <v>898</v>
-      </c>
-      <c r="L117" s="10" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -7101,13 +7102,13 @@
         <v>55</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E118" s="12">
         <v>1</v>
@@ -7119,17 +7120,17 @@
         <v>1</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J118" s="10"/>
       <c r="K118" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -7140,10 +7141,10 @@
         <v>37</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E119" s="14">
         <v>12.2</v>
@@ -7158,10 +7159,10 @@
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
       <c r="K119" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -7169,16 +7170,16 @@
         <v>55</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="11" t="b">
@@ -7188,10 +7189,10 @@
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
       <c r="K120" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -7202,10 +7203,10 @@
         <v>29</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E121" s="12">
         <v>-1</v>
@@ -7223,7 +7224,7 @@
         <v>29</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -7231,13 +7232,13 @@
         <v>55</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E122" s="14" t="b">
         <v>1</v>
@@ -7247,15 +7248,15 @@
         <v>0</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
       <c r="K122" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="L122" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="L122" s="10" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -7263,13 +7264,13 @@
         <v>55</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E123" s="14" t="b">
         <v>0</v>
@@ -7281,15 +7282,15 @@
         <v>0</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
       <c r="K123" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -7297,13 +7298,13 @@
         <v>55</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E124" s="12" t="b">
         <v>1</v>
@@ -7316,10 +7317,10 @@
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
       <c r="K124" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -7327,13 +7328,13 @@
         <v>55</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E125" s="14" t="b">
         <v>1</v>
@@ -7345,15 +7346,15 @@
         <v>0</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
       <c r="K125" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L125" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="L125" s="10" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -7361,13 +7362,13 @@
         <v>55</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E126" s="12" t="b">
         <v>1</v>
@@ -7379,15 +7380,15 @@
         <v>0</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I126" s="10"/>
       <c r="J126" s="10"/>
       <c r="K126" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -7398,10 +7399,10 @@
         <v>30</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E127" s="12">
         <v>0</v>
@@ -7413,14 +7414,14 @@
         <v>0</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J127" s="10"/>
       <c r="K127" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L127" s="10" t="s">
         <v>61</v>
@@ -7434,10 +7435,10 @@
         <v>31</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E128" s="12" t="b">
         <v>1</v>
@@ -7449,15 +7450,15 @@
         <v>0</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
       <c r="K128" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L128" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -7468,10 +7469,10 @@
         <v>32</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E129" s="12" t="b">
         <v>1</v>
@@ -7483,15 +7484,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
       <c r="K129" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -7502,10 +7503,10 @@
         <v>34</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E130" s="14">
         <v>2</v>
@@ -7518,7 +7519,7 @@
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
       <c r="K130" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L130" s="10" t="s">
         <v>27</v>
@@ -7532,10 +7533,10 @@
         <v>35</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E131" s="14">
         <v>8</v>
@@ -7548,7 +7549,7 @@
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
       <c r="K131" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L131" s="10" t="s">
         <v>28</v>
@@ -7562,10 +7563,10 @@
         <v>42</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E132" s="14">
         <v>0.97</v>
@@ -7580,10 +7581,10 @@
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
       <c r="K132" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L132" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -7594,10 +7595,10 @@
         <v>43</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E133" s="14">
         <v>0.95</v>
@@ -7612,10 +7613,10 @@
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
       <c r="K133" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L133" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -7626,10 +7627,10 @@
         <v>52</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E134" s="14">
         <v>1000</v>
@@ -7647,7 +7648,7 @@
         <v>52</v>
       </c>
       <c r="L134" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -7658,10 +7659,10 @@
         <v>53</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E135" s="14">
         <v>1000</v>
@@ -7679,7 +7680,7 @@
         <v>53</v>
       </c>
       <c r="L135" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -7687,13 +7688,13 @@
         <v>55</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E136" s="14">
         <v>0.95</v>
@@ -7708,10 +7709,10 @@
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
       <c r="K136" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L136" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="L136" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -7719,13 +7720,13 @@
         <v>55</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E137" s="12">
         <v>180</v>
@@ -7740,10 +7741,10 @@
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
       <c r="K137" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -7751,13 +7752,13 @@
         <v>55</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E138" s="12">
         <v>-180</v>
@@ -7772,10 +7773,10 @@
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
       <c r="K138" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L138" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -7783,13 +7784,13 @@
         <v>55</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E139" s="12">
         <v>10</v>
@@ -7804,10 +7805,10 @@
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
       <c r="K139" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L139" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -7815,13 +7816,13 @@
         <v>55</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E140" s="12">
         <v>0.75</v>
@@ -7836,10 +7837,10 @@
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
       <c r="K140" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -7847,13 +7848,13 @@
         <v>55</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E141" s="14">
         <v>-1</v>
@@ -7868,10 +7869,10 @@
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
       <c r="K141" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -7879,13 +7880,13 @@
         <v>55</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E142" s="14">
         <v>0</v>
@@ -7897,19 +7898,19 @@
         <v>1</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K142" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L142" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -7917,19 +7918,19 @@
         <v>55</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E143" s="14">
         <v>10</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G143" s="11" t="b">
         <v>1</v>
@@ -7937,13 +7938,13 @@
       <c r="H143" s="10"/>
       <c r="I143" s="10"/>
       <c r="J143" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -7954,10 +7955,10 @@
         <v>33</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E144" s="14">
         <v>0</v>
@@ -7984,10 +7985,10 @@
         <v>36</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E145" s="14">
         <v>12.2</v>
@@ -8002,10 +8003,10 @@
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
       <c r="K145" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L145" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -8016,10 +8017,10 @@
         <v>50</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E146" s="14">
         <v>1000</v>
@@ -8034,10 +8035,10 @@
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
       <c r="K146" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L146" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -8048,10 +8049,10 @@
         <v>38</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E147" s="14">
         <v>0</v>
@@ -8066,10 +8067,10 @@
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
       <c r="K147" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L147" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -8080,10 +8081,10 @@
         <v>51</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E148" s="14">
         <v>1000</v>
@@ -8098,10 +8099,10 @@
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
       <c r="K148" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L148" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -8112,10 +8113,10 @@
         <v>39</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E149" s="14">
         <v>0</v>
@@ -8130,10 +8131,10 @@
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
       <c r="K149" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L149" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -8141,19 +8142,19 @@
         <v>55</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E150" s="14">
         <v>0</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G150" s="11" t="b">
         <v>0</v>
@@ -8162,10 +8163,10 @@
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
       <c r="K150" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="L150" s="10" t="s">
         <v>609</v>
-      </c>
-      <c r="L150" s="10" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -8173,13 +8174,13 @@
         <v>55</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E151" s="14">
         <v>0</v>
@@ -8194,10 +8195,10 @@
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
       <c r="K151" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L151" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -8205,13 +8206,13 @@
         <v>55</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E152" s="14">
         <v>0</v>
@@ -8226,10 +8227,10 @@
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
       <c r="K152" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L152" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -8237,13 +8238,13 @@
         <v>55</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E153" s="14">
         <v>0</v>
@@ -8258,10 +8259,10 @@
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
       <c r="K153" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L153" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -8269,13 +8270,13 @@
         <v>55</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E154" s="14">
         <v>0</v>
@@ -8290,10 +8291,10 @@
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
       <c r="K154" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L154" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -8301,13 +8302,13 @@
         <v>55</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E155" s="14">
         <v>0</v>
@@ -8322,10 +8323,10 @@
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
       <c r="K155" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L155" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -8333,13 +8334,13 @@
         <v>55</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E156" s="14">
         <v>0</v>
@@ -8354,10 +8355,10 @@
       <c r="I156" s="10"/>
       <c r="J156" s="10"/>
       <c r="K156" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L156" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -8365,13 +8366,13 @@
         <v>55</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E157" s="14">
         <v>1000</v>
@@ -8386,10 +8387,10 @@
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
       <c r="K157" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -8397,13 +8398,13 @@
         <v>55</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E158" s="14">
         <v>0</v>
@@ -8418,10 +8419,10 @@
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
       <c r="K158" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="L158" s="10" t="s">
         <v>590</v>
-      </c>
-      <c r="L158" s="10" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -8429,13 +8430,13 @@
         <v>55</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E159" s="14">
         <v>0</v>
@@ -8450,10 +8451,10 @@
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
       <c r="K159" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="L159" s="10" t="s">
         <v>588</v>
-      </c>
-      <c r="L159" s="10" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -8461,13 +8462,13 @@
         <v>55</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E160" s="14">
         <v>0</v>
@@ -8482,10 +8483,10 @@
       <c r="I160" s="10"/>
       <c r="J160" s="10"/>
       <c r="K160" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="L160" s="10" t="s">
         <v>605</v>
-      </c>
-      <c r="L160" s="10" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -8496,10 +8497,10 @@
         <v>54</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E161" s="12">
         <v>0</v>
@@ -8514,10 +8515,10 @@
       <c r="I161" s="10"/>
       <c r="J161" s="10"/>
       <c r="K161" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="L161" s="10" t="s">
         <v>901</v>
-      </c>
-      <c r="L161" s="10" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -8525,13 +8526,13 @@
         <v>55</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E162" s="14">
         <v>0</v>
@@ -8546,10 +8547,10 @@
       <c r="I162" s="10"/>
       <c r="J162" s="10"/>
       <c r="K162" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L162" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -8557,16 +8558,16 @@
         <v>69</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F163" s="11" t="s">
         <v>21</v>
@@ -8578,10 +8579,10 @@
       <c r="I163" s="10"/>
       <c r="J163" s="10"/>
       <c r="K163" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L163" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -8589,13 +8590,13 @@
         <v>69</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="11"/>
@@ -8606,10 +8607,10 @@
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
       <c r="K164" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L164" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="L164" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -8617,13 +8618,13 @@
         <v>69</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E165" s="12">
         <v>0</v>
@@ -8638,10 +8639,10 @@
       <c r="I165" s="10"/>
       <c r="J165" s="10"/>
       <c r="K165" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L165" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -8649,13 +8650,13 @@
         <v>69</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E166" s="12">
         <v>0</v>
@@ -8670,10 +8671,10 @@
       <c r="I166" s="10"/>
       <c r="J166" s="10"/>
       <c r="K166" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L166" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -8681,13 +8682,13 @@
         <v>69</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E167" s="12" t="b">
         <v>0</v>
@@ -8702,10 +8703,10 @@
       <c r="I167" s="10"/>
       <c r="J167" s="10"/>
       <c r="K167" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L167" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -8713,13 +8714,13 @@
         <v>69</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="11"/>
@@ -8730,10 +8731,10 @@
       <c r="I168" s="10"/>
       <c r="J168" s="10"/>
       <c r="K168" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L168" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="L168" s="10" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -8741,13 +8742,13 @@
         <v>69</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E169" s="12" t="b">
         <v>0</v>
@@ -8759,15 +8760,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I169" s="10"/>
       <c r="J169" s="10"/>
       <c r="K169" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L169" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="L169" s="10" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -8775,13 +8776,13 @@
         <v>69</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E170" s="12" t="b">
         <v>0</v>
@@ -8793,15 +8794,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I170" s="10"/>
       <c r="J170" s="10"/>
       <c r="K170" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="L170" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="L170" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -8809,13 +8810,13 @@
         <v>69</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E171" s="12" t="b">
         <v>1</v>
@@ -8827,15 +8828,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I171" s="10"/>
       <c r="J171" s="10"/>
       <c r="K171" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L171" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="L171" s="10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -8843,13 +8844,13 @@
         <v>69</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E172" s="12" t="b">
         <v>0</v>
@@ -8861,15 +8862,15 @@
         <v>1</v>
       </c>
       <c r="H172" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I172" s="10"/>
       <c r="J172" s="10"/>
       <c r="K172" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="L172" s="10" t="s">
         <v>880</v>
-      </c>
-      <c r="L172" s="10" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -8877,19 +8878,19 @@
         <v>69</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E173" s="12">
         <v>45</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G173" s="11" t="b">
         <v>1</v>
@@ -8898,10 +8899,10 @@
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
       <c r="K173" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L173" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -8909,13 +8910,13 @@
         <v>69</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E174" s="12">
         <v>1.3</v>
@@ -8930,10 +8931,10 @@
       <c r="I174" s="10"/>
       <c r="J174" s="10"/>
       <c r="K174" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L174" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -8941,13 +8942,13 @@
         <v>69</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E175" s="12">
         <v>2000</v>
@@ -8962,10 +8963,10 @@
       <c r="I175" s="10"/>
       <c r="J175" s="10"/>
       <c r="K175" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L175" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -8973,13 +8974,13 @@
         <v>69</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E176" s="12">
         <v>9.5</v>
@@ -8994,7 +8995,7 @@
       <c r="I176" s="10"/>
       <c r="J176" s="10"/>
       <c r="K176" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L176" s="10" t="s">
         <v>63</v>
@@ -9005,13 +9006,13 @@
         <v>69</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E177" s="12">
         <v>100</v>
@@ -9026,10 +9027,10 @@
       <c r="I177" s="10"/>
       <c r="J177" s="10"/>
       <c r="K177" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L177" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -9037,13 +9038,13 @@
         <v>69</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E178" s="12">
         <v>0.75</v>
@@ -9058,7 +9059,7 @@
       <c r="I178" s="10"/>
       <c r="J178" s="10"/>
       <c r="K178" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L178" s="10" t="s">
         <v>62</v>
@@ -9069,13 +9070,13 @@
         <v>69</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E179" s="12">
         <v>0</v>
@@ -9090,10 +9091,10 @@
       <c r="I179" s="10"/>
       <c r="J179" s="10"/>
       <c r="K179" s="10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L179" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -9101,13 +9102,13 @@
         <v>69</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E180" s="12">
         <v>0</v>
@@ -9122,10 +9123,10 @@
       <c r="I180" s="10"/>
       <c r="J180" s="10"/>
       <c r="K180" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L180" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -9133,19 +9134,19 @@
         <v>69</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E181" s="12">
         <v>0</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G181" s="11" t="b">
         <v>0</v>
@@ -9154,10 +9155,10 @@
       <c r="I181" s="10"/>
       <c r="J181" s="10"/>
       <c r="K181" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L181" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -9165,19 +9166,19 @@
         <v>69</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E182" s="12">
         <v>0</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G182" s="11" t="b">
         <v>0</v>
@@ -9186,10 +9187,10 @@
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
       <c r="K182" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L182" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -9197,13 +9198,13 @@
         <v>69</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E183" s="12">
         <v>0</v>
@@ -9218,10 +9219,10 @@
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
       <c r="K183" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L183" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -9229,13 +9230,13 @@
         <v>69</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E184" s="12">
         <v>0</v>
@@ -9250,24 +9251,24 @@
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
       <c r="K184" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L184" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E185" s="12">
         <v>1</v>
@@ -9277,36 +9278,36 @@
         <v>1</v>
       </c>
       <c r="H185" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J185" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K185" s="10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L185" s="10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F186" s="11"/>
       <c r="G186" s="11" t="b">
@@ -9320,16 +9321,16 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E187" s="12">
         <v>1E-4</v>
@@ -9344,24 +9345,24 @@
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
       <c r="K187" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="L187" s="10" t="s">
         <v>726</v>
-      </c>
-      <c r="L187" s="10" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E188" s="12">
         <v>0.35</v>
@@ -9375,27 +9376,27 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
       <c r="J188" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K188" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="L188" s="10" t="s">
         <v>734</v>
-      </c>
-      <c r="L188" s="10" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E189" s="12">
         <v>20</v>
@@ -9409,27 +9410,27 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
       <c r="J189" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K189" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="L189" s="10" t="s">
         <v>728</v>
-      </c>
-      <c r="L189" s="10" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E190" s="12">
         <v>5</v>
@@ -9443,27 +9444,27 @@
       <c r="H190" s="10"/>
       <c r="I190" s="10"/>
       <c r="J190" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K190" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="L190" s="10" t="s">
         <v>730</v>
-      </c>
-      <c r="L190" s="10" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E191" s="12">
         <v>200</v>
@@ -9478,24 +9479,24 @@
       <c r="I191" s="10"/>
       <c r="J191" s="10"/>
       <c r="K191" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L191" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="B192" s="9" t="s">
-        <v>716</v>
-      </c>
       <c r="C192" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E192" s="12">
         <v>0.06</v>
@@ -9510,24 +9511,24 @@
       <c r="I192" s="10"/>
       <c r="J192" s="10"/>
       <c r="K192" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L192" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E193" s="12">
         <v>2</v>
@@ -9542,24 +9543,24 @@
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
       <c r="K193" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="L193" s="10" t="s">
         <v>736</v>
-      </c>
-      <c r="L193" s="10" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E194" s="12"/>
       <c r="F194" s="11" t="s">
@@ -9572,24 +9573,24 @@
       <c r="I194" s="10"/>
       <c r="J194" s="10"/>
       <c r="K194" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L194" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E195" s="12"/>
       <c r="F195" s="11" t="s">
@@ -9601,30 +9602,30 @@
       <c r="H195" s="10"/>
       <c r="I195" s="10"/>
       <c r="J195" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K195" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="L195" s="10" t="s">
         <v>732</v>
-      </c>
-      <c r="L195" s="10" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F196" s="11" t="s">
         <v>21</v>
@@ -9636,27 +9637,27 @@
       <c r="I196" s="10"/>
       <c r="J196" s="10"/>
       <c r="K196" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L196" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B197" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="B197" s="9" t="s">
-        <v>505</v>
-      </c>
       <c r="C197" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F197" s="11"/>
       <c r="G197" s="11" t="b">
@@ -9666,27 +9667,27 @@
       <c r="I197" s="10"/>
       <c r="J197" s="10"/>
       <c r="K197" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L197" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F198" s="11"/>
       <c r="G198" s="11" t="b">
@@ -9696,24 +9697,24 @@
       <c r="I198" s="10"/>
       <c r="J198" s="10"/>
       <c r="K198" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L198" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E199" s="12">
         <v>0</v>
@@ -9723,31 +9724,31 @@
         <v>0</v>
       </c>
       <c r="H199" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J199" s="10"/>
       <c r="K199" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="L199" s="10" t="s">
         <v>517</v>
-      </c>
-      <c r="L199" s="10" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E200" s="12" t="b">
         <v>1</v>
@@ -9757,29 +9758,29 @@
         <v>0</v>
       </c>
       <c r="H200" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I200" s="10"/>
       <c r="J200" s="10"/>
       <c r="K200" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="L200" s="10" t="s">
         <v>519</v>
-      </c>
-      <c r="L200" s="10" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E201" s="12" t="b">
         <v>0</v>
@@ -9791,29 +9792,29 @@
         <v>0</v>
       </c>
       <c r="H201" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I201" s="10"/>
       <c r="J201" s="10"/>
       <c r="K201" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L201" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E202" s="12" t="b">
         <v>0</v>
@@ -9825,29 +9826,29 @@
         <v>0</v>
       </c>
       <c r="H202" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I202" s="10"/>
       <c r="J202" s="10"/>
       <c r="K202" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L202" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E203" s="12" t="b">
         <v>0</v>
@@ -9859,29 +9860,29 @@
         <v>0</v>
       </c>
       <c r="H203" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I203" s="10"/>
       <c r="J203" s="10"/>
       <c r="K203" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L203" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E204" s="12" t="b">
         <v>0</v>
@@ -9893,29 +9894,29 @@
         <v>0</v>
       </c>
       <c r="H204" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I204" s="10"/>
       <c r="J204" s="10"/>
       <c r="K204" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="L204" s="10" t="s">
         <v>652</v>
-      </c>
-      <c r="L204" s="10" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E205" s="12" t="b">
         <v>0</v>
@@ -9927,29 +9928,29 @@
         <v>0</v>
       </c>
       <c r="H205" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I205" s="10"/>
       <c r="J205" s="10"/>
       <c r="K205" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="L205" s="10" t="s">
         <v>655</v>
-      </c>
-      <c r="L205" s="10" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E206" s="12" t="b">
         <v>0</v>
@@ -9961,29 +9962,29 @@
         <v>0</v>
       </c>
       <c r="H206" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I206" s="10"/>
       <c r="J206" s="10"/>
       <c r="K206" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="L206" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E207" s="12" t="b">
         <v>0</v>
@@ -9995,29 +9996,29 @@
         <v>0</v>
       </c>
       <c r="H207" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I207" s="10"/>
       <c r="J207" s="10"/>
       <c r="K207" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L207" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E208" s="12" t="b">
         <v>0</v>
@@ -10029,29 +10030,29 @@
         <v>0</v>
       </c>
       <c r="H208" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I208" s="10"/>
       <c r="J208" s="10"/>
       <c r="K208" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L208" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E209" s="12" t="b">
         <v>0</v>
@@ -10063,29 +10064,29 @@
         <v>0</v>
       </c>
       <c r="H209" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I209" s="10"/>
       <c r="J209" s="10"/>
       <c r="K209" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L209" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E210" s="12" t="b">
         <v>0</v>
@@ -10097,29 +10098,29 @@
         <v>0</v>
       </c>
       <c r="H210" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I210" s="10"/>
       <c r="J210" s="10"/>
       <c r="K210" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L210" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E211" s="12"/>
       <c r="F211" s="11"/>
@@ -10130,24 +10131,24 @@
       <c r="I211" s="10"/>
       <c r="J211" s="10"/>
       <c r="K211" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L211" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E212" s="12"/>
       <c r="F212" s="11" t="s">
@@ -10160,24 +10161,24 @@
       <c r="I212" s="10"/>
       <c r="J212" s="10"/>
       <c r="K212" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L212" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E213" s="12">
         <v>0</v>
@@ -10189,17 +10190,17 @@
         <v>0</v>
       </c>
       <c r="H213" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I213" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J213" s="10"/>
       <c r="K213" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="L213" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -10207,13 +10208,13 @@
         <v>8</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E214" s="12">
         <v>0.94</v>
@@ -10228,10 +10229,10 @@
       <c r="I214" s="10"/>
       <c r="J214" s="10"/>
       <c r="K214" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="L214" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="L214" s="10" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -10239,13 +10240,13 @@
         <v>8</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E215" s="12">
         <v>0</v>
@@ -10257,17 +10258,17 @@
         <v>1</v>
       </c>
       <c r="H215" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I215" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J215" s="10"/>
       <c r="K215" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="L215" s="10" t="s">
         <v>706</v>
-      </c>
-      <c r="L215" s="10" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -10275,13 +10276,13 @@
         <v>8</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E216" s="12">
         <v>180</v>
@@ -10296,10 +10297,10 @@
       <c r="I216" s="10"/>
       <c r="J216" s="10"/>
       <c r="K216" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="L216" s="10" t="s">
         <v>708</v>
-      </c>
-      <c r="L216" s="10" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -10307,13 +10308,13 @@
         <v>8</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E217" s="12">
         <v>180</v>
@@ -10328,10 +10329,10 @@
       <c r="I217" s="10"/>
       <c r="J217" s="10"/>
       <c r="K217" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="L217" s="10" t="s">
         <v>710</v>
-      </c>
-      <c r="L217" s="10" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -10339,13 +10340,13 @@
         <v>8</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E218" s="12">
         <v>0</v>
@@ -10355,17 +10356,17 @@
         <v>1</v>
       </c>
       <c r="H218" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I218" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J218" s="10"/>
       <c r="K218" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="L218" s="10" t="s">
         <v>415</v>
-      </c>
-      <c r="L218" s="10" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -10373,13 +10374,13 @@
         <v>8</v>
       </c>
       <c r="B219" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D219" s="9" t="s">
         <v>836</v>
-      </c>
-      <c r="C219" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="D219" s="9" t="s">
-        <v>837</v>
       </c>
       <c r="E219" s="14">
         <v>0</v>
@@ -10394,10 +10395,10 @@
       <c r="I219" s="10"/>
       <c r="J219" s="10"/>
       <c r="K219" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L219" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -10405,16 +10406,16 @@
         <v>8</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F220" s="11" t="s">
         <v>21</v>
@@ -10426,10 +10427,10 @@
       <c r="I220" s="10"/>
       <c r="J220" s="10"/>
       <c r="K220" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L220" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -10440,10 +10441,10 @@
         <v>29</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E221" s="12">
         <v>-1</v>
@@ -10456,10 +10457,10 @@
       <c r="I221" s="10"/>
       <c r="J221" s="10"/>
       <c r="K221" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L221" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -10467,13 +10468,13 @@
         <v>8</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E222" s="12" t="b">
         <v>1</v>
@@ -10483,15 +10484,15 @@
         <v>0</v>
       </c>
       <c r="H222" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I222" s="10"/>
       <c r="J222" s="10"/>
       <c r="K222" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="L222" s="10" t="s">
         <v>713</v>
-      </c>
-      <c r="L222" s="10" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -10499,13 +10500,13 @@
         <v>8</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E223" s="12" t="b">
         <v>1</v>
@@ -10518,10 +10519,10 @@
       <c r="I223" s="10"/>
       <c r="J223" s="10"/>
       <c r="K223" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L223" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -10529,13 +10530,13 @@
         <v>8</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E224" s="12" t="b">
         <v>0</v>
@@ -10545,17 +10546,17 @@
         <v>0</v>
       </c>
       <c r="H224" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I224" s="10"/>
       <c r="J224" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K224" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="L224" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="L224" s="10" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -10563,13 +10564,13 @@
         <v>8</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E225" s="12" t="b">
         <v>0</v>
@@ -10579,17 +10580,17 @@
         <v>1</v>
       </c>
       <c r="H225" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I225" s="10"/>
       <c r="J225" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K225" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="L225" s="10" t="s">
         <v>411</v>
-      </c>
-      <c r="L225" s="10" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -10597,13 +10598,13 @@
         <v>8</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E226" s="12">
         <v>12</v>
@@ -10617,13 +10618,13 @@
       <c r="H226" s="10"/>
       <c r="I226" s="10"/>
       <c r="J226" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K226" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="L226" s="10" t="s">
         <v>405</v>
-      </c>
-      <c r="L226" s="10" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -10631,13 +10632,13 @@
         <v>8</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E227" s="12">
         <v>0</v>
@@ -10651,13 +10652,13 @@
       <c r="H227" s="10"/>
       <c r="I227" s="10"/>
       <c r="J227" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="K227" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="L227" s="10" t="s">
         <v>641</v>
-      </c>
-      <c r="K227" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="L227" s="10" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -10665,19 +10666,19 @@
         <v>8</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E228" s="12">
         <v>1000</v>
       </c>
       <c r="F228" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G228" s="11" t="b">
         <v>1</v>
@@ -10686,10 +10687,10 @@
       <c r="I228" s="10"/>
       <c r="J228" s="10"/>
       <c r="K228" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="L228" s="10" t="s">
         <v>293</v>
-      </c>
-      <c r="L228" s="10" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -10697,19 +10698,19 @@
         <v>8</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E229" s="12">
         <v>10.199999999999999</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G229" s="11" t="b">
         <v>1</v>
@@ -10718,10 +10719,10 @@
       <c r="I229" s="10"/>
       <c r="J229" s="10"/>
       <c r="K229" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="L229" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="L229" s="10" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -10729,19 +10730,19 @@
         <v>8</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E230" s="12">
         <v>0</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G230" s="11" t="b">
         <v>1</v>
@@ -10750,10 +10751,10 @@
       <c r="I230" s="10"/>
       <c r="J230" s="10"/>
       <c r="K230" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="L230" s="10" t="s">
         <v>572</v>
-      </c>
-      <c r="L230" s="10" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -10764,10 +10765,10 @@
         <v>15</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E231" s="12">
         <v>0</v>
@@ -10782,10 +10783,10 @@
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
       <c r="K231" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L231" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -10793,13 +10794,13 @@
         <v>8</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E232" s="12">
         <v>0</v>
@@ -10813,13 +10814,13 @@
       <c r="H232" s="10"/>
       <c r="I232" s="10"/>
       <c r="J232" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K232" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="L232" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="L232" s="10" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -10827,13 +10828,13 @@
         <v>8</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E233" s="12">
         <v>7.75</v>
@@ -10847,13 +10848,13 @@
       <c r="H233" s="10"/>
       <c r="I233" s="10"/>
       <c r="J233" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K233" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L233" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -10864,10 +10865,10 @@
         <v>11</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E234" s="12">
         <v>17.649999999999999</v>
@@ -10882,10 +10883,10 @@
       <c r="I234" s="10"/>
       <c r="J234" s="10"/>
       <c r="K234" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L234" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -10893,13 +10894,13 @@
         <v>8</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E235" s="12">
         <v>0</v>
@@ -10914,10 +10915,10 @@
       <c r="I235" s="10"/>
       <c r="J235" s="10"/>
       <c r="K235" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="L235" s="10" t="s">
         <v>430</v>
-      </c>
-      <c r="L235" s="10" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -10928,10 +10929,10 @@
         <v>12</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E236" s="12">
         <v>21.6</v>
@@ -10946,10 +10947,10 @@
       <c r="I236" s="10"/>
       <c r="J236" s="10"/>
       <c r="K236" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L236" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -10957,16 +10958,16 @@
         <v>8</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E237" s="12" t="s">
         <v>314</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="D237" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E237" s="12" t="s">
-        <v>315</v>
       </c>
       <c r="F237" s="11"/>
       <c r="G237" s="11" t="b">
@@ -10976,10 +10977,10 @@
       <c r="I237" s="10"/>
       <c r="J237" s="10"/>
       <c r="K237" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L237" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -10990,10 +10991,10 @@
         <v>16</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E238" s="12">
         <v>0</v>
@@ -11008,10 +11009,10 @@
       <c r="I238" s="10"/>
       <c r="J238" s="10"/>
       <c r="K238" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L238" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -11022,10 +11023,10 @@
         <v>17</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E239" s="12">
         <v>0</v>
@@ -11040,10 +11041,10 @@
       <c r="I239" s="10"/>
       <c r="J239" s="10"/>
       <c r="K239" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L239" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -11051,13 +11052,13 @@
         <v>8</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E240" s="12">
         <v>0</v>
@@ -11072,10 +11073,10 @@
       <c r="I240" s="10"/>
       <c r="J240" s="10"/>
       <c r="K240" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L240" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -11086,10 +11087,10 @@
         <v>20</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E241" s="12">
         <v>0</v>
@@ -11101,17 +11102,17 @@
         <v>0</v>
       </c>
       <c r="H241" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I241" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J241" s="10"/>
       <c r="K241" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L241" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -11122,10 +11123,10 @@
         <v>10</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E242" s="12">
         <v>17</v>
@@ -11140,10 +11141,10 @@
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
       <c r="K242" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L242" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -11151,13 +11152,13 @@
         <v>8</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E243" s="12">
         <v>180</v>
@@ -11171,13 +11172,13 @@
       <c r="H243" s="10"/>
       <c r="I243" s="10"/>
       <c r="J243" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K243" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="L243" s="10" t="s">
         <v>421</v>
-      </c>
-      <c r="L243" s="10" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -11185,13 +11186,13 @@
         <v>8</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E244" s="12">
         <v>-180</v>
@@ -11205,13 +11206,13 @@
       <c r="H244" s="10"/>
       <c r="I244" s="10"/>
       <c r="J244" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K244" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="L244" s="10" t="s">
         <v>419</v>
-      </c>
-      <c r="L244" s="10" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -11219,19 +11220,19 @@
         <v>8</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E245" s="12">
         <v>30</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G245" s="11" t="b">
         <v>1</v>
@@ -11240,10 +11241,10 @@
       <c r="I245" s="10"/>
       <c r="J245" s="10"/>
       <c r="K245" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="L245" s="10" t="s">
         <v>563</v>
-      </c>
-      <c r="L245" s="10" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -11251,16 +11252,16 @@
         <v>8</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F246" s="11" t="s">
         <v>21</v>
@@ -11272,10 +11273,10 @@
       <c r="I246" s="10"/>
       <c r="J246" s="10"/>
       <c r="K246" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L246" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -11283,16 +11284,16 @@
         <v>8</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F247" s="11" t="s">
         <v>21</v>
@@ -11304,10 +11305,10 @@
       <c r="I247" s="10"/>
       <c r="J247" s="10"/>
       <c r="K247" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L247" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -11315,19 +11316,19 @@
         <v>8</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E248" s="12">
         <v>0</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G248" s="11" t="b">
         <v>0</v>
@@ -11336,10 +11337,10 @@
       <c r="I248" s="10"/>
       <c r="J248" s="10"/>
       <c r="K248" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L248" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -11350,10 +11351,10 @@
         <v>25</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E249" s="12">
         <v>195</v>
@@ -11368,10 +11369,10 @@
       <c r="I249" s="10"/>
       <c r="J249" s="10"/>
       <c r="K249" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L249" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -11379,19 +11380,19 @@
         <v>8</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E250" s="12">
         <v>0</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G250" s="11" t="b">
         <v>0</v>
@@ -11400,10 +11401,10 @@
       <c r="I250" s="10"/>
       <c r="J250" s="10"/>
       <c r="K250" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="L250" s="10" t="s">
         <v>579</v>
-      </c>
-      <c r="L250" s="10" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -11411,13 +11412,13 @@
         <v>8</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E251" s="12">
         <v>1.2</v>
@@ -11432,10 +11433,10 @@
       <c r="I251" s="10"/>
       <c r="J251" s="10"/>
       <c r="K251" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L251" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="L251" s="10" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -11443,13 +11444,13 @@
         <v>8</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E252" s="12">
         <v>0</v>
@@ -11464,10 +11465,10 @@
       <c r="I252" s="10"/>
       <c r="J252" s="10"/>
       <c r="K252" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L252" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -11475,19 +11476,19 @@
         <v>8</v>
       </c>
       <c r="B253" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E253" s="12">
+        <v>0</v>
+      </c>
+      <c r="F253" s="11" t="s">
         <v>574</v>
-      </c>
-      <c r="C253" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E253" s="12">
-        <v>0</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>575</v>
       </c>
       <c r="G253" s="11" t="b">
         <v>0</v>
@@ -11496,10 +11497,10 @@
       <c r="I253" s="10"/>
       <c r="J253" s="10"/>
       <c r="K253" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="L253" s="10" t="s">
         <v>576</v>
-      </c>
-      <c r="L253" s="10" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -11510,10 +11511,10 @@
         <v>19</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E254" s="12">
         <v>180</v>
@@ -11528,10 +11529,10 @@
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L254" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -11542,10 +11543,10 @@
         <v>18</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E255" s="12">
         <v>-180</v>
@@ -11560,10 +11561,10 @@
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
       <c r="K255" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L255" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -11571,13 +11572,13 @@
         <v>4</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E256" s="12">
         <v>2</v>
@@ -11592,10 +11593,10 @@
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
       <c r="K256" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L256" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -11603,16 +11604,16 @@
         <v>4</v>
       </c>
       <c r="B257" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E257" s="12" t="s">
         <v>546</v>
-      </c>
-      <c r="C257" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="D257" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E257" s="12" t="s">
-        <v>547</v>
       </c>
       <c r="F257" s="11" t="s">
         <v>21</v>
@@ -11624,10 +11625,10 @@
       <c r="I257" s="10"/>
       <c r="J257" s="10"/>
       <c r="K257" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L257" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -11635,13 +11636,13 @@
         <v>4</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E258" s="12">
         <v>5</v>
@@ -11653,17 +11654,17 @@
         <v>1</v>
       </c>
       <c r="H258" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I258" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J258" s="10"/>
       <c r="K258" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L258" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -11671,13 +11672,13 @@
         <v>4</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E259" s="12">
         <v>4</v>
@@ -11692,10 +11693,10 @@
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
       <c r="K259" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="L259" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="L259" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -11703,13 +11704,13 @@
         <v>4</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E260" s="12">
         <v>2</v>
@@ -11724,10 +11725,10 @@
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
       <c r="K260" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="L260" s="10" t="s">
         <v>584</v>
-      </c>
-      <c r="L260" s="10" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -11735,19 +11736,19 @@
         <v>4</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E261" s="12">
         <v>950</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G261" s="11" t="b">
         <v>1</v>
@@ -11756,10 +11757,10 @@
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
       <c r="K261" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="L261" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="L261" s="10" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -11767,13 +11768,13 @@
         <v>4</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E262" s="12">
         <v>7</v>
@@ -11785,17 +11786,17 @@
         <v>1</v>
       </c>
       <c r="H262" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I262" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J262" s="10"/>
       <c r="K262" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L262" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
@@ -11803,13 +11804,13 @@
         <v>4</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E263" s="12" t="b">
         <v>0</v>
@@ -11821,15 +11822,15 @@
         <v>1</v>
       </c>
       <c r="H263" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I263" s="10"/>
       <c r="J263" s="10"/>
       <c r="K263" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="L263" s="10" t="s">
         <v>893</v>
-      </c>
-      <c r="L263" s="10" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -11837,13 +11838,13 @@
         <v>4</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E264" s="12" t="b">
         <v>1</v>
@@ -11855,15 +11856,15 @@
         <v>0</v>
       </c>
       <c r="H264" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
       <c r="K264" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="L264" s="10" t="s">
         <v>638</v>
-      </c>
-      <c r="L264" s="10" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -11871,13 +11872,13 @@
         <v>4</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E265" s="12" t="b">
         <v>0</v>
@@ -11889,15 +11890,15 @@
         <v>1</v>
       </c>
       <c r="H265" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I265" s="10"/>
       <c r="J265" s="10"/>
       <c r="K265" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="L265" s="10" t="s">
         <v>611</v>
-      </c>
-      <c r="L265" s="10" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -11905,13 +11906,13 @@
         <v>4</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E266" s="12" t="b">
         <v>1</v>
@@ -11923,15 +11924,15 @@
         <v>0</v>
       </c>
       <c r="H266" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
       <c r="K266" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L266" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="L266" s="10" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -11939,13 +11940,13 @@
         <v>4</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E267" s="12"/>
       <c r="F267" s="11"/>
@@ -11956,10 +11957,10 @@
       <c r="I267" s="10"/>
       <c r="J267" s="10"/>
       <c r="K267" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L267" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -11970,10 +11971,10 @@
         <v>6</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E268" s="12">
         <v>0</v>
@@ -11985,14 +11986,14 @@
         <v>0</v>
       </c>
       <c r="H268" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I268" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="I268" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="J268" s="10"/>
       <c r="K268" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L268" s="10" t="s">
         <v>65</v>
@@ -12003,19 +12004,19 @@
         <v>4</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E269" s="12">
         <v>1</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G269" s="11" t="b">
         <v>1</v>
@@ -12024,10 +12025,10 @@
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
       <c r="K269" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L269" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -12035,19 +12036,19 @@
         <v>4</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E270" s="12">
         <v>1</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G270" s="11" t="b">
         <v>1</v>
@@ -12056,10 +12057,10 @@
       <c r="I270" s="10"/>
       <c r="J270" s="10"/>
       <c r="K270" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L270" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -12067,19 +12068,19 @@
         <v>4</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E271" s="12">
         <v>0.1</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G271" s="11" t="b">
         <v>1</v>
@@ -12088,10 +12089,10 @@
       <c r="I271" s="10"/>
       <c r="J271" s="10"/>
       <c r="K271" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L271" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -12099,19 +12100,19 @@
         <v>4</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E272" s="12">
         <v>0.1</v>
       </c>
       <c r="F272" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G272" s="11" t="b">
         <v>1</v>
@@ -12120,10 +12121,10 @@
       <c r="I272" s="10"/>
       <c r="J272" s="10"/>
       <c r="K272" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L272" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -12131,13 +12132,13 @@
         <v>4</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E273" s="12">
         <v>0.03</v>
@@ -12152,10 +12153,10 @@
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
       <c r="K273" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="L273" s="10" t="s">
         <v>615</v>
-      </c>
-      <c r="L273" s="10" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -12166,16 +12167,16 @@
         <v>5</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E274" s="12">
         <v>670</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G274" s="11" t="b">
         <v>1</v>
@@ -12184,7 +12185,7 @@
       <c r="I274" s="10"/>
       <c r="J274" s="10"/>
       <c r="K274" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L274" s="10" t="s">
         <v>64</v>
@@ -12195,13 +12196,13 @@
         <v>4</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E275" s="12">
         <v>0</v>
@@ -12213,17 +12214,17 @@
         <v>1</v>
       </c>
       <c r="H275" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I275" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J275" s="10"/>
       <c r="K275" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L275" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -12231,13 +12232,13 @@
         <v>4</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E276" s="12">
         <v>1.1000000000000001</v>
@@ -12252,10 +12253,10 @@
       <c r="I276" s="10"/>
       <c r="J276" s="10"/>
       <c r="K276" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L276" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
@@ -12263,13 +12264,13 @@
         <v>4</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E277" s="12">
         <v>1.1000000000000001</v>
@@ -12284,10 +12285,10 @@
       <c r="I277" s="10"/>
       <c r="J277" s="10"/>
       <c r="K277" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L277" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -12298,10 +12299,10 @@
         <v>14</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E278" s="12">
         <v>195</v>
@@ -12316,7 +12317,7 @@
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
       <c r="K278" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L278" s="10" t="s">
         <v>68</v>
@@ -12330,10 +12331,10 @@
         <v>13</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E279" s="12">
         <v>16</v>
@@ -12348,7 +12349,7 @@
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
       <c r="K279" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L279" s="10" t="s">
         <v>67</v>
@@ -12359,13 +12360,13 @@
         <v>4</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E280" s="12">
         <v>0.5</v>
@@ -12380,10 +12381,10 @@
       <c r="I280" s="10"/>
       <c r="J280" s="10"/>
       <c r="K280" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L280" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -12391,13 +12392,13 @@
         <v>4</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E281" s="12">
         <v>1.33</v>
@@ -12412,10 +12413,10 @@
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
       <c r="K281" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L281" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -12423,13 +12424,13 @@
         <v>4</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E282" s="12">
         <v>180</v>
@@ -12444,10 +12445,10 @@
       <c r="I282" s="10"/>
       <c r="J282" s="10"/>
       <c r="K282" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L282" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -12455,13 +12456,13 @@
         <v>4</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E283" s="12">
         <v>85</v>
@@ -12476,10 +12477,10 @@
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
       <c r="K283" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L283" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -12487,13 +12488,13 @@
         <v>4</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E284" s="12">
         <v>0</v>
@@ -12505,17 +12506,17 @@
         <v>1</v>
       </c>
       <c r="H284" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I284" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J284" s="10"/>
       <c r="K284" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="L284" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="L284" s="10" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -12523,13 +12524,13 @@
         <v>4</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E285" s="12">
         <v>0</v>
@@ -12541,15 +12542,15 @@
         <v>1</v>
       </c>
       <c r="H285" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
       <c r="K285" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="L285" s="10" t="s">
         <v>776</v>
-      </c>
-      <c r="L285" s="10" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -12557,13 +12558,13 @@
         <v>4</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E286" s="12">
         <v>0</v>
@@ -12573,17 +12574,17 @@
         <v>1</v>
       </c>
       <c r="H286" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I286" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J286" s="10"/>
       <c r="K286" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L286" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -12594,10 +12595,10 @@
         <v>9</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E287" s="12">
         <v>195</v>
@@ -12612,10 +12613,10 @@
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
       <c r="K287" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L287" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="L287" s="10" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -12623,13 +12624,13 @@
         <v>4</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E288" s="12">
         <v>1</v>
@@ -12644,10 +12645,10 @@
       <c r="I288" s="10"/>
       <c r="J288" s="10"/>
       <c r="K288" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="L288" s="10" t="s">
         <v>789</v>
-      </c>
-      <c r="L288" s="10" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -12655,13 +12656,13 @@
         <v>4</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E289" s="12">
         <v>0</v>
@@ -12671,17 +12672,17 @@
         <v>1</v>
       </c>
       <c r="H289" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I289" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J289" s="10"/>
       <c r="K289" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L289" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -12689,13 +12690,13 @@
         <v>4</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E290" s="12">
         <v>1</v>
@@ -12710,10 +12711,10 @@
       <c r="I290" s="10"/>
       <c r="J290" s="10"/>
       <c r="K290" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L290" s="10" t="s">
         <v>543</v>
-      </c>
-      <c r="L290" s="10" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -12721,13 +12722,13 @@
         <v>4</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E291" s="12">
         <v>1E-3</v>
@@ -12742,10 +12743,10 @@
       <c r="I291" s="10"/>
       <c r="J291" s="10"/>
       <c r="K291" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L291" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -12753,19 +12754,19 @@
         <v>4</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E292" s="12">
         <v>0</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G292" s="11" t="b">
         <v>0</v>
@@ -12774,10 +12775,10 @@
       <c r="I292" s="10"/>
       <c r="J292" s="10"/>
       <c r="K292" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="L292" s="10" t="s">
         <v>832</v>
-      </c>
-      <c r="L292" s="10" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -12785,19 +12786,19 @@
         <v>4</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E293" s="12">
         <v>0</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G293" s="11" t="b">
         <v>0</v>
@@ -12806,10 +12807,10 @@
       <c r="I293" s="10"/>
       <c r="J293" s="10"/>
       <c r="K293" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L293" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -12817,13 +12818,13 @@
         <v>4</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E294" s="12"/>
       <c r="F294" s="11" t="s">
@@ -12836,10 +12837,10 @@
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
       <c r="K294" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L294" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -12847,13 +12848,13 @@
         <v>4</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E295" s="12">
         <v>0</v>
@@ -12868,10 +12869,10 @@
       <c r="I295" s="10"/>
       <c r="J295" s="10"/>
       <c r="K295" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L295" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -12879,13 +12880,13 @@
         <v>4</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E296" s="12">
         <v>0</v>
@@ -12900,10 +12901,10 @@
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
       <c r="K296" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L296" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C58C90D-A838-4B59-AAE4-5742A2B2984E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33407DEE-4EF9-46F1-B065-BD188AFA0F44}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="8220" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="907">
   <si>
     <t>String name</t>
   </si>
@@ -2724,6 +2724,18 @@
   </si>
   <si>
     <t>USA CA Daggett (TMY2).csv</t>
+  </si>
+  <si>
+    <t>interaction_limit</t>
+  </si>
+  <si>
+    <t>Multiply the heliostat height to determine the radius of possible interaction with other heliostats</t>
+  </si>
+  <si>
+    <t>Heliostat shading interaction limit</t>
+  </si>
+  <si>
+    <t>helio-ht</t>
   </si>
 </sst>
 </file>
@@ -2962,10 +2974,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L296" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L296" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:L306">
-    <sortCondition ref="A1:A306"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L297" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L297" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:L307">
+    <sortCondition ref="A1:A307"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain" dataDxfId="11"/>
@@ -3306,11 +3318,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L296"/>
+  <dimension ref="A1:L297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L296"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12754,31 +12766,31 @@
         <v>4</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>828</v>
+        <v>903</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E292" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>308</v>
+        <v>906</v>
       </c>
       <c r="G292" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
       <c r="J292" s="10"/>
       <c r="K292" s="10" t="s">
-        <v>831</v>
+        <v>905</v>
       </c>
       <c r="L292" s="10" t="s">
-        <v>832</v>
+        <v>904</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -12786,7 +12798,7 @@
         <v>4</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>816</v>
@@ -12807,10 +12819,10 @@
       <c r="I293" s="10"/>
       <c r="J293" s="10"/>
       <c r="K293" s="10" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="L293" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -12818,17 +12830,19 @@
         <v>4</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>389</v>
+        <v>827</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>816</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>813</v>
-      </c>
-      <c r="E294" s="12"/>
+        <v>806</v>
+      </c>
+      <c r="E294" s="12">
+        <v>0</v>
+      </c>
       <c r="F294" s="11" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="G294" s="11" t="b">
         <v>0</v>
@@ -12837,10 +12851,10 @@
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
       <c r="K294" s="10" t="s">
-        <v>390</v>
+        <v>801</v>
       </c>
       <c r="L294" s="10" t="s">
-        <v>390</v>
+        <v>833</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -12848,19 +12862,17 @@
         <v>4</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>856</v>
+        <v>389</v>
       </c>
       <c r="C295" s="9" t="s">
         <v>816</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E295" s="12">
-        <v>0</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="E295" s="12"/>
       <c r="F295" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G295" s="11" t="b">
         <v>0</v>
@@ -12869,10 +12881,10 @@
       <c r="I295" s="10"/>
       <c r="J295" s="10"/>
       <c r="K295" s="10" t="s">
-        <v>859</v>
+        <v>390</v>
       </c>
       <c r="L295" s="10" t="s">
-        <v>859</v>
+        <v>390</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -12880,7 +12892,7 @@
         <v>4</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C296" s="9" t="s">
         <v>816</v>
@@ -12901,9 +12913,41 @@
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
       <c r="K296" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="L296" s="10" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A297" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E297" s="12">
+        <v>0</v>
+      </c>
+      <c r="F297" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G297" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H297" s="10"/>
+      <c r="I297" s="10"/>
+      <c r="J297" s="10"/>
+      <c r="K297" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="L296" s="10" t="s">
+      <c r="L297" s="10" t="s">
         <v>860</v>
       </c>
     </row>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33407DEE-4EF9-46F1-B065-BD188AFA0F44}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E416C80-ABF0-4C6A-956A-3981FEC94781}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="8220" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3321,8 +3321,8 @@
   <dimension ref="A1:L297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G292" sqref="G292"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5607,7 +5607,7 @@
         <v>21</v>
       </c>
       <c r="G71" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>131</v>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E416C80-ABF0-4C6A-956A-3981FEC94781}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C5E650-6B7D-4199-9A48-FADCA6769DB7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="8220" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="913">
   <si>
     <t>String name</t>
   </si>
@@ -2736,6 +2736,24 @@
   </si>
   <si>
     <t>helio-ht</t>
+  </si>
+  <si>
+    <t>power_fraction</t>
+  </si>
+  <si>
+    <t>Multi-receiver power fraction</t>
+  </si>
+  <si>
+    <t>Target fraction of absorbed energy delivered by the heliostat field in configurations with multiple receivers</t>
+  </si>
+  <si>
+    <t>is_multirec_powfrac</t>
+  </si>
+  <si>
+    <t>Specify multi-receiver power fractions</t>
+  </si>
+  <si>
+    <t>Enables the user to specify the fraction of power delivered from the heliostat to each receiver</t>
   </si>
 </sst>
 </file>
@@ -2974,10 +2992,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L297" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L297" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:L307">
-    <sortCondition ref="A1:A307"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L299" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:L309">
+    <sortCondition ref="A1:A309"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain" dataDxfId="11"/>
@@ -3318,11 +3336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L297"/>
+  <dimension ref="A1:L299"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10710,7 +10728,7 @@
         <v>8</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>307</v>
+        <v>907</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>815</v>
@@ -10719,10 +10737,10 @@
         <v>806</v>
       </c>
       <c r="E229" s="12">
-        <v>10.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>567</v>
+        <v>21</v>
       </c>
       <c r="G229" s="11" t="b">
         <v>1</v>
@@ -10731,10 +10749,10 @@
       <c r="I229" s="10"/>
       <c r="J229" s="10"/>
       <c r="K229" s="10" t="s">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="L229" s="10" t="s">
-        <v>569</v>
+        <v>909</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -10742,7 +10760,7 @@
         <v>8</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>570</v>
+        <v>307</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>815</v>
@@ -10751,10 +10769,10 @@
         <v>806</v>
       </c>
       <c r="E230" s="12">
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="G230" s="11" t="b">
         <v>1</v>
@@ -10763,10 +10781,10 @@
       <c r="I230" s="10"/>
       <c r="J230" s="10"/>
       <c r="K230" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L230" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -10774,7 +10792,7 @@
         <v>8</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>15</v>
+        <v>570</v>
       </c>
       <c r="C231" s="9" t="s">
         <v>815</v>
@@ -10786,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>56</v>
+        <v>558</v>
       </c>
       <c r="G231" s="11" t="b">
         <v>1</v>
@@ -10794,11 +10812,11 @@
       <c r="H231" s="10"/>
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
-      <c r="K231" s="9" t="s">
-        <v>145</v>
+      <c r="K231" s="10" t="s">
+        <v>571</v>
       </c>
       <c r="L231" s="10" t="s">
-        <v>422</v>
+        <v>572</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -10806,7 +10824,7 @@
         <v>8</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c r="C232" s="9" t="s">
         <v>815</v>
@@ -10818,21 +10836,19 @@
         <v>0</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G232" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H232" s="10"/>
       <c r="I232" s="10"/>
-      <c r="J232" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="K232" s="10" t="s">
-        <v>300</v>
+      <c r="J232" s="10"/>
+      <c r="K232" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="L232" s="10" t="s">
-        <v>301</v>
+        <v>422</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -10840,7 +10856,7 @@
         <v>8</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C233" s="9" t="s">
         <v>815</v>
@@ -10849,7 +10865,7 @@
         <v>806</v>
       </c>
       <c r="E233" s="12">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>23</v>
@@ -10863,10 +10879,10 @@
         <v>640</v>
       </c>
       <c r="K233" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L233" s="10" t="s">
-        <v>423</v>
+        <v>301</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -10874,7 +10890,7 @@
         <v>8</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="C234" s="9" t="s">
         <v>815</v>
@@ -10883,7 +10899,7 @@
         <v>806</v>
       </c>
       <c r="E234" s="12">
-        <v>17.649999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="F234" s="11" t="s">
         <v>23</v>
@@ -10893,12 +10909,14 @@
       </c>
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
-      <c r="J234" s="10"/>
-      <c r="K234" s="9" t="s">
-        <v>119</v>
+      <c r="J234" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="K234" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="L234" s="10" t="s">
-        <v>142</v>
+        <v>423</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -10906,7 +10924,7 @@
         <v>8</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>431</v>
+        <v>11</v>
       </c>
       <c r="C235" s="9" t="s">
         <v>815</v>
@@ -10915,10 +10933,10 @@
         <v>806</v>
       </c>
       <c r="E235" s="12">
-        <v>0</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="F235" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G235" s="11" t="b">
         <v>1</v>
@@ -10927,10 +10945,10 @@
       <c r="I235" s="10"/>
       <c r="J235" s="10"/>
       <c r="K235" s="9" t="s">
-        <v>429</v>
+        <v>119</v>
       </c>
       <c r="L235" s="10" t="s">
-        <v>430</v>
+        <v>142</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -10938,7 +10956,7 @@
         <v>8</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="C236" s="9" t="s">
         <v>815</v>
@@ -10947,10 +10965,10 @@
         <v>806</v>
       </c>
       <c r="E236" s="12">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G236" s="11" t="b">
         <v>1</v>
@@ -10959,10 +10977,10 @@
       <c r="I236" s="10"/>
       <c r="J236" s="10"/>
       <c r="K236" s="9" t="s">
-        <v>120</v>
+        <v>429</v>
       </c>
       <c r="L236" s="10" t="s">
-        <v>143</v>
+        <v>430</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -10970,29 +10988,31 @@
         <v>8</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="C237" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E237" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="F237" s="11"/>
+        <v>806</v>
+      </c>
+      <c r="E237" s="12">
+        <v>21.6</v>
+      </c>
+      <c r="F237" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="G237" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237" s="10"/>
       <c r="I237" s="10"/>
       <c r="J237" s="10"/>
-      <c r="K237" s="10" t="s">
-        <v>315</v>
+      <c r="K237" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="L237" s="10" t="s">
-        <v>315</v>
+        <v>143</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -11000,31 +11020,29 @@
         <v>8</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="C238" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E238" s="12">
-        <v>0</v>
-      </c>
-      <c r="F238" s="11" t="s">
-        <v>23</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F238" s="11"/>
       <c r="G238" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238" s="10"/>
       <c r="I238" s="10"/>
       <c r="J238" s="10"/>
-      <c r="K238" s="9" t="s">
-        <v>146</v>
+      <c r="K238" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="L238" s="10" t="s">
-        <v>148</v>
+        <v>315</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -11032,7 +11050,7 @@
         <v>8</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>815</v>
@@ -11053,10 +11071,10 @@
       <c r="I239" s="10"/>
       <c r="J239" s="10"/>
       <c r="K239" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L239" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -11064,7 +11082,7 @@
         <v>8</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>815</v>
@@ -11085,10 +11103,10 @@
       <c r="I240" s="10"/>
       <c r="J240" s="10"/>
       <c r="K240" s="9" t="s">
-        <v>303</v>
+        <v>147</v>
       </c>
       <c r="L240" s="10" t="s">
-        <v>426</v>
+        <v>149</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -11096,35 +11114,31 @@
         <v>8</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E241" s="12">
         <v>0</v>
       </c>
       <c r="F241" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G241" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H241" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I241" s="10" t="s">
-        <v>771</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
       <c r="J241" s="10"/>
       <c r="K241" s="9" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="L241" s="10" t="s">
-        <v>150</v>
+        <v>426</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -11132,31 +11146,35 @@
         <v>8</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E242" s="12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G242" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" s="10"/>
-      <c r="I242" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H242" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I242" s="10" t="s">
+        <v>771</v>
+      </c>
       <c r="J242" s="10"/>
       <c r="K242" s="9" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="L242" s="10" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -11164,7 +11182,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>417</v>
+        <v>10</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>815</v>
@@ -11173,24 +11191,22 @@
         <v>806</v>
       </c>
       <c r="E243" s="12">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G243" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H243" s="10"/>
       <c r="I243" s="10"/>
-      <c r="J243" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="J243" s="10"/>
       <c r="K243" s="9" t="s">
-        <v>420</v>
+        <v>118</v>
       </c>
       <c r="L243" s="10" t="s">
-        <v>421</v>
+        <v>141</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -11198,7 +11214,7 @@
         <v>8</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>815</v>
@@ -11207,7 +11223,7 @@
         <v>806</v>
       </c>
       <c r="E244" s="12">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="F244" s="11" t="s">
         <v>56</v>
@@ -11221,10 +11237,10 @@
         <v>640</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L244" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -11232,7 +11248,7 @@
         <v>8</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>561</v>
+        <v>416</v>
       </c>
       <c r="C245" s="9" t="s">
         <v>815</v>
@@ -11241,22 +11257,24 @@
         <v>806</v>
       </c>
       <c r="E245" s="12">
-        <v>30</v>
+        <v>-180</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>291</v>
+        <v>56</v>
       </c>
       <c r="G245" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H245" s="10"/>
       <c r="I245" s="10"/>
-      <c r="J245" s="10"/>
-      <c r="K245" s="10" t="s">
-        <v>562</v>
+      <c r="J245" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="K245" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="L245" s="10" t="s">
-        <v>563</v>
+        <v>419</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -11264,31 +11282,31 @@
         <v>8</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C246" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="E246" s="10" t="s">
-        <v>309</v>
+        <v>806</v>
+      </c>
+      <c r="E246" s="12">
+        <v>30</v>
       </c>
       <c r="F246" s="11" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
       <c r="G246" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
       <c r="J246" s="10"/>
       <c r="K246" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L246" s="10" t="s">
-        <v>305</v>
+        <v>563</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -11296,7 +11314,7 @@
         <v>8</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>304</v>
+        <v>564</v>
       </c>
       <c r="C247" s="9" t="s">
         <v>815</v>
@@ -11317,10 +11335,10 @@
       <c r="I247" s="10"/>
       <c r="J247" s="10"/>
       <c r="K247" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L247" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -11328,19 +11346,19 @@
         <v>8</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E248" s="12">
-        <v>0</v>
+        <v>803</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="G248" s="11" t="b">
         <v>0</v>
@@ -11349,10 +11367,10 @@
       <c r="I248" s="10"/>
       <c r="J248" s="10"/>
       <c r="K248" s="10" t="s">
-        <v>311</v>
+        <v>566</v>
       </c>
       <c r="L248" s="10" t="s">
-        <v>424</v>
+        <v>306</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -11360,7 +11378,7 @@
         <v>8</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="C249" s="9" t="s">
         <v>816</v>
@@ -11369,10 +11387,10 @@
         <v>806</v>
       </c>
       <c r="E249" s="12">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>23</v>
+        <v>308</v>
       </c>
       <c r="G249" s="11" t="b">
         <v>0</v>
@@ -11380,11 +11398,11 @@
       <c r="H249" s="10"/>
       <c r="I249" s="10"/>
       <c r="J249" s="10"/>
-      <c r="K249" s="9" t="s">
-        <v>140</v>
+      <c r="K249" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="L249" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -11392,7 +11410,7 @@
         <v>8</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>577</v>
+        <v>25</v>
       </c>
       <c r="C250" s="9" t="s">
         <v>816</v>
@@ -11401,10 +11419,10 @@
         <v>806</v>
       </c>
       <c r="E250" s="12">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>574</v>
+        <v>23</v>
       </c>
       <c r="G250" s="11" t="b">
         <v>0</v>
@@ -11412,11 +11430,11 @@
       <c r="H250" s="10"/>
       <c r="I250" s="10"/>
       <c r="J250" s="10"/>
-      <c r="K250" s="10" t="s">
-        <v>578</v>
+      <c r="K250" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="L250" s="10" t="s">
-        <v>579</v>
+        <v>425</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -11424,7 +11442,7 @@
         <v>8</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>294</v>
+        <v>577</v>
       </c>
       <c r="C251" s="9" t="s">
         <v>816</v>
@@ -11433,22 +11451,22 @@
         <v>806</v>
       </c>
       <c r="E251" s="12">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>21</v>
+        <v>574</v>
       </c>
       <c r="G251" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
       <c r="J251" s="10"/>
       <c r="K251" s="10" t="s">
-        <v>295</v>
+        <v>578</v>
       </c>
       <c r="L251" s="10" t="s">
-        <v>296</v>
+        <v>579</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -11456,7 +11474,7 @@
         <v>8</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>824</v>
+        <v>294</v>
       </c>
       <c r="C252" s="9" t="s">
         <v>816</v>
@@ -11465,22 +11483,22 @@
         <v>806</v>
       </c>
       <c r="E252" s="12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F252" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G252" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252" s="10"/>
       <c r="I252" s="10"/>
       <c r="J252" s="10"/>
       <c r="K252" s="10" t="s">
-        <v>825</v>
+        <v>295</v>
       </c>
       <c r="L252" s="10" t="s">
-        <v>825</v>
+        <v>296</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -11488,7 +11506,7 @@
         <v>8</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>573</v>
+        <v>824</v>
       </c>
       <c r="C253" s="9" t="s">
         <v>816</v>
@@ -11500,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="F253" s="11" t="s">
-        <v>574</v>
+        <v>21</v>
       </c>
       <c r="G253" s="11" t="b">
         <v>0</v>
@@ -11509,42 +11527,42 @@
       <c r="I253" s="10"/>
       <c r="J253" s="10"/>
       <c r="K253" s="10" t="s">
-        <v>575</v>
+        <v>825</v>
       </c>
       <c r="L253" s="10" t="s">
-        <v>576</v>
+        <v>825</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>19</v>
+        <v>573</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E254" s="12">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>56</v>
+        <v>574</v>
       </c>
       <c r="G254" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254" s="10"/>
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="10" t="s">
-        <v>138</v>
+        <v>575</v>
       </c>
       <c r="L254" s="10" t="s">
-        <v>110</v>
+        <v>576</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -11552,7 +11570,7 @@
         <v>4</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>815</v>
@@ -11561,7 +11579,7 @@
         <v>806</v>
       </c>
       <c r="E255" s="12">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="F255" s="11" t="s">
         <v>56</v>
@@ -11573,10 +11591,10 @@
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
       <c r="K255" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L255" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -11584,7 +11602,7 @@
         <v>4</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C256" s="9" t="s">
         <v>815</v>
@@ -11593,10 +11611,10 @@
         <v>806</v>
       </c>
       <c r="E256" s="12">
-        <v>2</v>
+        <v>-180</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G256" s="11" t="b">
         <v>1</v>
@@ -11604,11 +11622,11 @@
       <c r="H256" s="10"/>
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
-      <c r="K256" s="9" t="s">
-        <v>127</v>
+      <c r="K256" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="L256" s="10" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -11616,31 +11634,31 @@
         <v>4</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>545</v>
+        <v>99</v>
       </c>
       <c r="C257" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E257" s="12" t="s">
-        <v>546</v>
+        <v>806</v>
+      </c>
+      <c r="E257" s="12">
+        <v>2</v>
       </c>
       <c r="F257" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G257" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
       <c r="J257" s="10"/>
-      <c r="K257" s="10" t="s">
-        <v>547</v>
+      <c r="K257" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="L257" s="10" t="s">
-        <v>547</v>
+        <v>213</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -11648,7 +11666,7 @@
         <v>4</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>104</v>
+        <v>545</v>
       </c>
       <c r="C258" s="9" t="s">
         <v>815</v>
@@ -11656,27 +11674,23 @@
       <c r="D258" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="E258" s="12">
-        <v>5</v>
+      <c r="E258" s="12" t="s">
+        <v>546</v>
       </c>
       <c r="F258" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G258" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I258" s="10" t="s">
-        <v>556</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10"/>
       <c r="J258" s="10"/>
-      <c r="K258" s="9" t="s">
-        <v>135</v>
+      <c r="K258" s="10" t="s">
+        <v>547</v>
       </c>
       <c r="L258" s="10" t="s">
-        <v>105</v>
+        <v>547</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -11684,16 +11698,16 @@
         <v>4</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="C259" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E259" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F259" s="11" t="s">
         <v>21</v>
@@ -11701,14 +11715,18 @@
       <c r="G259" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H259" s="10"/>
-      <c r="I259" s="10"/>
+      <c r="H259" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I259" s="10" t="s">
+        <v>556</v>
+      </c>
       <c r="J259" s="10"/>
-      <c r="K259" s="10" t="s">
-        <v>193</v>
+      <c r="K259" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="L259" s="10" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -11716,7 +11734,7 @@
         <v>4</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>582</v>
+        <v>192</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>815</v>
@@ -11725,7 +11743,7 @@
         <v>804</v>
       </c>
       <c r="E260" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F260" s="11" t="s">
         <v>21</v>
@@ -11737,10 +11755,10 @@
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
       <c r="K260" s="10" t="s">
-        <v>583</v>
+        <v>193</v>
       </c>
       <c r="L260" s="10" t="s">
-        <v>584</v>
+        <v>194</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -11748,19 +11766,19 @@
         <v>4</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>188</v>
+        <v>582</v>
       </c>
       <c r="C261" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E261" s="12">
-        <v>950</v>
+        <v>2</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="G261" s="11" t="b">
         <v>1</v>
@@ -11769,10 +11787,10 @@
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
       <c r="K261" s="10" t="s">
-        <v>190</v>
+        <v>583</v>
       </c>
       <c r="L261" s="10" t="s">
-        <v>191</v>
+        <v>584</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -11780,35 +11798,31 @@
         <v>4</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>521</v>
+        <v>188</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E262" s="12">
-        <v>7</v>
+        <v>950</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="G262" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H262" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I262" s="10" t="s">
-        <v>523</v>
-      </c>
+      <c r="H262" s="10"/>
+      <c r="I262" s="10"/>
       <c r="J262" s="10"/>
       <c r="K262" s="10" t="s">
-        <v>555</v>
+        <v>190</v>
       </c>
       <c r="L262" s="10" t="s">
-        <v>522</v>
+        <v>191</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
@@ -11816,16 +11830,16 @@
         <v>4</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>891</v>
+        <v>521</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E263" s="12" t="b">
-        <v>0</v>
+        <v>805</v>
+      </c>
+      <c r="E263" s="12">
+        <v>7</v>
       </c>
       <c r="F263" s="11" t="s">
         <v>21</v>
@@ -11834,15 +11848,17 @@
         <v>1</v>
       </c>
       <c r="H263" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I263" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="I263" s="10" t="s">
+        <v>523</v>
+      </c>
       <c r="J263" s="10"/>
       <c r="K263" s="10" t="s">
-        <v>892</v>
+        <v>555</v>
       </c>
       <c r="L263" s="10" t="s">
-        <v>893</v>
+        <v>522</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -11850,7 +11866,7 @@
         <v>4</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>636</v>
+        <v>891</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>815</v>
@@ -11859,13 +11875,13 @@
         <v>807</v>
       </c>
       <c r="E264" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F264" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G264" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264" s="10" t="s">
         <v>202</v>
@@ -11873,10 +11889,10 @@
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
       <c r="K264" s="10" t="s">
-        <v>637</v>
+        <v>892</v>
       </c>
       <c r="L264" s="10" t="s">
-        <v>638</v>
+        <v>893</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -11884,7 +11900,7 @@
         <v>4</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="C265" s="9" t="s">
         <v>815</v>
@@ -11893,13 +11909,13 @@
         <v>807</v>
       </c>
       <c r="E265" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F265" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G265" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265" s="10" t="s">
         <v>202</v>
@@ -11907,10 +11923,10 @@
       <c r="I265" s="10"/>
       <c r="J265" s="10"/>
       <c r="K265" s="10" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="L265" s="10" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -11918,7 +11934,7 @@
         <v>4</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>209</v>
+        <v>612</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>815</v>
@@ -11927,13 +11943,13 @@
         <v>807</v>
       </c>
       <c r="E266" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F266" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G266" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266" s="10" t="s">
         <v>202</v>
@@ -11941,10 +11957,10 @@
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
       <c r="K266" s="10" t="s">
-        <v>210</v>
+        <v>610</v>
       </c>
       <c r="L266" s="10" t="s">
-        <v>211</v>
+        <v>611</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -11952,27 +11968,33 @@
         <v>4</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>387</v>
+        <v>209</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E267" s="12"/>
-      <c r="F267" s="11"/>
+        <v>807</v>
+      </c>
+      <c r="E267" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F267" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G267" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H267" s="10"/>
+      <c r="H267" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="I267" s="10"/>
       <c r="J267" s="10"/>
       <c r="K267" s="10" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="L267" s="10" t="s">
-        <v>388</v>
+        <v>211</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -11980,35 +12002,33 @@
         <v>4</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>6</v>
+        <v>910</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E268" s="12">
+        <v>807</v>
+      </c>
+      <c r="E268" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F268" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G268" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I268" s="10" t="s">
-        <v>132</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="I268" s="10"/>
       <c r="J268" s="10"/>
-      <c r="K268" s="9" t="s">
-        <v>133</v>
+      <c r="K268" s="10" t="s">
+        <v>911</v>
       </c>
       <c r="L268" s="10" t="s">
-        <v>65</v>
+        <v>912</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -12016,31 +12036,27 @@
         <v>4</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>623</v>
+        <v>387</v>
       </c>
       <c r="C269" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E269" s="12">
-        <v>1</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>625</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="E269" s="12"/>
+      <c r="F269" s="11"/>
       <c r="G269" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269" s="10"/>
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
       <c r="K269" s="10" t="s">
-        <v>627</v>
+        <v>388</v>
       </c>
       <c r="L269" s="10" t="s">
-        <v>632</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -12048,31 +12064,35 @@
         <v>4</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>621</v>
+        <v>6</v>
       </c>
       <c r="C270" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E270" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>625</v>
+        <v>21</v>
       </c>
       <c r="G270" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="10"/>
-      <c r="I270" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H270" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I270" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="J270" s="10"/>
-      <c r="K270" s="10" t="s">
-        <v>626</v>
+      <c r="K270" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="L270" s="10" t="s">
-        <v>631</v>
+        <v>65</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -12080,7 +12100,7 @@
         <v>4</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C271" s="9" t="s">
         <v>815</v>
@@ -12089,7 +12109,7 @@
         <v>806</v>
       </c>
       <c r="E271" s="12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F271" s="11" t="s">
         <v>625</v>
@@ -12101,10 +12121,10 @@
       <c r="I271" s="10"/>
       <c r="J271" s="10"/>
       <c r="K271" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L271" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -12112,7 +12132,7 @@
         <v>4</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C272" s="9" t="s">
         <v>815</v>
@@ -12121,7 +12141,7 @@
         <v>806</v>
       </c>
       <c r="E272" s="12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F272" s="11" t="s">
         <v>625</v>
@@ -12133,10 +12153,10 @@
       <c r="I272" s="10"/>
       <c r="J272" s="10"/>
       <c r="K272" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L272" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -12144,7 +12164,7 @@
         <v>4</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>815</v>
@@ -12153,10 +12173,10 @@
         <v>806</v>
       </c>
       <c r="E273" s="12">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F273" s="11" t="s">
-        <v>21</v>
+        <v>625</v>
       </c>
       <c r="G273" s="11" t="b">
         <v>1</v>
@@ -12165,10 +12185,10 @@
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
       <c r="K273" s="10" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="L273" s="10" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -12176,7 +12196,7 @@
         <v>4</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>5</v>
+        <v>622</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>815</v>
@@ -12185,10 +12205,10 @@
         <v>806</v>
       </c>
       <c r="E274" s="12">
-        <v>670</v>
+        <v>0.1</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>212</v>
+        <v>625</v>
       </c>
       <c r="G274" s="11" t="b">
         <v>1</v>
@@ -12196,11 +12216,11 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
       <c r="J274" s="10"/>
-      <c r="K274" s="9" t="s">
-        <v>126</v>
+      <c r="K274" s="10" t="s">
+        <v>628</v>
       </c>
       <c r="L274" s="10" t="s">
-        <v>64</v>
+        <v>633</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -12208,16 +12228,16 @@
         <v>4</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>100</v>
+        <v>613</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E275" s="12">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F275" s="11" t="s">
         <v>21</v>
@@ -12225,18 +12245,14 @@
       <c r="G275" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H275" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I275" s="10" t="s">
-        <v>786</v>
-      </c>
+      <c r="H275" s="10"/>
+      <c r="I275" s="10"/>
       <c r="J275" s="10"/>
-      <c r="K275" s="9" t="s">
-        <v>134</v>
+      <c r="K275" s="10" t="s">
+        <v>614</v>
       </c>
       <c r="L275" s="10" t="s">
-        <v>101</v>
+        <v>615</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -12244,7 +12260,7 @@
         <v>4</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>531</v>
+        <v>5</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>815</v>
@@ -12253,10 +12269,10 @@
         <v>806</v>
       </c>
       <c r="E276" s="12">
-        <v>1.1000000000000001</v>
+        <v>670</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="G276" s="11" t="b">
         <v>1</v>
@@ -12264,11 +12280,11 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
       <c r="J276" s="10"/>
-      <c r="K276" s="10" t="s">
-        <v>535</v>
+      <c r="K276" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="L276" s="10" t="s">
-        <v>538</v>
+        <v>64</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
@@ -12276,16 +12292,16 @@
         <v>4</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>532</v>
+        <v>100</v>
       </c>
       <c r="C277" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E277" s="12">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F277" s="11" t="s">
         <v>21</v>
@@ -12293,14 +12309,18 @@
       <c r="G277" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H277" s="10"/>
-      <c r="I277" s="10"/>
+      <c r="H277" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I277" s="10" t="s">
+        <v>786</v>
+      </c>
       <c r="J277" s="10"/>
-      <c r="K277" s="10" t="s">
-        <v>536</v>
+      <c r="K277" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="L277" s="10" t="s">
-        <v>539</v>
+        <v>101</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -12308,7 +12328,7 @@
         <v>4</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>14</v>
+        <v>531</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>815</v>
@@ -12317,22 +12337,22 @@
         <v>806</v>
       </c>
       <c r="E278" s="12">
-        <v>195</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F278" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G278" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278" s="10"/>
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
-      <c r="K278" s="9" t="s">
-        <v>137</v>
+      <c r="K278" s="10" t="s">
+        <v>535</v>
       </c>
       <c r="L278" s="10" t="s">
-        <v>68</v>
+        <v>538</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -12340,7 +12360,7 @@
         <v>4</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>13</v>
+        <v>532</v>
       </c>
       <c r="C279" s="9" t="s">
         <v>815</v>
@@ -12349,22 +12369,22 @@
         <v>806</v>
       </c>
       <c r="E279" s="12">
-        <v>16</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F279" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G279" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H279" s="10"/>
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
-      <c r="K279" s="9" t="s">
-        <v>136</v>
+      <c r="K279" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="L279" s="10" t="s">
-        <v>67</v>
+        <v>539</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
@@ -12372,7 +12392,7 @@
         <v>4</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>894</v>
+        <v>14</v>
       </c>
       <c r="C280" s="9" t="s">
         <v>815</v>
@@ -12381,22 +12401,22 @@
         <v>806</v>
       </c>
       <c r="E280" s="12">
-        <v>0.5</v>
+        <v>195</v>
       </c>
       <c r="F280" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G280" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H280" s="10"/>
       <c r="I280" s="10"/>
       <c r="J280" s="10"/>
-      <c r="K280" s="10" t="s">
-        <v>895</v>
+      <c r="K280" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="L280" s="10" t="s">
-        <v>895</v>
+        <v>68</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -12404,7 +12424,7 @@
         <v>4</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>815</v>
@@ -12413,22 +12433,22 @@
         <v>806</v>
       </c>
       <c r="E281" s="12">
-        <v>1.33</v>
+        <v>16</v>
       </c>
       <c r="F281" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G281" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281" s="10"/>
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
       <c r="K281" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L281" s="10" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -12436,7 +12456,7 @@
         <v>4</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>854</v>
+        <v>894</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>815</v>
@@ -12445,10 +12465,10 @@
         <v>806</v>
       </c>
       <c r="E282" s="12">
-        <v>180</v>
+        <v>0.5</v>
       </c>
       <c r="F282" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G282" s="11" t="b">
         <v>1</v>
@@ -12457,10 +12477,10 @@
       <c r="I282" s="10"/>
       <c r="J282" s="10"/>
       <c r="K282" s="10" t="s">
-        <v>857</v>
+        <v>895</v>
       </c>
       <c r="L282" s="10" t="s">
-        <v>500</v>
+        <v>895</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -12468,7 +12488,7 @@
         <v>4</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>855</v>
+        <v>97</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>815</v>
@@ -12477,10 +12497,10 @@
         <v>806</v>
       </c>
       <c r="E283" s="12">
-        <v>85</v>
+        <v>1.33</v>
       </c>
       <c r="F283" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G283" s="11" t="b">
         <v>1</v>
@@ -12488,11 +12508,11 @@
       <c r="H283" s="10"/>
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
-      <c r="K283" s="10" t="s">
-        <v>858</v>
+      <c r="K283" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="L283" s="10" t="s">
-        <v>501</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -12500,35 +12520,31 @@
         <v>4</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>497</v>
+        <v>854</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E284" s="12">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G284" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H284" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I284" s="10" t="s">
-        <v>520</v>
-      </c>
+      <c r="H284" s="10"/>
+      <c r="I284" s="10"/>
       <c r="J284" s="10"/>
       <c r="K284" s="10" t="s">
-        <v>498</v>
+        <v>857</v>
       </c>
       <c r="L284" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -12536,33 +12552,31 @@
         <v>4</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E285" s="12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G285" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H285" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="H285" s="10"/>
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
       <c r="K285" s="10" t="s">
-        <v>775</v>
+        <v>858</v>
       </c>
       <c r="L285" s="10" t="s">
-        <v>776</v>
+        <v>501</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -12570,7 +12584,7 @@
         <v>4</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>269</v>
+        <v>497</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>815</v>
@@ -12581,7 +12595,9 @@
       <c r="E286" s="12">
         <v>0</v>
       </c>
-      <c r="F286" s="11"/>
+      <c r="F286" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G286" s="11" t="b">
         <v>1</v>
       </c>
@@ -12589,14 +12605,14 @@
         <v>131</v>
       </c>
       <c r="I286" s="10" t="s">
-        <v>271</v>
+        <v>520</v>
       </c>
       <c r="J286" s="10"/>
       <c r="K286" s="10" t="s">
-        <v>270</v>
+        <v>498</v>
       </c>
       <c r="L286" s="10" t="s">
-        <v>284</v>
+        <v>499</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -12604,31 +12620,33 @@
         <v>4</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>9</v>
+        <v>774</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E287" s="12">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G287" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H287" s="10"/>
+      <c r="H287" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
-      <c r="K287" s="9" t="s">
-        <v>285</v>
+      <c r="K287" s="10" t="s">
+        <v>775</v>
       </c>
       <c r="L287" s="10" t="s">
-        <v>286</v>
+        <v>776</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -12636,31 +12654,33 @@
         <v>4</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>787</v>
+        <v>269</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E288" s="12">
-        <v>1</v>
-      </c>
-      <c r="F288" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F288" s="11"/>
       <c r="G288" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H288" s="10"/>
-      <c r="I288" s="10"/>
+      <c r="H288" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I288" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="J288" s="10"/>
       <c r="K288" s="10" t="s">
-        <v>788</v>
+        <v>270</v>
       </c>
       <c r="L288" s="10" t="s">
-        <v>789</v>
+        <v>284</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -12668,33 +12688,31 @@
         <v>4</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>533</v>
+        <v>9</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E289" s="12">
-        <v>0</v>
-      </c>
-      <c r="F289" s="11"/>
+        <v>195</v>
+      </c>
+      <c r="F289" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="G289" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H289" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I289" s="10" t="s">
-        <v>534</v>
-      </c>
+      <c r="H289" s="10"/>
+      <c r="I289" s="10"/>
       <c r="J289" s="10"/>
-      <c r="K289" s="10" t="s">
-        <v>537</v>
+      <c r="K289" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="L289" s="10" t="s">
-        <v>540</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -12702,7 +12720,7 @@
         <v>4</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>541</v>
+        <v>787</v>
       </c>
       <c r="C290" s="9" t="s">
         <v>815</v>
@@ -12723,10 +12741,10 @@
       <c r="I290" s="10"/>
       <c r="J290" s="10"/>
       <c r="K290" s="10" t="s">
-        <v>542</v>
+        <v>788</v>
       </c>
       <c r="L290" s="10" t="s">
-        <v>543</v>
+        <v>789</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -12734,31 +12752,33 @@
         <v>4</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>620</v>
+        <v>533</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E291" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="F291" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F291" s="11"/>
       <c r="G291" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H291" s="10"/>
-      <c r="I291" s="10"/>
+      <c r="H291" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I291" s="10" t="s">
+        <v>534</v>
+      </c>
       <c r="J291" s="10"/>
       <c r="K291" s="10" t="s">
-        <v>630</v>
+        <v>537</v>
       </c>
       <c r="L291" s="10" t="s">
-        <v>635</v>
+        <v>540</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -12766,7 +12786,7 @@
         <v>4</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>903</v>
+        <v>541</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>815</v>
@@ -12775,10 +12795,10 @@
         <v>806</v>
       </c>
       <c r="E292" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>906</v>
+        <v>21</v>
       </c>
       <c r="G292" s="11" t="b">
         <v>1</v>
@@ -12787,10 +12807,10 @@
       <c r="I292" s="10"/>
       <c r="J292" s="10"/>
       <c r="K292" s="10" t="s">
-        <v>905</v>
+        <v>542</v>
       </c>
       <c r="L292" s="10" t="s">
-        <v>904</v>
+        <v>543</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -12798,31 +12818,31 @@
         <v>4</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>828</v>
+        <v>620</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E293" s="12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="G293" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
       <c r="J293" s="10"/>
       <c r="K293" s="10" t="s">
-        <v>831</v>
+        <v>630</v>
       </c>
       <c r="L293" s="10" t="s">
-        <v>832</v>
+        <v>635</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -12830,31 +12850,31 @@
         <v>4</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>827</v>
+        <v>903</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E294" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>308</v>
+        <v>906</v>
       </c>
       <c r="G294" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
       <c r="K294" s="10" t="s">
-        <v>801</v>
+        <v>905</v>
       </c>
       <c r="L294" s="10" t="s">
-        <v>833</v>
+        <v>904</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -12862,17 +12882,19 @@
         <v>4</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>389</v>
+        <v>828</v>
       </c>
       <c r="C295" s="9" t="s">
         <v>816</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>813</v>
-      </c>
-      <c r="E295" s="12"/>
+        <v>806</v>
+      </c>
+      <c r="E295" s="12">
+        <v>0</v>
+      </c>
       <c r="F295" s="11" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="G295" s="11" t="b">
         <v>0</v>
@@ -12881,10 +12903,10 @@
       <c r="I295" s="10"/>
       <c r="J295" s="10"/>
       <c r="K295" s="10" t="s">
-        <v>390</v>
+        <v>831</v>
       </c>
       <c r="L295" s="10" t="s">
-        <v>390</v>
+        <v>832</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -12892,7 +12914,7 @@
         <v>4</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>856</v>
+        <v>827</v>
       </c>
       <c r="C296" s="9" t="s">
         <v>816</v>
@@ -12904,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="F296" s="11" t="s">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="G296" s="11" t="b">
         <v>0</v>
@@ -12913,10 +12935,10 @@
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
       <c r="K296" s="10" t="s">
-        <v>859</v>
+        <v>801</v>
       </c>
       <c r="L296" s="10" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
@@ -12924,19 +12946,17 @@
         <v>4</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>861</v>
+        <v>389</v>
       </c>
       <c r="C297" s="9" t="s">
         <v>816</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E297" s="12">
-        <v>0</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="E297" s="12"/>
       <c r="F297" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G297" s="11" t="b">
         <v>0</v>
@@ -12945,9 +12965,73 @@
       <c r="I297" s="10"/>
       <c r="J297" s="10"/>
       <c r="K297" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="L297" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A298" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E298" s="12">
+        <v>0</v>
+      </c>
+      <c r="F298" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G298" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H298" s="10"/>
+      <c r="I298" s="10"/>
+      <c r="J298" s="10"/>
+      <c r="K298" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="L298" s="10" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A299" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E299" s="12">
+        <v>0</v>
+      </c>
+      <c r="F299" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G299" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H299" s="10"/>
+      <c r="I299" s="10"/>
+      <c r="J299" s="10"/>
+      <c r="K299" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="L297" s="10" t="s">
+      <c r="L299" s="10" t="s">
         <v>860</v>
       </c>
     </row>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C5E650-6B7D-4199-9A48-FADCA6769DB7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E545333F-24FD-4244-A031-09AAA7851C90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="8220" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="926">
   <si>
     <t>String name</t>
   </si>
@@ -2754,6 +2754,45 @@
   </si>
   <si>
     <t>Enables the user to specify the fraction of power delivered from the heliostat to each receiver</t>
+  </si>
+  <si>
+    <t>q_rec_des</t>
+  </si>
+  <si>
+    <t>Design-point thermal power</t>
+  </si>
+  <si>
+    <t>Power produced by the receiver at design after thermal losses</t>
+  </si>
+  <si>
+    <t>rec_offset_reference</t>
+  </si>
+  <si>
+    <t>Receiver offset reference</t>
+  </si>
+  <si>
+    <t>Tower=0</t>
+  </si>
+  <si>
+    <t>Receiver offset is relative to the position of the selected item. Options include tower or other receivers.</t>
+  </si>
+  <si>
+    <t>multirec_opt_timeout</t>
+  </si>
+  <si>
+    <t>Multi-receiver optimization solver time</t>
+  </si>
+  <si>
+    <t>Maximum allowable solver time for multiple receiver heliostat position and aimpoint optimization</t>
+  </si>
+  <si>
+    <t>multirec_screen_mult</t>
+  </si>
+  <si>
+    <t>Multi-receiver heliostat screen fraction</t>
+  </si>
+  <si>
+    <t>The number of heliostats required to meet this value times the design power of each receiver are considered for layout</t>
   </si>
 </sst>
 </file>
@@ -2992,10 +3031,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L299" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:L309">
-    <sortCondition ref="A1:A309"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L303" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L303" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:L313">
+    <sortCondition ref="A1:A313"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain" dataDxfId="11"/>
@@ -3336,11 +3375,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L299"/>
+  <dimension ref="A1:L303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A268" sqref="A268"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9584,17 +9623,19 @@
         <v>714</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>737</v>
+        <v>920</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="E194" s="12"/>
+      <c r="E194" s="12">
+        <v>60</v>
+      </c>
       <c r="F194" s="11" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="G194" s="11" t="b">
         <v>0</v>
@@ -9603,10 +9644,10 @@
       <c r="I194" s="10"/>
       <c r="J194" s="10"/>
       <c r="K194" s="10" t="s">
-        <v>738</v>
+        <v>921</v>
       </c>
       <c r="L194" s="10" t="s">
-        <v>738</v>
+        <v>922</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -9614,15 +9655,17 @@
         <v>714</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>720</v>
+        <v>923</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="E195" s="12"/>
+      <c r="E195" s="12">
+        <v>1.25</v>
+      </c>
       <c r="F195" s="11" t="s">
         <v>21</v>
       </c>
@@ -9631,32 +9674,28 @@
       </c>
       <c r="H195" s="10"/>
       <c r="I195" s="10"/>
-      <c r="J195" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="J195" s="10"/>
       <c r="K195" s="10" t="s">
-        <v>731</v>
+        <v>924</v>
       </c>
       <c r="L195" s="10" t="s">
-        <v>732</v>
+        <v>925</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>503</v>
+        <v>714</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>545</v>
+        <v>737</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E196" s="12" t="s">
-        <v>553</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="E196" s="12"/>
       <c r="F196" s="11" t="s">
         <v>21</v>
       </c>
@@ -9667,40 +9706,42 @@
       <c r="I196" s="10"/>
       <c r="J196" s="10"/>
       <c r="K196" s="10" t="s">
-        <v>547</v>
+        <v>738</v>
       </c>
       <c r="L196" s="10" t="s">
-        <v>547</v>
+        <v>738</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>503</v>
+        <v>714</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>504</v>
+        <v>720</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E197" s="12" t="s">
-        <v>876</v>
-      </c>
-      <c r="F197" s="11"/>
+        <v>806</v>
+      </c>
+      <c r="E197" s="12"/>
+      <c r="F197" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G197" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
-      <c r="J197" s="10"/>
+      <c r="J197" s="10" t="s">
+        <v>640</v>
+      </c>
       <c r="K197" s="10" t="s">
-        <v>510</v>
+        <v>731</v>
       </c>
       <c r="L197" s="10" t="s">
-        <v>512</v>
+        <v>732</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -9708,7 +9749,7 @@
         <v>503</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>505</v>
+        <v>545</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>815</v>
@@ -9717,9 +9758,11 @@
         <v>805</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="F198" s="11"/>
+        <v>553</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G198" s="11" t="b">
         <v>0</v>
       </c>
@@ -9727,10 +9770,10 @@
       <c r="I198" s="10"/>
       <c r="J198" s="10"/>
       <c r="K198" s="10" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="L198" s="10" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -9738,7 +9781,7 @@
         <v>503</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>815</v>
@@ -9746,25 +9789,21 @@
       <c r="D199" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="E199" s="12">
-        <v>0</v>
+      <c r="E199" s="12" t="s">
+        <v>876</v>
       </c>
       <c r="F199" s="11"/>
       <c r="G199" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H199" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I199" s="10" t="s">
-        <v>515</v>
-      </c>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
       <c r="J199" s="10"/>
       <c r="K199" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="L199" s="10" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -9772,31 +9811,29 @@
         <v>503</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C200" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E200" s="12" t="b">
-        <v>1</v>
+        <v>805</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>508</v>
       </c>
       <c r="F200" s="11"/>
       <c r="G200" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H200" s="10" t="s">
-        <v>202</v>
-      </c>
+      <c r="H200" s="10"/>
       <c r="I200" s="10"/>
       <c r="J200" s="10"/>
       <c r="K200" s="10" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="L200" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -9804,33 +9841,33 @@
         <v>503</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>696</v>
+        <v>507</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E201" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F201" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="E201" s="12">
+        <v>0</v>
+      </c>
+      <c r="F201" s="11"/>
       <c r="G201" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H201" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I201" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="I201" s="10" t="s">
+        <v>515</v>
+      </c>
       <c r="J201" s="10"/>
       <c r="K201" s="10" t="s">
-        <v>697</v>
+        <v>516</v>
       </c>
       <c r="L201" s="10" t="s">
-        <v>697</v>
+        <v>517</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -9838,7 +9875,7 @@
         <v>503</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>700</v>
+        <v>509</v>
       </c>
       <c r="C202" s="9" t="s">
         <v>815</v>
@@ -9847,11 +9884,9 @@
         <v>807</v>
       </c>
       <c r="E202" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F202" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F202" s="11"/>
       <c r="G202" s="11" t="b">
         <v>0</v>
       </c>
@@ -9861,10 +9896,10 @@
       <c r="I202" s="10"/>
       <c r="J202" s="10"/>
       <c r="K202" s="10" t="s">
-        <v>701</v>
+        <v>518</v>
       </c>
       <c r="L202" s="10" t="s">
-        <v>701</v>
+        <v>519</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -9872,7 +9907,7 @@
         <v>503</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>815</v>
@@ -9895,10 +9930,10 @@
       <c r="I203" s="10"/>
       <c r="J203" s="10"/>
       <c r="K203" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L203" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -9906,7 +9941,7 @@
         <v>503</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>815</v>
@@ -9929,10 +9964,10 @@
       <c r="I204" s="10"/>
       <c r="J204" s="10"/>
       <c r="K204" s="10" t="s">
-        <v>651</v>
+        <v>701</v>
       </c>
       <c r="L204" s="10" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -9940,7 +9975,7 @@
         <v>503</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>653</v>
+        <v>698</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>815</v>
@@ -9963,10 +9998,10 @@
       <c r="I205" s="10"/>
       <c r="J205" s="10"/>
       <c r="K205" s="10" t="s">
-        <v>654</v>
+        <v>699</v>
       </c>
       <c r="L205" s="10" t="s">
-        <v>655</v>
+        <v>699</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -9974,7 +10009,7 @@
         <v>503</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>881</v>
+        <v>650</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>815</v>
@@ -9997,10 +10032,10 @@
       <c r="I206" s="10"/>
       <c r="J206" s="10"/>
       <c r="K206" s="10" t="s">
-        <v>886</v>
+        <v>651</v>
       </c>
       <c r="L206" s="10" t="s">
-        <v>697</v>
+        <v>652</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -10008,7 +10043,7 @@
         <v>503</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>882</v>
+        <v>653</v>
       </c>
       <c r="C207" s="9" t="s">
         <v>815</v>
@@ -10031,10 +10066,10 @@
       <c r="I207" s="10"/>
       <c r="J207" s="10"/>
       <c r="K207" s="10" t="s">
-        <v>887</v>
+        <v>654</v>
       </c>
       <c r="L207" s="10" t="s">
-        <v>701</v>
+        <v>655</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -10042,7 +10077,7 @@
         <v>503</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C208" s="9" t="s">
         <v>815</v>
@@ -10065,10 +10100,10 @@
       <c r="I208" s="10"/>
       <c r="J208" s="10"/>
       <c r="K208" s="10" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="L208" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -10076,7 +10111,7 @@
         <v>503</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C209" s="9" t="s">
         <v>815</v>
@@ -10099,10 +10134,10 @@
       <c r="I209" s="10"/>
       <c r="J209" s="10"/>
       <c r="K209" s="10" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="L209" s="10" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -10110,7 +10145,7 @@
         <v>503</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>815</v>
@@ -10133,10 +10168,10 @@
       <c r="I210" s="10"/>
       <c r="J210" s="10"/>
       <c r="K210" s="10" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="L210" s="10" t="s">
-        <v>655</v>
+        <v>699</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -10144,27 +10179,33 @@
         <v>503</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>506</v>
+        <v>884</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E211" s="12"/>
-      <c r="F211" s="11"/>
+        <v>807</v>
+      </c>
+      <c r="E211" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F211" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G211" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H211" s="10"/>
+      <c r="H211" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="I211" s="10"/>
       <c r="J211" s="10"/>
       <c r="K211" s="10" t="s">
-        <v>514</v>
+        <v>889</v>
       </c>
       <c r="L211" s="10" t="s">
-        <v>514</v>
+        <v>652</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -10172,29 +10213,33 @@
         <v>503</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>559</v>
+        <v>885</v>
       </c>
       <c r="C212" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E212" s="12"/>
+        <v>807</v>
+      </c>
+      <c r="E212" s="12" t="b">
+        <v>0</v>
+      </c>
       <c r="F212" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G212" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H212" s="10"/>
+      <c r="H212" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="I212" s="10"/>
       <c r="J212" s="10"/>
       <c r="K212" s="10" t="s">
-        <v>560</v>
+        <v>890</v>
       </c>
       <c r="L212" s="10" t="s">
-        <v>560</v>
+        <v>655</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -10202,7 +10247,7 @@
         <v>503</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>873</v>
+        <v>506</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>815</v>
@@ -10210,67 +10255,57 @@
       <c r="D213" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="E213" s="12">
-        <v>0</v>
-      </c>
-      <c r="F213" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="E213" s="12"/>
+      <c r="F213" s="11"/>
       <c r="G213" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H213" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I213" s="10" t="s">
-        <v>874</v>
-      </c>
+      <c r="H213" s="10"/>
+      <c r="I213" s="10"/>
       <c r="J213" s="10"/>
       <c r="K213" s="10" t="s">
-        <v>875</v>
+        <v>514</v>
       </c>
       <c r="L213" s="10" t="s">
-        <v>875</v>
+        <v>514</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>8</v>
+        <v>503</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>287</v>
+        <v>559</v>
       </c>
       <c r="C214" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E214" s="12">
-        <v>0.94</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="E214" s="12"/>
       <c r="F214" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G214" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" s="10"/>
       <c r="I214" s="10"/>
       <c r="J214" s="10"/>
       <c r="K214" s="10" t="s">
-        <v>289</v>
+        <v>560</v>
       </c>
       <c r="L214" s="10" t="s">
-        <v>290</v>
+        <v>560</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>8</v>
+        <v>503</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>702</v>
+        <v>873</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>815</v>
@@ -10285,20 +10320,20 @@
         <v>21</v>
       </c>
       <c r="G215" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" s="10" t="s">
         <v>131</v>
       </c>
       <c r="I215" s="10" t="s">
-        <v>413</v>
+        <v>874</v>
       </c>
       <c r="J215" s="10"/>
       <c r="K215" s="10" t="s">
-        <v>705</v>
+        <v>875</v>
       </c>
       <c r="L215" s="10" t="s">
-        <v>706</v>
+        <v>875</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -10306,7 +10341,7 @@
         <v>8</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>703</v>
+        <v>287</v>
       </c>
       <c r="C216" s="9" t="s">
         <v>815</v>
@@ -10315,10 +10350,10 @@
         <v>806</v>
       </c>
       <c r="E216" s="12">
-        <v>180</v>
+        <v>0.94</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G216" s="11" t="b">
         <v>1</v>
@@ -10327,10 +10362,10 @@
       <c r="I216" s="10"/>
       <c r="J216" s="10"/>
       <c r="K216" s="10" t="s">
-        <v>707</v>
+        <v>289</v>
       </c>
       <c r="L216" s="10" t="s">
-        <v>708</v>
+        <v>290</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -10338,31 +10373,35 @@
         <v>8</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C217" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E217" s="12">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F217" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G217" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H217" s="10"/>
-      <c r="I217" s="10"/>
+      <c r="H217" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I217" s="10" t="s">
+        <v>413</v>
+      </c>
       <c r="J217" s="10"/>
       <c r="K217" s="10" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="L217" s="10" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -10370,33 +10409,31 @@
         <v>8</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>412</v>
+        <v>703</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E218" s="12">
-        <v>0</v>
-      </c>
-      <c r="F218" s="11"/>
+        <v>180</v>
+      </c>
+      <c r="F218" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="G218" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H218" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I218" s="10" t="s">
-        <v>770</v>
-      </c>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
       <c r="J218" s="10"/>
       <c r="K218" s="10" t="s">
-        <v>414</v>
+        <v>707</v>
       </c>
       <c r="L218" s="10" t="s">
-        <v>415</v>
+        <v>708</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -10404,31 +10441,31 @@
         <v>8</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>835</v>
+        <v>704</v>
       </c>
       <c r="C219" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>836</v>
-      </c>
-      <c r="E219" s="14">
-        <v>0</v>
+        <v>806</v>
+      </c>
+      <c r="E219" s="12">
+        <v>180</v>
       </c>
       <c r="F219" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G219" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219" s="10"/>
       <c r="I219" s="10"/>
       <c r="J219" s="10"/>
       <c r="K219" s="10" t="s">
-        <v>834</v>
+        <v>709</v>
       </c>
       <c r="L219" s="10" t="s">
-        <v>834</v>
+        <v>710</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -10436,7 +10473,7 @@
         <v>8</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>545</v>
+        <v>412</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>815</v>
@@ -10444,23 +10481,25 @@
       <c r="D220" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="E220" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="F220" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="E220" s="12">
+        <v>0</v>
+      </c>
+      <c r="F220" s="11"/>
       <c r="G220" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H220" s="10"/>
-      <c r="I220" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H220" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I220" s="10" t="s">
+        <v>770</v>
+      </c>
       <c r="J220" s="10"/>
       <c r="K220" s="10" t="s">
-        <v>547</v>
+        <v>414</v>
       </c>
       <c r="L220" s="10" t="s">
-        <v>547</v>
+        <v>415</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -10468,18 +10507,20 @@
         <v>8</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>29</v>
+        <v>835</v>
       </c>
       <c r="C221" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E221" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F221" s="11"/>
+        <v>836</v>
+      </c>
+      <c r="E221" s="14">
+        <v>0</v>
+      </c>
+      <c r="F221" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G221" s="11" t="b">
         <v>0</v>
       </c>
@@ -10487,10 +10528,10 @@
       <c r="I221" s="10"/>
       <c r="J221" s="10"/>
       <c r="K221" s="10" t="s">
-        <v>320</v>
+        <v>834</v>
       </c>
       <c r="L221" s="10" t="s">
-        <v>320</v>
+        <v>834</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -10498,31 +10539,31 @@
         <v>8</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>711</v>
+        <v>545</v>
       </c>
       <c r="C222" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E222" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F222" s="11"/>
+        <v>805</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G222" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H222" s="10" t="s">
-        <v>202</v>
-      </c>
+      <c r="H222" s="10"/>
       <c r="I222" s="10"/>
       <c r="J222" s="10"/>
       <c r="K222" s="10" t="s">
-        <v>712</v>
+        <v>547</v>
       </c>
       <c r="L222" s="10" t="s">
-        <v>713</v>
+        <v>547</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -10530,16 +10571,16 @@
         <v>8</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E223" s="12" t="b">
-        <v>1</v>
+        <v>804</v>
+      </c>
+      <c r="E223" s="12">
+        <v>-1</v>
       </c>
       <c r="F223" s="11"/>
       <c r="G223" s="11" t="b">
@@ -10549,10 +10590,10 @@
       <c r="I223" s="10"/>
       <c r="J223" s="10"/>
       <c r="K223" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L223" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -10560,7 +10601,7 @@
         <v>8</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>406</v>
+        <v>711</v>
       </c>
       <c r="C224" s="9" t="s">
         <v>815</v>
@@ -10569,7 +10610,7 @@
         <v>807</v>
       </c>
       <c r="E224" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224" s="11"/>
       <c r="G224" s="11" t="b">
@@ -10579,14 +10620,12 @@
         <v>202</v>
       </c>
       <c r="I224" s="10"/>
-      <c r="J224" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="J224" s="10"/>
       <c r="K224" s="10" t="s">
-        <v>407</v>
+        <v>712</v>
       </c>
       <c r="L224" s="10" t="s">
-        <v>408</v>
+        <v>713</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -10594,7 +10633,7 @@
         <v>8</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="C225" s="9" t="s">
         <v>815</v>
@@ -10603,24 +10642,20 @@
         <v>807</v>
       </c>
       <c r="E225" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225" s="11"/>
       <c r="G225" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="10" t="s">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" s="10"/>
       <c r="I225" s="10"/>
-      <c r="J225" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="J225" s="10"/>
       <c r="K225" s="10" t="s">
-        <v>410</v>
+        <v>321</v>
       </c>
       <c r="L225" s="10" t="s">
-        <v>411</v>
+        <v>321</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -10628,33 +10663,33 @@
         <v>8</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C226" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E226" s="12">
-        <v>12</v>
-      </c>
-      <c r="F226" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="E226" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F226" s="11"/>
       <c r="G226" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H226" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="I226" s="10"/>
       <c r="J226" s="10" t="s">
         <v>640</v>
       </c>
       <c r="K226" s="10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L226" s="10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -10662,33 +10697,33 @@
         <v>8</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E227" s="12">
-        <v>0</v>
-      </c>
-      <c r="F227" s="11" t="s">
-        <v>56</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="E227" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F227" s="11"/>
       <c r="G227" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H227" s="10"/>
+      <c r="H227" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="I227" s="10"/>
       <c r="J227" s="10" t="s">
         <v>640</v>
       </c>
       <c r="K227" s="10" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="L227" s="10" t="s">
-        <v>641</v>
+        <v>411</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -10696,31 +10731,33 @@
         <v>8</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>288</v>
+        <v>403</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E228" s="12">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="F228" s="11" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="G228" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H228" s="10"/>
       <c r="I228" s="10"/>
-      <c r="J228" s="10"/>
+      <c r="J228" s="10" t="s">
+        <v>640</v>
+      </c>
       <c r="K228" s="10" t="s">
-        <v>292</v>
+        <v>404</v>
       </c>
       <c r="L228" s="10" t="s">
-        <v>293</v>
+        <v>405</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -10728,7 +10765,7 @@
         <v>8</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>907</v>
+        <v>427</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>815</v>
@@ -10737,22 +10774,24 @@
         <v>806</v>
       </c>
       <c r="E229" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G229" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H229" s="10"/>
       <c r="I229" s="10"/>
-      <c r="J229" s="10"/>
+      <c r="J229" s="10" t="s">
+        <v>640</v>
+      </c>
       <c r="K229" s="10" t="s">
-        <v>908</v>
+        <v>428</v>
       </c>
       <c r="L229" s="10" t="s">
-        <v>909</v>
+        <v>641</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -10760,7 +10799,7 @@
         <v>8</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>815</v>
@@ -10769,10 +10808,10 @@
         <v>806</v>
       </c>
       <c r="E230" s="12">
-        <v>10.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>567</v>
+        <v>291</v>
       </c>
       <c r="G230" s="11" t="b">
         <v>1</v>
@@ -10781,10 +10820,10 @@
       <c r="I230" s="10"/>
       <c r="J230" s="10"/>
       <c r="K230" s="10" t="s">
-        <v>568</v>
+        <v>292</v>
       </c>
       <c r="L230" s="10" t="s">
-        <v>569</v>
+        <v>293</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -10792,7 +10831,7 @@
         <v>8</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>570</v>
+        <v>907</v>
       </c>
       <c r="C231" s="9" t="s">
         <v>815</v>
@@ -10801,10 +10840,10 @@
         <v>806</v>
       </c>
       <c r="E231" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>558</v>
+        <v>21</v>
       </c>
       <c r="G231" s="11" t="b">
         <v>1</v>
@@ -10813,10 +10852,10 @@
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
       <c r="K231" s="10" t="s">
-        <v>571</v>
+        <v>908</v>
       </c>
       <c r="L231" s="10" t="s">
-        <v>572</v>
+        <v>909</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -10824,7 +10863,7 @@
         <v>8</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c r="C232" s="9" t="s">
         <v>815</v>
@@ -10833,10 +10872,10 @@
         <v>806</v>
       </c>
       <c r="E232" s="12">
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>56</v>
+        <v>567</v>
       </c>
       <c r="G232" s="11" t="b">
         <v>1</v>
@@ -10844,11 +10883,11 @@
       <c r="H232" s="10"/>
       <c r="I232" s="10"/>
       <c r="J232" s="10"/>
-      <c r="K232" s="9" t="s">
-        <v>145</v>
+      <c r="K232" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="L232" s="10" t="s">
-        <v>422</v>
+        <v>569</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -10856,7 +10895,7 @@
         <v>8</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>298</v>
+        <v>570</v>
       </c>
       <c r="C233" s="9" t="s">
         <v>815</v>
@@ -10868,21 +10907,19 @@
         <v>0</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>23</v>
+        <v>558</v>
       </c>
       <c r="G233" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H233" s="10"/>
       <c r="I233" s="10"/>
-      <c r="J233" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="J233" s="10"/>
       <c r="K233" s="10" t="s">
-        <v>300</v>
+        <v>571</v>
       </c>
       <c r="L233" s="10" t="s">
-        <v>301</v>
+        <v>572</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -10890,7 +10927,7 @@
         <v>8</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c r="C234" s="9" t="s">
         <v>815</v>
@@ -10899,24 +10936,22 @@
         <v>806</v>
       </c>
       <c r="E234" s="12">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G234" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
-      <c r="J234" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="K234" s="10" t="s">
-        <v>299</v>
+      <c r="J234" s="10"/>
+      <c r="K234" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="L234" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -10924,7 +10959,7 @@
         <v>8</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="C235" s="9" t="s">
         <v>815</v>
@@ -10933,7 +10968,7 @@
         <v>806</v>
       </c>
       <c r="E235" s="12">
-        <v>17.649999999999999</v>
+        <v>0</v>
       </c>
       <c r="F235" s="11" t="s">
         <v>23</v>
@@ -10943,12 +10978,14 @@
       </c>
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
-      <c r="J235" s="10"/>
-      <c r="K235" s="9" t="s">
-        <v>119</v>
+      <c r="J235" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="K235" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="L235" s="10" t="s">
-        <v>142</v>
+        <v>301</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -10956,7 +10993,7 @@
         <v>8</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>431</v>
+        <v>297</v>
       </c>
       <c r="C236" s="9" t="s">
         <v>815</v>
@@ -10965,22 +11002,24 @@
         <v>806</v>
       </c>
       <c r="E236" s="12">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G236" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H236" s="10"/>
       <c r="I236" s="10"/>
-      <c r="J236" s="10"/>
-      <c r="K236" s="9" t="s">
-        <v>429</v>
+      <c r="J236" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="K236" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="L236" s="10" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -10988,7 +11027,7 @@
         <v>8</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C237" s="9" t="s">
         <v>815</v>
@@ -10997,7 +11036,7 @@
         <v>806</v>
       </c>
       <c r="E237" s="12">
-        <v>21.6</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="F237" s="11" t="s">
         <v>23</v>
@@ -11009,10 +11048,10 @@
       <c r="I237" s="10"/>
       <c r="J237" s="10"/>
       <c r="K237" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L237" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -11020,29 +11059,31 @@
         <v>8</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>313</v>
+        <v>431</v>
       </c>
       <c r="C238" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E238" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="F238" s="11"/>
+        <v>806</v>
+      </c>
+      <c r="E238" s="12">
+        <v>0</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="G238" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238" s="10"/>
       <c r="I238" s="10"/>
       <c r="J238" s="10"/>
-      <c r="K238" s="10" t="s">
-        <v>315</v>
+      <c r="K238" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="L238" s="10" t="s">
-        <v>315</v>
+        <v>430</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -11050,7 +11091,7 @@
         <v>8</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>815</v>
@@ -11059,7 +11100,7 @@
         <v>806</v>
       </c>
       <c r="E239" s="12">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="F239" s="11" t="s">
         <v>23</v>
@@ -11071,10 +11112,10 @@
       <c r="I239" s="10"/>
       <c r="J239" s="10"/>
       <c r="K239" s="9" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="L239" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -11082,31 +11123,29 @@
         <v>8</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E240" s="12">
-        <v>0</v>
-      </c>
-      <c r="F240" s="11" t="s">
-        <v>23</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F240" s="11"/>
       <c r="G240" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240" s="10"/>
       <c r="I240" s="10"/>
       <c r="J240" s="10"/>
-      <c r="K240" s="9" t="s">
-        <v>147</v>
+      <c r="K240" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="L240" s="10" t="s">
-        <v>149</v>
+        <v>315</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -11114,7 +11153,7 @@
         <v>8</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>815</v>
@@ -11135,10 +11174,10 @@
       <c r="I241" s="10"/>
       <c r="J241" s="10"/>
       <c r="K241" s="9" t="s">
-        <v>303</v>
+        <v>146</v>
       </c>
       <c r="L241" s="10" t="s">
-        <v>426</v>
+        <v>148</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -11146,35 +11185,31 @@
         <v>8</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E242" s="12">
         <v>0</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G242" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H242" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I242" s="10" t="s">
-        <v>771</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H242" s="10"/>
+      <c r="I242" s="10"/>
       <c r="J242" s="10"/>
       <c r="K242" s="9" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="L242" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -11182,7 +11217,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>10</v>
+        <v>302</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>815</v>
@@ -11191,7 +11226,7 @@
         <v>806</v>
       </c>
       <c r="E243" s="12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F243" s="11" t="s">
         <v>23</v>
@@ -11203,10 +11238,10 @@
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
       <c r="K243" s="9" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="L243" s="10" t="s">
-        <v>141</v>
+        <v>426</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -11214,33 +11249,35 @@
         <v>8</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>417</v>
+        <v>916</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E244" s="12">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F244" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G244" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" s="10"/>
-      <c r="I244" s="10"/>
-      <c r="J244" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="K244" s="9" t="s">
-        <v>420</v>
+        <v>0</v>
+      </c>
+      <c r="H244" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I244" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="J244" s="10"/>
+      <c r="K244" s="10" t="s">
+        <v>917</v>
       </c>
       <c r="L244" s="10" t="s">
-        <v>421</v>
+        <v>919</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -11248,33 +11285,35 @@
         <v>8</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>416</v>
+        <v>20</v>
       </c>
       <c r="C245" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E245" s="12">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G245" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" s="10"/>
-      <c r="I245" s="10"/>
-      <c r="J245" s="10" t="s">
-        <v>640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I245" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="J245" s="10"/>
       <c r="K245" s="9" t="s">
-        <v>418</v>
+        <v>24</v>
       </c>
       <c r="L245" s="10" t="s">
-        <v>419</v>
+        <v>150</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -11282,7 +11321,7 @@
         <v>8</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>561</v>
+        <v>10</v>
       </c>
       <c r="C246" s="9" t="s">
         <v>815</v>
@@ -11291,10 +11330,10 @@
         <v>806</v>
       </c>
       <c r="E246" s="12">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F246" s="11" t="s">
-        <v>291</v>
+        <v>23</v>
       </c>
       <c r="G246" s="11" t="b">
         <v>1</v>
@@ -11302,11 +11341,11 @@
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
       <c r="J246" s="10"/>
-      <c r="K246" s="10" t="s">
-        <v>562</v>
+      <c r="K246" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="L246" s="10" t="s">
-        <v>563</v>
+        <v>141</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -11314,31 +11353,33 @@
         <v>8</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>564</v>
+        <v>417</v>
       </c>
       <c r="C247" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="E247" s="10" t="s">
-        <v>309</v>
+        <v>806</v>
+      </c>
+      <c r="E247" s="12">
+        <v>180</v>
       </c>
       <c r="F247" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G247" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247" s="10"/>
       <c r="I247" s="10"/>
-      <c r="J247" s="10"/>
-      <c r="K247" s="10" t="s">
-        <v>565</v>
+      <c r="J247" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="K247" s="9" t="s">
+        <v>420</v>
       </c>
       <c r="L247" s="10" t="s">
-        <v>305</v>
+        <v>421</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -11346,31 +11387,33 @@
         <v>8</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>304</v>
+        <v>416</v>
       </c>
       <c r="C248" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="E248" s="10" t="s">
-        <v>309</v>
+        <v>806</v>
+      </c>
+      <c r="E248" s="12">
+        <v>-180</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G248" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248" s="10"/>
       <c r="I248" s="10"/>
-      <c r="J248" s="10"/>
-      <c r="K248" s="10" t="s">
-        <v>566</v>
+      <c r="J248" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="K248" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="L248" s="10" t="s">
-        <v>306</v>
+        <v>419</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -11378,31 +11421,31 @@
         <v>8</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>310</v>
+        <v>561</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E249" s="12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="G249" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249" s="10"/>
       <c r="I249" s="10"/>
       <c r="J249" s="10"/>
       <c r="K249" s="10" t="s">
-        <v>311</v>
+        <v>562</v>
       </c>
       <c r="L249" s="10" t="s">
-        <v>424</v>
+        <v>563</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -11410,19 +11453,19 @@
         <v>8</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>25</v>
+        <v>564</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E250" s="12">
-        <v>195</v>
+        <v>803</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G250" s="11" t="b">
         <v>0</v>
@@ -11430,11 +11473,11 @@
       <c r="H250" s="10"/>
       <c r="I250" s="10"/>
       <c r="J250" s="10"/>
-      <c r="K250" s="9" t="s">
-        <v>140</v>
+      <c r="K250" s="10" t="s">
+        <v>565</v>
       </c>
       <c r="L250" s="10" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -11442,19 +11485,19 @@
         <v>8</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E251" s="12">
-        <v>0</v>
+        <v>803</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>574</v>
+        <v>21</v>
       </c>
       <c r="G251" s="11" t="b">
         <v>0</v>
@@ -11463,10 +11506,10 @@
       <c r="I251" s="10"/>
       <c r="J251" s="10"/>
       <c r="K251" s="10" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="L251" s="10" t="s">
-        <v>579</v>
+        <v>306</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -11474,7 +11517,7 @@
         <v>8</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C252" s="9" t="s">
         <v>816</v>
@@ -11483,22 +11526,22 @@
         <v>806</v>
       </c>
       <c r="E252" s="12">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="G252" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252" s="10"/>
       <c r="I252" s="10"/>
       <c r="J252" s="10"/>
       <c r="K252" s="10" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="L252" s="10" t="s">
-        <v>296</v>
+        <v>424</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -11506,7 +11549,7 @@
         <v>8</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>824</v>
+        <v>25</v>
       </c>
       <c r="C253" s="9" t="s">
         <v>816</v>
@@ -11515,10 +11558,10 @@
         <v>806</v>
       </c>
       <c r="E253" s="12">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F253" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G253" s="11" t="b">
         <v>0</v>
@@ -11526,11 +11569,11 @@
       <c r="H253" s="10"/>
       <c r="I253" s="10"/>
       <c r="J253" s="10"/>
-      <c r="K253" s="10" t="s">
-        <v>825</v>
+      <c r="K253" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="L253" s="10" t="s">
-        <v>825</v>
+        <v>425</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -11538,7 +11581,7 @@
         <v>8</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C254" s="9" t="s">
         <v>816</v>
@@ -11559,30 +11602,30 @@
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="10" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="L254" s="10" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E255" s="12">
-        <v>180</v>
+        <v>1.2</v>
       </c>
       <c r="F255" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G255" s="11" t="b">
         <v>1</v>
@@ -11591,94 +11634,94 @@
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
       <c r="K255" s="10" t="s">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="L255" s="10" t="s">
-        <v>110</v>
+        <v>296</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>18</v>
+        <v>824</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E256" s="12">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G256" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256" s="10"/>
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
       <c r="K256" s="10" t="s">
-        <v>139</v>
+        <v>825</v>
       </c>
       <c r="L256" s="10" t="s">
-        <v>111</v>
+        <v>825</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>99</v>
+        <v>573</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E257" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>21</v>
+        <v>574</v>
       </c>
       <c r="G257" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
       <c r="J257" s="10"/>
-      <c r="K257" s="9" t="s">
-        <v>127</v>
+      <c r="K257" s="10" t="s">
+        <v>575</v>
       </c>
       <c r="L257" s="10" t="s">
-        <v>213</v>
+        <v>576</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>545</v>
+        <v>913</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E258" s="12" t="s">
-        <v>546</v>
+        <v>806</v>
+      </c>
+      <c r="E258" s="12">
+        <v>0</v>
       </c>
       <c r="F258" s="11" t="s">
-        <v>21</v>
+        <v>574</v>
       </c>
       <c r="G258" s="11" t="b">
         <v>0</v>
@@ -11687,10 +11730,10 @@
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
       <c r="K258" s="10" t="s">
-        <v>547</v>
+        <v>914</v>
       </c>
       <c r="L258" s="10" t="s">
-        <v>547</v>
+        <v>915</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -11698,35 +11741,31 @@
         <v>4</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="C259" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E259" s="12">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="F259" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G259" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H259" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I259" s="10" t="s">
-        <v>556</v>
-      </c>
+      <c r="H259" s="10"/>
+      <c r="I259" s="10"/>
       <c r="J259" s="10"/>
-      <c r="K259" s="9" t="s">
-        <v>135</v>
+      <c r="K259" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="L259" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -11734,19 +11773,19 @@
         <v>4</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E260" s="12">
-        <v>4</v>
+        <v>-180</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G260" s="11" t="b">
         <v>1</v>
@@ -11755,10 +11794,10 @@
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
       <c r="K260" s="10" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="L260" s="10" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -11766,13 +11805,13 @@
         <v>4</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>582</v>
+        <v>99</v>
       </c>
       <c r="C261" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E261" s="12">
         <v>2</v>
@@ -11786,11 +11825,11 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
-      <c r="K261" s="10" t="s">
-        <v>583</v>
+      <c r="K261" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="L261" s="10" t="s">
-        <v>584</v>
+        <v>213</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -11798,31 +11837,31 @@
         <v>4</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>188</v>
+        <v>545</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E262" s="12">
-        <v>950</v>
+        <v>805</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>546</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="G262" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
       <c r="J262" s="10"/>
       <c r="K262" s="10" t="s">
-        <v>190</v>
+        <v>547</v>
       </c>
       <c r="L262" s="10" t="s">
-        <v>191</v>
+        <v>547</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
@@ -11830,7 +11869,7 @@
         <v>4</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>521</v>
+        <v>104</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>815</v>
@@ -11839,7 +11878,7 @@
         <v>805</v>
       </c>
       <c r="E263" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F263" s="11" t="s">
         <v>21</v>
@@ -11851,14 +11890,14 @@
         <v>131</v>
       </c>
       <c r="I263" s="10" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="J263" s="10"/>
-      <c r="K263" s="10" t="s">
-        <v>555</v>
+      <c r="K263" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="L263" s="10" t="s">
-        <v>522</v>
+        <v>105</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -11866,16 +11905,16 @@
         <v>4</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>891</v>
+        <v>192</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E264" s="12" t="b">
-        <v>0</v>
+        <v>804</v>
+      </c>
+      <c r="E264" s="12">
+        <v>4</v>
       </c>
       <c r="F264" s="11" t="s">
         <v>21</v>
@@ -11883,16 +11922,14 @@
       <c r="G264" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H264" s="10" t="s">
-        <v>202</v>
-      </c>
+      <c r="H264" s="10"/>
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
       <c r="K264" s="10" t="s">
-        <v>892</v>
+        <v>193</v>
       </c>
       <c r="L264" s="10" t="s">
-        <v>893</v>
+        <v>194</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -11900,33 +11937,31 @@
         <v>4</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>636</v>
+        <v>582</v>
       </c>
       <c r="C265" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E265" s="12" t="b">
-        <v>1</v>
+        <v>804</v>
+      </c>
+      <c r="E265" s="12">
+        <v>2</v>
       </c>
       <c r="F265" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G265" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H265" s="10" t="s">
-        <v>202</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H265" s="10"/>
       <c r="I265" s="10"/>
       <c r="J265" s="10"/>
       <c r="K265" s="10" t="s">
-        <v>637</v>
+        <v>583</v>
       </c>
       <c r="L265" s="10" t="s">
-        <v>638</v>
+        <v>584</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -11934,33 +11969,31 @@
         <v>4</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>612</v>
+        <v>188</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E266" s="12" t="b">
-        <v>0</v>
+        <v>806</v>
+      </c>
+      <c r="E266" s="12">
+        <v>950</v>
       </c>
       <c r="F266" s="11" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="G266" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H266" s="10" t="s">
-        <v>202</v>
-      </c>
+      <c r="H266" s="10"/>
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
       <c r="K266" s="10" t="s">
-        <v>610</v>
+        <v>190</v>
       </c>
       <c r="L266" s="10" t="s">
-        <v>611</v>
+        <v>191</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -11968,33 +12001,35 @@
         <v>4</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>209</v>
+        <v>521</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E267" s="12" t="b">
-        <v>1</v>
+        <v>805</v>
+      </c>
+      <c r="E267" s="12">
+        <v>7</v>
       </c>
       <c r="F267" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G267" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I267" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="I267" s="10" t="s">
+        <v>523</v>
+      </c>
       <c r="J267" s="10"/>
       <c r="K267" s="10" t="s">
-        <v>210</v>
+        <v>555</v>
       </c>
       <c r="L267" s="10" t="s">
-        <v>211</v>
+        <v>522</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -12002,7 +12037,7 @@
         <v>4</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>815</v>
@@ -12025,10 +12060,10 @@
       <c r="I268" s="10"/>
       <c r="J268" s="10"/>
       <c r="K268" s="10" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="L268" s="10" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -12036,27 +12071,33 @@
         <v>4</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>387</v>
+        <v>636</v>
       </c>
       <c r="C269" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E269" s="12"/>
-      <c r="F269" s="11"/>
+        <v>807</v>
+      </c>
+      <c r="E269" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F269" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G269" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H269" s="10"/>
+      <c r="H269" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
       <c r="K269" s="10" t="s">
-        <v>388</v>
+        <v>637</v>
       </c>
       <c r="L269" s="10" t="s">
-        <v>388</v>
+        <v>638</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -12064,35 +12105,33 @@
         <v>4</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>6</v>
+        <v>612</v>
       </c>
       <c r="C270" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E270" s="12">
+        <v>807</v>
+      </c>
+      <c r="E270" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F270" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G270" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I270" s="10" t="s">
-        <v>132</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="I270" s="10"/>
       <c r="J270" s="10"/>
-      <c r="K270" s="9" t="s">
-        <v>133</v>
+      <c r="K270" s="10" t="s">
+        <v>610</v>
       </c>
       <c r="L270" s="10" t="s">
-        <v>65</v>
+        <v>611</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -12100,31 +12139,33 @@
         <v>4</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>623</v>
+        <v>209</v>
       </c>
       <c r="C271" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E271" s="12">
+        <v>807</v>
+      </c>
+      <c r="E271" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>625</v>
+        <v>21</v>
       </c>
       <c r="G271" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H271" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="I271" s="10"/>
       <c r="J271" s="10"/>
       <c r="K271" s="10" t="s">
-        <v>627</v>
+        <v>210</v>
       </c>
       <c r="L271" s="10" t="s">
-        <v>632</v>
+        <v>211</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -12132,31 +12173,33 @@
         <v>4</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>621</v>
+        <v>910</v>
       </c>
       <c r="C272" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E272" s="12">
-        <v>1</v>
+        <v>807</v>
+      </c>
+      <c r="E272" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="F272" s="11" t="s">
-        <v>625</v>
+        <v>21</v>
       </c>
       <c r="G272" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H272" s="10"/>
+      <c r="H272" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="I272" s="10"/>
       <c r="J272" s="10"/>
       <c r="K272" s="10" t="s">
-        <v>626</v>
+        <v>911</v>
       </c>
       <c r="L272" s="10" t="s">
-        <v>631</v>
+        <v>912</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -12164,31 +12207,27 @@
         <v>4</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>624</v>
+        <v>387</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E273" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F273" s="11" t="s">
-        <v>625</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="E273" s="12"/>
+      <c r="F273" s="11"/>
       <c r="G273" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H273" s="10"/>
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
       <c r="K273" s="10" t="s">
-        <v>629</v>
+        <v>388</v>
       </c>
       <c r="L273" s="10" t="s">
-        <v>634</v>
+        <v>388</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -12196,31 +12235,35 @@
         <v>4</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>622</v>
+        <v>6</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E274" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>625</v>
+        <v>21</v>
       </c>
       <c r="G274" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" s="10"/>
-      <c r="I274" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H274" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I274" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="J274" s="10"/>
-      <c r="K274" s="10" t="s">
-        <v>628</v>
+      <c r="K274" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="L274" s="10" t="s">
-        <v>633</v>
+        <v>65</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -12228,7 +12271,7 @@
         <v>4</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>815</v>
@@ -12237,10 +12280,10 @@
         <v>806</v>
       </c>
       <c r="E275" s="12">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="F275" s="11" t="s">
-        <v>21</v>
+        <v>625</v>
       </c>
       <c r="G275" s="11" t="b">
         <v>1</v>
@@ -12249,10 +12292,10 @@
       <c r="I275" s="10"/>
       <c r="J275" s="10"/>
       <c r="K275" s="10" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="L275" s="10" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -12260,7 +12303,7 @@
         <v>4</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>5</v>
+        <v>621</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>815</v>
@@ -12269,10 +12312,10 @@
         <v>806</v>
       </c>
       <c r="E276" s="12">
-        <v>670</v>
+        <v>1</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>212</v>
+        <v>625</v>
       </c>
       <c r="G276" s="11" t="b">
         <v>1</v>
@@ -12280,11 +12323,11 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
       <c r="J276" s="10"/>
-      <c r="K276" s="9" t="s">
-        <v>126</v>
+      <c r="K276" s="10" t="s">
+        <v>626</v>
       </c>
       <c r="L276" s="10" t="s">
-        <v>64</v>
+        <v>631</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
@@ -12292,35 +12335,31 @@
         <v>4</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>100</v>
+        <v>624</v>
       </c>
       <c r="C277" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E277" s="12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F277" s="11" t="s">
-        <v>21</v>
+        <v>625</v>
       </c>
       <c r="G277" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H277" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I277" s="10" t="s">
-        <v>786</v>
-      </c>
+      <c r="H277" s="10"/>
+      <c r="I277" s="10"/>
       <c r="J277" s="10"/>
-      <c r="K277" s="9" t="s">
-        <v>134</v>
+      <c r="K277" s="10" t="s">
+        <v>629</v>
       </c>
       <c r="L277" s="10" t="s">
-        <v>101</v>
+        <v>634</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -12328,7 +12367,7 @@
         <v>4</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>815</v>
@@ -12337,10 +12376,10 @@
         <v>806</v>
       </c>
       <c r="E278" s="12">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F278" s="11" t="s">
-        <v>21</v>
+        <v>625</v>
       </c>
       <c r="G278" s="11" t="b">
         <v>1</v>
@@ -12349,10 +12388,10 @@
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
       <c r="K278" s="10" t="s">
-        <v>535</v>
+        <v>628</v>
       </c>
       <c r="L278" s="10" t="s">
-        <v>538</v>
+        <v>633</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -12360,7 +12399,7 @@
         <v>4</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="C279" s="9" t="s">
         <v>815</v>
@@ -12369,7 +12408,7 @@
         <v>806</v>
       </c>
       <c r="E279" s="12">
-        <v>1.1000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F279" s="11" t="s">
         <v>21</v>
@@ -12381,10 +12420,10 @@
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
       <c r="K279" s="10" t="s">
-        <v>536</v>
+        <v>614</v>
       </c>
       <c r="L279" s="10" t="s">
-        <v>539</v>
+        <v>615</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
@@ -12392,7 +12431,7 @@
         <v>4</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C280" s="9" t="s">
         <v>815</v>
@@ -12401,22 +12440,22 @@
         <v>806</v>
       </c>
       <c r="E280" s="12">
-        <v>195</v>
+        <v>670</v>
       </c>
       <c r="F280" s="11" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="G280" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280" s="10"/>
       <c r="I280" s="10"/>
       <c r="J280" s="10"/>
       <c r="K280" s="9" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="L280" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -12424,31 +12463,35 @@
         <v>4</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E281" s="12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F281" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G281" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H281" s="10"/>
-      <c r="I281" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H281" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I281" s="10" t="s">
+        <v>786</v>
+      </c>
       <c r="J281" s="10"/>
       <c r="K281" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L281" s="10" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -12456,7 +12499,7 @@
         <v>4</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>894</v>
+        <v>531</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>815</v>
@@ -12465,7 +12508,7 @@
         <v>806</v>
       </c>
       <c r="E282" s="12">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F282" s="11" t="s">
         <v>21</v>
@@ -12477,10 +12520,10 @@
       <c r="I282" s="10"/>
       <c r="J282" s="10"/>
       <c r="K282" s="10" t="s">
-        <v>895</v>
+        <v>535</v>
       </c>
       <c r="L282" s="10" t="s">
-        <v>895</v>
+        <v>538</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -12488,7 +12531,7 @@
         <v>4</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>97</v>
+        <v>532</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>815</v>
@@ -12497,7 +12540,7 @@
         <v>806</v>
       </c>
       <c r="E283" s="12">
-        <v>1.33</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F283" s="11" t="s">
         <v>21</v>
@@ -12508,11 +12551,11 @@
       <c r="H283" s="10"/>
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
-      <c r="K283" s="9" t="s">
-        <v>128</v>
+      <c r="K283" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="L283" s="10" t="s">
-        <v>98</v>
+        <v>539</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -12520,7 +12563,7 @@
         <v>4</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>854</v>
+        <v>14</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>815</v>
@@ -12529,22 +12572,22 @@
         <v>806</v>
       </c>
       <c r="E284" s="12">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G284" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H284" s="10"/>
       <c r="I284" s="10"/>
       <c r="J284" s="10"/>
-      <c r="K284" s="10" t="s">
-        <v>857</v>
+      <c r="K284" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="L284" s="10" t="s">
-        <v>500</v>
+        <v>68</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -12552,7 +12595,7 @@
         <v>4</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>855</v>
+        <v>13</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>815</v>
@@ -12561,22 +12604,22 @@
         <v>806</v>
       </c>
       <c r="E285" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G285" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H285" s="10"/>
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
-      <c r="K285" s="10" t="s">
-        <v>858</v>
+      <c r="K285" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="L285" s="10" t="s">
-        <v>501</v>
+        <v>67</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -12584,16 +12627,16 @@
         <v>4</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>497</v>
+        <v>894</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E286" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F286" s="11" t="s">
         <v>21</v>
@@ -12601,18 +12644,14 @@
       <c r="G286" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H286" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I286" s="10" t="s">
-        <v>520</v>
-      </c>
+      <c r="H286" s="10"/>
+      <c r="I286" s="10"/>
       <c r="J286" s="10"/>
       <c r="K286" s="10" t="s">
-        <v>498</v>
+        <v>895</v>
       </c>
       <c r="L286" s="10" t="s">
-        <v>499</v>
+        <v>895</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -12620,16 +12659,16 @@
         <v>4</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>774</v>
+        <v>97</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E287" s="12">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="F287" s="11" t="s">
         <v>21</v>
@@ -12637,16 +12676,14 @@
       <c r="G287" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H287" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="H287" s="10"/>
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
-      <c r="K287" s="10" t="s">
-        <v>775</v>
+      <c r="K287" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="L287" s="10" t="s">
-        <v>776</v>
+        <v>98</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -12654,33 +12691,31 @@
         <v>4</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>269</v>
+        <v>854</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E288" s="12">
-        <v>0</v>
-      </c>
-      <c r="F288" s="11"/>
+        <v>180</v>
+      </c>
+      <c r="F288" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="G288" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H288" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I288" s="10" t="s">
-        <v>271</v>
-      </c>
+      <c r="H288" s="10"/>
+      <c r="I288" s="10"/>
       <c r="J288" s="10"/>
       <c r="K288" s="10" t="s">
-        <v>270</v>
+        <v>857</v>
       </c>
       <c r="L288" s="10" t="s">
-        <v>284</v>
+        <v>500</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -12688,7 +12723,7 @@
         <v>4</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>9</v>
+        <v>855</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>815</v>
@@ -12697,10 +12732,10 @@
         <v>806</v>
       </c>
       <c r="E289" s="12">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G289" s="11" t="b">
         <v>1</v>
@@ -12708,11 +12743,11 @@
       <c r="H289" s="10"/>
       <c r="I289" s="10"/>
       <c r="J289" s="10"/>
-      <c r="K289" s="9" t="s">
-        <v>285</v>
+      <c r="K289" s="10" t="s">
+        <v>858</v>
       </c>
       <c r="L289" s="10" t="s">
-        <v>286</v>
+        <v>501</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -12720,16 +12755,16 @@
         <v>4</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>787</v>
+        <v>497</v>
       </c>
       <c r="C290" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E290" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F290" s="11" t="s">
         <v>21</v>
@@ -12737,14 +12772,18 @@
       <c r="G290" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H290" s="10"/>
-      <c r="I290" s="10"/>
+      <c r="H290" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I290" s="10" t="s">
+        <v>520</v>
+      </c>
       <c r="J290" s="10"/>
       <c r="K290" s="10" t="s">
-        <v>788</v>
+        <v>498</v>
       </c>
       <c r="L290" s="10" t="s">
-        <v>789</v>
+        <v>499</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -12752,7 +12791,7 @@
         <v>4</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>533</v>
+        <v>774</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>815</v>
@@ -12763,22 +12802,22 @@
       <c r="E291" s="12">
         <v>0</v>
       </c>
-      <c r="F291" s="11"/>
+      <c r="F291" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G291" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H291" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="I291" s="10" t="s">
-        <v>534</v>
-      </c>
+      <c r="I291" s="10"/>
       <c r="J291" s="10"/>
       <c r="K291" s="10" t="s">
-        <v>537</v>
+        <v>775</v>
       </c>
       <c r="L291" s="10" t="s">
-        <v>540</v>
+        <v>776</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -12786,31 +12825,33 @@
         <v>4</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>541</v>
+        <v>269</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E292" s="12">
-        <v>1</v>
-      </c>
-      <c r="F292" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F292" s="11"/>
       <c r="G292" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H292" s="10"/>
-      <c r="I292" s="10"/>
+      <c r="H292" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I292" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="J292" s="10"/>
       <c r="K292" s="10" t="s">
-        <v>542</v>
+        <v>270</v>
       </c>
       <c r="L292" s="10" t="s">
-        <v>543</v>
+        <v>284</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -12818,7 +12859,7 @@
         <v>4</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>620</v>
+        <v>9</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>815</v>
@@ -12827,10 +12868,10 @@
         <v>806</v>
       </c>
       <c r="E293" s="12">
-        <v>1E-3</v>
+        <v>195</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G293" s="11" t="b">
         <v>1</v>
@@ -12838,11 +12879,11 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
       <c r="J293" s="10"/>
-      <c r="K293" s="10" t="s">
-        <v>630</v>
+      <c r="K293" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="L293" s="10" t="s">
-        <v>635</v>
+        <v>286</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -12850,7 +12891,7 @@
         <v>4</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>903</v>
+        <v>787</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>815</v>
@@ -12859,10 +12900,10 @@
         <v>806</v>
       </c>
       <c r="E294" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>906</v>
+        <v>21</v>
       </c>
       <c r="G294" s="11" t="b">
         <v>1</v>
@@ -12871,10 +12912,10 @@
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
       <c r="K294" s="10" t="s">
-        <v>905</v>
+        <v>788</v>
       </c>
       <c r="L294" s="10" t="s">
-        <v>904</v>
+        <v>789</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -12882,31 +12923,33 @@
         <v>4</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>828</v>
+        <v>533</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E295" s="12">
         <v>0</v>
       </c>
-      <c r="F295" s="11" t="s">
-        <v>308</v>
-      </c>
+      <c r="F295" s="11"/>
       <c r="G295" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H295" s="10"/>
-      <c r="I295" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H295" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I295" s="10" t="s">
+        <v>534</v>
+      </c>
       <c r="J295" s="10"/>
       <c r="K295" s="10" t="s">
-        <v>831</v>
+        <v>537</v>
       </c>
       <c r="L295" s="10" t="s">
-        <v>832</v>
+        <v>540</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -12914,31 +12957,31 @@
         <v>4</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>827</v>
+        <v>541</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E296" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F296" s="11" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="G296" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
       <c r="K296" s="10" t="s">
-        <v>801</v>
+        <v>542</v>
       </c>
       <c r="L296" s="10" t="s">
-        <v>833</v>
+        <v>543</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
@@ -12946,29 +12989,31 @@
         <v>4</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>389</v>
+        <v>620</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>813</v>
-      </c>
-      <c r="E297" s="12"/>
+        <v>806</v>
+      </c>
+      <c r="E297" s="12">
+        <v>1E-3</v>
+      </c>
       <c r="F297" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G297" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H297" s="10"/>
       <c r="I297" s="10"/>
       <c r="J297" s="10"/>
       <c r="K297" s="10" t="s">
-        <v>390</v>
+        <v>630</v>
       </c>
       <c r="L297" s="10" t="s">
-        <v>390</v>
+        <v>635</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
@@ -12976,31 +13021,31 @@
         <v>4</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>856</v>
+        <v>903</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E298" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>56</v>
+        <v>906</v>
       </c>
       <c r="G298" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
       <c r="J298" s="10"/>
       <c r="K298" s="10" t="s">
-        <v>859</v>
+        <v>905</v>
       </c>
       <c r="L298" s="10" t="s">
-        <v>859</v>
+        <v>904</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -13008,7 +13053,7 @@
         <v>4</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="C299" s="9" t="s">
         <v>816</v>
@@ -13020,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="G299" s="11" t="b">
         <v>0</v>
@@ -13029,9 +13074,135 @@
       <c r="I299" s="10"/>
       <c r="J299" s="10"/>
       <c r="K299" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="L299" s="10" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A300" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E300" s="12">
+        <v>0</v>
+      </c>
+      <c r="F300" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="G300" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H300" s="10"/>
+      <c r="I300" s="10"/>
+      <c r="J300" s="10"/>
+      <c r="K300" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="L300" s="10" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A301" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="E301" s="12"/>
+      <c r="F301" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G301" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H301" s="10"/>
+      <c r="I301" s="10"/>
+      <c r="J301" s="10"/>
+      <c r="K301" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="L301" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A302" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B302" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E302" s="12">
+        <v>0</v>
+      </c>
+      <c r="F302" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G302" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H302" s="10"/>
+      <c r="I302" s="10"/>
+      <c r="J302" s="10"/>
+      <c r="K302" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="L302" s="10" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A303" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E303" s="12">
+        <v>0</v>
+      </c>
+      <c r="F303" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G303" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H303" s="10"/>
+      <c r="I303" s="10"/>
+      <c r="J303" s="10"/>
+      <c r="K303" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="L299" s="10" t="s">
+      <c r="L303" s="10" t="s">
         <v>860</v>
       </c>
     </row>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E545333F-24FD-4244-A031-09AAA7851C90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AD1926-2AAC-49F1-AFAA-4E0BC801B0A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="8220" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="935">
   <si>
     <t>String name</t>
   </si>
@@ -2771,9 +2771,6 @@
     <t>Receiver offset reference</t>
   </si>
   <si>
-    <t>Tower=0</t>
-  </si>
-  <si>
     <t>Receiver offset is relative to the position of the selected item. Options include tower or other receivers.</t>
   </si>
   <si>
@@ -2793,6 +2790,36 @@
   </si>
   <si>
     <t>The number of heliostats required to meet this value times the design power of each receiver are considered for layout</t>
+  </si>
+  <si>
+    <t>rec_offset_y_global</t>
+  </si>
+  <si>
+    <t>rec_offset_x_global</t>
+  </si>
+  <si>
+    <t>rec_offset_z_global</t>
+  </si>
+  <si>
+    <t>Receiver global positioning offset - X axis</t>
+  </si>
+  <si>
+    <t>Receiver global positioning offset - Y axis</t>
+  </si>
+  <si>
+    <t>Receiver global positioning offset - Z axis</t>
+  </si>
+  <si>
+    <t>Offset of receiver center in the East(+)/West(-) direction from the reference object</t>
+  </si>
+  <si>
+    <t>Offset of receiver center in the North(+)/South(-) direction from the reference object</t>
+  </si>
+  <si>
+    <t>Offset of the receiver center in the vertical direction from the reference object, positive upwards</t>
+  </si>
+  <si>
+    <t>Tower=-1</t>
   </si>
 </sst>
 </file>
@@ -3031,10 +3058,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L303" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L303" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:L313">
-    <sortCondition ref="A1:A313"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L306" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L306" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:L316">
+    <sortCondition ref="A1:A316"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain" dataDxfId="11"/>
@@ -3375,11 +3402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L303"/>
+  <dimension ref="A1:L306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E202" sqref="E202"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9623,7 +9650,7 @@
         <v>714</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>815</v>
@@ -9644,10 +9671,10 @@
       <c r="I194" s="10"/>
       <c r="J194" s="10"/>
       <c r="K194" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="L194" s="10" t="s">
         <v>921</v>
-      </c>
-      <c r="L194" s="10" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -9655,7 +9682,7 @@
         <v>714</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>815</v>
@@ -9676,10 +9703,10 @@
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
       <c r="K195" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="L195" s="10" t="s">
         <v>924</v>
-      </c>
-      <c r="L195" s="10" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -11177,7 +11204,7 @@
         <v>146</v>
       </c>
       <c r="L241" s="10" t="s">
-        <v>148</v>
+        <v>931</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -11209,7 +11236,7 @@
         <v>147</v>
       </c>
       <c r="L242" s="10" t="s">
-        <v>149</v>
+        <v>932</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -11241,7 +11268,7 @@
         <v>303</v>
       </c>
       <c r="L243" s="10" t="s">
-        <v>426</v>
+        <v>933</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -11270,14 +11297,14 @@
         <v>131</v>
       </c>
       <c r="I244" s="10" t="s">
-        <v>918</v>
+        <v>934</v>
       </c>
       <c r="J244" s="10"/>
       <c r="K244" s="10" t="s">
         <v>917</v>
       </c>
       <c r="L244" s="10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -11738,98 +11765,98 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>19</v>
+        <v>926</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E259" s="12">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F259" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G259" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259" s="10"/>
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
-      <c r="K259" s="10" t="s">
-        <v>138</v>
+      <c r="K259" s="9" t="s">
+        <v>928</v>
       </c>
       <c r="L259" s="10" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>18</v>
+        <v>925</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E260" s="12">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G260" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
-      <c r="K260" s="10" t="s">
-        <v>139</v>
+      <c r="K260" s="9" t="s">
+        <v>929</v>
       </c>
       <c r="L260" s="10" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>99</v>
+        <v>927</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E261" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G261" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
       <c r="K261" s="9" t="s">
-        <v>127</v>
+        <v>930</v>
       </c>
       <c r="L261" s="10" t="s">
-        <v>213</v>
+        <v>426</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -11837,31 +11864,31 @@
         <v>4</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>545</v>
+        <v>19</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E262" s="12" t="s">
-        <v>546</v>
+        <v>806</v>
+      </c>
+      <c r="E262" s="12">
+        <v>180</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G262" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
       <c r="J262" s="10"/>
       <c r="K262" s="10" t="s">
-        <v>547</v>
+        <v>138</v>
       </c>
       <c r="L262" s="10" t="s">
-        <v>547</v>
+        <v>110</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
@@ -11869,35 +11896,31 @@
         <v>4</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E263" s="12">
-        <v>5</v>
+        <v>-180</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G263" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H263" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I263" s="10" t="s">
-        <v>556</v>
-      </c>
+      <c r="H263" s="10"/>
+      <c r="I263" s="10"/>
       <c r="J263" s="10"/>
-      <c r="K263" s="9" t="s">
-        <v>135</v>
+      <c r="K263" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="L263" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -11905,16 +11928,16 @@
         <v>4</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E264" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F264" s="11" t="s">
         <v>21</v>
@@ -11925,11 +11948,11 @@
       <c r="H264" s="10"/>
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
-      <c r="K264" s="10" t="s">
-        <v>193</v>
+      <c r="K264" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="L264" s="10" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -11937,31 +11960,31 @@
         <v>4</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="C265" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E265" s="12">
-        <v>2</v>
+        <v>805</v>
+      </c>
+      <c r="E265" s="12" t="s">
+        <v>546</v>
       </c>
       <c r="F265" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G265" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265" s="10"/>
       <c r="I265" s="10"/>
       <c r="J265" s="10"/>
       <c r="K265" s="10" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="L265" s="10" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -11969,31 +11992,35 @@
         <v>4</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E266" s="12">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="F266" s="11" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="G266" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H266" s="10"/>
-      <c r="I266" s="10"/>
+      <c r="H266" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I266" s="10" t="s">
+        <v>556</v>
+      </c>
       <c r="J266" s="10"/>
-      <c r="K266" s="10" t="s">
-        <v>190</v>
+      <c r="K266" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="L266" s="10" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -12001,16 +12028,16 @@
         <v>4</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>521</v>
+        <v>192</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E267" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F267" s="11" t="s">
         <v>21</v>
@@ -12018,18 +12045,14 @@
       <c r="G267" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H267" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I267" s="10" t="s">
-        <v>523</v>
-      </c>
+      <c r="H267" s="10"/>
+      <c r="I267" s="10"/>
       <c r="J267" s="10"/>
       <c r="K267" s="10" t="s">
-        <v>555</v>
+        <v>193</v>
       </c>
       <c r="L267" s="10" t="s">
-        <v>522</v>
+        <v>194</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -12037,16 +12060,16 @@
         <v>4</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>891</v>
+        <v>582</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E268" s="12" t="b">
-        <v>0</v>
+        <v>804</v>
+      </c>
+      <c r="E268" s="12">
+        <v>2</v>
       </c>
       <c r="F268" s="11" t="s">
         <v>21</v>
@@ -12054,16 +12077,14 @@
       <c r="G268" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H268" s="10" t="s">
-        <v>202</v>
-      </c>
+      <c r="H268" s="10"/>
       <c r="I268" s="10"/>
       <c r="J268" s="10"/>
       <c r="K268" s="10" t="s">
-        <v>892</v>
+        <v>583</v>
       </c>
       <c r="L268" s="10" t="s">
-        <v>893</v>
+        <v>584</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -12071,33 +12092,31 @@
         <v>4</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>636</v>
+        <v>188</v>
       </c>
       <c r="C269" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E269" s="12" t="b">
-        <v>1</v>
+        <v>806</v>
+      </c>
+      <c r="E269" s="12">
+        <v>950</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="G269" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H269" s="10" t="s">
-        <v>202</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H269" s="10"/>
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
       <c r="K269" s="10" t="s">
-        <v>637</v>
+        <v>190</v>
       </c>
       <c r="L269" s="10" t="s">
-        <v>638</v>
+        <v>191</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -12105,16 +12124,16 @@
         <v>4</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>612</v>
+        <v>521</v>
       </c>
       <c r="C270" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="E270" s="12" t="b">
-        <v>0</v>
+        <v>805</v>
+      </c>
+      <c r="E270" s="12">
+        <v>7</v>
       </c>
       <c r="F270" s="11" t="s">
         <v>21</v>
@@ -12123,15 +12142,17 @@
         <v>1</v>
       </c>
       <c r="H270" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I270" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="I270" s="10" t="s">
+        <v>523</v>
+      </c>
       <c r="J270" s="10"/>
       <c r="K270" s="10" t="s">
-        <v>610</v>
+        <v>555</v>
       </c>
       <c r="L270" s="10" t="s">
-        <v>611</v>
+        <v>522</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -12139,7 +12160,7 @@
         <v>4</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>209</v>
+        <v>891</v>
       </c>
       <c r="C271" s="9" t="s">
         <v>815</v>
@@ -12148,13 +12169,13 @@
         <v>807</v>
       </c>
       <c r="E271" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F271" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G271" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271" s="10" t="s">
         <v>202</v>
@@ -12162,10 +12183,10 @@
       <c r="I271" s="10"/>
       <c r="J271" s="10"/>
       <c r="K271" s="10" t="s">
-        <v>210</v>
+        <v>892</v>
       </c>
       <c r="L271" s="10" t="s">
-        <v>211</v>
+        <v>893</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -12173,7 +12194,7 @@
         <v>4</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>910</v>
+        <v>636</v>
       </c>
       <c r="C272" s="9" t="s">
         <v>815</v>
@@ -12182,13 +12203,13 @@
         <v>807</v>
       </c>
       <c r="E272" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G272" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H272" s="10" t="s">
         <v>202</v>
@@ -12196,10 +12217,10 @@
       <c r="I272" s="10"/>
       <c r="J272" s="10"/>
       <c r="K272" s="10" t="s">
-        <v>911</v>
+        <v>637</v>
       </c>
       <c r="L272" s="10" t="s">
-        <v>912</v>
+        <v>638</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -12207,27 +12228,33 @@
         <v>4</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>387</v>
+        <v>612</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E273" s="12"/>
-      <c r="F273" s="11"/>
+        <v>807</v>
+      </c>
+      <c r="E273" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F273" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G273" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H273" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H273" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
       <c r="K273" s="10" t="s">
-        <v>388</v>
+        <v>610</v>
       </c>
       <c r="L273" s="10" t="s">
-        <v>388</v>
+        <v>611</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -12235,16 +12262,16 @@
         <v>4</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E274" s="12">
-        <v>0</v>
+        <v>807</v>
+      </c>
+      <c r="E274" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="F274" s="11" t="s">
         <v>21</v>
@@ -12253,17 +12280,15 @@
         <v>0</v>
       </c>
       <c r="H274" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I274" s="10" t="s">
-        <v>132</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="I274" s="10"/>
       <c r="J274" s="10"/>
-      <c r="K274" s="9" t="s">
-        <v>133</v>
+      <c r="K274" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="L274" s="10" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -12271,31 +12296,33 @@
         <v>4</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>623</v>
+        <v>910</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E275" s="12">
-        <v>1</v>
+        <v>807</v>
+      </c>
+      <c r="E275" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="F275" s="11" t="s">
-        <v>625</v>
+        <v>21</v>
       </c>
       <c r="G275" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H275" s="10"/>
+      <c r="H275" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="I275" s="10"/>
       <c r="J275" s="10"/>
       <c r="K275" s="10" t="s">
-        <v>627</v>
+        <v>911</v>
       </c>
       <c r="L275" s="10" t="s">
-        <v>632</v>
+        <v>912</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -12303,31 +12330,27 @@
         <v>4</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>621</v>
+        <v>387</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E276" s="12">
-        <v>1</v>
-      </c>
-      <c r="F276" s="11" t="s">
-        <v>625</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="E276" s="12"/>
+      <c r="F276" s="11"/>
       <c r="G276" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
       <c r="J276" s="10"/>
       <c r="K276" s="10" t="s">
-        <v>626</v>
+        <v>388</v>
       </c>
       <c r="L276" s="10" t="s">
-        <v>631</v>
+        <v>388</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
@@ -12335,31 +12358,35 @@
         <v>4</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>624</v>
+        <v>6</v>
       </c>
       <c r="C277" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E277" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F277" s="11" t="s">
-        <v>625</v>
+        <v>21</v>
       </c>
       <c r="G277" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H277" s="10"/>
-      <c r="I277" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H277" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I277" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="J277" s="10"/>
-      <c r="K277" s="10" t="s">
-        <v>629</v>
+      <c r="K277" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="L277" s="10" t="s">
-        <v>634</v>
+        <v>65</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -12367,7 +12394,7 @@
         <v>4</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>815</v>
@@ -12376,7 +12403,7 @@
         <v>806</v>
       </c>
       <c r="E278" s="12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F278" s="11" t="s">
         <v>625</v>
@@ -12388,10 +12415,10 @@
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
       <c r="K278" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L278" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -12399,7 +12426,7 @@
         <v>4</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C279" s="9" t="s">
         <v>815</v>
@@ -12408,10 +12435,10 @@
         <v>806</v>
       </c>
       <c r="E279" s="12">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="F279" s="11" t="s">
-        <v>21</v>
+        <v>625</v>
       </c>
       <c r="G279" s="11" t="b">
         <v>1</v>
@@ -12420,10 +12447,10 @@
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
       <c r="K279" s="10" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="L279" s="10" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
@@ -12431,7 +12458,7 @@
         <v>4</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>5</v>
+        <v>624</v>
       </c>
       <c r="C280" s="9" t="s">
         <v>815</v>
@@ -12440,10 +12467,10 @@
         <v>806</v>
       </c>
       <c r="E280" s="12">
-        <v>670</v>
+        <v>0.1</v>
       </c>
       <c r="F280" s="11" t="s">
-        <v>212</v>
+        <v>625</v>
       </c>
       <c r="G280" s="11" t="b">
         <v>1</v>
@@ -12451,11 +12478,11 @@
       <c r="H280" s="10"/>
       <c r="I280" s="10"/>
       <c r="J280" s="10"/>
-      <c r="K280" s="9" t="s">
-        <v>126</v>
+      <c r="K280" s="10" t="s">
+        <v>629</v>
       </c>
       <c r="L280" s="10" t="s">
-        <v>64</v>
+        <v>634</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -12463,35 +12490,31 @@
         <v>4</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>100</v>
+        <v>622</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E281" s="12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F281" s="11" t="s">
-        <v>21</v>
+        <v>625</v>
       </c>
       <c r="G281" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H281" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I281" s="10" t="s">
-        <v>786</v>
-      </c>
+      <c r="H281" s="10"/>
+      <c r="I281" s="10"/>
       <c r="J281" s="10"/>
-      <c r="K281" s="9" t="s">
-        <v>134</v>
+      <c r="K281" s="10" t="s">
+        <v>628</v>
       </c>
       <c r="L281" s="10" t="s">
-        <v>101</v>
+        <v>633</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -12499,7 +12522,7 @@
         <v>4</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>531</v>
+        <v>613</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>815</v>
@@ -12508,7 +12531,7 @@
         <v>806</v>
       </c>
       <c r="E282" s="12">
-        <v>1.1000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F282" s="11" t="s">
         <v>21</v>
@@ -12520,10 +12543,10 @@
       <c r="I282" s="10"/>
       <c r="J282" s="10"/>
       <c r="K282" s="10" t="s">
-        <v>535</v>
+        <v>614</v>
       </c>
       <c r="L282" s="10" t="s">
-        <v>538</v>
+        <v>615</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -12531,7 +12554,7 @@
         <v>4</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>815</v>
@@ -12540,10 +12563,10 @@
         <v>806</v>
       </c>
       <c r="E283" s="12">
-        <v>1.1000000000000001</v>
+        <v>670</v>
       </c>
       <c r="F283" s="11" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="G283" s="11" t="b">
         <v>1</v>
@@ -12551,11 +12574,11 @@
       <c r="H283" s="10"/>
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
-      <c r="K283" s="10" t="s">
-        <v>536</v>
+      <c r="K283" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="L283" s="10" t="s">
-        <v>539</v>
+        <v>64</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -12563,31 +12586,35 @@
         <v>4</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E284" s="12">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G284" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H284" s="10"/>
-      <c r="I284" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H284" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I284" s="10" t="s">
+        <v>786</v>
+      </c>
       <c r="J284" s="10"/>
       <c r="K284" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L284" s="10" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -12595,7 +12622,7 @@
         <v>4</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>13</v>
+        <v>531</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>815</v>
@@ -12604,22 +12631,22 @@
         <v>806</v>
       </c>
       <c r="E285" s="12">
-        <v>16</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G285" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H285" s="10"/>
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
-      <c r="K285" s="9" t="s">
-        <v>136</v>
+      <c r="K285" s="10" t="s">
+        <v>535</v>
       </c>
       <c r="L285" s="10" t="s">
-        <v>67</v>
+        <v>538</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -12627,7 +12654,7 @@
         <v>4</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>894</v>
+        <v>532</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>815</v>
@@ -12636,7 +12663,7 @@
         <v>806</v>
       </c>
       <c r="E286" s="12">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F286" s="11" t="s">
         <v>21</v>
@@ -12648,10 +12675,10 @@
       <c r="I286" s="10"/>
       <c r="J286" s="10"/>
       <c r="K286" s="10" t="s">
-        <v>895</v>
+        <v>536</v>
       </c>
       <c r="L286" s="10" t="s">
-        <v>895</v>
+        <v>539</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -12659,7 +12686,7 @@
         <v>4</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>815</v>
@@ -12668,22 +12695,22 @@
         <v>806</v>
       </c>
       <c r="E287" s="12">
-        <v>1.33</v>
+        <v>195</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G287" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H287" s="10"/>
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
       <c r="K287" s="9" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L287" s="10" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -12691,7 +12718,7 @@
         <v>4</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>854</v>
+        <v>13</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>815</v>
@@ -12700,22 +12727,22 @@
         <v>806</v>
       </c>
       <c r="E288" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="F288" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G288" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
       <c r="J288" s="10"/>
-      <c r="K288" s="10" t="s">
-        <v>857</v>
+      <c r="K288" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="L288" s="10" t="s">
-        <v>500</v>
+        <v>67</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -12723,7 +12750,7 @@
         <v>4</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>855</v>
+        <v>894</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>815</v>
@@ -12732,10 +12759,10 @@
         <v>806</v>
       </c>
       <c r="E289" s="12">
-        <v>85</v>
+        <v>0.5</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G289" s="11" t="b">
         <v>1</v>
@@ -12744,10 +12771,10 @@
       <c r="I289" s="10"/>
       <c r="J289" s="10"/>
       <c r="K289" s="10" t="s">
-        <v>858</v>
+        <v>895</v>
       </c>
       <c r="L289" s="10" t="s">
-        <v>501</v>
+        <v>895</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -12755,16 +12782,16 @@
         <v>4</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>497</v>
+        <v>97</v>
       </c>
       <c r="C290" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E290" s="12">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="F290" s="11" t="s">
         <v>21</v>
@@ -12772,18 +12799,14 @@
       <c r="G290" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H290" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I290" s="10" t="s">
-        <v>520</v>
-      </c>
+      <c r="H290" s="10"/>
+      <c r="I290" s="10"/>
       <c r="J290" s="10"/>
-      <c r="K290" s="10" t="s">
-        <v>498</v>
+      <c r="K290" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="L290" s="10" t="s">
-        <v>499</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -12791,33 +12814,31 @@
         <v>4</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>774</v>
+        <v>854</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E291" s="12">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F291" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G291" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H291" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="H291" s="10"/>
       <c r="I291" s="10"/>
       <c r="J291" s="10"/>
       <c r="K291" s="10" t="s">
-        <v>775</v>
+        <v>857</v>
       </c>
       <c r="L291" s="10" t="s">
-        <v>776</v>
+        <v>500</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -12825,33 +12846,31 @@
         <v>4</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>269</v>
+        <v>855</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E292" s="12">
-        <v>0</v>
-      </c>
-      <c r="F292" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="F292" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="G292" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H292" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I292" s="10" t="s">
-        <v>271</v>
-      </c>
+      <c r="H292" s="10"/>
+      <c r="I292" s="10"/>
       <c r="J292" s="10"/>
       <c r="K292" s="10" t="s">
-        <v>270</v>
+        <v>858</v>
       </c>
       <c r="L292" s="10" t="s">
-        <v>284</v>
+        <v>501</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -12859,31 +12878,35 @@
         <v>4</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>9</v>
+        <v>497</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E293" s="12">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G293" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H293" s="10"/>
-      <c r="I293" s="10"/>
+      <c r="H293" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I293" s="10" t="s">
+        <v>520</v>
+      </c>
       <c r="J293" s="10"/>
-      <c r="K293" s="9" t="s">
-        <v>285</v>
+      <c r="K293" s="10" t="s">
+        <v>498</v>
       </c>
       <c r="L293" s="10" t="s">
-        <v>286</v>
+        <v>499</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -12891,16 +12914,16 @@
         <v>4</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E294" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F294" s="11" t="s">
         <v>21</v>
@@ -12908,14 +12931,16 @@
       <c r="G294" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H294" s="10"/>
+      <c r="H294" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
       <c r="K294" s="10" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="L294" s="10" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -12923,7 +12948,7 @@
         <v>4</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>533</v>
+        <v>269</v>
       </c>
       <c r="C295" s="9" t="s">
         <v>815</v>
@@ -12942,14 +12967,14 @@
         <v>131</v>
       </c>
       <c r="I295" s="10" t="s">
-        <v>534</v>
+        <v>271</v>
       </c>
       <c r="J295" s="10"/>
       <c r="K295" s="10" t="s">
-        <v>537</v>
+        <v>270</v>
       </c>
       <c r="L295" s="10" t="s">
-        <v>540</v>
+        <v>284</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -12957,7 +12982,7 @@
         <v>4</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>541</v>
+        <v>9</v>
       </c>
       <c r="C296" s="9" t="s">
         <v>815</v>
@@ -12966,10 +12991,10 @@
         <v>806</v>
       </c>
       <c r="E296" s="12">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="F296" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G296" s="11" t="b">
         <v>1</v>
@@ -12977,11 +13002,11 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
-      <c r="K296" s="10" t="s">
-        <v>542</v>
+      <c r="K296" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="L296" s="10" t="s">
-        <v>543</v>
+        <v>286</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
@@ -12989,7 +13014,7 @@
         <v>4</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>620</v>
+        <v>787</v>
       </c>
       <c r="C297" s="9" t="s">
         <v>815</v>
@@ -12998,7 +13023,7 @@
         <v>806</v>
       </c>
       <c r="E297" s="12">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="F297" s="11" t="s">
         <v>21</v>
@@ -13010,10 +13035,10 @@
       <c r="I297" s="10"/>
       <c r="J297" s="10"/>
       <c r="K297" s="10" t="s">
-        <v>630</v>
+        <v>788</v>
       </c>
       <c r="L297" s="10" t="s">
-        <v>635</v>
+        <v>789</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
@@ -13021,31 +13046,33 @@
         <v>4</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>903</v>
+        <v>533</v>
       </c>
       <c r="C298" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E298" s="12">
-        <v>100</v>
-      </c>
-      <c r="F298" s="11" t="s">
-        <v>906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F298" s="11"/>
       <c r="G298" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H298" s="10"/>
-      <c r="I298" s="10"/>
+      <c r="H298" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I298" s="10" t="s">
+        <v>534</v>
+      </c>
       <c r="J298" s="10"/>
       <c r="K298" s="10" t="s">
-        <v>905</v>
+        <v>537</v>
       </c>
       <c r="L298" s="10" t="s">
-        <v>904</v>
+        <v>540</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -13053,31 +13080,31 @@
         <v>4</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>828</v>
+        <v>541</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E299" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="G299" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H299" s="10"/>
       <c r="I299" s="10"/>
       <c r="J299" s="10"/>
       <c r="K299" s="10" t="s">
-        <v>831</v>
+        <v>542</v>
       </c>
       <c r="L299" s="10" t="s">
-        <v>832</v>
+        <v>543</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
@@ -13085,31 +13112,31 @@
         <v>4</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>827</v>
+        <v>620</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E300" s="12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F300" s="11" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="G300" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H300" s="10"/>
       <c r="I300" s="10"/>
       <c r="J300" s="10"/>
       <c r="K300" s="10" t="s">
-        <v>801</v>
+        <v>630</v>
       </c>
       <c r="L300" s="10" t="s">
-        <v>833</v>
+        <v>635</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
@@ -13117,29 +13144,31 @@
         <v>4</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>389</v>
+        <v>903</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>813</v>
-      </c>
-      <c r="E301" s="12"/>
+        <v>806</v>
+      </c>
+      <c r="E301" s="12">
+        <v>100</v>
+      </c>
       <c r="F301" s="11" t="s">
-        <v>21</v>
+        <v>906</v>
       </c>
       <c r="G301" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301" s="10"/>
       <c r="I301" s="10"/>
       <c r="J301" s="10"/>
       <c r="K301" s="10" t="s">
-        <v>390</v>
+        <v>905</v>
       </c>
       <c r="L301" s="10" t="s">
-        <v>390</v>
+        <v>904</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -13147,7 +13176,7 @@
         <v>4</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>856</v>
+        <v>828</v>
       </c>
       <c r="C302" s="9" t="s">
         <v>816</v>
@@ -13159,7 +13188,7 @@
         <v>0</v>
       </c>
       <c r="F302" s="11" t="s">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="G302" s="11" t="b">
         <v>0</v>
@@ -13168,10 +13197,10 @@
       <c r="I302" s="10"/>
       <c r="J302" s="10"/>
       <c r="K302" s="10" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="L302" s="10" t="s">
-        <v>859</v>
+        <v>832</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
@@ -13179,7 +13208,7 @@
         <v>4</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="C303" s="9" t="s">
         <v>816</v>
@@ -13191,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="F303" s="11" t="s">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="G303" s="11" t="b">
         <v>0</v>
@@ -13200,9 +13229,103 @@
       <c r="I303" s="10"/>
       <c r="J303" s="10"/>
       <c r="K303" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="L303" s="10" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A304" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="E304" s="12"/>
+      <c r="F304" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G304" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H304" s="10"/>
+      <c r="I304" s="10"/>
+      <c r="J304" s="10"/>
+      <c r="K304" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="L304" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A305" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E305" s="12">
+        <v>0</v>
+      </c>
+      <c r="F305" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G305" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H305" s="10"/>
+      <c r="I305" s="10"/>
+      <c r="J305" s="10"/>
+      <c r="K305" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="L305" s="10" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A306" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B306" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E306" s="12">
+        <v>0</v>
+      </c>
+      <c r="F306" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G306" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H306" s="10"/>
+      <c r="I306" s="10"/>
+      <c r="J306" s="10"/>
+      <c r="K306" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="L303" s="10" t="s">
+      <c r="L306" s="10" t="s">
         <v>860</v>
       </c>
     </row>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AD1926-2AAC-49F1-AFAA-4E0BC801B0A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC15772F-F37C-45BD-BADF-28C2661F38C9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="8220" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="936">
   <si>
     <t>String name</t>
   </si>
@@ -2108,9 +2108,6 @@
     <t>par_save_field_img</t>
   </si>
   <si>
-    <t>Save field efficiency image</t>
-  </si>
-  <si>
     <t>par_save_flux_img</t>
   </si>
   <si>
@@ -2675,9 +2672,6 @@
     <t>upar_save_summary</t>
   </si>
   <si>
-    <t>Save field efficiency image (User)</t>
-  </si>
-  <si>
     <t>Save receiver flux data (User)</t>
   </si>
   <si>
@@ -2820,6 +2814,15 @@
   </si>
   <si>
     <t>Tower=-1</t>
+  </si>
+  <si>
+    <t>Save field image</t>
+  </si>
+  <si>
+    <t>Save field image based on selected options</t>
+  </si>
+  <si>
+    <t>Save field image (User)</t>
   </si>
 </sst>
 </file>
@@ -3405,8 +3408,8 @@
   <dimension ref="A1:L306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E244" sqref="E244"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3433,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -3471,10 +3474,10 @@
         <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>230</v>
@@ -3505,10 +3508,10 @@
         <v>90</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
@@ -3541,10 +3544,10 @@
         <v>545</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>550</v>
@@ -3573,10 +3576,10 @@
         <v>218</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E5" s="12">
         <v>20</v>
@@ -3605,10 +3608,10 @@
         <v>647</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E6" s="12">
         <v>950</v>
@@ -3637,10 +3640,10 @@
         <v>643</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
@@ -3669,10 +3672,10 @@
         <v>78</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E8" s="12">
         <v>588</v>
@@ -3701,10 +3704,10 @@
         <v>222</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
@@ -3737,10 +3740,10 @@
         <v>76</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E10" s="12">
         <v>34.866999999999997</v>
@@ -3766,16 +3769,16 @@
         <v>71</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>21</v>
@@ -3787,10 +3790,10 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3798,16 +3801,16 @@
         <v>71</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>846</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>847</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>21</v>
@@ -3819,10 +3822,10 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>848</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3833,10 +3836,10 @@
         <v>77</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E13" s="13">
         <v>-116.783</v>
@@ -3865,10 +3868,10 @@
         <v>619</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E14" s="12">
         <v>0.1</v>
@@ -3897,10 +3900,10 @@
         <v>75</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
@@ -3927,10 +3930,10 @@
         <v>226</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E16" s="12">
         <v>4.6500000000000004</v>
@@ -3959,10 +3962,10 @@
         <v>72</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E17" s="12">
         <v>2</v>
@@ -3995,10 +3998,10 @@
         <v>79</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E18" s="12">
         <v>-8</v>
@@ -4027,10 +4030,10 @@
         <v>74</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="11" t="s">
@@ -4057,13 +4060,13 @@
         <v>73</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>21</v>
@@ -4089,10 +4092,10 @@
         <v>107</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="11" t="s">
@@ -4116,13 +4119,13 @@
         <v>71</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E22" s="12">
         <v>0</v>
@@ -4137,10 +4140,10 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>852</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4151,10 +4154,10 @@
         <v>402</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -4183,10 +4186,10 @@
         <v>545</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>551</v>
@@ -4215,10 +4218,10 @@
         <v>342</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E25" s="12">
         <v>7</v>
@@ -4247,10 +4250,10 @@
         <v>340</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -4279,10 +4282,10 @@
         <v>334</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E27" s="12">
         <v>145</v>
@@ -4311,10 +4314,10 @@
         <v>398</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E28" s="12" t="b">
         <v>0</v>
@@ -4343,10 +4346,10 @@
         <v>339</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E29" s="12">
         <v>10000</v>
@@ -4361,7 +4364,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>368</v>
@@ -4372,16 +4375,16 @@
         <v>323</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="12" t="s">
         <v>810</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>811</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>21</v>
@@ -4393,7 +4396,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>395</v>
@@ -4407,10 +4410,10 @@
         <v>330</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E31" s="12">
         <v>0.7</v>
@@ -4439,10 +4442,10 @@
         <v>386</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E32" s="12">
         <v>1571</v>
@@ -4471,10 +4474,10 @@
         <v>327</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E33" s="12">
         <v>103000000</v>
@@ -4503,10 +4506,10 @@
         <v>326</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E34" s="12">
         <v>80</v>
@@ -4535,10 +4538,10 @@
         <v>325</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E35" s="12">
         <v>5</v>
@@ -4567,10 +4570,10 @@
         <v>332</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E36" s="12">
         <v>16</v>
@@ -4599,10 +4602,10 @@
         <v>324</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E37" s="12">
         <v>1.1299999999999999E-2</v>
@@ -4631,10 +4634,10 @@
         <v>328</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E38" s="15">
         <v>3000000</v>
@@ -4663,10 +4666,10 @@
         <v>391</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>397</v>
@@ -4693,10 +4696,10 @@
         <v>392</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>396</v>
@@ -4723,10 +4726,10 @@
         <v>337</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E41" s="12">
         <v>0</v>
@@ -4755,10 +4758,10 @@
         <v>341</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E42" s="12">
         <v>0</v>
@@ -4787,10 +4790,10 @@
         <v>335</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E43" s="12">
         <v>0</v>
@@ -4819,10 +4822,10 @@
         <v>338</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E44" s="12">
         <v>0</v>
@@ -4848,13 +4851,13 @@
         <v>323</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E45" s="12">
         <v>0</v>
@@ -4869,10 +4872,10 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="L45" s="10" t="s">
         <v>818</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4883,10 +4886,10 @@
         <v>331</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E46" s="12">
         <v>0</v>
@@ -4915,10 +4918,10 @@
         <v>343</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E47" s="12">
         <v>0</v>
@@ -4944,13 +4947,13 @@
         <v>323</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E48" s="12">
         <v>0</v>
@@ -4965,10 +4968,10 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="L48" s="10" t="s">
         <v>821</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -4979,10 +4982,10 @@
         <v>333</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E49" s="12">
         <v>0</v>
@@ -5011,10 +5014,10 @@
         <v>344</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E50" s="12">
         <v>0</v>
@@ -5043,10 +5046,10 @@
         <v>381</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E51" s="12">
         <v>0</v>
@@ -5075,10 +5078,10 @@
         <v>345</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E52" s="12">
         <v>0</v>
@@ -5107,10 +5110,10 @@
         <v>329</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E53" s="12">
         <v>14736146</v>
@@ -5139,10 +5142,10 @@
         <v>336</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E54" s="12">
         <v>0</v>
@@ -5171,10 +5174,10 @@
         <v>476</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E55" s="12">
         <v>3</v>
@@ -5187,7 +5190,7 @@
         <v>131</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10" t="s">
@@ -5205,10 +5208,10 @@
         <v>545</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>552</v>
@@ -5237,10 +5240,10 @@
         <v>659</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E57" s="12">
         <v>250</v>
@@ -5269,10 +5272,10 @@
         <v>665</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E58" s="12">
         <v>200</v>
@@ -5301,10 +5304,10 @@
         <v>666</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E59" s="12">
         <v>200</v>
@@ -5333,10 +5336,10 @@
         <v>661</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E60" s="12">
         <v>0.8</v>
@@ -5365,10 +5368,10 @@
         <v>663</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E61" s="12">
         <v>1</v>
@@ -5395,10 +5398,10 @@
         <v>662</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E62" s="12">
         <v>2</v>
@@ -5425,10 +5428,10 @@
         <v>657</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E63" s="12">
         <v>0</v>
@@ -5459,10 +5462,10 @@
         <v>660</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E64" s="12">
         <v>35</v>
@@ -5491,10 +5494,10 @@
         <v>658</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E65" s="12">
         <v>500</v>
@@ -5520,13 +5523,13 @@
         <v>432</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="11"/>
@@ -5537,10 +5540,10 @@
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="L66" s="10" t="s">
         <v>768</v>
-      </c>
-      <c r="L66" s="10" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5551,10 +5554,10 @@
         <v>444</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E67" s="12">
         <v>20</v>
@@ -5581,10 +5584,10 @@
         <v>480</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E68" s="12">
         <v>0</v>
@@ -5612,13 +5615,13 @@
         <v>432</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E69" s="12">
         <v>950</v>
@@ -5633,10 +5636,10 @@
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="L69" s="10" t="s">
         <v>765</v>
-      </c>
-      <c r="L69" s="10" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -5647,10 +5650,10 @@
         <v>445</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E70" s="12">
         <v>12</v>
@@ -5679,10 +5682,10 @@
         <v>435</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E71" s="12">
         <v>0</v>
@@ -5715,10 +5718,10 @@
         <v>443</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E72" s="12">
         <v>3</v>
@@ -5745,10 +5748,10 @@
         <v>460</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E73" s="12">
         <v>180</v>
@@ -5775,10 +5778,10 @@
         <v>461</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E74" s="12">
         <v>85</v>
@@ -5805,10 +5808,10 @@
         <v>442</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E75" s="12">
         <v>1</v>
@@ -5838,13 +5841,13 @@
         <v>432</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E76" s="12" t="b">
         <v>1</v>
@@ -5861,10 +5864,10 @@
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="L76" s="10" t="s">
         <v>752</v>
-      </c>
-      <c r="L76" s="10" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5875,10 +5878,10 @@
         <v>664</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E77" s="12" t="b">
         <v>1</v>
@@ -5907,10 +5910,10 @@
         <v>692</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E78" s="12" t="b">
         <v>1</v>
@@ -5939,10 +5942,10 @@
         <v>693</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E79" s="12" t="b">
         <v>1</v>
@@ -5971,10 +5974,10 @@
         <v>656</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E80" s="12" t="b">
         <v>0</v>
@@ -6000,13 +6003,13 @@
         <v>432</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E81" s="12" t="b">
         <v>0</v>
@@ -6025,10 +6028,10 @@
         <v>640</v>
       </c>
       <c r="K81" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="L81" s="10" t="s">
         <v>791</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -6039,10 +6042,10 @@
         <v>487</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E82" s="12" t="b">
         <v>1</v>
@@ -6068,13 +6071,13 @@
         <v>432</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E83" s="12" t="b">
         <v>0</v>
@@ -6093,10 +6096,10 @@
         <v>640</v>
       </c>
       <c r="K83" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="L83" s="10" t="s">
         <v>794</v>
-      </c>
-      <c r="L83" s="10" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -6107,10 +6110,10 @@
         <v>488</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E84" s="12" t="b">
         <v>1</v>
@@ -6139,10 +6142,10 @@
         <v>468</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E85" s="12">
         <v>1000000</v>
@@ -6171,10 +6174,10 @@
         <v>465</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E86" s="12">
         <v>10000</v>
@@ -6203,10 +6206,10 @@
         <v>484</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E87" s="12">
         <v>0.25</v>
@@ -6230,13 +6233,13 @@
         <v>432</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E88" s="9">
         <v>1000</v>
@@ -6251,10 +6254,10 @@
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -6262,13 +6265,13 @@
         <v>432</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E89" s="9">
         <v>0</v>
@@ -6283,10 +6286,10 @@
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -6294,16 +6297,16 @@
         <v>432</v>
       </c>
       <c r="B90" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>796</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>797</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>21</v>
@@ -6319,10 +6322,10 @@
         <v>640</v>
       </c>
       <c r="K90" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="L90" s="10" t="s">
         <v>798</v>
-      </c>
-      <c r="L90" s="10" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -6333,10 +6336,10 @@
         <v>474</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E91" s="12" t="b">
         <v>0</v>
@@ -6351,7 +6354,7 @@
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L91" s="10" t="s">
         <v>475</v>
@@ -6365,10 +6368,10 @@
         <v>493</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>494</v>
@@ -6395,10 +6398,10 @@
         <v>471</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E93" s="12">
         <v>-1</v>
@@ -6424,13 +6427,13 @@
         <v>432</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E94" s="12">
         <v>2</v>
@@ -6443,10 +6446,10 @@
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -6454,13 +6457,13 @@
         <v>432</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E95" s="12">
         <v>2</v>
@@ -6475,10 +6478,10 @@
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
       <c r="K95" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="L95" s="10" t="s">
         <v>864</v>
-      </c>
-      <c r="L95" s="10" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -6489,10 +6492,10 @@
         <v>433</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E96" s="12">
         <v>25</v>
@@ -6521,10 +6524,10 @@
         <v>434</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E97" s="12">
         <v>25</v>
@@ -6553,10 +6556,10 @@
         <v>446</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E98" s="12">
         <v>180</v>
@@ -6585,10 +6588,10 @@
         <v>447</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E99" s="12">
         <v>85</v>
@@ -6617,10 +6620,10 @@
         <v>41</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E100" s="14">
         <v>82</v>
@@ -6649,10 +6652,10 @@
         <v>40</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E101" s="14">
         <v>0</v>
@@ -6681,10 +6684,10 @@
         <v>93</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E102" s="12">
         <v>1</v>
@@ -6699,7 +6702,7 @@
         <v>131</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J102" s="10"/>
       <c r="K102" s="9" t="s">
@@ -6717,10 +6720,10 @@
         <v>235</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E103" s="14">
         <v>6</v>
@@ -6749,10 +6752,10 @@
         <v>236</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E104" s="14">
         <v>0</v>
@@ -6781,10 +6784,10 @@
         <v>237</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E105" s="14">
         <v>0</v>
@@ -6813,10 +6816,10 @@
         <v>238</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E106" s="14">
         <v>1</v>
@@ -6845,10 +6848,10 @@
         <v>239</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E107" s="14">
         <v>400</v>
@@ -6874,13 +6877,13 @@
         <v>55</v>
       </c>
       <c r="B108" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>835</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>836</v>
       </c>
       <c r="E108" s="14">
         <v>0</v>
@@ -6895,10 +6898,10 @@
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6909,10 +6912,10 @@
         <v>545</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>549</v>
@@ -6941,10 +6944,10 @@
         <v>231</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E110" s="14">
         <v>13.77</v>
@@ -6973,10 +6976,10 @@
         <v>45</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E111" s="14">
         <v>0</v>
@@ -7005,10 +7008,10 @@
         <v>44</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E112" s="14">
         <v>0</v>
@@ -7037,10 +7040,10 @@
         <v>48</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E113" s="14">
         <v>2.0000000000000001E-4</v>
@@ -7069,10 +7072,10 @@
         <v>49</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E114" s="14">
         <v>2.0000000000000001E-4</v>
@@ -7101,10 +7104,10 @@
         <v>46</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E115" s="14">
         <v>1.5299999999999999E-3</v>
@@ -7133,10 +7136,10 @@
         <v>47</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E116" s="14">
         <v>1.5299999999999999E-3</v>
@@ -7162,13 +7165,13 @@
         <v>55</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E117" s="14">
         <v>0</v>
@@ -7183,14 +7186,14 @@
         <v>131</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="J117" s="10"/>
       <c r="K117" s="10" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -7201,10 +7204,10 @@
         <v>102</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E118" s="12">
         <v>1</v>
@@ -7237,10 +7240,10 @@
         <v>37</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E119" s="14">
         <v>12.2</v>
@@ -7269,10 +7272,10 @@
         <v>316</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>318</v>
@@ -7299,10 +7302,10 @@
         <v>29</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E121" s="12">
         <v>-1</v>
@@ -7331,10 +7334,10 @@
         <v>250</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E122" s="14" t="b">
         <v>1</v>
@@ -7363,10 +7366,10 @@
         <v>245</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E123" s="14" t="b">
         <v>0</v>
@@ -7397,10 +7400,10 @@
         <v>319</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E124" s="12" t="b">
         <v>1</v>
@@ -7427,10 +7430,10 @@
         <v>502</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E125" s="14" t="b">
         <v>1</v>
@@ -7461,10 +7464,10 @@
         <v>260</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E126" s="12" t="b">
         <v>1</v>
@@ -7495,10 +7498,10 @@
         <v>30</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E127" s="12">
         <v>0</v>
@@ -7531,10 +7534,10 @@
         <v>31</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E128" s="12" t="b">
         <v>1</v>
@@ -7565,10 +7568,10 @@
         <v>32</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E129" s="12" t="b">
         <v>1</v>
@@ -7599,10 +7602,10 @@
         <v>34</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E130" s="14">
         <v>2</v>
@@ -7629,10 +7632,10 @@
         <v>35</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E131" s="14">
         <v>8</v>
@@ -7659,10 +7662,10 @@
         <v>42</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E132" s="14">
         <v>0.97</v>
@@ -7691,10 +7694,10 @@
         <v>43</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E133" s="14">
         <v>0.95</v>
@@ -7723,10 +7726,10 @@
         <v>52</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E134" s="14">
         <v>1000</v>
@@ -7755,10 +7758,10 @@
         <v>53</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E135" s="14">
         <v>1000</v>
@@ -7787,10 +7790,10 @@
         <v>106</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E136" s="14">
         <v>0.95</v>
@@ -7819,10 +7822,10 @@
         <v>275</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E137" s="12">
         <v>180</v>
@@ -7851,10 +7854,10 @@
         <v>274</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E138" s="12">
         <v>-180</v>
@@ -7883,10 +7886,10 @@
         <v>273</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E139" s="12">
         <v>10</v>
@@ -7915,10 +7918,10 @@
         <v>272</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E140" s="12">
         <v>0.75</v>
@@ -7944,13 +7947,13 @@
         <v>55</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E141" s="14">
         <v>-1</v>
@@ -7965,10 +7968,10 @@
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
       <c r="K141" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -7976,13 +7979,13 @@
         <v>55</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E142" s="14">
         <v>0</v>
@@ -7997,16 +8000,16 @@
         <v>131</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J142" s="10" t="s">
         <v>640</v>
       </c>
       <c r="K142" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L142" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -8014,13 +8017,13 @@
         <v>55</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E143" s="14">
         <v>10</v>
@@ -8037,10 +8040,10 @@
         <v>640</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -8051,10 +8054,10 @@
         <v>33</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E144" s="14">
         <v>0</v>
@@ -8081,10 +8084,10 @@
         <v>36</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E145" s="14">
         <v>12.2</v>
@@ -8113,10 +8116,10 @@
         <v>50</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E146" s="14">
         <v>1000</v>
@@ -8145,10 +8148,10 @@
         <v>38</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E147" s="14">
         <v>0</v>
@@ -8177,10 +8180,10 @@
         <v>51</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E148" s="14">
         <v>1000</v>
@@ -8209,10 +8212,10 @@
         <v>39</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E149" s="14">
         <v>0</v>
@@ -8238,13 +8241,13 @@
         <v>55</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E150" s="14">
         <v>0</v>
@@ -8273,10 +8276,10 @@
         <v>592</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E151" s="14">
         <v>0</v>
@@ -8305,10 +8308,10 @@
         <v>595</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E152" s="14">
         <v>0</v>
@@ -8337,10 +8340,10 @@
         <v>596</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E153" s="14">
         <v>0</v>
@@ -8369,10 +8372,10 @@
         <v>591</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E154" s="14">
         <v>0</v>
@@ -8401,10 +8404,10 @@
         <v>593</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E155" s="14">
         <v>0</v>
@@ -8433,10 +8436,10 @@
         <v>594</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E156" s="14">
         <v>0</v>
@@ -8465,10 +8468,10 @@
         <v>95</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E157" s="14">
         <v>1000</v>
@@ -8497,10 +8500,10 @@
         <v>586</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E158" s="14">
         <v>0</v>
@@ -8529,10 +8532,10 @@
         <v>585</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E159" s="14">
         <v>0</v>
@@ -8561,10 +8564,10 @@
         <v>603</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E160" s="14">
         <v>0</v>
@@ -8593,10 +8596,10 @@
         <v>54</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E161" s="12">
         <v>0</v>
@@ -8611,10 +8614,10 @@
       <c r="I161" s="10"/>
       <c r="J161" s="10"/>
       <c r="K161" s="9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="L161" s="10" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -8625,10 +8628,10 @@
         <v>606</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E162" s="14">
         <v>0</v>
@@ -8657,10 +8660,10 @@
         <v>545</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>367</v>
@@ -8689,10 +8692,10 @@
         <v>216</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="11"/>
@@ -8717,10 +8720,10 @@
         <v>524</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E165" s="12">
         <v>0</v>
@@ -8749,10 +8752,10 @@
         <v>525</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E166" s="12">
         <v>0</v>
@@ -8781,10 +8784,10 @@
         <v>526</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E167" s="12" t="b">
         <v>0</v>
@@ -8813,10 +8816,10 @@
         <v>214</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="11"/>
@@ -8841,10 +8844,10 @@
         <v>201</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E169" s="12" t="b">
         <v>0</v>
@@ -8875,10 +8878,10 @@
         <v>200</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E170" s="12" t="b">
         <v>0</v>
@@ -8909,10 +8912,10 @@
         <v>199</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E171" s="12" t="b">
         <v>1</v>
@@ -8940,13 +8943,13 @@
         <v>69</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E172" s="12" t="b">
         <v>0</v>
@@ -8963,10 +8966,10 @@
       <c r="I172" s="10"/>
       <c r="J172" s="10"/>
       <c r="K172" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="L172" s="10" t="s">
         <v>879</v>
-      </c>
-      <c r="L172" s="10" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -8974,19 +8977,19 @@
         <v>69</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E173" s="12">
         <v>45</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G173" s="11" t="b">
         <v>1</v>
@@ -8995,10 +8998,10 @@
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
       <c r="K173" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L173" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -9006,13 +9009,13 @@
         <v>69</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E174" s="12">
         <v>1.3</v>
@@ -9027,10 +9030,10 @@
       <c r="I174" s="10"/>
       <c r="J174" s="10"/>
       <c r="K174" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L174" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -9041,10 +9044,10 @@
         <v>182</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E175" s="12">
         <v>2000</v>
@@ -9073,10 +9076,10 @@
         <v>195</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E176" s="12">
         <v>9.5</v>
@@ -9105,10 +9108,10 @@
         <v>183</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E177" s="12">
         <v>100</v>
@@ -9137,10 +9140,10 @@
         <v>197</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E178" s="12">
         <v>0.75</v>
@@ -9166,13 +9169,13 @@
         <v>69</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E179" s="12">
         <v>0</v>
@@ -9187,10 +9190,10 @@
       <c r="I179" s="10"/>
       <c r="J179" s="10"/>
       <c r="K179" s="10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L179" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -9198,13 +9201,13 @@
         <v>69</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E180" s="12">
         <v>0</v>
@@ -9219,10 +9222,10 @@
       <c r="I180" s="10"/>
       <c r="J180" s="10"/>
       <c r="K180" s="10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L180" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -9230,19 +9233,19 @@
         <v>69</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E181" s="12">
         <v>0</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G181" s="11" t="b">
         <v>0</v>
@@ -9251,10 +9254,10 @@
       <c r="I181" s="10"/>
       <c r="J181" s="10"/>
       <c r="K181" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L181" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -9262,19 +9265,19 @@
         <v>69</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E182" s="12">
         <v>0</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G182" s="11" t="b">
         <v>0</v>
@@ -9283,10 +9286,10 @@
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
       <c r="K182" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L182" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -9294,13 +9297,13 @@
         <v>69</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E183" s="12">
         <v>0</v>
@@ -9315,10 +9318,10 @@
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
       <c r="K183" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L183" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -9326,13 +9329,13 @@
         <v>69</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E184" s="12">
         <v>0</v>
@@ -9347,24 +9350,24 @@
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
       <c r="K184" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L184" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E185" s="12">
         <v>1</v>
@@ -9377,33 +9380,33 @@
         <v>131</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J185" s="10" t="s">
         <v>640</v>
       </c>
       <c r="K185" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L185" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>545</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F186" s="11"/>
       <c r="G186" s="11" t="b">
@@ -9417,16 +9420,16 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E187" s="12">
         <v>1E-4</v>
@@ -9441,24 +9444,24 @@
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
       <c r="K187" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="L187" s="10" t="s">
         <v>725</v>
-      </c>
-      <c r="L187" s="10" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E188" s="12">
         <v>0.35</v>
@@ -9475,24 +9478,24 @@
         <v>640</v>
       </c>
       <c r="K188" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="L188" s="10" t="s">
         <v>733</v>
-      </c>
-      <c r="L188" s="10" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E189" s="12">
         <v>20</v>
@@ -9509,24 +9512,24 @@
         <v>640</v>
       </c>
       <c r="K189" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="L189" s="10" t="s">
         <v>727</v>
-      </c>
-      <c r="L189" s="10" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E190" s="12">
         <v>5</v>
@@ -9543,24 +9546,24 @@
         <v>640</v>
       </c>
       <c r="K190" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="L190" s="10" t="s">
         <v>729</v>
-      </c>
-      <c r="L190" s="10" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E191" s="12">
         <v>200</v>
@@ -9575,24 +9578,24 @@
       <c r="I191" s="10"/>
       <c r="J191" s="10"/>
       <c r="K191" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L191" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="B192" s="9" t="s">
-        <v>715</v>
-      </c>
       <c r="C192" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E192" s="12">
         <v>0.06</v>
@@ -9607,24 +9610,24 @@
       <c r="I192" s="10"/>
       <c r="J192" s="10"/>
       <c r="K192" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L192" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E193" s="12">
         <v>2</v>
@@ -9639,24 +9642,24 @@
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
       <c r="K193" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="L193" s="10" t="s">
         <v>735</v>
-      </c>
-      <c r="L193" s="10" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E194" s="12">
         <v>60</v>
@@ -9671,24 +9674,24 @@
       <c r="I194" s="10"/>
       <c r="J194" s="10"/>
       <c r="K194" s="10" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="L194" s="10" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E195" s="12">
         <v>1.25</v>
@@ -9703,24 +9706,24 @@
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
       <c r="K195" s="10" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="L195" s="10" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E196" s="12"/>
       <c r="F196" s="11" t="s">
@@ -9733,24 +9736,24 @@
       <c r="I196" s="10"/>
       <c r="J196" s="10"/>
       <c r="K196" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L196" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E197" s="12"/>
       <c r="F197" s="11" t="s">
@@ -9765,10 +9768,10 @@
         <v>640</v>
       </c>
       <c r="K197" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="L197" s="10" t="s">
         <v>731</v>
-      </c>
-      <c r="L197" s="10" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -9779,10 +9782,10 @@
         <v>545</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E198" s="12" t="s">
         <v>553</v>
@@ -9811,13 +9814,13 @@
         <v>504</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F199" s="11"/>
       <c r="G199" s="11" t="b">
@@ -9841,10 +9844,10 @@
         <v>505</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>508</v>
@@ -9871,10 +9874,10 @@
         <v>507</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E201" s="12">
         <v>0</v>
@@ -9905,10 +9908,10 @@
         <v>509</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E202" s="12" t="b">
         <v>1</v>
@@ -9937,10 +9940,10 @@
         <v>696</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E203" s="12" t="b">
         <v>0</v>
@@ -9957,10 +9960,10 @@
       <c r="I203" s="10"/>
       <c r="J203" s="10"/>
       <c r="K203" s="10" t="s">
-        <v>697</v>
+        <v>933</v>
       </c>
       <c r="L203" s="10" t="s">
-        <v>697</v>
+        <v>934</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -9968,13 +9971,13 @@
         <v>503</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E204" s="12" t="b">
         <v>0</v>
@@ -9991,10 +9994,10 @@
       <c r="I204" s="10"/>
       <c r="J204" s="10"/>
       <c r="K204" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L204" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -10002,13 +10005,13 @@
         <v>503</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E205" s="12" t="b">
         <v>0</v>
@@ -10025,10 +10028,10 @@
       <c r="I205" s="10"/>
       <c r="J205" s="10"/>
       <c r="K205" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L205" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -10039,10 +10042,10 @@
         <v>650</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E206" s="12" t="b">
         <v>0</v>
@@ -10073,10 +10076,10 @@
         <v>653</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E207" s="12" t="b">
         <v>0</v>
@@ -10104,13 +10107,13 @@
         <v>503</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E208" s="12" t="b">
         <v>0</v>
@@ -10127,10 +10130,10 @@
       <c r="I208" s="10"/>
       <c r="J208" s="10"/>
       <c r="K208" s="10" t="s">
-        <v>886</v>
+        <v>935</v>
       </c>
       <c r="L208" s="10" t="s">
-        <v>697</v>
+        <v>934</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -10138,13 +10141,13 @@
         <v>503</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E209" s="12" t="b">
         <v>0</v>
@@ -10161,10 +10164,10 @@
       <c r="I209" s="10"/>
       <c r="J209" s="10"/>
       <c r="K209" s="10" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="L209" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -10172,13 +10175,13 @@
         <v>503</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E210" s="12" t="b">
         <v>0</v>
@@ -10195,10 +10198,10 @@
       <c r="I210" s="10"/>
       <c r="J210" s="10"/>
       <c r="K210" s="10" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="L210" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -10206,13 +10209,13 @@
         <v>503</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E211" s="12" t="b">
         <v>0</v>
@@ -10229,7 +10232,7 @@
       <c r="I211" s="10"/>
       <c r="J211" s="10"/>
       <c r="K211" s="10" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="L211" s="10" t="s">
         <v>652</v>
@@ -10240,13 +10243,13 @@
         <v>503</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E212" s="12" t="b">
         <v>0</v>
@@ -10263,7 +10266,7 @@
       <c r="I212" s="10"/>
       <c r="J212" s="10"/>
       <c r="K212" s="10" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="L212" s="10" t="s">
         <v>655</v>
@@ -10277,10 +10280,10 @@
         <v>506</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E213" s="12"/>
       <c r="F213" s="11"/>
@@ -10305,10 +10308,10 @@
         <v>559</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E214" s="12"/>
       <c r="F214" s="11" t="s">
@@ -10332,13 +10335,13 @@
         <v>503</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E215" s="12">
         <v>0</v>
@@ -10353,14 +10356,14 @@
         <v>131</v>
       </c>
       <c r="I215" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J215" s="10"/>
       <c r="K215" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L215" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -10371,10 +10374,10 @@
         <v>287</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E216" s="12">
         <v>0.94</v>
@@ -10400,13 +10403,13 @@
         <v>8</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E217" s="12">
         <v>0</v>
@@ -10425,10 +10428,10 @@
       </c>
       <c r="J217" s="10"/>
       <c r="K217" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="L217" s="10" t="s">
         <v>705</v>
-      </c>
-      <c r="L217" s="10" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -10436,13 +10439,13 @@
         <v>8</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E218" s="12">
         <v>180</v>
@@ -10457,10 +10460,10 @@
       <c r="I218" s="10"/>
       <c r="J218" s="10"/>
       <c r="K218" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="L218" s="10" t="s">
         <v>707</v>
-      </c>
-      <c r="L218" s="10" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -10468,13 +10471,13 @@
         <v>8</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E219" s="12">
         <v>180</v>
@@ -10489,10 +10492,10 @@
       <c r="I219" s="10"/>
       <c r="J219" s="10"/>
       <c r="K219" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="L219" s="10" t="s">
         <v>709</v>
-      </c>
-      <c r="L219" s="10" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -10503,10 +10506,10 @@
         <v>412</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E220" s="12">
         <v>0</v>
@@ -10519,7 +10522,7 @@
         <v>131</v>
       </c>
       <c r="I220" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J220" s="10"/>
       <c r="K220" s="10" t="s">
@@ -10534,13 +10537,13 @@
         <v>8</v>
       </c>
       <c r="B221" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="D221" s="9" t="s">
         <v>835</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="D221" s="9" t="s">
-        <v>836</v>
       </c>
       <c r="E221" s="14">
         <v>0</v>
@@ -10555,10 +10558,10 @@
       <c r="I221" s="10"/>
       <c r="J221" s="10"/>
       <c r="K221" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L221" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -10569,10 +10572,10 @@
         <v>545</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E222" s="12" t="s">
         <v>548</v>
@@ -10601,10 +10604,10 @@
         <v>29</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E223" s="12">
         <v>-1</v>
@@ -10628,13 +10631,13 @@
         <v>8</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E224" s="12" t="b">
         <v>1</v>
@@ -10649,10 +10652,10 @@
       <c r="I224" s="10"/>
       <c r="J224" s="10"/>
       <c r="K224" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="L224" s="10" t="s">
         <v>712</v>
-      </c>
-      <c r="L224" s="10" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -10663,10 +10666,10 @@
         <v>319</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E225" s="12" t="b">
         <v>1</v>
@@ -10693,10 +10696,10 @@
         <v>406</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E226" s="12" t="b">
         <v>0</v>
@@ -10727,10 +10730,10 @@
         <v>409</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E227" s="12" t="b">
         <v>0</v>
@@ -10761,10 +10764,10 @@
         <v>403</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E228" s="12">
         <v>12</v>
@@ -10795,10 +10798,10 @@
         <v>427</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E229" s="12">
         <v>0</v>
@@ -10829,10 +10832,10 @@
         <v>288</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E230" s="12">
         <v>1000</v>
@@ -10858,13 +10861,13 @@
         <v>8</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E231" s="12">
         <v>1</v>
@@ -10879,10 +10882,10 @@
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
       <c r="K231" s="10" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="L231" s="10" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -10893,10 +10896,10 @@
         <v>307</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E232" s="12">
         <v>10.199999999999999</v>
@@ -10925,10 +10928,10 @@
         <v>570</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E233" s="12">
         <v>0</v>
@@ -10957,10 +10960,10 @@
         <v>15</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E234" s="12">
         <v>0</v>
@@ -10989,10 +10992,10 @@
         <v>298</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E235" s="12">
         <v>0</v>
@@ -11023,10 +11026,10 @@
         <v>297</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E236" s="12">
         <v>7.75</v>
@@ -11057,10 +11060,10 @@
         <v>11</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E237" s="12">
         <v>17.649999999999999</v>
@@ -11089,10 +11092,10 @@
         <v>431</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E238" s="12">
         <v>0</v>
@@ -11121,10 +11124,10 @@
         <v>12</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E239" s="12">
         <v>21.6</v>
@@ -11153,10 +11156,10 @@
         <v>313</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E240" s="12" t="s">
         <v>314</v>
@@ -11183,10 +11186,10 @@
         <v>16</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E241" s="12">
         <v>0</v>
@@ -11204,7 +11207,7 @@
         <v>146</v>
       </c>
       <c r="L241" s="10" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -11215,10 +11218,10 @@
         <v>17</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E242" s="12">
         <v>0</v>
@@ -11236,7 +11239,7 @@
         <v>147</v>
       </c>
       <c r="L242" s="10" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -11247,10 +11250,10 @@
         <v>302</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E243" s="12">
         <v>0</v>
@@ -11268,7 +11271,7 @@
         <v>303</v>
       </c>
       <c r="L243" s="10" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -11276,13 +11279,13 @@
         <v>8</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E244" s="12">
         <v>0</v>
@@ -11297,14 +11300,14 @@
         <v>131</v>
       </c>
       <c r="I244" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J244" s="10"/>
       <c r="K244" s="10" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="L244" s="10" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -11315,10 +11318,10 @@
         <v>20</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E245" s="12">
         <v>0</v>
@@ -11333,7 +11336,7 @@
         <v>131</v>
       </c>
       <c r="I245" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J245" s="10"/>
       <c r="K245" s="9" t="s">
@@ -11351,10 +11354,10 @@
         <v>10</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E246" s="12">
         <v>17</v>
@@ -11383,10 +11386,10 @@
         <v>417</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E247" s="12">
         <v>180</v>
@@ -11417,10 +11420,10 @@
         <v>416</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E248" s="12">
         <v>-180</v>
@@ -11451,10 +11454,10 @@
         <v>561</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E249" s="12">
         <v>30</v>
@@ -11483,10 +11486,10 @@
         <v>564</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E250" s="10" t="s">
         <v>309</v>
@@ -11515,10 +11518,10 @@
         <v>304</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E251" s="10" t="s">
         <v>309</v>
@@ -11547,10 +11550,10 @@
         <v>310</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E252" s="12">
         <v>0</v>
@@ -11579,10 +11582,10 @@
         <v>25</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E253" s="12">
         <v>195</v>
@@ -11611,10 +11614,10 @@
         <v>577</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E254" s="12">
         <v>0</v>
@@ -11643,10 +11646,10 @@
         <v>294</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E255" s="12">
         <v>1.2</v>
@@ -11672,13 +11675,13 @@
         <v>8</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E256" s="12">
         <v>0</v>
@@ -11693,10 +11696,10 @@
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
       <c r="K256" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L256" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -11707,10 +11710,10 @@
         <v>573</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E257" s="12">
         <v>0</v>
@@ -11736,13 +11739,13 @@
         <v>8</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E258" s="12">
         <v>0</v>
@@ -11757,10 +11760,10 @@
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
       <c r="K258" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="L258" s="10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -11768,13 +11771,13 @@
         <v>8</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E259" s="12">
         <v>0</v>
@@ -11789,7 +11792,7 @@
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
       <c r="K259" s="9" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="L259" s="10" t="s">
         <v>148</v>
@@ -11800,13 +11803,13 @@
         <v>8</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E260" s="12">
         <v>0</v>
@@ -11821,7 +11824,7 @@
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
       <c r="K260" s="9" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="L260" s="10" t="s">
         <v>149</v>
@@ -11832,13 +11835,13 @@
         <v>8</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E261" s="12">
         <v>0</v>
@@ -11853,7 +11856,7 @@
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
       <c r="K261" s="9" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="L261" s="10" t="s">
         <v>426</v>
@@ -11867,10 +11870,10 @@
         <v>19</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E262" s="12">
         <v>180</v>
@@ -11899,10 +11902,10 @@
         <v>18</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E263" s="12">
         <v>-180</v>
@@ -11931,10 +11934,10 @@
         <v>99</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E264" s="12">
         <v>2</v>
@@ -11963,10 +11966,10 @@
         <v>545</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E265" s="12" t="s">
         <v>546</v>
@@ -11995,10 +11998,10 @@
         <v>104</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E266" s="12">
         <v>5</v>
@@ -12031,10 +12034,10 @@
         <v>192</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E267" s="12">
         <v>4</v>
@@ -12063,10 +12066,10 @@
         <v>582</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E268" s="12">
         <v>2</v>
@@ -12095,10 +12098,10 @@
         <v>188</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E269" s="12">
         <v>950</v>
@@ -12127,10 +12130,10 @@
         <v>521</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E270" s="12">
         <v>7</v>
@@ -12160,13 +12163,13 @@
         <v>4</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E271" s="12" t="b">
         <v>0</v>
@@ -12183,10 +12186,10 @@
       <c r="I271" s="10"/>
       <c r="J271" s="10"/>
       <c r="K271" s="10" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="L271" s="10" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -12197,10 +12200,10 @@
         <v>636</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E272" s="12" t="b">
         <v>1</v>
@@ -12231,10 +12234,10 @@
         <v>612</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E273" s="12" t="b">
         <v>0</v>
@@ -12265,10 +12268,10 @@
         <v>209</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E274" s="12" t="b">
         <v>1</v>
@@ -12296,13 +12299,13 @@
         <v>4</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E275" s="12" t="b">
         <v>0</v>
@@ -12319,10 +12322,10 @@
       <c r="I275" s="10"/>
       <c r="J275" s="10"/>
       <c r="K275" s="10" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="L275" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -12333,10 +12336,10 @@
         <v>387</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E276" s="12"/>
       <c r="F276" s="11"/>
@@ -12361,10 +12364,10 @@
         <v>6</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E277" s="12">
         <v>0</v>
@@ -12397,10 +12400,10 @@
         <v>623</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E278" s="12">
         <v>1</v>
@@ -12429,10 +12432,10 @@
         <v>621</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E279" s="12">
         <v>1</v>
@@ -12461,10 +12464,10 @@
         <v>624</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E280" s="12">
         <v>0.1</v>
@@ -12493,10 +12496,10 @@
         <v>622</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E281" s="12">
         <v>0.1</v>
@@ -12525,10 +12528,10 @@
         <v>613</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E282" s="12">
         <v>0.03</v>
@@ -12557,10 +12560,10 @@
         <v>5</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E283" s="12">
         <v>670</v>
@@ -12589,10 +12592,10 @@
         <v>100</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E284" s="12">
         <v>0</v>
@@ -12607,7 +12610,7 @@
         <v>131</v>
       </c>
       <c r="I284" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J284" s="10"/>
       <c r="K284" s="9" t="s">
@@ -12625,10 +12628,10 @@
         <v>531</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E285" s="12">
         <v>1.1000000000000001</v>
@@ -12657,10 +12660,10 @@
         <v>532</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E286" s="12">
         <v>1.1000000000000001</v>
@@ -12689,10 +12692,10 @@
         <v>14</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E287" s="12">
         <v>195</v>
@@ -12721,10 +12724,10 @@
         <v>13</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E288" s="12">
         <v>16</v>
@@ -12750,13 +12753,13 @@
         <v>4</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E289" s="12">
         <v>0.5</v>
@@ -12771,10 +12774,10 @@
       <c r="I289" s="10"/>
       <c r="J289" s="10"/>
       <c r="K289" s="10" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L289" s="10" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -12785,10 +12788,10 @@
         <v>97</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E290" s="12">
         <v>1.33</v>
@@ -12814,13 +12817,13 @@
         <v>4</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E291" s="12">
         <v>180</v>
@@ -12835,7 +12838,7 @@
       <c r="I291" s="10"/>
       <c r="J291" s="10"/>
       <c r="K291" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L291" s="10" t="s">
         <v>500</v>
@@ -12846,13 +12849,13 @@
         <v>4</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E292" s="12">
         <v>85</v>
@@ -12867,7 +12870,7 @@
       <c r="I292" s="10"/>
       <c r="J292" s="10"/>
       <c r="K292" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L292" s="10" t="s">
         <v>501</v>
@@ -12881,10 +12884,10 @@
         <v>497</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E293" s="12">
         <v>0</v>
@@ -12914,13 +12917,13 @@
         <v>4</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E294" s="12">
         <v>0</v>
@@ -12937,10 +12940,10 @@
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
       <c r="K294" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="L294" s="10" t="s">
         <v>775</v>
-      </c>
-      <c r="L294" s="10" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -12951,10 +12954,10 @@
         <v>269</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E295" s="12">
         <v>0</v>
@@ -12985,10 +12988,10 @@
         <v>9</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E296" s="12">
         <v>195</v>
@@ -13014,13 +13017,13 @@
         <v>4</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E297" s="12">
         <v>1</v>
@@ -13035,10 +13038,10 @@
       <c r="I297" s="10"/>
       <c r="J297" s="10"/>
       <c r="K297" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="L297" s="10" t="s">
         <v>788</v>
-      </c>
-      <c r="L297" s="10" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
@@ -13049,10 +13052,10 @@
         <v>533</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E298" s="12">
         <v>0</v>
@@ -13083,10 +13086,10 @@
         <v>541</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E299" s="12">
         <v>1</v>
@@ -13115,10 +13118,10 @@
         <v>620</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E300" s="12">
         <v>1E-3</v>
@@ -13144,19 +13147,19 @@
         <v>4</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E301" s="12">
         <v>100</v>
       </c>
       <c r="F301" s="11" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G301" s="11" t="b">
         <v>1</v>
@@ -13165,10 +13168,10 @@
       <c r="I301" s="10"/>
       <c r="J301" s="10"/>
       <c r="K301" s="10" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="L301" s="10" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -13176,13 +13179,13 @@
         <v>4</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E302" s="12">
         <v>0</v>
@@ -13197,10 +13200,10 @@
       <c r="I302" s="10"/>
       <c r="J302" s="10"/>
       <c r="K302" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="L302" s="10" t="s">
         <v>831</v>
-      </c>
-      <c r="L302" s="10" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
@@ -13208,13 +13211,13 @@
         <v>4</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E303" s="12">
         <v>0</v>
@@ -13229,10 +13232,10 @@
       <c r="I303" s="10"/>
       <c r="J303" s="10"/>
       <c r="K303" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L303" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
@@ -13243,10 +13246,10 @@
         <v>389</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E304" s="12"/>
       <c r="F304" s="11" t="s">
@@ -13270,13 +13273,13 @@
         <v>4</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E305" s="12">
         <v>0</v>
@@ -13291,10 +13294,10 @@
       <c r="I305" s="10"/>
       <c r="J305" s="10"/>
       <c r="K305" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L305" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -13302,13 +13305,13 @@
         <v>4</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E306" s="12">
         <v>0</v>
@@ -13323,10 +13326,10 @@
       <c r="I306" s="10"/>
       <c r="J306" s="10"/>
       <c r="K306" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L306" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC15772F-F37C-45BD-BADF-28C2661F38C9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B5D784-AF4D-4DFC-9BD2-D88A3798A3DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="8220" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="942">
   <si>
     <t>String name</t>
   </si>
@@ -2823,6 +2823,24 @@
   </si>
   <si>
     <t>Save field image (User)</t>
+  </si>
+  <si>
+    <t>Uniform=0;User=1</t>
+  </si>
+  <si>
+    <t>Desired receiver flux profile</t>
+  </si>
+  <si>
+    <t>Desired receiver flux profile type, Image Size Priority mode only</t>
+  </si>
+  <si>
+    <t>flux_profile_type</t>
+  </si>
+  <si>
+    <t>user_flux_profile</t>
+  </si>
+  <si>
+    <t>User flux profile data</t>
   </si>
 </sst>
 </file>
@@ -3061,10 +3079,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L306" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L306" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:L316">
-    <sortCondition ref="A1:A316"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L308" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L308" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L318">
+    <sortCondition ref="A1:A318"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain" dataDxfId="11"/>
@@ -3405,11 +3423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L306"/>
+  <dimension ref="A1:L308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E231" sqref="E231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10861,16 +10879,16 @@
         <v>8</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>905</v>
+        <v>939</v>
       </c>
       <c r="C231" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E231" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>21</v>
@@ -10878,14 +10896,18 @@
       <c r="G231" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H231" s="10"/>
-      <c r="I231" s="10"/>
+      <c r="H231" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I231" s="10" t="s">
+        <v>936</v>
+      </c>
       <c r="J231" s="10"/>
       <c r="K231" s="10" t="s">
-        <v>906</v>
+        <v>937</v>
       </c>
       <c r="L231" s="10" t="s">
-        <v>907</v>
+        <v>938</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -10893,31 +10915,29 @@
         <v>8</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>307</v>
+        <v>940</v>
       </c>
       <c r="C232" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E232" s="12">
-        <v>10.199999999999999</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="E232" s="12"/>
       <c r="F232" s="11" t="s">
-        <v>567</v>
+        <v>21</v>
       </c>
       <c r="G232" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232" s="10"/>
       <c r="I232" s="10"/>
       <c r="J232" s="10"/>
       <c r="K232" s="10" t="s">
-        <v>568</v>
+        <v>941</v>
       </c>
       <c r="L232" s="10" t="s">
-        <v>569</v>
+        <v>941</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -10925,7 +10945,7 @@
         <v>8</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>570</v>
+        <v>905</v>
       </c>
       <c r="C233" s="9" t="s">
         <v>814</v>
@@ -10934,10 +10954,10 @@
         <v>805</v>
       </c>
       <c r="E233" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>558</v>
+        <v>21</v>
       </c>
       <c r="G233" s="11" t="b">
         <v>1</v>
@@ -10946,10 +10966,10 @@
       <c r="I233" s="10"/>
       <c r="J233" s="10"/>
       <c r="K233" s="10" t="s">
-        <v>571</v>
+        <v>906</v>
       </c>
       <c r="L233" s="10" t="s">
-        <v>572</v>
+        <v>907</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -10957,7 +10977,7 @@
         <v>8</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c r="C234" s="9" t="s">
         <v>814</v>
@@ -10966,10 +10986,10 @@
         <v>805</v>
       </c>
       <c r="E234" s="12">
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>56</v>
+        <v>567</v>
       </c>
       <c r="G234" s="11" t="b">
         <v>1</v>
@@ -10977,11 +10997,11 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
       <c r="J234" s="10"/>
-      <c r="K234" s="9" t="s">
-        <v>145</v>
+      <c r="K234" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="L234" s="10" t="s">
-        <v>422</v>
+        <v>569</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -10989,7 +11009,7 @@
         <v>8</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>298</v>
+        <v>570</v>
       </c>
       <c r="C235" s="9" t="s">
         <v>814</v>
@@ -11001,21 +11021,19 @@
         <v>0</v>
       </c>
       <c r="F235" s="11" t="s">
-        <v>23</v>
+        <v>558</v>
       </c>
       <c r="G235" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
-      <c r="J235" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="J235" s="10"/>
       <c r="K235" s="10" t="s">
-        <v>300</v>
+        <v>571</v>
       </c>
       <c r="L235" s="10" t="s">
-        <v>301</v>
+        <v>572</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -11023,7 +11041,7 @@
         <v>8</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c r="C236" s="9" t="s">
         <v>814</v>
@@ -11032,24 +11050,22 @@
         <v>805</v>
       </c>
       <c r="E236" s="12">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G236" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H236" s="10"/>
       <c r="I236" s="10"/>
-      <c r="J236" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="K236" s="10" t="s">
-        <v>299</v>
+      <c r="J236" s="10"/>
+      <c r="K236" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="L236" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -11057,7 +11073,7 @@
         <v>8</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="C237" s="9" t="s">
         <v>814</v>
@@ -11066,7 +11082,7 @@
         <v>805</v>
       </c>
       <c r="E237" s="12">
-        <v>17.649999999999999</v>
+        <v>0</v>
       </c>
       <c r="F237" s="11" t="s">
         <v>23</v>
@@ -11076,12 +11092,14 @@
       </c>
       <c r="H237" s="10"/>
       <c r="I237" s="10"/>
-      <c r="J237" s="10"/>
-      <c r="K237" s="9" t="s">
-        <v>119</v>
+      <c r="J237" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="K237" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="L237" s="10" t="s">
-        <v>142</v>
+        <v>301</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -11089,7 +11107,7 @@
         <v>8</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>431</v>
+        <v>297</v>
       </c>
       <c r="C238" s="9" t="s">
         <v>814</v>
@@ -11098,22 +11116,24 @@
         <v>805</v>
       </c>
       <c r="E238" s="12">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G238" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H238" s="10"/>
       <c r="I238" s="10"/>
-      <c r="J238" s="10"/>
-      <c r="K238" s="9" t="s">
-        <v>429</v>
+      <c r="J238" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="K238" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="L238" s="10" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -11121,7 +11141,7 @@
         <v>8</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>814</v>
@@ -11130,7 +11150,7 @@
         <v>805</v>
       </c>
       <c r="E239" s="12">
-        <v>21.6</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="F239" s="11" t="s">
         <v>23</v>
@@ -11142,10 +11162,10 @@
       <c r="I239" s="10"/>
       <c r="J239" s="10"/>
       <c r="K239" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L239" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -11153,29 +11173,31 @@
         <v>8</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>313</v>
+        <v>431</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E240" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="F240" s="11"/>
+        <v>805</v>
+      </c>
+      <c r="E240" s="12">
+        <v>0</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="G240" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240" s="10"/>
       <c r="I240" s="10"/>
       <c r="J240" s="10"/>
-      <c r="K240" s="10" t="s">
-        <v>315</v>
+      <c r="K240" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="L240" s="10" t="s">
-        <v>315</v>
+        <v>430</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -11183,7 +11205,7 @@
         <v>8</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>814</v>
@@ -11192,7 +11214,7 @@
         <v>805</v>
       </c>
       <c r="E241" s="12">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="F241" s="11" t="s">
         <v>23</v>
@@ -11204,10 +11226,10 @@
       <c r="I241" s="10"/>
       <c r="J241" s="10"/>
       <c r="K241" s="9" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="L241" s="10" t="s">
-        <v>929</v>
+        <v>143</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -11215,31 +11237,29 @@
         <v>8</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E242" s="12">
-        <v>0</v>
-      </c>
-      <c r="F242" s="11" t="s">
-        <v>23</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F242" s="11"/>
       <c r="G242" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242" s="10"/>
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
-      <c r="K242" s="9" t="s">
-        <v>147</v>
+      <c r="K242" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="L242" s="10" t="s">
-        <v>930</v>
+        <v>315</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -11247,7 +11267,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>814</v>
@@ -11268,10 +11288,10 @@
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
       <c r="K243" s="9" t="s">
-        <v>303</v>
+        <v>146</v>
       </c>
       <c r="L243" s="10" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -11279,35 +11299,31 @@
         <v>8</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>914</v>
+        <v>17</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E244" s="12">
         <v>0</v>
       </c>
       <c r="F244" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G244" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H244" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I244" s="10" t="s">
-        <v>932</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H244" s="10"/>
+      <c r="I244" s="10"/>
       <c r="J244" s="10"/>
-      <c r="K244" s="10" t="s">
-        <v>915</v>
+      <c r="K244" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="L244" s="10" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -11315,35 +11331,31 @@
         <v>8</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="C245" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E245" s="12">
         <v>0</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G245" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H245" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I245" s="10" t="s">
-        <v>770</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H245" s="10"/>
+      <c r="I245" s="10"/>
       <c r="J245" s="10"/>
       <c r="K245" s="9" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="L245" s="10" t="s">
-        <v>150</v>
+        <v>931</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -11351,31 +11363,35 @@
         <v>8</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>10</v>
+        <v>914</v>
       </c>
       <c r="C246" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E246" s="12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F246" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G246" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="10"/>
-      <c r="I246" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H246" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I246" s="10" t="s">
+        <v>932</v>
+      </c>
       <c r="J246" s="10"/>
-      <c r="K246" s="9" t="s">
-        <v>118</v>
+      <c r="K246" s="10" t="s">
+        <v>915</v>
       </c>
       <c r="L246" s="10" t="s">
-        <v>141</v>
+        <v>916</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -11383,33 +11399,35 @@
         <v>8</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>417</v>
+        <v>20</v>
       </c>
       <c r="C247" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E247" s="12">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F247" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G247" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="10"/>
-      <c r="I247" s="10"/>
-      <c r="J247" s="10" t="s">
-        <v>640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I247" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="J247" s="10"/>
       <c r="K247" s="9" t="s">
-        <v>420</v>
+        <v>24</v>
       </c>
       <c r="L247" s="10" t="s">
-        <v>421</v>
+        <v>150</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -11417,7 +11435,7 @@
         <v>8</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>416</v>
+        <v>10</v>
       </c>
       <c r="C248" s="9" t="s">
         <v>814</v>
@@ -11426,24 +11444,22 @@
         <v>805</v>
       </c>
       <c r="E248" s="12">
-        <v>-180</v>
+        <v>17</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G248" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H248" s="10"/>
       <c r="I248" s="10"/>
-      <c r="J248" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="J248" s="10"/>
       <c r="K248" s="9" t="s">
-        <v>418</v>
+        <v>118</v>
       </c>
       <c r="L248" s="10" t="s">
-        <v>419</v>
+        <v>141</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -11451,7 +11467,7 @@
         <v>8</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>561</v>
+        <v>417</v>
       </c>
       <c r="C249" s="9" t="s">
         <v>814</v>
@@ -11460,22 +11476,24 @@
         <v>805</v>
       </c>
       <c r="E249" s="12">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>291</v>
+        <v>56</v>
       </c>
       <c r="G249" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H249" s="10"/>
       <c r="I249" s="10"/>
-      <c r="J249" s="10"/>
-      <c r="K249" s="10" t="s">
-        <v>562</v>
+      <c r="J249" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="K249" s="9" t="s">
+        <v>420</v>
       </c>
       <c r="L249" s="10" t="s">
-        <v>563</v>
+        <v>421</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -11483,31 +11501,33 @@
         <v>8</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>564</v>
+        <v>416</v>
       </c>
       <c r="C250" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="E250" s="10" t="s">
-        <v>309</v>
+        <v>805</v>
+      </c>
+      <c r="E250" s="12">
+        <v>-180</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G250" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250" s="10"/>
       <c r="I250" s="10"/>
-      <c r="J250" s="10"/>
-      <c r="K250" s="10" t="s">
-        <v>565</v>
+      <c r="J250" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="K250" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="L250" s="10" t="s">
-        <v>305</v>
+        <v>419</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -11515,31 +11535,31 @@
         <v>8</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>304</v>
+        <v>561</v>
       </c>
       <c r="C251" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="E251" s="10" t="s">
-        <v>309</v>
+        <v>805</v>
+      </c>
+      <c r="E251" s="12">
+        <v>30</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
       <c r="G251" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
       <c r="J251" s="10"/>
       <c r="K251" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L251" s="10" t="s">
-        <v>306</v>
+        <v>563</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -11547,19 +11567,19 @@
         <v>8</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>310</v>
+        <v>564</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E252" s="12">
-        <v>0</v>
+        <v>802</v>
+      </c>
+      <c r="E252" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="G252" s="11" t="b">
         <v>0</v>
@@ -11568,10 +11588,10 @@
       <c r="I252" s="10"/>
       <c r="J252" s="10"/>
       <c r="K252" s="10" t="s">
-        <v>311</v>
+        <v>565</v>
       </c>
       <c r="L252" s="10" t="s">
-        <v>424</v>
+        <v>305</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -11579,19 +11599,19 @@
         <v>8</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E253" s="12">
-        <v>195</v>
+        <v>802</v>
+      </c>
+      <c r="E253" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="F253" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G253" s="11" t="b">
         <v>0</v>
@@ -11599,11 +11619,11 @@
       <c r="H253" s="10"/>
       <c r="I253" s="10"/>
       <c r="J253" s="10"/>
-      <c r="K253" s="9" t="s">
-        <v>140</v>
+      <c r="K253" s="10" t="s">
+        <v>566</v>
       </c>
       <c r="L253" s="10" t="s">
-        <v>425</v>
+        <v>306</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -11611,7 +11631,7 @@
         <v>8</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>577</v>
+        <v>310</v>
       </c>
       <c r="C254" s="9" t="s">
         <v>815</v>
@@ -11623,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>574</v>
+        <v>308</v>
       </c>
       <c r="G254" s="11" t="b">
         <v>0</v>
@@ -11632,10 +11652,10 @@
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="10" t="s">
-        <v>578</v>
+        <v>311</v>
       </c>
       <c r="L254" s="10" t="s">
-        <v>579</v>
+        <v>424</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -11643,7 +11663,7 @@
         <v>8</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>815</v>
@@ -11652,22 +11672,22 @@
         <v>805</v>
       </c>
       <c r="E255" s="12">
-        <v>1.2</v>
+        <v>195</v>
       </c>
       <c r="F255" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G255" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255" s="10"/>
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
-      <c r="K255" s="10" t="s">
-        <v>295</v>
+      <c r="K255" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="L255" s="10" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -11675,7 +11695,7 @@
         <v>8</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>823</v>
+        <v>577</v>
       </c>
       <c r="C256" s="9" t="s">
         <v>815</v>
@@ -11687,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>21</v>
+        <v>574</v>
       </c>
       <c r="G256" s="11" t="b">
         <v>0</v>
@@ -11696,10 +11716,10 @@
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
       <c r="K256" s="10" t="s">
-        <v>824</v>
+        <v>578</v>
       </c>
       <c r="L256" s="10" t="s">
-        <v>824</v>
+        <v>579</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -11707,7 +11727,7 @@
         <v>8</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>573</v>
+        <v>294</v>
       </c>
       <c r="C257" s="9" t="s">
         <v>815</v>
@@ -11716,22 +11736,22 @@
         <v>805</v>
       </c>
       <c r="E257" s="12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>574</v>
+        <v>21</v>
       </c>
       <c r="G257" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
       <c r="J257" s="10"/>
       <c r="K257" s="10" t="s">
-        <v>575</v>
+        <v>295</v>
       </c>
       <c r="L257" s="10" t="s">
-        <v>576</v>
+        <v>296</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -11739,7 +11759,7 @@
         <v>8</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>911</v>
+        <v>823</v>
       </c>
       <c r="C258" s="9" t="s">
         <v>815</v>
@@ -11751,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="F258" s="11" t="s">
-        <v>574</v>
+        <v>21</v>
       </c>
       <c r="G258" s="11" t="b">
         <v>0</v>
@@ -11760,10 +11780,10 @@
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
       <c r="K258" s="10" t="s">
-        <v>912</v>
+        <v>824</v>
       </c>
       <c r="L258" s="10" t="s">
-        <v>913</v>
+        <v>824</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -11771,7 +11791,7 @@
         <v>8</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>924</v>
+        <v>573</v>
       </c>
       <c r="C259" s="9" t="s">
         <v>815</v>
@@ -11783,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="F259" s="11" t="s">
-        <v>23</v>
+        <v>574</v>
       </c>
       <c r="G259" s="11" t="b">
         <v>0</v>
@@ -11791,11 +11811,11 @@
       <c r="H259" s="10"/>
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
-      <c r="K259" s="9" t="s">
-        <v>926</v>
+      <c r="K259" s="10" t="s">
+        <v>575</v>
       </c>
       <c r="L259" s="10" t="s">
-        <v>148</v>
+        <v>576</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -11803,7 +11823,7 @@
         <v>8</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>815</v>
@@ -11815,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>23</v>
+        <v>574</v>
       </c>
       <c r="G260" s="11" t="b">
         <v>0</v>
@@ -11823,11 +11843,11 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
-      <c r="K260" s="9" t="s">
-        <v>927</v>
+      <c r="K260" s="10" t="s">
+        <v>912</v>
       </c>
       <c r="L260" s="10" t="s">
-        <v>149</v>
+        <v>913</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -11835,7 +11855,7 @@
         <v>8</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C261" s="9" t="s">
         <v>815</v>
@@ -11856,74 +11876,74 @@
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
       <c r="K261" s="9" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="L261" s="10" t="s">
-        <v>426</v>
+        <v>148</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>19</v>
+        <v>923</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>805</v>
       </c>
       <c r="E262" s="12">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G262" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
       <c r="J262" s="10"/>
-      <c r="K262" s="10" t="s">
-        <v>138</v>
+      <c r="K262" s="9" t="s">
+        <v>927</v>
       </c>
       <c r="L262" s="10" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>18</v>
+        <v>925</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>805</v>
       </c>
       <c r="E263" s="12">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G263" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
       <c r="J263" s="10"/>
-      <c r="K263" s="10" t="s">
-        <v>139</v>
+      <c r="K263" s="9" t="s">
+        <v>928</v>
       </c>
       <c r="L263" s="10" t="s">
-        <v>111</v>
+        <v>426</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -11931,7 +11951,7 @@
         <v>4</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>814</v>
@@ -11940,10 +11960,10 @@
         <v>805</v>
       </c>
       <c r="E264" s="12">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G264" s="11" t="b">
         <v>1</v>
@@ -11951,11 +11971,11 @@
       <c r="H264" s="10"/>
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
-      <c r="K264" s="9" t="s">
-        <v>127</v>
+      <c r="K264" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="L264" s="10" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -11963,31 +11983,31 @@
         <v>4</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>545</v>
+        <v>18</v>
       </c>
       <c r="C265" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E265" s="12" t="s">
-        <v>546</v>
+        <v>805</v>
+      </c>
+      <c r="E265" s="12">
+        <v>-180</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G265" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265" s="10"/>
       <c r="I265" s="10"/>
       <c r="J265" s="10"/>
       <c r="K265" s="10" t="s">
-        <v>547</v>
+        <v>139</v>
       </c>
       <c r="L265" s="10" t="s">
-        <v>547</v>
+        <v>111</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -11995,16 +12015,16 @@
         <v>4</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E266" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F266" s="11" t="s">
         <v>21</v>
@@ -12012,18 +12032,14 @@
       <c r="G266" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H266" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I266" s="10" t="s">
-        <v>556</v>
-      </c>
+      <c r="H266" s="10"/>
+      <c r="I266" s="10"/>
       <c r="J266" s="10"/>
       <c r="K266" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L266" s="10" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -12031,31 +12047,31 @@
         <v>4</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>192</v>
+        <v>545</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="E267" s="12">
-        <v>4</v>
+        <v>804</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>546</v>
       </c>
       <c r="F267" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G267" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267" s="10"/>
       <c r="I267" s="10"/>
       <c r="J267" s="10"/>
       <c r="K267" s="10" t="s">
-        <v>193</v>
+        <v>547</v>
       </c>
       <c r="L267" s="10" t="s">
-        <v>194</v>
+        <v>547</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -12063,16 +12079,16 @@
         <v>4</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>582</v>
+        <v>104</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E268" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F268" s="11" t="s">
         <v>21</v>
@@ -12080,14 +12096,18 @@
       <c r="G268" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H268" s="10"/>
-      <c r="I268" s="10"/>
+      <c r="H268" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I268" s="10" t="s">
+        <v>556</v>
+      </c>
       <c r="J268" s="10"/>
-      <c r="K268" s="10" t="s">
-        <v>583</v>
+      <c r="K268" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="L268" s="10" t="s">
-        <v>584</v>
+        <v>105</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -12095,19 +12115,19 @@
         <v>4</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C269" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E269" s="12">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="G269" s="11" t="b">
         <v>1</v>
@@ -12116,10 +12136,10 @@
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
       <c r="K269" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L269" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -12127,16 +12147,16 @@
         <v>4</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="C270" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E270" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F270" s="11" t="s">
         <v>21</v>
@@ -12144,18 +12164,14 @@
       <c r="G270" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H270" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I270" s="10" t="s">
-        <v>523</v>
-      </c>
+      <c r="H270" s="10"/>
+      <c r="I270" s="10"/>
       <c r="J270" s="10"/>
       <c r="K270" s="10" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="L270" s="10" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -12163,33 +12179,31 @@
         <v>4</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>889</v>
+        <v>188</v>
       </c>
       <c r="C271" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E271" s="12" t="b">
-        <v>0</v>
+        <v>805</v>
+      </c>
+      <c r="E271" s="12">
+        <v>950</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="G271" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H271" s="10" t="s">
-        <v>202</v>
-      </c>
+      <c r="H271" s="10"/>
       <c r="I271" s="10"/>
       <c r="J271" s="10"/>
       <c r="K271" s="10" t="s">
-        <v>890</v>
+        <v>190</v>
       </c>
       <c r="L271" s="10" t="s">
-        <v>891</v>
+        <v>191</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -12197,33 +12211,35 @@
         <v>4</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>636</v>
+        <v>521</v>
       </c>
       <c r="C272" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E272" s="12" t="b">
-        <v>1</v>
+        <v>804</v>
+      </c>
+      <c r="E272" s="12">
+        <v>7</v>
       </c>
       <c r="F272" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G272" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I272" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="I272" s="10" t="s">
+        <v>523</v>
+      </c>
       <c r="J272" s="10"/>
       <c r="K272" s="10" t="s">
-        <v>637</v>
+        <v>555</v>
       </c>
       <c r="L272" s="10" t="s">
-        <v>638</v>
+        <v>522</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -12231,7 +12247,7 @@
         <v>4</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>612</v>
+        <v>889</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>814</v>
@@ -12254,10 +12270,10 @@
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
       <c r="K273" s="10" t="s">
-        <v>610</v>
+        <v>890</v>
       </c>
       <c r="L273" s="10" t="s">
-        <v>611</v>
+        <v>891</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -12265,7 +12281,7 @@
         <v>4</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>209</v>
+        <v>636</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>814</v>
@@ -12288,10 +12304,10 @@
       <c r="I274" s="10"/>
       <c r="J274" s="10"/>
       <c r="K274" s="10" t="s">
-        <v>210</v>
+        <v>637</v>
       </c>
       <c r="L274" s="10" t="s">
-        <v>211</v>
+        <v>638</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -12299,7 +12315,7 @@
         <v>4</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>908</v>
+        <v>612</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>814</v>
@@ -12322,10 +12338,10 @@
       <c r="I275" s="10"/>
       <c r="J275" s="10"/>
       <c r="K275" s="10" t="s">
-        <v>909</v>
+        <v>610</v>
       </c>
       <c r="L275" s="10" t="s">
-        <v>910</v>
+        <v>611</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -12333,27 +12349,33 @@
         <v>4</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>387</v>
+        <v>209</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E276" s="12"/>
-      <c r="F276" s="11"/>
+        <v>806</v>
+      </c>
+      <c r="E276" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F276" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G276" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H276" s="10"/>
+      <c r="H276" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="I276" s="10"/>
       <c r="J276" s="10"/>
       <c r="K276" s="10" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="L276" s="10" t="s">
-        <v>388</v>
+        <v>211</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
@@ -12361,35 +12383,33 @@
         <v>4</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>6</v>
+        <v>908</v>
       </c>
       <c r="C277" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E277" s="12">
+        <v>806</v>
+      </c>
+      <c r="E277" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F277" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G277" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I277" s="10" t="s">
-        <v>132</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="I277" s="10"/>
       <c r="J277" s="10"/>
-      <c r="K277" s="9" t="s">
-        <v>133</v>
+      <c r="K277" s="10" t="s">
+        <v>909</v>
       </c>
       <c r="L277" s="10" t="s">
-        <v>65</v>
+        <v>910</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -12397,31 +12417,27 @@
         <v>4</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>623</v>
+        <v>387</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E278" s="12">
-        <v>1</v>
-      </c>
-      <c r="F278" s="11" t="s">
-        <v>625</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="E278" s="12"/>
+      <c r="F278" s="11"/>
       <c r="G278" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H278" s="10"/>
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
       <c r="K278" s="10" t="s">
-        <v>627</v>
+        <v>388</v>
       </c>
       <c r="L278" s="10" t="s">
-        <v>632</v>
+        <v>388</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -12429,31 +12445,35 @@
         <v>4</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>621</v>
+        <v>6</v>
       </c>
       <c r="C279" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E279" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F279" s="11" t="s">
-        <v>625</v>
+        <v>21</v>
       </c>
       <c r="G279" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" s="10"/>
-      <c r="I279" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H279" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I279" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="J279" s="10"/>
-      <c r="K279" s="10" t="s">
-        <v>626</v>
+      <c r="K279" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="L279" s="10" t="s">
-        <v>631</v>
+        <v>65</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
@@ -12461,7 +12481,7 @@
         <v>4</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C280" s="9" t="s">
         <v>814</v>
@@ -12470,7 +12490,7 @@
         <v>805</v>
       </c>
       <c r="E280" s="12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F280" s="11" t="s">
         <v>625</v>
@@ -12482,10 +12502,10 @@
       <c r="I280" s="10"/>
       <c r="J280" s="10"/>
       <c r="K280" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L280" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -12493,7 +12513,7 @@
         <v>4</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>814</v>
@@ -12502,7 +12522,7 @@
         <v>805</v>
       </c>
       <c r="E281" s="12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F281" s="11" t="s">
         <v>625</v>
@@ -12514,10 +12534,10 @@
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
       <c r="K281" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L281" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -12525,7 +12545,7 @@
         <v>4</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>814</v>
@@ -12534,10 +12554,10 @@
         <v>805</v>
       </c>
       <c r="E282" s="12">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F282" s="11" t="s">
-        <v>21</v>
+        <v>625</v>
       </c>
       <c r="G282" s="11" t="b">
         <v>1</v>
@@ -12546,10 +12566,10 @@
       <c r="I282" s="10"/>
       <c r="J282" s="10"/>
       <c r="K282" s="10" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="L282" s="10" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -12557,7 +12577,7 @@
         <v>4</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>5</v>
+        <v>622</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>814</v>
@@ -12566,10 +12586,10 @@
         <v>805</v>
       </c>
       <c r="E283" s="12">
-        <v>670</v>
+        <v>0.1</v>
       </c>
       <c r="F283" s="11" t="s">
-        <v>212</v>
+        <v>625</v>
       </c>
       <c r="G283" s="11" t="b">
         <v>1</v>
@@ -12577,11 +12597,11 @@
       <c r="H283" s="10"/>
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
-      <c r="K283" s="9" t="s">
-        <v>126</v>
+      <c r="K283" s="10" t="s">
+        <v>628</v>
       </c>
       <c r="L283" s="10" t="s">
-        <v>64</v>
+        <v>633</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -12589,16 +12609,16 @@
         <v>4</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>100</v>
+        <v>613</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E284" s="12">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F284" s="11" t="s">
         <v>21</v>
@@ -12606,18 +12626,14 @@
       <c r="G284" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H284" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I284" s="10" t="s">
-        <v>785</v>
-      </c>
+      <c r="H284" s="10"/>
+      <c r="I284" s="10"/>
       <c r="J284" s="10"/>
-      <c r="K284" s="9" t="s">
-        <v>134</v>
+      <c r="K284" s="10" t="s">
+        <v>614</v>
       </c>
       <c r="L284" s="10" t="s">
-        <v>101</v>
+        <v>615</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -12625,7 +12641,7 @@
         <v>4</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>531</v>
+        <v>5</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>814</v>
@@ -12634,10 +12650,10 @@
         <v>805</v>
       </c>
       <c r="E285" s="12">
-        <v>1.1000000000000001</v>
+        <v>670</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="G285" s="11" t="b">
         <v>1</v>
@@ -12645,11 +12661,11 @@
       <c r="H285" s="10"/>
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
-      <c r="K285" s="10" t="s">
-        <v>535</v>
+      <c r="K285" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="L285" s="10" t="s">
-        <v>538</v>
+        <v>64</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -12657,16 +12673,16 @@
         <v>4</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>532</v>
+        <v>100</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E286" s="12">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F286" s="11" t="s">
         <v>21</v>
@@ -12674,14 +12690,18 @@
       <c r="G286" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H286" s="10"/>
-      <c r="I286" s="10"/>
+      <c r="H286" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I286" s="10" t="s">
+        <v>785</v>
+      </c>
       <c r="J286" s="10"/>
-      <c r="K286" s="10" t="s">
-        <v>536</v>
+      <c r="K286" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="L286" s="10" t="s">
-        <v>539</v>
+        <v>101</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -12689,7 +12709,7 @@
         <v>4</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>14</v>
+        <v>531</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>814</v>
@@ -12698,22 +12718,22 @@
         <v>805</v>
       </c>
       <c r="E287" s="12">
-        <v>195</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G287" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287" s="10"/>
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
-      <c r="K287" s="9" t="s">
-        <v>137</v>
+      <c r="K287" s="10" t="s">
+        <v>535</v>
       </c>
       <c r="L287" s="10" t="s">
-        <v>68</v>
+        <v>538</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -12721,7 +12741,7 @@
         <v>4</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>13</v>
+        <v>532</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>814</v>
@@ -12730,22 +12750,22 @@
         <v>805</v>
       </c>
       <c r="E288" s="12">
-        <v>16</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F288" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G288" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
       <c r="J288" s="10"/>
-      <c r="K288" s="9" t="s">
-        <v>136</v>
+      <c r="K288" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="L288" s="10" t="s">
-        <v>67</v>
+        <v>539</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -12753,7 +12773,7 @@
         <v>4</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>892</v>
+        <v>14</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>814</v>
@@ -12762,22 +12782,22 @@
         <v>805</v>
       </c>
       <c r="E289" s="12">
-        <v>0.5</v>
+        <v>195</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G289" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H289" s="10"/>
       <c r="I289" s="10"/>
       <c r="J289" s="10"/>
-      <c r="K289" s="10" t="s">
-        <v>893</v>
+      <c r="K289" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="L289" s="10" t="s">
-        <v>893</v>
+        <v>68</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -12785,7 +12805,7 @@
         <v>4</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C290" s="9" t="s">
         <v>814</v>
@@ -12794,22 +12814,22 @@
         <v>805</v>
       </c>
       <c r="E290" s="12">
-        <v>1.33</v>
+        <v>16</v>
       </c>
       <c r="F290" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G290" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
       <c r="J290" s="10"/>
       <c r="K290" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L290" s="10" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -12817,7 +12837,7 @@
         <v>4</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>853</v>
+        <v>892</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>814</v>
@@ -12826,10 +12846,10 @@
         <v>805</v>
       </c>
       <c r="E291" s="12">
-        <v>180</v>
+        <v>0.5</v>
       </c>
       <c r="F291" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G291" s="11" t="b">
         <v>1</v>
@@ -12838,10 +12858,10 @@
       <c r="I291" s="10"/>
       <c r="J291" s="10"/>
       <c r="K291" s="10" t="s">
-        <v>856</v>
+        <v>893</v>
       </c>
       <c r="L291" s="10" t="s">
-        <v>500</v>
+        <v>893</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -12849,7 +12869,7 @@
         <v>4</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>854</v>
+        <v>97</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>814</v>
@@ -12858,10 +12878,10 @@
         <v>805</v>
       </c>
       <c r="E292" s="12">
-        <v>85</v>
+        <v>1.33</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G292" s="11" t="b">
         <v>1</v>
@@ -12869,11 +12889,11 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
       <c r="J292" s="10"/>
-      <c r="K292" s="10" t="s">
-        <v>857</v>
+      <c r="K292" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="L292" s="10" t="s">
-        <v>501</v>
+        <v>98</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -12881,35 +12901,31 @@
         <v>4</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>497</v>
+        <v>853</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E293" s="12">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G293" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H293" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I293" s="10" t="s">
-        <v>520</v>
-      </c>
+      <c r="H293" s="10"/>
+      <c r="I293" s="10"/>
       <c r="J293" s="10"/>
       <c r="K293" s="10" t="s">
-        <v>498</v>
+        <v>856</v>
       </c>
       <c r="L293" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -12917,33 +12933,31 @@
         <v>4</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>773</v>
+        <v>854</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E294" s="12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G294" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H294" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="H294" s="10"/>
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
       <c r="K294" s="10" t="s">
-        <v>774</v>
+        <v>857</v>
       </c>
       <c r="L294" s="10" t="s">
-        <v>775</v>
+        <v>501</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -12951,7 +12965,7 @@
         <v>4</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>269</v>
+        <v>497</v>
       </c>
       <c r="C295" s="9" t="s">
         <v>814</v>
@@ -12962,7 +12976,9 @@
       <c r="E295" s="12">
         <v>0</v>
       </c>
-      <c r="F295" s="11"/>
+      <c r="F295" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G295" s="11" t="b">
         <v>1</v>
       </c>
@@ -12970,14 +12986,14 @@
         <v>131</v>
       </c>
       <c r="I295" s="10" t="s">
-        <v>271</v>
+        <v>520</v>
       </c>
       <c r="J295" s="10"/>
       <c r="K295" s="10" t="s">
-        <v>270</v>
+        <v>498</v>
       </c>
       <c r="L295" s="10" t="s">
-        <v>284</v>
+        <v>499</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -12985,31 +13001,33 @@
         <v>4</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>9</v>
+        <v>773</v>
       </c>
       <c r="C296" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E296" s="12">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F296" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G296" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H296" s="10"/>
+      <c r="H296" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
-      <c r="K296" s="9" t="s">
-        <v>285</v>
+      <c r="K296" s="10" t="s">
+        <v>774</v>
       </c>
       <c r="L296" s="10" t="s">
-        <v>286</v>
+        <v>775</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
@@ -13017,31 +13035,33 @@
         <v>4</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>786</v>
+        <v>269</v>
       </c>
       <c r="C297" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E297" s="12">
-        <v>1</v>
-      </c>
-      <c r="F297" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F297" s="11"/>
       <c r="G297" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H297" s="10"/>
-      <c r="I297" s="10"/>
+      <c r="H297" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I297" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="J297" s="10"/>
       <c r="K297" s="10" t="s">
-        <v>787</v>
+        <v>270</v>
       </c>
       <c r="L297" s="10" t="s">
-        <v>788</v>
+        <v>284</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
@@ -13049,33 +13069,31 @@
         <v>4</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>533</v>
+        <v>9</v>
       </c>
       <c r="C298" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E298" s="12">
-        <v>0</v>
-      </c>
-      <c r="F298" s="11"/>
+        <v>195</v>
+      </c>
+      <c r="F298" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="G298" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H298" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I298" s="10" t="s">
-        <v>534</v>
-      </c>
+      <c r="H298" s="10"/>
+      <c r="I298" s="10"/>
       <c r="J298" s="10"/>
-      <c r="K298" s="10" t="s">
-        <v>537</v>
+      <c r="K298" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="L298" s="10" t="s">
-        <v>540</v>
+        <v>286</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -13083,7 +13101,7 @@
         <v>4</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>541</v>
+        <v>786</v>
       </c>
       <c r="C299" s="9" t="s">
         <v>814</v>
@@ -13104,10 +13122,10 @@
       <c r="I299" s="10"/>
       <c r="J299" s="10"/>
       <c r="K299" s="10" t="s">
-        <v>542</v>
+        <v>787</v>
       </c>
       <c r="L299" s="10" t="s">
-        <v>543</v>
+        <v>788</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
@@ -13115,31 +13133,33 @@
         <v>4</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>620</v>
+        <v>533</v>
       </c>
       <c r="C300" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E300" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="F300" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F300" s="11"/>
       <c r="G300" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H300" s="10"/>
-      <c r="I300" s="10"/>
+      <c r="H300" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I300" s="10" t="s">
+        <v>534</v>
+      </c>
       <c r="J300" s="10"/>
       <c r="K300" s="10" t="s">
-        <v>630</v>
+        <v>537</v>
       </c>
       <c r="L300" s="10" t="s">
-        <v>635</v>
+        <v>540</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
@@ -13147,7 +13167,7 @@
         <v>4</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>901</v>
+        <v>541</v>
       </c>
       <c r="C301" s="9" t="s">
         <v>814</v>
@@ -13156,10 +13176,10 @@
         <v>805</v>
       </c>
       <c r="E301" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F301" s="11" t="s">
-        <v>904</v>
+        <v>21</v>
       </c>
       <c r="G301" s="11" t="b">
         <v>1</v>
@@ -13168,10 +13188,10 @@
       <c r="I301" s="10"/>
       <c r="J301" s="10"/>
       <c r="K301" s="10" t="s">
-        <v>903</v>
+        <v>542</v>
       </c>
       <c r="L301" s="10" t="s">
-        <v>902</v>
+        <v>543</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -13179,31 +13199,31 @@
         <v>4</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>827</v>
+        <v>620</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D302" s="9" t="s">
         <v>805</v>
       </c>
       <c r="E302" s="12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F302" s="11" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="G302" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H302" s="10"/>
       <c r="I302" s="10"/>
       <c r="J302" s="10"/>
       <c r="K302" s="10" t="s">
-        <v>830</v>
+        <v>630</v>
       </c>
       <c r="L302" s="10" t="s">
-        <v>831</v>
+        <v>635</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
@@ -13211,31 +13231,31 @@
         <v>4</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>826</v>
+        <v>901</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>805</v>
       </c>
       <c r="E303" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F303" s="11" t="s">
-        <v>308</v>
+        <v>904</v>
       </c>
       <c r="G303" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H303" s="10"/>
       <c r="I303" s="10"/>
       <c r="J303" s="10"/>
       <c r="K303" s="10" t="s">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="L303" s="10" t="s">
-        <v>832</v>
+        <v>902</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
@@ -13243,17 +13263,19 @@
         <v>4</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>389</v>
+        <v>827</v>
       </c>
       <c r="C304" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="E304" s="12"/>
+        <v>805</v>
+      </c>
+      <c r="E304" s="12">
+        <v>0</v>
+      </c>
       <c r="F304" s="11" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="G304" s="11" t="b">
         <v>0</v>
@@ -13262,10 +13284,10 @@
       <c r="I304" s="10"/>
       <c r="J304" s="10"/>
       <c r="K304" s="10" t="s">
-        <v>390</v>
+        <v>830</v>
       </c>
       <c r="L304" s="10" t="s">
-        <v>390</v>
+        <v>831</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
@@ -13273,7 +13295,7 @@
         <v>4</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>855</v>
+        <v>826</v>
       </c>
       <c r="C305" s="9" t="s">
         <v>815</v>
@@ -13285,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="G305" s="11" t="b">
         <v>0</v>
@@ -13294,10 +13316,10 @@
       <c r="I305" s="10"/>
       <c r="J305" s="10"/>
       <c r="K305" s="10" t="s">
-        <v>858</v>
+        <v>800</v>
       </c>
       <c r="L305" s="10" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -13305,19 +13327,17 @@
         <v>4</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>860</v>
+        <v>389</v>
       </c>
       <c r="C306" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E306" s="12">
-        <v>0</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="E306" s="12"/>
       <c r="F306" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G306" s="11" t="b">
         <v>0</v>
@@ -13326,9 +13346,73 @@
       <c r="I306" s="10"/>
       <c r="J306" s="10"/>
       <c r="K306" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="L306" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A307" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E307" s="12">
+        <v>0</v>
+      </c>
+      <c r="F307" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G307" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H307" s="10"/>
+      <c r="I307" s="10"/>
+      <c r="J307" s="10"/>
+      <c r="K307" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="L307" s="10" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A308" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E308" s="12">
+        <v>0</v>
+      </c>
+      <c r="F308" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G308" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H308" s="10"/>
+      <c r="I308" s="10"/>
+      <c r="J308" s="10"/>
+      <c r="K308" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="L306" s="10" t="s">
+      <c r="L308" s="10" t="s">
         <v>859</v>
       </c>
     </row>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -3,19 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B5D784-AF4D-4DFC-9BD2-D88A3798A3DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D4A7C9-3B34-48B9-919D-CBB5169D518A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="8220" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="943">
   <si>
     <t>String name</t>
   </si>
@@ -2841,6 +2849,9 @@
   </si>
   <si>
     <t>User flux profile data</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1;1,1,1,1,1;1,1,1,1,1;1,1,1,1,1;1,1,1,1,1</t>
   </si>
 </sst>
 </file>
@@ -3426,8 +3437,8 @@
   <dimension ref="A1:L308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E231" sqref="E231"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I252" sqref="I252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10921,9 +10932,11 @@
         <v>814</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E232" s="12"/>
+        <v>802</v>
+      </c>
+      <c r="E232" s="12" t="s">
+        <v>942</v>
+      </c>
       <c r="F232" s="11" t="s">
         <v>21</v>
       </c>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D4A7C9-3B34-48B9-919D-CBB5169D518A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D193B1DB-AD7A-45FE-8192-2B5D9758AD41}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="8220" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="945">
   <si>
     <t>String name</t>
   </si>
@@ -2852,6 +2852,12 @@
   </si>
   <si>
     <t>1,1,1,1,1;1,1,1,1,1;1,1,1,1,1;1,1,1,1,1;1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>Normalized user flux profile</t>
+  </si>
+  <si>
+    <t>n_user_flux_profile</t>
   </si>
 </sst>
 </file>
@@ -3090,10 +3096,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L308" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L308" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L318">
-    <sortCondition ref="A1:A318"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L309" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L309" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L319">
+    <sortCondition ref="A1:A319"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain" dataDxfId="11"/>
@@ -3434,11 +3440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L308"/>
+  <dimension ref="A1:L309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I252" sqref="I252"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11644,19 +11650,17 @@
         <v>8</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>310</v>
+        <v>944</v>
       </c>
       <c r="C254" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E254" s="12">
-        <v>0</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="E254" s="12"/>
       <c r="F254" s="11" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="G254" s="11" t="b">
         <v>0</v>
@@ -11665,10 +11669,10 @@
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="10" t="s">
-        <v>311</v>
+        <v>943</v>
       </c>
       <c r="L254" s="10" t="s">
-        <v>424</v>
+        <v>943</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -11676,7 +11680,7 @@
         <v>8</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>815</v>
@@ -11685,10 +11689,10 @@
         <v>805</v>
       </c>
       <c r="E255" s="12">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F255" s="11" t="s">
-        <v>23</v>
+        <v>308</v>
       </c>
       <c r="G255" s="11" t="b">
         <v>0</v>
@@ -11696,11 +11700,11 @@
       <c r="H255" s="10"/>
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
-      <c r="K255" s="9" t="s">
-        <v>140</v>
+      <c r="K255" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="L255" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -11708,7 +11712,7 @@
         <v>8</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>577</v>
+        <v>25</v>
       </c>
       <c r="C256" s="9" t="s">
         <v>815</v>
@@ -11717,10 +11721,10 @@
         <v>805</v>
       </c>
       <c r="E256" s="12">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>574</v>
+        <v>23</v>
       </c>
       <c r="G256" s="11" t="b">
         <v>0</v>
@@ -11728,11 +11732,11 @@
       <c r="H256" s="10"/>
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
-      <c r="K256" s="10" t="s">
-        <v>578</v>
+      <c r="K256" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="L256" s="10" t="s">
-        <v>579</v>
+        <v>425</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -11740,7 +11744,7 @@
         <v>8</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>294</v>
+        <v>577</v>
       </c>
       <c r="C257" s="9" t="s">
         <v>815</v>
@@ -11749,22 +11753,22 @@
         <v>805</v>
       </c>
       <c r="E257" s="12">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>21</v>
+        <v>574</v>
       </c>
       <c r="G257" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
       <c r="J257" s="10"/>
       <c r="K257" s="10" t="s">
-        <v>295</v>
+        <v>578</v>
       </c>
       <c r="L257" s="10" t="s">
-        <v>296</v>
+        <v>579</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -11772,7 +11776,7 @@
         <v>8</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>823</v>
+        <v>294</v>
       </c>
       <c r="C258" s="9" t="s">
         <v>815</v>
@@ -11781,22 +11785,22 @@
         <v>805</v>
       </c>
       <c r="E258" s="12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F258" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G258" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258" s="10"/>
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
       <c r="K258" s="10" t="s">
-        <v>824</v>
+        <v>295</v>
       </c>
       <c r="L258" s="10" t="s">
-        <v>824</v>
+        <v>296</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -11804,7 +11808,7 @@
         <v>8</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>573</v>
+        <v>823</v>
       </c>
       <c r="C259" s="9" t="s">
         <v>815</v>
@@ -11816,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="F259" s="11" t="s">
-        <v>574</v>
+        <v>21</v>
       </c>
       <c r="G259" s="11" t="b">
         <v>0</v>
@@ -11825,10 +11829,10 @@
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
       <c r="K259" s="10" t="s">
-        <v>575</v>
+        <v>824</v>
       </c>
       <c r="L259" s="10" t="s">
-        <v>576</v>
+        <v>824</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -11836,7 +11840,7 @@
         <v>8</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>911</v>
+        <v>573</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>815</v>
@@ -11857,10 +11861,10 @@
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
       <c r="K260" s="10" t="s">
-        <v>912</v>
+        <v>575</v>
       </c>
       <c r="L260" s="10" t="s">
-        <v>913</v>
+        <v>576</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -11868,7 +11872,7 @@
         <v>8</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="C261" s="9" t="s">
         <v>815</v>
@@ -11880,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>23</v>
+        <v>574</v>
       </c>
       <c r="G261" s="11" t="b">
         <v>0</v>
@@ -11888,11 +11892,11 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
-      <c r="K261" s="9" t="s">
-        <v>926</v>
+      <c r="K261" s="10" t="s">
+        <v>912</v>
       </c>
       <c r="L261" s="10" t="s">
-        <v>148</v>
+        <v>913</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -11900,7 +11904,7 @@
         <v>8</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>815</v>
@@ -11921,10 +11925,10 @@
       <c r="I262" s="10"/>
       <c r="J262" s="10"/>
       <c r="K262" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L262" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
@@ -11932,7 +11936,7 @@
         <v>8</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>815</v>
@@ -11953,42 +11957,42 @@
       <c r="I263" s="10"/>
       <c r="J263" s="10"/>
       <c r="K263" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L263" s="10" t="s">
-        <v>426</v>
+        <v>149</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>19</v>
+        <v>925</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>805</v>
       </c>
       <c r="E264" s="12">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G264" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264" s="10"/>
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
-      <c r="K264" s="10" t="s">
-        <v>138</v>
+      <c r="K264" s="9" t="s">
+        <v>928</v>
       </c>
       <c r="L264" s="10" t="s">
-        <v>110</v>
+        <v>426</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -11996,7 +12000,7 @@
         <v>4</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C265" s="9" t="s">
         <v>814</v>
@@ -12005,7 +12009,7 @@
         <v>805</v>
       </c>
       <c r="E265" s="12">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="F265" s="11" t="s">
         <v>56</v>
@@ -12017,10 +12021,10 @@
       <c r="I265" s="10"/>
       <c r="J265" s="10"/>
       <c r="K265" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L265" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -12028,7 +12032,7 @@
         <v>4</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>814</v>
@@ -12037,10 +12041,10 @@
         <v>805</v>
       </c>
       <c r="E266" s="12">
-        <v>2</v>
+        <v>-180</v>
       </c>
       <c r="F266" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G266" s="11" t="b">
         <v>1</v>
@@ -12048,11 +12052,11 @@
       <c r="H266" s="10"/>
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
-      <c r="K266" s="9" t="s">
-        <v>127</v>
+      <c r="K266" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="L266" s="10" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -12060,31 +12064,31 @@
         <v>4</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>545</v>
+        <v>99</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E267" s="12" t="s">
-        <v>546</v>
+        <v>805</v>
+      </c>
+      <c r="E267" s="12">
+        <v>2</v>
       </c>
       <c r="F267" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G267" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267" s="10"/>
       <c r="I267" s="10"/>
       <c r="J267" s="10"/>
-      <c r="K267" s="10" t="s">
-        <v>547</v>
+      <c r="K267" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="L267" s="10" t="s">
-        <v>547</v>
+        <v>213</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -12092,7 +12096,7 @@
         <v>4</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>104</v>
+        <v>545</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>814</v>
@@ -12100,27 +12104,23 @@
       <c r="D268" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="E268" s="12">
-        <v>5</v>
+      <c r="E268" s="12" t="s">
+        <v>546</v>
       </c>
       <c r="F268" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G268" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I268" s="10" t="s">
-        <v>556</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" s="10"/>
+      <c r="I268" s="10"/>
       <c r="J268" s="10"/>
-      <c r="K268" s="9" t="s">
-        <v>135</v>
+      <c r="K268" s="10" t="s">
+        <v>547</v>
       </c>
       <c r="L268" s="10" t="s">
-        <v>105</v>
+        <v>547</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -12128,16 +12128,16 @@
         <v>4</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="C269" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E269" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F269" s="11" t="s">
         <v>21</v>
@@ -12145,14 +12145,18 @@
       <c r="G269" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H269" s="10"/>
-      <c r="I269" s="10"/>
+      <c r="H269" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I269" s="10" t="s">
+        <v>556</v>
+      </c>
       <c r="J269" s="10"/>
-      <c r="K269" s="10" t="s">
-        <v>193</v>
+      <c r="K269" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="L269" s="10" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -12160,7 +12164,7 @@
         <v>4</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>582</v>
+        <v>192</v>
       </c>
       <c r="C270" s="9" t="s">
         <v>814</v>
@@ -12169,7 +12173,7 @@
         <v>803</v>
       </c>
       <c r="E270" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F270" s="11" t="s">
         <v>21</v>
@@ -12181,10 +12185,10 @@
       <c r="I270" s="10"/>
       <c r="J270" s="10"/>
       <c r="K270" s="10" t="s">
-        <v>583</v>
+        <v>193</v>
       </c>
       <c r="L270" s="10" t="s">
-        <v>584</v>
+        <v>194</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -12192,19 +12196,19 @@
         <v>4</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>188</v>
+        <v>582</v>
       </c>
       <c r="C271" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E271" s="12">
-        <v>950</v>
+        <v>2</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="G271" s="11" t="b">
         <v>1</v>
@@ -12213,10 +12217,10 @@
       <c r="I271" s="10"/>
       <c r="J271" s="10"/>
       <c r="K271" s="10" t="s">
-        <v>190</v>
+        <v>583</v>
       </c>
       <c r="L271" s="10" t="s">
-        <v>191</v>
+        <v>584</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -12224,35 +12228,31 @@
         <v>4</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>521</v>
+        <v>188</v>
       </c>
       <c r="C272" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E272" s="12">
-        <v>7</v>
+        <v>950</v>
       </c>
       <c r="F272" s="11" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="G272" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H272" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I272" s="10" t="s">
-        <v>523</v>
-      </c>
+      <c r="H272" s="10"/>
+      <c r="I272" s="10"/>
       <c r="J272" s="10"/>
       <c r="K272" s="10" t="s">
-        <v>555</v>
+        <v>190</v>
       </c>
       <c r="L272" s="10" t="s">
-        <v>522</v>
+        <v>191</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -12260,16 +12260,16 @@
         <v>4</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>889</v>
+        <v>521</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="E273" s="12" t="b">
-        <v>0</v>
+        <v>804</v>
+      </c>
+      <c r="E273" s="12">
+        <v>7</v>
       </c>
       <c r="F273" s="11" t="s">
         <v>21</v>
@@ -12278,15 +12278,17 @@
         <v>1</v>
       </c>
       <c r="H273" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I273" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="I273" s="10" t="s">
+        <v>523</v>
+      </c>
       <c r="J273" s="10"/>
       <c r="K273" s="10" t="s">
-        <v>890</v>
+        <v>555</v>
       </c>
       <c r="L273" s="10" t="s">
-        <v>891</v>
+        <v>522</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -12294,7 +12296,7 @@
         <v>4</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>636</v>
+        <v>889</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>814</v>
@@ -12303,13 +12305,13 @@
         <v>806</v>
       </c>
       <c r="E274" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G274" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274" s="10" t="s">
         <v>202</v>
@@ -12317,10 +12319,10 @@
       <c r="I274" s="10"/>
       <c r="J274" s="10"/>
       <c r="K274" s="10" t="s">
-        <v>637</v>
+        <v>890</v>
       </c>
       <c r="L274" s="10" t="s">
-        <v>638</v>
+        <v>891</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -12328,7 +12330,7 @@
         <v>4</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>814</v>
@@ -12337,13 +12339,13 @@
         <v>806</v>
       </c>
       <c r="E275" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G275" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275" s="10" t="s">
         <v>202</v>
@@ -12351,10 +12353,10 @@
       <c r="I275" s="10"/>
       <c r="J275" s="10"/>
       <c r="K275" s="10" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="L275" s="10" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -12362,7 +12364,7 @@
         <v>4</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>209</v>
+        <v>612</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>814</v>
@@ -12371,13 +12373,13 @@
         <v>806</v>
       </c>
       <c r="E276" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G276" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H276" s="10" t="s">
         <v>202</v>
@@ -12385,10 +12387,10 @@
       <c r="I276" s="10"/>
       <c r="J276" s="10"/>
       <c r="K276" s="10" t="s">
-        <v>210</v>
+        <v>610</v>
       </c>
       <c r="L276" s="10" t="s">
-        <v>211</v>
+        <v>611</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
@@ -12396,7 +12398,7 @@
         <v>4</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>908</v>
+        <v>209</v>
       </c>
       <c r="C277" s="9" t="s">
         <v>814</v>
@@ -12405,13 +12407,13 @@
         <v>806</v>
       </c>
       <c r="E277" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G277" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H277" s="10" t="s">
         <v>202</v>
@@ -12419,10 +12421,10 @@
       <c r="I277" s="10"/>
       <c r="J277" s="10"/>
       <c r="K277" s="10" t="s">
-        <v>909</v>
+        <v>210</v>
       </c>
       <c r="L277" s="10" t="s">
-        <v>910</v>
+        <v>211</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -12430,27 +12432,33 @@
         <v>4</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>387</v>
+        <v>908</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="E278" s="12"/>
-      <c r="F278" s="11"/>
+        <v>806</v>
+      </c>
+      <c r="E278" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F278" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G278" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H278" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H278" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
       <c r="K278" s="10" t="s">
-        <v>388</v>
+        <v>909</v>
       </c>
       <c r="L278" s="10" t="s">
-        <v>388</v>
+        <v>910</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -12458,7 +12466,7 @@
         <v>4</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="C279" s="9" t="s">
         <v>814</v>
@@ -12466,27 +12474,19 @@
       <c r="D279" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="E279" s="12">
-        <v>0</v>
-      </c>
-      <c r="F279" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="E279" s="12"/>
+      <c r="F279" s="11"/>
       <c r="G279" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H279" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I279" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="H279" s="10"/>
+      <c r="I279" s="10"/>
       <c r="J279" s="10"/>
-      <c r="K279" s="9" t="s">
-        <v>133</v>
+      <c r="K279" s="10" t="s">
+        <v>388</v>
       </c>
       <c r="L279" s="10" t="s">
-        <v>65</v>
+        <v>388</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
@@ -12494,31 +12494,35 @@
         <v>4</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="C280" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E280" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F280" s="11" t="s">
-        <v>625</v>
+        <v>21</v>
       </c>
       <c r="G280" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" s="10"/>
-      <c r="I280" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H280" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I280" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="J280" s="10"/>
-      <c r="K280" s="10" t="s">
-        <v>627</v>
+      <c r="K280" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="L280" s="10" t="s">
-        <v>632</v>
+        <v>65</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -12526,7 +12530,7 @@
         <v>4</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>814</v>
@@ -12547,10 +12551,10 @@
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
       <c r="K281" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L281" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -12558,7 +12562,7 @@
         <v>4</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>814</v>
@@ -12567,7 +12571,7 @@
         <v>805</v>
       </c>
       <c r="E282" s="12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F282" s="11" t="s">
         <v>625</v>
@@ -12579,10 +12583,10 @@
       <c r="I282" s="10"/>
       <c r="J282" s="10"/>
       <c r="K282" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="L282" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -12590,7 +12594,7 @@
         <v>4</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>814</v>
@@ -12611,10 +12615,10 @@
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
       <c r="K283" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L283" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -12622,7 +12626,7 @@
         <v>4</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>814</v>
@@ -12631,10 +12635,10 @@
         <v>805</v>
       </c>
       <c r="E284" s="12">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>21</v>
+        <v>625</v>
       </c>
       <c r="G284" s="11" t="b">
         <v>1</v>
@@ -12643,10 +12647,10 @@
       <c r="I284" s="10"/>
       <c r="J284" s="10"/>
       <c r="K284" s="10" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="L284" s="10" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -12654,7 +12658,7 @@
         <v>4</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>5</v>
+        <v>613</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>814</v>
@@ -12663,10 +12667,10 @@
         <v>805</v>
       </c>
       <c r="E285" s="12">
-        <v>670</v>
+        <v>0.03</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="G285" s="11" t="b">
         <v>1</v>
@@ -12674,11 +12678,11 @@
       <c r="H285" s="10"/>
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
-      <c r="K285" s="9" t="s">
-        <v>126</v>
+      <c r="K285" s="10" t="s">
+        <v>614</v>
       </c>
       <c r="L285" s="10" t="s">
-        <v>64</v>
+        <v>615</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -12686,35 +12690,31 @@
         <v>4</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E286" s="12">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="F286" s="11" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="G286" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H286" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I286" s="10" t="s">
-        <v>785</v>
-      </c>
+      <c r="H286" s="10"/>
+      <c r="I286" s="10"/>
       <c r="J286" s="10"/>
       <c r="K286" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L286" s="10" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -12722,16 +12722,16 @@
         <v>4</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>531</v>
+        <v>100</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E287" s="12">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F287" s="11" t="s">
         <v>21</v>
@@ -12739,14 +12739,18 @@
       <c r="G287" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H287" s="10"/>
-      <c r="I287" s="10"/>
+      <c r="H287" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I287" s="10" t="s">
+        <v>785</v>
+      </c>
       <c r="J287" s="10"/>
-      <c r="K287" s="10" t="s">
-        <v>535</v>
+      <c r="K287" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="L287" s="10" t="s">
-        <v>538</v>
+        <v>101</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -12754,7 +12758,7 @@
         <v>4</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>814</v>
@@ -12775,10 +12779,10 @@
       <c r="I288" s="10"/>
       <c r="J288" s="10"/>
       <c r="K288" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L288" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -12786,7 +12790,7 @@
         <v>4</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>14</v>
+        <v>532</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>814</v>
@@ -12795,22 +12799,22 @@
         <v>805</v>
       </c>
       <c r="E289" s="12">
-        <v>195</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G289" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289" s="10"/>
       <c r="I289" s="10"/>
       <c r="J289" s="10"/>
-      <c r="K289" s="9" t="s">
-        <v>137</v>
+      <c r="K289" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="L289" s="10" t="s">
-        <v>68</v>
+        <v>539</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -12818,7 +12822,7 @@
         <v>4</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C290" s="9" t="s">
         <v>814</v>
@@ -12827,7 +12831,7 @@
         <v>805</v>
       </c>
       <c r="E290" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="F290" s="11" t="s">
         <v>23</v>
@@ -12839,10 +12843,10 @@
       <c r="I290" s="10"/>
       <c r="J290" s="10"/>
       <c r="K290" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L290" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -12850,7 +12854,7 @@
         <v>4</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>892</v>
+        <v>13</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>814</v>
@@ -12859,22 +12863,22 @@
         <v>805</v>
       </c>
       <c r="E291" s="12">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="F291" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G291" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
       <c r="J291" s="10"/>
-      <c r="K291" s="10" t="s">
-        <v>893</v>
+      <c r="K291" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="L291" s="10" t="s">
-        <v>893</v>
+        <v>67</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -12882,7 +12886,7 @@
         <v>4</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>97</v>
+        <v>892</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>814</v>
@@ -12891,7 +12895,7 @@
         <v>805</v>
       </c>
       <c r="E292" s="12">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="F292" s="11" t="s">
         <v>21</v>
@@ -12902,11 +12906,11 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
       <c r="J292" s="10"/>
-      <c r="K292" s="9" t="s">
-        <v>128</v>
+      <c r="K292" s="10" t="s">
+        <v>893</v>
       </c>
       <c r="L292" s="10" t="s">
-        <v>98</v>
+        <v>893</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -12914,7 +12918,7 @@
         <v>4</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>853</v>
+        <v>97</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>814</v>
@@ -12923,10 +12927,10 @@
         <v>805</v>
       </c>
       <c r="E293" s="12">
-        <v>180</v>
+        <v>1.33</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G293" s="11" t="b">
         <v>1</v>
@@ -12934,11 +12938,11 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
       <c r="J293" s="10"/>
-      <c r="K293" s="10" t="s">
-        <v>856</v>
+      <c r="K293" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="L293" s="10" t="s">
-        <v>500</v>
+        <v>98</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -12946,7 +12950,7 @@
         <v>4</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>814</v>
@@ -12955,7 +12959,7 @@
         <v>805</v>
       </c>
       <c r="E294" s="12">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F294" s="11" t="s">
         <v>56</v>
@@ -12967,10 +12971,10 @@
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
       <c r="K294" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L294" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -12978,35 +12982,31 @@
         <v>4</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>497</v>
+        <v>854</v>
       </c>
       <c r="C295" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E295" s="12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G295" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H295" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I295" s="10" t="s">
-        <v>520</v>
-      </c>
+      <c r="H295" s="10"/>
+      <c r="I295" s="10"/>
       <c r="J295" s="10"/>
       <c r="K295" s="10" t="s">
-        <v>498</v>
+        <v>857</v>
       </c>
       <c r="L295" s="10" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -13014,7 +13014,7 @@
         <v>4</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>773</v>
+        <v>497</v>
       </c>
       <c r="C296" s="9" t="s">
         <v>814</v>
@@ -13034,13 +13034,15 @@
       <c r="H296" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="I296" s="10"/>
+      <c r="I296" s="10" t="s">
+        <v>520</v>
+      </c>
       <c r="J296" s="10"/>
       <c r="K296" s="10" t="s">
-        <v>774</v>
+        <v>498</v>
       </c>
       <c r="L296" s="10" t="s">
-        <v>775</v>
+        <v>499</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
@@ -13048,7 +13050,7 @@
         <v>4</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>269</v>
+        <v>773</v>
       </c>
       <c r="C297" s="9" t="s">
         <v>814</v>
@@ -13059,22 +13061,22 @@
       <c r="E297" s="12">
         <v>0</v>
       </c>
-      <c r="F297" s="11"/>
+      <c r="F297" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G297" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H297" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="I297" s="10" t="s">
-        <v>271</v>
-      </c>
+      <c r="I297" s="10"/>
       <c r="J297" s="10"/>
       <c r="K297" s="10" t="s">
-        <v>270</v>
+        <v>774</v>
       </c>
       <c r="L297" s="10" t="s">
-        <v>284</v>
+        <v>775</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
@@ -13082,31 +13084,33 @@
         <v>4</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="C298" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E298" s="12">
-        <v>195</v>
-      </c>
-      <c r="F298" s="11" t="s">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F298" s="11"/>
       <c r="G298" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H298" s="10"/>
-      <c r="I298" s="10"/>
+      <c r="H298" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I298" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="J298" s="10"/>
-      <c r="K298" s="9" t="s">
-        <v>285</v>
+      <c r="K298" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="L298" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -13114,7 +13118,7 @@
         <v>4</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>786</v>
+        <v>9</v>
       </c>
       <c r="C299" s="9" t="s">
         <v>814</v>
@@ -13123,10 +13127,10 @@
         <v>805</v>
       </c>
       <c r="E299" s="12">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G299" s="11" t="b">
         <v>1</v>
@@ -13134,11 +13138,11 @@
       <c r="H299" s="10"/>
       <c r="I299" s="10"/>
       <c r="J299" s="10"/>
-      <c r="K299" s="10" t="s">
-        <v>787</v>
+      <c r="K299" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="L299" s="10" t="s">
-        <v>788</v>
+        <v>286</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
@@ -13146,33 +13150,31 @@
         <v>4</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>533</v>
+        <v>786</v>
       </c>
       <c r="C300" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E300" s="12">
-        <v>0</v>
-      </c>
-      <c r="F300" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="F300" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G300" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H300" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I300" s="10" t="s">
-        <v>534</v>
-      </c>
+      <c r="H300" s="10"/>
+      <c r="I300" s="10"/>
       <c r="J300" s="10"/>
       <c r="K300" s="10" t="s">
-        <v>537</v>
+        <v>787</v>
       </c>
       <c r="L300" s="10" t="s">
-        <v>540</v>
+        <v>788</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
@@ -13180,31 +13182,33 @@
         <v>4</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C301" s="9" t="s">
         <v>814</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E301" s="12">
-        <v>1</v>
-      </c>
-      <c r="F301" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F301" s="11"/>
       <c r="G301" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H301" s="10"/>
-      <c r="I301" s="10"/>
+      <c r="H301" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I301" s="10" t="s">
+        <v>534</v>
+      </c>
       <c r="J301" s="10"/>
       <c r="K301" s="10" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L301" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -13212,7 +13216,7 @@
         <v>4</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>620</v>
+        <v>541</v>
       </c>
       <c r="C302" s="9" t="s">
         <v>814</v>
@@ -13221,7 +13225,7 @@
         <v>805</v>
       </c>
       <c r="E302" s="12">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="F302" s="11" t="s">
         <v>21</v>
@@ -13233,10 +13237,10 @@
       <c r="I302" s="10"/>
       <c r="J302" s="10"/>
       <c r="K302" s="10" t="s">
-        <v>630</v>
+        <v>542</v>
       </c>
       <c r="L302" s="10" t="s">
-        <v>635</v>
+        <v>543</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
@@ -13244,7 +13248,7 @@
         <v>4</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>901</v>
+        <v>620</v>
       </c>
       <c r="C303" s="9" t="s">
         <v>814</v>
@@ -13253,10 +13257,10 @@
         <v>805</v>
       </c>
       <c r="E303" s="12">
-        <v>100</v>
+        <v>1E-3</v>
       </c>
       <c r="F303" s="11" t="s">
-        <v>904</v>
+        <v>21</v>
       </c>
       <c r="G303" s="11" t="b">
         <v>1</v>
@@ -13265,10 +13269,10 @@
       <c r="I303" s="10"/>
       <c r="J303" s="10"/>
       <c r="K303" s="10" t="s">
-        <v>903</v>
+        <v>630</v>
       </c>
       <c r="L303" s="10" t="s">
-        <v>902</v>
+        <v>635</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
@@ -13276,31 +13280,31 @@
         <v>4</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>827</v>
+        <v>901</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>805</v>
       </c>
       <c r="E304" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F304" s="11" t="s">
-        <v>308</v>
+        <v>904</v>
       </c>
       <c r="G304" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H304" s="10"/>
       <c r="I304" s="10"/>
       <c r="J304" s="10"/>
       <c r="K304" s="10" t="s">
-        <v>830</v>
+        <v>903</v>
       </c>
       <c r="L304" s="10" t="s">
-        <v>831</v>
+        <v>902</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
@@ -13308,7 +13312,7 @@
         <v>4</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C305" s="9" t="s">
         <v>815</v>
@@ -13329,10 +13333,10 @@
       <c r="I305" s="10"/>
       <c r="J305" s="10"/>
       <c r="K305" s="10" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="L305" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -13340,17 +13344,19 @@
         <v>4</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>389</v>
+        <v>826</v>
       </c>
       <c r="C306" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="E306" s="12"/>
+        <v>805</v>
+      </c>
+      <c r="E306" s="12">
+        <v>0</v>
+      </c>
       <c r="F306" s="11" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="G306" s="11" t="b">
         <v>0</v>
@@ -13359,10 +13365,10 @@
       <c r="I306" s="10"/>
       <c r="J306" s="10"/>
       <c r="K306" s="10" t="s">
-        <v>390</v>
+        <v>800</v>
       </c>
       <c r="L306" s="10" t="s">
-        <v>390</v>
+        <v>832</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
@@ -13370,19 +13376,17 @@
         <v>4</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>855</v>
+        <v>389</v>
       </c>
       <c r="C307" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E307" s="12">
-        <v>0</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="E307" s="12"/>
       <c r="F307" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G307" s="11" t="b">
         <v>0</v>
@@ -13391,10 +13395,10 @@
       <c r="I307" s="10"/>
       <c r="J307" s="10"/>
       <c r="K307" s="10" t="s">
-        <v>858</v>
+        <v>390</v>
       </c>
       <c r="L307" s="10" t="s">
-        <v>858</v>
+        <v>390</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
@@ -13402,7 +13406,7 @@
         <v>4</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C308" s="9" t="s">
         <v>815</v>
@@ -13423,9 +13427,41 @@
       <c r="I308" s="10"/>
       <c r="J308" s="10"/>
       <c r="K308" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="L308" s="10" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A309" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E309" s="12">
+        <v>0</v>
+      </c>
+      <c r="F309" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G309" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H309" s="10"/>
+      <c r="I309" s="10"/>
+      <c r="J309" s="10"/>
+      <c r="K309" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="L308" s="10" t="s">
+      <c r="L309" s="10" t="s">
         <v>859</v>
       </c>
     </row>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D193B1DB-AD7A-45FE-8192-2B5D9758AD41}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE9834E-415A-46D6-9701-802C76B9C6DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="8220" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3443,8 +3443,8 @@
   <dimension ref="A1:L309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B254" sqref="B254"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10483,7 +10483,7 @@
         <v>805</v>
       </c>
       <c r="E218" s="12">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="F218" s="11" t="s">
         <v>56</v>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwagner\Documents\NREL\projects\SolarPILOT\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306FD867-83C4-4DC6-A899-353C2ACCB27B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F710233C-F53C-499A-9CC6-0218DB7AD1AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="954">
   <si>
     <t>Domain</t>
   </si>
@@ -2884,6 +2884,15 @@
   </si>
   <si>
     <t>Calculated design-point solar elevation</t>
+  </si>
+  <si>
+    <t>multi_rec_aim_rand</t>
+  </si>
+  <si>
+    <t>Multi-receiver aimpoint randomization</t>
+  </si>
+  <si>
+    <t>Factor from 0-1 indicating extent of random sampling in assigning heliostats to receivers. 1=completely random.</t>
   </si>
 </sst>
 </file>
@@ -2987,8 +2996,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L311" totalsRowShown="0">
-  <autoFilter ref="A1:L311" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L312" totalsRowShown="0">
+  <autoFilter ref="A1:L312" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="String name"/>
@@ -3304,11 +3313,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L311"/>
+  <dimension ref="A1:L312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I199" sqref="I199"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="A2:L312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6556,32 +6565,31 @@
         <v>190</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>328</v>
+        <v>951</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E98" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G98" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10" t="s">
-        <v>329</v>
+        <v>952</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>250</v>
+        <v>953</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -6589,7 +6597,7 @@
         <v>190</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>90</v>
@@ -6598,7 +6606,7 @@
         <v>30</v>
       </c>
       <c r="E99" s="1">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>51</v>
@@ -6611,43 +6619,43 @@
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="E100" s="1">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>334</v>
+        <v>51</v>
       </c>
       <c r="G100" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
-      <c r="K100" s="9" t="s">
-        <v>335</v>
+      <c r="K100" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>336</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -6655,19 +6663,19 @@
         <v>332</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="G101" s="11" t="b">
         <f>TRUE()</f>
@@ -6677,10 +6685,10 @@
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
       <c r="K101" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -6688,36 +6696,32 @@
         <v>332</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="G102" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H102" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>341</v>
-      </c>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -6725,16 +6729,16 @@
         <v>332</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E103" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
         <v>17</v>
@@ -6743,14 +6747,18 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
+      <c r="H103" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>341</v>
+      </c>
       <c r="J103" s="10"/>
-      <c r="K103" s="10" t="s">
-        <v>345</v>
+      <c r="K103" s="9" t="s">
+        <v>342</v>
       </c>
       <c r="L103" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -6758,7 +6766,7 @@
         <v>332</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>14</v>
@@ -6767,7 +6775,7 @@
         <v>30</v>
       </c>
       <c r="E104" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>17</v>
@@ -6780,10 +6788,10 @@
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
       <c r="K104" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -6791,7 +6799,7 @@
         <v>332</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>14</v>
@@ -6813,10 +6821,10 @@
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -6824,7 +6832,7 @@
         <v>332</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>14</v>
@@ -6833,7 +6841,7 @@
         <v>30</v>
       </c>
       <c r="E106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>17</v>
@@ -6846,10 +6854,10 @@
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
       <c r="K106" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -6857,7 +6865,7 @@
         <v>332</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>14</v>
@@ -6866,10 +6874,10 @@
         <v>30</v>
       </c>
       <c r="E107" s="1">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G107" s="11" t="b">
         <f>TRUE()</f>
@@ -6879,10 +6887,10 @@
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -6890,32 +6898,32 @@
         <v>332</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>358</v>
+        <v>30</v>
       </c>
       <c r="E108" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G108" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6923,16 +6931,16 @@
         <v>332</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>26</v>
+        <v>357</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>17</v>
@@ -6945,10 +6953,10 @@
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10" t="s">
-        <v>28</v>
+        <v>359</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>28</v>
+        <v>359</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -6956,32 +6964,32 @@
         <v>332</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>361</v>
+        <v>26</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E110" s="1">
-        <v>13.77</v>
+        <v>21</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G110" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10" t="s">
-        <v>362</v>
+        <v>28</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>363</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -6989,7 +6997,7 @@
         <v>332</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>14</v>
@@ -6998,10 +7006,10 @@
         <v>30</v>
       </c>
       <c r="E111" s="1">
-        <v>0</v>
+        <v>13.77</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>365</v>
+        <v>43</v>
       </c>
       <c r="G111" s="11" t="b">
         <f>TRUE()</f>
@@ -7010,11 +7018,11 @@
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
-      <c r="K111" s="9" t="s">
-        <v>366</v>
+      <c r="K111" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="L111" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -7022,7 +7030,7 @@
         <v>332</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>14</v>
@@ -7044,10 +7052,10 @@
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
       <c r="K112" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -7055,7 +7063,7 @@
         <v>332</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>14</v>
@@ -7064,7 +7072,7 @@
         <v>30</v>
       </c>
       <c r="E113" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>365</v>
@@ -7077,10 +7085,10 @@
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -7088,7 +7096,7 @@
         <v>332</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>14</v>
@@ -7110,10 +7118,10 @@
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
       <c r="K114" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -7121,7 +7129,7 @@
         <v>332</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>14</v>
@@ -7130,7 +7138,7 @@
         <v>30</v>
       </c>
       <c r="E115" s="1">
-        <v>1.5299999999999999E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>365</v>
@@ -7143,10 +7151,10 @@
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L115" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -7154,7 +7162,7 @@
         <v>332</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>14</v>
@@ -7176,10 +7184,10 @@
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
       <c r="K116" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -7187,36 +7195,32 @@
         <v>332</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E117" s="1">
-        <v>0</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>17</v>
+        <v>365</v>
       </c>
       <c r="G117" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H117" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I117" s="10" t="s">
-        <v>384</v>
-      </c>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
       <c r="J117" s="10"/>
-      <c r="K117" s="10" t="s">
-        <v>385</v>
+      <c r="K117" s="9" t="s">
+        <v>381</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -7224,7 +7228,7 @@
         <v>332</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>14</v>
@@ -7233,7 +7237,7 @@
         <v>21</v>
       </c>
       <c r="E118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>17</v>
@@ -7246,14 +7250,14 @@
         <v>22</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J118" s="10"/>
-      <c r="K118" s="9" t="s">
-        <v>389</v>
+      <c r="K118" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -7261,32 +7265,36 @@
         <v>332</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E119" s="1">
-        <v>12.2</v>
+        <v>1</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G119" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
+      <c r="H119" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>388</v>
+      </c>
       <c r="J119" s="10"/>
       <c r="K119" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -7294,30 +7302,32 @@
         <v>332</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F120" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="E120" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="G120" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
-      <c r="K120" s="10" t="s">
-        <v>396</v>
+      <c r="K120" s="9" t="s">
+        <v>392</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -7325,20 +7335,18 @@
         <v>332</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E121" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>17</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F121" s="11"/>
       <c r="G121" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -7346,11 +7354,11 @@
       <c r="H121" s="10"/>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
-      <c r="K121" s="9" t="s">
-        <v>397</v>
+      <c r="K121" s="10" t="s">
+        <v>396</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -7358,33 +7366,32 @@
         <v>332</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E122" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F122" s="11"/>
+        <v>228</v>
+      </c>
+      <c r="E122" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G122" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H122" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="H122" s="10"/>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
-      <c r="K122" s="10" t="s">
-        <v>400</v>
+      <c r="K122" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -7392,7 +7399,7 @@
         <v>332</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>14</v>
@@ -7401,12 +7408,10 @@
         <v>111</v>
       </c>
       <c r="E123" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>17</v>
-      </c>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F123" s="11"/>
       <c r="G123" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -7417,10 +7422,10 @@
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
       <c r="K123" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -7428,7 +7433,7 @@
         <v>332</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>14</v>
@@ -7437,22 +7442,26 @@
         <v>111</v>
       </c>
       <c r="E124" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F124" s="11"/>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G124" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H124" s="10"/>
+      <c r="H124" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
       <c r="K124" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -7460,7 +7469,7 @@
         <v>332</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>14</v>
@@ -7472,23 +7481,19 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F125" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F125" s="11"/>
       <c r="G125" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H125" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="H125" s="10"/>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
       <c r="K125" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -7496,7 +7501,7 @@
         <v>332</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>14</v>
@@ -7521,10 +7526,10 @@
       <c r="I126" s="10"/>
       <c r="J126" s="10"/>
       <c r="K126" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -7532,16 +7537,17 @@
         <v>332</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="E127" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>17</v>
@@ -7551,17 +7557,15 @@
         <v>0</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I127" s="10" t="s">
-        <v>414</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="I127" s="10"/>
       <c r="J127" s="10"/>
-      <c r="K127" s="9" t="s">
-        <v>415</v>
+      <c r="K127" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -7569,17 +7573,16 @@
         <v>332</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E128" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
       </c>
       <c r="F128" s="11" t="s">
         <v>17</v>
@@ -7589,15 +7592,17 @@
         <v>0</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I128" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>414</v>
+      </c>
       <c r="J128" s="10"/>
       <c r="K128" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L128" s="10" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -7605,7 +7610,7 @@
         <v>332</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>14</v>
@@ -7630,10 +7635,10 @@
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
       <c r="K129" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -7641,30 +7646,35 @@
         <v>332</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E130" s="1">
-        <v>2</v>
-      </c>
-      <c r="F130" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="E130" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G130" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H130" s="10"/>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
       <c r="K130" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L130" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -7672,7 +7682,7 @@
         <v>332</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>14</v>
@@ -7681,7 +7691,7 @@
         <v>228</v>
       </c>
       <c r="E131" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F131" s="11"/>
       <c r="G131" s="11" t="b">
@@ -7692,10 +7702,10 @@
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
       <c r="K131" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -7703,20 +7713,18 @@
         <v>332</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E132" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>17</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F132" s="11"/>
       <c r="G132" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -7725,10 +7733,10 @@
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
       <c r="K132" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L132" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -7736,7 +7744,7 @@
         <v>332</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>14</v>
@@ -7745,7 +7753,7 @@
         <v>30</v>
       </c>
       <c r="E133" s="1">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>17</v>
@@ -7758,10 +7766,10 @@
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
       <c r="K133" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L133" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -7769,7 +7777,7 @@
         <v>332</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>14</v>
@@ -7778,23 +7786,23 @@
         <v>30</v>
       </c>
       <c r="E134" s="1">
-        <v>1000</v>
+        <v>0.95</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>436</v>
+        <v>17</v>
       </c>
       <c r="G134" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
       <c r="J134" s="10"/>
       <c r="K134" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L134" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -7802,7 +7810,7 @@
         <v>332</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>14</v>
@@ -7824,10 +7832,10 @@
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
       <c r="K135" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L135" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -7835,7 +7843,7 @@
         <v>332</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>14</v>
@@ -7844,23 +7852,23 @@
         <v>30</v>
       </c>
       <c r="E136" s="1">
-        <v>0.95</v>
+        <v>1000</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>17</v>
+        <v>436</v>
       </c>
       <c r="G136" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
       <c r="K136" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L136" s="10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -7868,7 +7876,7 @@
         <v>332</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>14</v>
@@ -7877,23 +7885,23 @@
         <v>30</v>
       </c>
       <c r="E137" s="1">
-        <v>180</v>
+        <v>0.95</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G137" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H137" s="10"/>
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
-      <c r="K137" s="10" t="s">
-        <v>444</v>
+      <c r="K137" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -7901,7 +7909,7 @@
         <v>332</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>14</v>
@@ -7910,7 +7918,7 @@
         <v>30</v>
       </c>
       <c r="E138" s="1">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>51</v>
@@ -7923,10 +7931,10 @@
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
       <c r="K138" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L138" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -7934,7 +7942,7 @@
         <v>332</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>14</v>
@@ -7943,10 +7951,10 @@
         <v>30</v>
       </c>
       <c r="E139" s="1">
-        <v>10</v>
+        <v>-180</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G139" s="11" t="b">
         <f>FALSE()</f>
@@ -7956,10 +7964,10 @@
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
       <c r="K139" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L139" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -7967,7 +7975,7 @@
         <v>332</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>14</v>
@@ -7976,7 +7984,7 @@
         <v>30</v>
       </c>
       <c r="E140" s="1">
-        <v>0.75</v>
+        <v>10</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>17</v>
@@ -7989,10 +7997,10 @@
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
       <c r="K140" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -8000,16 +8008,16 @@
         <v>332</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="E141" s="1">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="F141" s="11" t="s">
         <v>17</v>
@@ -8021,11 +8029,11 @@
       <c r="H141" s="10"/>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
-      <c r="K141" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="L141" s="9" t="s">
-        <v>455</v>
+      <c r="K141" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="L141" s="10" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -8033,38 +8041,32 @@
         <v>332</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="E142" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F142" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G142" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H142" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I142" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="J142" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="K142" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="L142" s="10" t="s">
-        <v>459</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -8072,34 +8074,38 @@
         <v>332</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E143" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G143" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
+      <c r="H143" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I143" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="J143" s="10" t="s">
         <v>274</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -8107,30 +8113,34 @@
         <v>332</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="E144" s="1">
-        <v>0</v>
-      </c>
-      <c r="F144" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="G144" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
-      <c r="K144" s="9" t="s">
-        <v>463</v>
+      <c r="J144" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="K144" s="10" t="s">
+        <v>461</v>
       </c>
       <c r="L144" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -8138,32 +8148,30 @@
         <v>332</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E145" s="1">
-        <v>12.2</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F145" s="11"/>
       <c r="G145" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H145" s="10"/>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
       <c r="K145" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L145" s="10" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -8171,7 +8179,7 @@
         <v>332</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>14</v>
@@ -8180,7 +8188,7 @@
         <v>30</v>
       </c>
       <c r="E146" s="1">
-        <v>1000</v>
+        <v>12.2</v>
       </c>
       <c r="F146" s="11" t="s">
         <v>43</v>
@@ -8193,10 +8201,10 @@
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
       <c r="K146" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L146" s="10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -8204,7 +8212,7 @@
         <v>332</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>14</v>
@@ -8213,7 +8221,7 @@
         <v>30</v>
       </c>
       <c r="E147" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F147" s="11" t="s">
         <v>43</v>
@@ -8226,10 +8234,10 @@
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
       <c r="K147" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L147" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -8237,7 +8245,7 @@
         <v>332</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>14</v>
@@ -8246,7 +8254,7 @@
         <v>30</v>
       </c>
       <c r="E148" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F148" s="11" t="s">
         <v>43</v>
@@ -8259,10 +8267,10 @@
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
       <c r="K148" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L148" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -8270,7 +8278,7 @@
         <v>332</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>14</v>
@@ -8279,7 +8287,7 @@
         <v>30</v>
       </c>
       <c r="E149" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F149" s="11" t="s">
         <v>43</v>
@@ -8292,10 +8300,10 @@
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
       <c r="K149" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L149" s="10" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -8303,10 +8311,10 @@
         <v>332</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>30</v>
@@ -8315,20 +8323,20 @@
         <v>0</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="G150" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H150" s="10"/>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
-      <c r="K150" s="10" t="s">
-        <v>481</v>
+      <c r="K150" s="9" t="s">
+        <v>478</v>
       </c>
       <c r="L150" s="10" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -8336,7 +8344,7 @@
         <v>332</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>90</v>
@@ -8348,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="G151" s="11" t="b">
         <f>FALSE()</f>
@@ -8358,10 +8366,10 @@
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
       <c r="K151" s="10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L151" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -8369,7 +8377,7 @@
         <v>332</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>90</v>
@@ -8391,10 +8399,10 @@
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
       <c r="K152" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L152" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -8402,7 +8410,7 @@
         <v>332</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>90</v>
@@ -8424,10 +8432,10 @@
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
       <c r="K153" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L153" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -8435,7 +8443,7 @@
         <v>332</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>90</v>
@@ -8457,10 +8465,10 @@
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
       <c r="K154" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L154" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -8468,7 +8476,7 @@
         <v>332</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>90</v>
@@ -8490,10 +8498,10 @@
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
       <c r="K155" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L155" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -8501,7 +8509,7 @@
         <v>332</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>90</v>
@@ -8523,10 +8531,10 @@
       <c r="I156" s="10"/>
       <c r="J156" s="10"/>
       <c r="K156" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L156" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -8534,7 +8542,7 @@
         <v>332</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>90</v>
@@ -8543,10 +8551,10 @@
         <v>30</v>
       </c>
       <c r="E157" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G157" s="11" t="b">
         <f>FALSE()</f>
@@ -8555,11 +8563,11 @@
       <c r="H157" s="10"/>
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
-      <c r="K157" s="9" t="s">
-        <v>496</v>
+      <c r="K157" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -8567,7 +8575,7 @@
         <v>332</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>90</v>
@@ -8576,10 +8584,10 @@
         <v>30</v>
       </c>
       <c r="E158" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G158" s="11" t="b">
         <f>FALSE()</f>
@@ -8588,11 +8596,11 @@
       <c r="H158" s="10"/>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
-      <c r="K158" s="10" t="s">
-        <v>499</v>
+      <c r="K158" s="9" t="s">
+        <v>496</v>
       </c>
       <c r="L158" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -8600,7 +8608,7 @@
         <v>332</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>90</v>
@@ -8622,10 +8630,10 @@
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
       <c r="K159" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L159" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -8633,7 +8641,7 @@
         <v>332</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C160" s="9" t="s">
         <v>90</v>
@@ -8645,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>365</v>
+        <v>51</v>
       </c>
       <c r="G160" s="11" t="b">
         <f>FALSE()</f>
@@ -8655,10 +8663,10 @@
       <c r="I160" s="10"/>
       <c r="J160" s="10"/>
       <c r="K160" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L160" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -8666,7 +8674,7 @@
         <v>332</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>90</v>
@@ -8678,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>43</v>
+        <v>365</v>
       </c>
       <c r="G161" s="11" t="b">
         <f>FALSE()</f>
@@ -8687,11 +8695,11 @@
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
       <c r="J161" s="10"/>
-      <c r="K161" s="9" t="s">
-        <v>508</v>
+      <c r="K161" s="10" t="s">
+        <v>505</v>
       </c>
       <c r="L161" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -8699,7 +8707,7 @@
         <v>332</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>90</v>
@@ -8711,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G162" s="11" t="b">
         <f>FALSE()</f>
@@ -8720,28 +8728,28 @@
       <c r="H162" s="10"/>
       <c r="I162" s="10"/>
       <c r="J162" s="10"/>
-      <c r="K162" s="10" t="s">
-        <v>511</v>
+      <c r="K162" s="9" t="s">
+        <v>508</v>
       </c>
       <c r="L162" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>513</v>
+        <v>332</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>26</v>
+        <v>510</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>514</v>
+        <v>30</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
       </c>
       <c r="F163" s="11" t="s">
         <v>17</v>
@@ -8754,10 +8762,10 @@
       <c r="I163" s="10"/>
       <c r="J163" s="10"/>
       <c r="K163" s="10" t="s">
-        <v>28</v>
+        <v>511</v>
       </c>
       <c r="L163" s="10" t="s">
-        <v>28</v>
+        <v>512</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -8765,15 +8773,20 @@
         <v>513</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>515</v>
+        <v>26</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="F164" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G164" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -8782,10 +8795,10 @@
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
       <c r="K164" s="10" t="s">
-        <v>515</v>
+        <v>28</v>
       </c>
       <c r="L164" s="10" t="s">
-        <v>517</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -8793,20 +8806,15 @@
         <v>513</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E165" s="1">
-        <v>0</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>51</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="F165" s="11"/>
       <c r="G165" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -8815,10 +8823,10 @@
       <c r="I165" s="10"/>
       <c r="J165" s="10"/>
       <c r="K165" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L165" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -8826,7 +8834,7 @@
         <v>513</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>14</v>
@@ -8848,10 +8856,10 @@
       <c r="I166" s="10"/>
       <c r="J166" s="10"/>
       <c r="K166" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L166" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -8859,20 +8867,19 @@
         <v>513</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E167" s="1" t="b">
-        <f>FALSE()</f>
+        <v>30</v>
+      </c>
+      <c r="E167" s="1">
         <v>0</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G167" s="11" t="b">
         <f>FALSE()</f>
@@ -8882,10 +8889,10 @@
       <c r="I167" s="10"/>
       <c r="J167" s="10"/>
       <c r="K167" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L167" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -8893,15 +8900,21 @@
         <v>513</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="F168" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="E168" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G168" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -8910,10 +8923,10 @@
       <c r="I168" s="10"/>
       <c r="J168" s="10"/>
       <c r="K168" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L168" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -8921,35 +8934,27 @@
         <v>513</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E169" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>17</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="F169" s="11"/>
       <c r="G169" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H169" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="H169" s="10"/>
       <c r="I169" s="10"/>
       <c r="J169" s="10"/>
       <c r="K169" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L169" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -8957,7 +8962,7 @@
         <v>513</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>14</v>
@@ -8982,10 +8987,10 @@
       <c r="I170" s="10"/>
       <c r="J170" s="10"/>
       <c r="K170" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L170" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -8993,7 +8998,7 @@
         <v>513</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>14</v>
@@ -9002,8 +9007,8 @@
         <v>111</v>
       </c>
       <c r="E171" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F171" s="11" t="s">
         <v>17</v>
@@ -9018,10 +9023,10 @@
       <c r="I171" s="10"/>
       <c r="J171" s="10"/>
       <c r="K171" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L171" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -9029,7 +9034,7 @@
         <v>513</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>14</v>
@@ -9038,15 +9043,15 @@
         <v>111</v>
       </c>
       <c r="E172" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F172" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G172" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H172" s="10" t="s">
         <v>112</v>
@@ -9054,10 +9059,10 @@
       <c r="I172" s="10"/>
       <c r="J172" s="10"/>
       <c r="K172" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L172" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -9065,32 +9070,35 @@
         <v>513</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E173" s="1">
-        <v>45</v>
+        <v>111</v>
+      </c>
+      <c r="E173" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>540</v>
+        <v>17</v>
       </c>
       <c r="G173" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H173" s="10"/>
+      <c r="H173" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
       <c r="K173" s="10" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L173" s="10" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -9098,7 +9106,7 @@
         <v>513</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>14</v>
@@ -9107,10 +9115,10 @@
         <v>30</v>
       </c>
       <c r="E174" s="1">
-        <v>1.3</v>
+        <v>45</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>17</v>
+        <v>540</v>
       </c>
       <c r="G174" s="11" t="b">
         <f>TRUE()</f>
@@ -9120,10 +9128,10 @@
       <c r="I174" s="10"/>
       <c r="J174" s="10"/>
       <c r="K174" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L174" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -9131,7 +9139,7 @@
         <v>513</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>14</v>
@@ -9140,10 +9148,10 @@
         <v>30</v>
       </c>
       <c r="E175" s="1">
-        <v>2000</v>
+        <v>1.3</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G175" s="11" t="b">
         <f>TRUE()</f>
@@ -9153,10 +9161,10 @@
       <c r="I175" s="10"/>
       <c r="J175" s="10"/>
       <c r="K175" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L175" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -9164,7 +9172,7 @@
         <v>513</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>14</v>
@@ -9173,10 +9181,10 @@
         <v>30</v>
       </c>
       <c r="E176" s="1">
-        <v>9.5</v>
+        <v>2000</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G176" s="11" t="b">
         <f>TRUE()</f>
@@ -9186,10 +9194,10 @@
       <c r="I176" s="10"/>
       <c r="J176" s="10"/>
       <c r="K176" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L176" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -9197,7 +9205,7 @@
         <v>513</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>14</v>
@@ -9206,10 +9214,10 @@
         <v>30</v>
       </c>
       <c r="E177" s="1">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G177" s="11" t="b">
         <f>TRUE()</f>
@@ -9219,10 +9227,10 @@
       <c r="I177" s="10"/>
       <c r="J177" s="10"/>
       <c r="K177" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L177" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -9230,7 +9238,7 @@
         <v>513</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>14</v>
@@ -9239,10 +9247,10 @@
         <v>30</v>
       </c>
       <c r="E178" s="1">
-        <v>0.75</v>
+        <v>100</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G178" s="11" t="b">
         <f>TRUE()</f>
@@ -9252,10 +9260,10 @@
       <c r="I178" s="10"/>
       <c r="J178" s="10"/>
       <c r="K178" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L178" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -9263,7 +9271,7 @@
         <v>513</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>14</v>
@@ -9272,10 +9280,10 @@
         <v>30</v>
       </c>
       <c r="E179" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G179" s="11" t="b">
         <f>TRUE()</f>
@@ -9285,10 +9293,10 @@
       <c r="I179" s="10"/>
       <c r="J179" s="10"/>
       <c r="K179" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L179" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -9296,7 +9304,7 @@
         <v>513</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>14</v>
@@ -9318,10 +9326,10 @@
       <c r="I180" s="10"/>
       <c r="J180" s="10"/>
       <c r="K180" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L180" s="10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -9329,10 +9337,10 @@
         <v>513</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>30</v>
@@ -9341,20 +9349,20 @@
         <v>0</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>540</v>
+        <v>43</v>
       </c>
       <c r="G181" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H181" s="10"/>
       <c r="I181" s="10"/>
       <c r="J181" s="10"/>
       <c r="K181" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L181" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -9362,7 +9370,7 @@
         <v>513</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>90</v>
@@ -9384,10 +9392,10 @@
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
       <c r="K182" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L182" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -9395,7 +9403,7 @@
         <v>513</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>90</v>
@@ -9407,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>43</v>
+        <v>540</v>
       </c>
       <c r="G183" s="11" t="b">
         <f>FALSE()</f>
@@ -9417,10 +9425,10 @@
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
       <c r="K183" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L183" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -9428,7 +9436,7 @@
         <v>513</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>90</v>
@@ -9450,47 +9458,43 @@
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
       <c r="K184" s="10" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L184" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>576</v>
+        <v>513</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E185" s="1">
-        <v>1</v>
-      </c>
-      <c r="F185" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="G185" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H185" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I185" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="J185" s="10" t="s">
-        <v>274</v>
-      </c>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="10"/>
       <c r="K185" s="10" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L185" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -9498,7 +9502,7 @@
         <v>576</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>26</v>
+        <v>577</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>14</v>
@@ -9506,59 +9510,63 @@
       <c r="D186" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>580</v>
+      <c r="E186" s="1">
+        <v>1</v>
       </c>
       <c r="F186" s="11"/>
       <c r="G186" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H186" s="10"/>
-      <c r="I186" s="10"/>
-      <c r="J186" s="10"/>
-      <c r="K186" s="10"/>
-      <c r="L186" s="10"/>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H186" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I186" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="J186" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="K186" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="L186" s="10" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>576</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>581</v>
+        <v>26</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E187" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F187" s="11" t="s">
-        <v>17</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F187" s="11"/>
       <c r="G187" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H187" s="10"/>
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
-      <c r="K187" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="L187" s="10" t="s">
-        <v>583</v>
-      </c>
+      <c r="K187" s="10"/>
+      <c r="L187" s="10"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>576</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C188" s="9" t="s">
         <v>14</v>
@@ -9567,7 +9575,7 @@
         <v>30</v>
       </c>
       <c r="E188" s="1">
-        <v>0.35</v>
+        <v>1E-4</v>
       </c>
       <c r="F188" s="11" t="s">
         <v>17</v>
@@ -9578,14 +9586,12 @@
       </c>
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
-      <c r="J188" s="10" t="s">
-        <v>274</v>
-      </c>
+      <c r="J188" s="10"/>
       <c r="K188" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L188" s="10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -9593,23 +9599,23 @@
         <v>576</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="E189" s="1">
-        <v>20</v>
+        <v>0.35</v>
       </c>
       <c r="F189" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G189" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
@@ -9617,10 +9623,10 @@
         <v>274</v>
       </c>
       <c r="K189" s="10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="L189" s="10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -9628,7 +9634,7 @@
         <v>576</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>14</v>
@@ -9637,7 +9643,7 @@
         <v>228</v>
       </c>
       <c r="E190" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F190" s="11" t="s">
         <v>17</v>
@@ -9652,10 +9658,10 @@
         <v>274</v>
       </c>
       <c r="K190" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L190" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -9663,7 +9669,7 @@
         <v>576</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>14</v>
@@ -9672,23 +9678,25 @@
         <v>228</v>
       </c>
       <c r="E191" s="1">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F191" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G191" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
-      <c r="J191" s="10"/>
+      <c r="J191" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="K191" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L191" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -9696,16 +9704,16 @@
         <v>576</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E192" s="1">
-        <v>0.06</v>
+        <v>200</v>
       </c>
       <c r="F192" s="11" t="s">
         <v>17</v>
@@ -9718,10 +9726,10 @@
       <c r="I192" s="10"/>
       <c r="J192" s="10"/>
       <c r="K192" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L192" s="10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -9729,7 +9737,7 @@
         <v>576</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>14</v>
@@ -9738,7 +9746,7 @@
         <v>30</v>
       </c>
       <c r="E193" s="1">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="F193" s="11" t="s">
         <v>17</v>
@@ -9751,10 +9759,10 @@
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
       <c r="K193" s="10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L193" s="10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -9762,7 +9770,7 @@
         <v>576</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>14</v>
@@ -9771,23 +9779,23 @@
         <v>30</v>
       </c>
       <c r="E194" s="1">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G194" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
       <c r="J194" s="10"/>
       <c r="K194" s="10" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="L194" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -9795,7 +9803,7 @@
         <v>576</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>14</v>
@@ -9804,10 +9812,10 @@
         <v>30</v>
       </c>
       <c r="E195" s="1">
-        <v>1.25</v>
+        <v>60</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G195" s="11" t="b">
         <f>FALSE()</f>
@@ -9817,10 +9825,10 @@
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
       <c r="K195" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="L195" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -9828,13 +9836,16 @@
         <v>576</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>30</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1.25</v>
       </c>
       <c r="F196" s="11" t="s">
         <v>17</v>
@@ -9847,10 +9858,10 @@
       <c r="I196" s="10"/>
       <c r="J196" s="10"/>
       <c r="K196" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="L196" s="10" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -9858,7 +9869,7 @@
         <v>576</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>90</v>
@@ -9875,14 +9886,12 @@
       </c>
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
-      <c r="J197" s="10" t="s">
-        <v>274</v>
-      </c>
+      <c r="J197" s="10"/>
       <c r="K197" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L197" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -9890,34 +9899,31 @@
         <v>576</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E198" s="13" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F198" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G198" s="11">
-        <v>0</v>
-      </c>
-      <c r="H198" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="G198" s="11" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H198" s="10"/>
       <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
+      <c r="J198" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="K198" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L198" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -9925,16 +9931,17 @@
         <v>576</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>617</v>
+        <v>111</v>
+      </c>
+      <c r="E199" s="13" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F199" s="11" t="s">
         <v>17</v>
@@ -9943,23 +9950,23 @@
         <v>0</v>
       </c>
       <c r="H199" s="10" t="s">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c r="I199" s="10"/>
       <c r="J199" s="10"/>
       <c r="K199" s="10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L199" s="10" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>619</v>
+        <v>576</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>26</v>
+        <v>616</v>
       </c>
       <c r="C200" s="9" t="s">
         <v>14</v>
@@ -9968,23 +9975,24 @@
         <v>21</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F200" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G200" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H200" s="10"/>
+      <c r="G200" s="11">
+        <v>0</v>
+      </c>
+      <c r="H200" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="I200" s="10"/>
       <c r="J200" s="10"/>
       <c r="K200" s="10" t="s">
-        <v>28</v>
+        <v>618</v>
       </c>
       <c r="L200" s="10" t="s">
-        <v>28</v>
+        <v>618</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -9992,7 +10000,7 @@
         <v>619</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>621</v>
+        <v>26</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>14</v>
@@ -10001,9 +10009,11 @@
         <v>21</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="F201" s="11"/>
+        <v>620</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G201" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -10012,10 +10022,10 @@
       <c r="I201" s="10"/>
       <c r="J201" s="10"/>
       <c r="K201" s="10" t="s">
-        <v>623</v>
+        <v>28</v>
       </c>
       <c r="L201" s="10" t="s">
-        <v>624</v>
+        <v>28</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -10023,7 +10033,7 @@
         <v>619</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C202" s="9" t="s">
         <v>14</v>
@@ -10032,7 +10042,7 @@
         <v>21</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F202" s="11"/>
       <c r="G202" s="11" t="b">
@@ -10043,10 +10053,10 @@
       <c r="I202" s="10"/>
       <c r="J202" s="10"/>
       <c r="K202" s="10" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="L202" s="10" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -10054,7 +10064,7 @@
         <v>619</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>14</v>
@@ -10062,26 +10072,22 @@
       <c r="D203" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E203" s="1">
-        <v>0</v>
+      <c r="E203" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="F203" s="11"/>
       <c r="G203" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H203" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I203" s="10" t="s">
-        <v>630</v>
-      </c>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
       <c r="J203" s="10"/>
       <c r="K203" s="10" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="L203" s="10" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -10089,17 +10095,16 @@
         <v>619</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E204" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E204" s="1">
+        <v>0</v>
       </c>
       <c r="F204" s="11"/>
       <c r="G204" s="11" t="b">
@@ -10107,15 +10112,17 @@
         <v>0</v>
       </c>
       <c r="H204" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I204" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="I204" s="10" t="s">
+        <v>630</v>
+      </c>
       <c r="J204" s="10"/>
       <c r="K204" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L204" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -10123,7 +10130,7 @@
         <v>619</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>14</v>
@@ -10132,12 +10139,10 @@
         <v>111</v>
       </c>
       <c r="E205" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F205" s="11" t="s">
-        <v>17</v>
-      </c>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F205" s="11"/>
       <c r="G205" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -10148,10 +10153,10 @@
       <c r="I205" s="10"/>
       <c r="J205" s="10"/>
       <c r="K205" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L205" s="10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -10159,7 +10164,7 @@
         <v>619</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>14</v>
@@ -10184,10 +10189,10 @@
       <c r="I206" s="10"/>
       <c r="J206" s="10"/>
       <c r="K206" s="10" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="L206" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -10195,7 +10200,7 @@
         <v>619</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C207" s="9" t="s">
         <v>14</v>
@@ -10220,10 +10225,10 @@
       <c r="I207" s="10"/>
       <c r="J207" s="10"/>
       <c r="K207" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L207" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -10231,7 +10236,7 @@
         <v>619</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C208" s="9" t="s">
         <v>14</v>
@@ -10256,10 +10261,10 @@
       <c r="I208" s="10"/>
       <c r="J208" s="10"/>
       <c r="K208" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L208" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -10267,7 +10272,7 @@
         <v>619</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C209" s="9" t="s">
         <v>14</v>
@@ -10292,10 +10297,10 @@
       <c r="I209" s="10"/>
       <c r="J209" s="10"/>
       <c r="K209" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L209" s="10" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -10303,7 +10308,7 @@
         <v>619</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>14</v>
@@ -10328,10 +10333,10 @@
       <c r="I210" s="10"/>
       <c r="J210" s="10"/>
       <c r="K210" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="L210" s="10" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -10339,7 +10344,7 @@
         <v>619</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>14</v>
@@ -10364,10 +10369,10 @@
       <c r="I211" s="10"/>
       <c r="J211" s="10"/>
       <c r="K211" s="10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L211" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -10375,7 +10380,7 @@
         <v>619</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C212" s="9" t="s">
         <v>14</v>
@@ -10400,10 +10405,10 @@
       <c r="I212" s="10"/>
       <c r="J212" s="10"/>
       <c r="K212" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L212" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -10411,7 +10416,7 @@
         <v>619</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>14</v>
@@ -10436,10 +10441,10 @@
       <c r="I213" s="10"/>
       <c r="J213" s="10"/>
       <c r="K213" s="10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L213" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -10447,7 +10452,7 @@
         <v>619</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C214" s="9" t="s">
         <v>14</v>
@@ -10472,10 +10477,10 @@
       <c r="I214" s="10"/>
       <c r="J214" s="10"/>
       <c r="K214" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L214" s="10" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -10483,27 +10488,35 @@
         <v>619</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F215" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="E215" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F215" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G215" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H215" s="10"/>
+      <c r="H215" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="I215" s="10"/>
       <c r="J215" s="10"/>
       <c r="K215" s="10" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L215" s="10" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -10511,7 +10524,7 @@
         <v>619</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C216" s="9" t="s">
         <v>14</v>
@@ -10519,9 +10532,7 @@
       <c r="D216" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F216" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F216" s="11"/>
       <c r="G216" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -10530,10 +10541,10 @@
       <c r="I216" s="10"/>
       <c r="J216" s="10"/>
       <c r="K216" s="10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="L216" s="10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -10541,7 +10552,7 @@
         <v>619</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C217" s="9" t="s">
         <v>14</v>
@@ -10549,9 +10560,6 @@
       <c r="D217" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E217" s="1">
-        <v>0</v>
-      </c>
       <c r="F217" s="11" t="s">
         <v>17</v>
       </c>
@@ -10559,51 +10567,51 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H217" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I217" s="10" t="s">
-        <v>664</v>
-      </c>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
       <c r="J217" s="10"/>
       <c r="K217" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="L217" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E218" s="1">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="F218" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G218" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H218" s="10"/>
-      <c r="I218" s="10"/>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H218" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I218" s="10" t="s">
+        <v>664</v>
+      </c>
       <c r="J218" s="10"/>
       <c r="K218" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="L218" s="10" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -10611,16 +10619,16 @@
         <v>666</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C219" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E219" s="1">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="F219" s="11" t="s">
         <v>17</v>
@@ -10629,18 +10637,14 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H219" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I219" s="10" t="s">
-        <v>671</v>
-      </c>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
       <c r="J219" s="10"/>
       <c r="K219" s="10" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L219" s="10" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -10648,32 +10652,36 @@
         <v>666</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E220" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G220" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H220" s="10"/>
-      <c r="I220" s="10"/>
+      <c r="H220" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I220" s="10" t="s">
+        <v>671</v>
+      </c>
       <c r="J220" s="10"/>
       <c r="K220" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="L220" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -10681,7 +10689,7 @@
         <v>666</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C221" s="9" t="s">
         <v>14</v>
@@ -10690,7 +10698,7 @@
         <v>30</v>
       </c>
       <c r="E221" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="F221" s="11" t="s">
         <v>51</v>
@@ -10703,10 +10711,10 @@
       <c r="I221" s="10"/>
       <c r="J221" s="10"/>
       <c r="K221" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="L221" s="10" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -10714,34 +10722,32 @@
         <v>666</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C222" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E222" s="1">
-        <v>0</v>
-      </c>
-      <c r="F222" s="11"/>
+        <v>180</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="G222" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H222" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I222" s="10" t="s">
-        <v>681</v>
-      </c>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
       <c r="J222" s="10"/>
       <c r="K222" s="10" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="L222" s="10" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -10749,32 +10755,34 @@
         <v>666</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>357</v>
+        <v>680</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>358</v>
+        <v>21</v>
       </c>
       <c r="E223" s="1">
         <v>0</v>
       </c>
-      <c r="F223" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F223" s="11"/>
       <c r="G223" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H223" s="10"/>
-      <c r="I223" s="10"/>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H223" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I223" s="10" t="s">
+        <v>681</v>
+      </c>
       <c r="J223" s="10"/>
       <c r="K223" s="10" t="s">
-        <v>359</v>
+        <v>682</v>
       </c>
       <c r="L223" s="10" t="s">
-        <v>359</v>
+        <v>683</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -10782,16 +10790,16 @@
         <v>666</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>26</v>
+        <v>357</v>
       </c>
       <c r="C224" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>684</v>
+        <v>358</v>
+      </c>
+      <c r="E224" s="1">
+        <v>0</v>
       </c>
       <c r="F224" s="11" t="s">
         <v>17</v>
@@ -10804,10 +10812,10 @@
       <c r="I224" s="10"/>
       <c r="J224" s="10"/>
       <c r="K224" s="10" t="s">
-        <v>28</v>
+        <v>359</v>
       </c>
       <c r="L224" s="10" t="s">
-        <v>28</v>
+        <v>359</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -10815,18 +10823,20 @@
         <v>666</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>397</v>
+        <v>26</v>
       </c>
       <c r="C225" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E225" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F225" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F225" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G225" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -10835,10 +10845,10 @@
       <c r="I225" s="10"/>
       <c r="J225" s="10"/>
       <c r="K225" s="10" t="s">
-        <v>685</v>
+        <v>28</v>
       </c>
       <c r="L225" s="10" t="s">
-        <v>685</v>
+        <v>28</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -10846,33 +10856,30 @@
         <v>666</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>686</v>
+        <v>397</v>
       </c>
       <c r="C226" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E226" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>228</v>
+      </c>
+      <c r="E226" s="1">
+        <v>-1</v>
       </c>
       <c r="F226" s="11"/>
       <c r="G226" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H226" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="H226" s="10"/>
       <c r="I226" s="10"/>
       <c r="J226" s="10"/>
       <c r="K226" s="10" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L226" s="10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -10880,7 +10887,7 @@
         <v>666</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>405</v>
+        <v>686</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>14</v>
@@ -10897,14 +10904,16 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H227" s="10"/>
+      <c r="H227" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="I227" s="10"/>
       <c r="J227" s="10"/>
       <c r="K227" s="10" t="s">
-        <v>406</v>
+        <v>687</v>
       </c>
       <c r="L227" s="10" t="s">
-        <v>406</v>
+        <v>688</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -10912,7 +10921,7 @@
         <v>666</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>689</v>
+        <v>405</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>14</v>
@@ -10921,26 +10930,22 @@
         <v>111</v>
       </c>
       <c r="E228" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F228" s="11"/>
       <c r="G228" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H228" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="H228" s="10"/>
       <c r="I228" s="10"/>
-      <c r="J228" s="10" t="s">
-        <v>274</v>
-      </c>
+      <c r="J228" s="10"/>
       <c r="K228" s="10" t="s">
-        <v>690</v>
+        <v>406</v>
       </c>
       <c r="L228" s="10" t="s">
-        <v>691</v>
+        <v>406</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -10948,7 +10953,7 @@
         <v>666</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>14</v>
@@ -10962,8 +10967,8 @@
       </c>
       <c r="F229" s="11"/>
       <c r="G229" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H229" s="10" t="s">
         <v>112</v>
@@ -10973,10 +10978,10 @@
         <v>274</v>
       </c>
       <c r="K229" s="10" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="L229" s="10" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -10984,34 +10989,35 @@
         <v>666</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E230" s="1">
-        <v>12</v>
-      </c>
-      <c r="F230" s="11" t="s">
-        <v>17</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E230" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F230" s="11"/>
       <c r="G230" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H230" s="10"/>
+      <c r="H230" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="I230" s="10"/>
       <c r="J230" s="10" t="s">
         <v>274</v>
       </c>
       <c r="K230" s="10" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="L230" s="10" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -11019,19 +11025,19 @@
         <v>666</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C231" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E231" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G231" s="11" t="b">
         <f>TRUE()</f>
@@ -11043,10 +11049,10 @@
         <v>274</v>
       </c>
       <c r="K231" s="10" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="L231" s="10" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -11054,7 +11060,7 @@
         <v>666</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C232" s="9" t="s">
         <v>14</v>
@@ -11063,10 +11069,10 @@
         <v>30</v>
       </c>
       <c r="E232" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>702</v>
+        <v>51</v>
       </c>
       <c r="G232" s="11" t="b">
         <f>TRUE()</f>
@@ -11074,12 +11080,14 @@
       </c>
       <c r="H232" s="10"/>
       <c r="I232" s="10"/>
-      <c r="J232" s="10"/>
+      <c r="J232" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="K232" s="10" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="L232" s="10" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -11087,36 +11095,32 @@
         <v>666</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C233" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E233" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>17</v>
+        <v>702</v>
       </c>
       <c r="G233" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H233" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I233" s="10" t="s">
-        <v>706</v>
-      </c>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
       <c r="J233" s="10"/>
       <c r="K233" s="10" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="L233" s="10" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -11124,32 +11128,36 @@
         <v>666</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C234" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>710</v>
+        <v>21</v>
+      </c>
+      <c r="E234" s="1">
+        <v>0</v>
       </c>
       <c r="F234" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G234" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H234" s="10"/>
-      <c r="I234" s="10"/>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H234" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I234" s="10" t="s">
+        <v>706</v>
+      </c>
       <c r="J234" s="10"/>
       <c r="K234" s="10" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="L234" s="10" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -11157,32 +11165,32 @@
         <v>666</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C235" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E235" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="F235" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G235" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
       <c r="J235" s="10"/>
       <c r="K235" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L235" s="10" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -11190,7 +11198,7 @@
         <v>666</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C236" s="9" t="s">
         <v>14</v>
@@ -11199,10 +11207,10 @@
         <v>30</v>
       </c>
       <c r="E236" s="1">
-        <v>10.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>716</v>
+        <v>17</v>
       </c>
       <c r="G236" s="11" t="b">
         <f>TRUE()</f>
@@ -11212,10 +11220,10 @@
       <c r="I236" s="10"/>
       <c r="J236" s="10"/>
       <c r="K236" s="10" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="L236" s="10" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -11223,7 +11231,7 @@
         <v>666</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C237" s="9" t="s">
         <v>14</v>
@@ -11232,10 +11240,10 @@
         <v>30</v>
       </c>
       <c r="E237" s="1">
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G237" s="11" t="b">
         <f>TRUE()</f>
@@ -11245,10 +11253,10 @@
       <c r="I237" s="10"/>
       <c r="J237" s="10"/>
       <c r="K237" s="10" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="L237" s="10" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -11256,7 +11264,7 @@
         <v>666</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C238" s="9" t="s">
         <v>14</v>
@@ -11268,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>51</v>
+        <v>720</v>
       </c>
       <c r="G238" s="11" t="b">
         <f>TRUE()</f>
@@ -11277,11 +11285,11 @@
       <c r="H238" s="10"/>
       <c r="I238" s="10"/>
       <c r="J238" s="10"/>
-      <c r="K238" s="9" t="s">
-        <v>724</v>
+      <c r="K238" s="10" t="s">
+        <v>721</v>
       </c>
       <c r="L238" s="10" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -11289,7 +11297,7 @@
         <v>666</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>14</v>
@@ -11301,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G239" s="11" t="b">
         <f>TRUE()</f>
@@ -11309,14 +11317,12 @@
       </c>
       <c r="H239" s="10"/>
       <c r="I239" s="10"/>
-      <c r="J239" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="K239" s="10" t="s">
-        <v>727</v>
+      <c r="J239" s="10"/>
+      <c r="K239" s="9" t="s">
+        <v>724</v>
       </c>
       <c r="L239" s="10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -11324,7 +11330,7 @@
         <v>666</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>14</v>
@@ -11333,7 +11339,7 @@
         <v>30</v>
       </c>
       <c r="E240" s="1">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="F240" s="11" t="s">
         <v>43</v>
@@ -11348,10 +11354,10 @@
         <v>274</v>
       </c>
       <c r="K240" s="10" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="L240" s="10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -11359,7 +11365,7 @@
         <v>666</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>14</v>
@@ -11368,7 +11374,7 @@
         <v>30</v>
       </c>
       <c r="E241" s="1">
-        <v>17.649999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="F241" s="11" t="s">
         <v>43</v>
@@ -11379,12 +11385,14 @@
       </c>
       <c r="H241" s="10"/>
       <c r="I241" s="10"/>
-      <c r="J241" s="10"/>
-      <c r="K241" s="9" t="s">
-        <v>733</v>
+      <c r="J241" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="K241" s="10" t="s">
+        <v>730</v>
       </c>
       <c r="L241" s="10" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -11392,7 +11400,7 @@
         <v>666</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>14</v>
@@ -11401,10 +11409,10 @@
         <v>30</v>
       </c>
       <c r="E242" s="1">
-        <v>0</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G242" s="11" t="b">
         <f>TRUE()</f>
@@ -11414,10 +11422,10 @@
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
       <c r="K242" s="9" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="L242" s="10" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -11425,7 +11433,7 @@
         <v>666</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>14</v>
@@ -11434,10 +11442,10 @@
         <v>30</v>
       </c>
       <c r="E243" s="1">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G243" s="11" t="b">
         <f>TRUE()</f>
@@ -11447,10 +11455,10 @@
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
       <c r="K243" s="9" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="L243" s="10" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -11458,30 +11466,32 @@
         <v>666</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="F244" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="E244" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="G244" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H244" s="10"/>
       <c r="I244" s="10"/>
       <c r="J244" s="10"/>
-      <c r="K244" s="10" t="s">
-        <v>743</v>
+      <c r="K244" s="9" t="s">
+        <v>739</v>
       </c>
       <c r="L244" s="10" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -11489,32 +11499,30 @@
         <v>666</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C245" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E245" s="1">
-        <v>0</v>
-      </c>
-      <c r="F245" s="11" t="s">
-        <v>43</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="F245" s="11"/>
       <c r="G245" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H245" s="10"/>
       <c r="I245" s="10"/>
       <c r="J245" s="10"/>
-      <c r="K245" s="9" t="s">
-        <v>745</v>
+      <c r="K245" s="10" t="s">
+        <v>743</v>
       </c>
       <c r="L245" s="10" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -11522,7 +11530,7 @@
         <v>666</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C246" s="9" t="s">
         <v>14</v>
@@ -11544,10 +11552,10 @@
       <c r="I246" s="10"/>
       <c r="J246" s="10"/>
       <c r="K246" s="9" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="L246" s="10" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -11555,7 +11563,7 @@
         <v>666</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C247" s="9" t="s">
         <v>14</v>
@@ -11577,10 +11585,10 @@
       <c r="I247" s="10"/>
       <c r="J247" s="10"/>
       <c r="K247" s="9" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="L247" s="10" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -11588,36 +11596,32 @@
         <v>666</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C248" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E248" s="1">
         <v>0</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G248" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H248" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I248" s="10" t="s">
-        <v>754</v>
-      </c>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H248" s="10"/>
+      <c r="I248" s="10"/>
       <c r="J248" s="10"/>
-      <c r="K248" s="10" t="s">
-        <v>755</v>
+      <c r="K248" s="9" t="s">
+        <v>751</v>
       </c>
       <c r="L248" s="10" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -11625,7 +11629,7 @@
         <v>666</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C249" s="9" t="s">
         <v>14</v>
@@ -11647,14 +11651,14 @@
         <v>22</v>
       </c>
       <c r="I249" s="10" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="J249" s="10"/>
-      <c r="K249" s="9" t="s">
-        <v>759</v>
+      <c r="K249" s="10" t="s">
+        <v>755</v>
       </c>
       <c r="L249" s="10" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -11662,32 +11666,36 @@
         <v>666</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C250" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E250" s="1">
+        <v>0</v>
+      </c>
+      <c r="F250" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F250" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="G250" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H250" s="10"/>
-      <c r="I250" s="10"/>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H250" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I250" s="10" t="s">
+        <v>758</v>
+      </c>
       <c r="J250" s="10"/>
       <c r="K250" s="9" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="L250" s="10" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -11695,7 +11703,7 @@
         <v>666</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C251" s="9" t="s">
         <v>14</v>
@@ -11704,10 +11712,10 @@
         <v>30</v>
       </c>
       <c r="E251" s="1">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G251" s="11" t="b">
         <f>TRUE()</f>
@@ -11715,14 +11723,12 @@
       </c>
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
-      <c r="J251" s="10" t="s">
-        <v>274</v>
-      </c>
+      <c r="J251" s="10"/>
       <c r="K251" s="9" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="L251" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -11730,7 +11736,7 @@
         <v>666</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C252" s="9" t="s">
         <v>14</v>
@@ -11739,7 +11745,7 @@
         <v>30</v>
       </c>
       <c r="E252" s="1">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="F252" s="11" t="s">
         <v>51</v>
@@ -11754,10 +11760,10 @@
         <v>274</v>
       </c>
       <c r="K252" s="9" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="L252" s="10" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -11765,7 +11771,7 @@
         <v>666</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C253" s="9" t="s">
         <v>14</v>
@@ -11774,10 +11780,10 @@
         <v>30</v>
       </c>
       <c r="E253" s="1">
-        <v>30</v>
+        <v>-180</v>
       </c>
       <c r="F253" s="11" t="s">
-        <v>702</v>
+        <v>51</v>
       </c>
       <c r="G253" s="11" t="b">
         <f>TRUE()</f>
@@ -11785,12 +11791,14 @@
       </c>
       <c r="H253" s="10"/>
       <c r="I253" s="10"/>
-      <c r="J253" s="10"/>
-      <c r="K253" s="10" t="s">
-        <v>771</v>
+      <c r="J253" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="K253" s="9" t="s">
+        <v>768</v>
       </c>
       <c r="L253" s="10" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -11798,32 +11806,32 @@
         <v>666</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C254" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E254" s="10" t="s">
-        <v>774</v>
+        <v>30</v>
+      </c>
+      <c r="E254" s="1">
+        <v>30</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>17</v>
+        <v>702</v>
       </c>
       <c r="G254" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H254" s="10"/>
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="10" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L254" s="10" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -11831,7 +11839,7 @@
         <v>666</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>14</v>
@@ -11853,10 +11861,10 @@
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
       <c r="K255" s="10" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="L255" s="10" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -11864,13 +11872,16 @@
         <v>666</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="E256" s="10" t="s">
+        <v>774</v>
       </c>
       <c r="F256" s="11" t="s">
         <v>17</v>
@@ -11883,10 +11894,10 @@
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
       <c r="K256" s="10" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="L256" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -11894,19 +11905,16 @@
         <v>666</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C257" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E257" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="G257" s="11" t="b">
         <f>FALSE()</f>
@@ -11916,10 +11924,10 @@
       <c r="I257" s="10"/>
       <c r="J257" s="10"/>
       <c r="K257" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="L257" s="10" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -11927,7 +11935,7 @@
         <v>666</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C258" s="9" t="s">
         <v>90</v>
@@ -11936,10 +11944,10 @@
         <v>30</v>
       </c>
       <c r="E258" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F258" s="11" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="G258" s="11" t="b">
         <f>FALSE()</f>
@@ -11948,11 +11956,11 @@
       <c r="H258" s="10"/>
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
-      <c r="K258" s="9" t="s">
-        <v>786</v>
+      <c r="K258" s="10" t="s">
+        <v>783</v>
       </c>
       <c r="L258" s="10" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -11960,7 +11968,7 @@
         <v>666</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C259" s="9" t="s">
         <v>90</v>
@@ -11969,10 +11977,10 @@
         <v>30</v>
       </c>
       <c r="E259" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F259" s="11" t="s">
-        <v>789</v>
+        <v>43</v>
       </c>
       <c r="G259" s="11" t="b">
         <f>FALSE()</f>
@@ -11981,11 +11989,11 @@
       <c r="H259" s="10"/>
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
-      <c r="K259" s="10" t="s">
-        <v>790</v>
+      <c r="K259" s="9" t="s">
+        <v>786</v>
       </c>
       <c r="L259" s="10" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -11993,7 +12001,7 @@
         <v>666</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>90</v>
@@ -12002,23 +12010,23 @@
         <v>30</v>
       </c>
       <c r="E260" s="1">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>17</v>
+        <v>789</v>
       </c>
       <c r="G260" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
       <c r="K260" s="10" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="L260" s="10" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -12026,7 +12034,7 @@
         <v>666</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C261" s="9" t="s">
         <v>90</v>
@@ -12035,23 +12043,23 @@
         <v>30</v>
       </c>
       <c r="E261" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F261" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G261" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
       <c r="K261" s="10" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="L261" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -12059,7 +12067,7 @@
         <v>666</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>90</v>
@@ -12071,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>789</v>
+        <v>17</v>
       </c>
       <c r="G262" s="11" t="b">
         <f>FALSE()</f>
@@ -12081,10 +12089,10 @@
       <c r="I262" s="10"/>
       <c r="J262" s="10"/>
       <c r="K262" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="L262" s="10" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
@@ -12092,7 +12100,7 @@
         <v>666</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>90</v>
@@ -12114,10 +12122,10 @@
       <c r="I263" s="10"/>
       <c r="J263" s="10"/>
       <c r="K263" s="10" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="L263" s="10" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -12125,7 +12133,7 @@
         <v>666</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>90</v>
@@ -12137,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>43</v>
+        <v>789</v>
       </c>
       <c r="G264" s="11" t="b">
         <f>FALSE()</f>
@@ -12146,11 +12154,11 @@
       <c r="H264" s="10"/>
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
-      <c r="K264" s="9" t="s">
-        <v>804</v>
+      <c r="K264" s="10" t="s">
+        <v>801</v>
       </c>
       <c r="L264" s="10" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -12158,7 +12166,7 @@
         <v>666</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C265" s="9" t="s">
         <v>90</v>
@@ -12180,10 +12188,10 @@
       <c r="I265" s="10"/>
       <c r="J265" s="10"/>
       <c r="K265" s="9" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L265" s="10" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -12191,7 +12199,7 @@
         <v>666</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>90</v>
@@ -12213,43 +12221,43 @@
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
       <c r="K266" s="9" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="L266" s="10" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
-        <v>812</v>
+        <v>666</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E267" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G267" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H267" s="10"/>
       <c r="I267" s="10"/>
       <c r="J267" s="10"/>
-      <c r="K267" s="10" t="s">
-        <v>814</v>
+      <c r="K267" s="9" t="s">
+        <v>810</v>
       </c>
       <c r="L267" s="10" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -12257,7 +12265,7 @@
         <v>812</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>14</v>
@@ -12266,7 +12274,7 @@
         <v>30</v>
       </c>
       <c r="E268" s="1">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="F268" s="11" t="s">
         <v>51</v>
@@ -12279,10 +12287,10 @@
       <c r="I268" s="10"/>
       <c r="J268" s="10"/>
       <c r="K268" s="10" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="L268" s="10" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -12290,7 +12298,7 @@
         <v>812</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C269" s="9" t="s">
         <v>14</v>
@@ -12299,10 +12307,10 @@
         <v>30</v>
       </c>
       <c r="E269" s="1">
-        <v>2</v>
+        <v>-180</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G269" s="11" t="b">
         <f>TRUE()</f>
@@ -12311,11 +12319,11 @@
       <c r="H269" s="10"/>
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
-      <c r="K269" s="9" t="s">
-        <v>820</v>
+      <c r="K269" s="10" t="s">
+        <v>817</v>
       </c>
       <c r="L269" s="10" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -12323,32 +12331,32 @@
         <v>812</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>26</v>
+        <v>819</v>
       </c>
       <c r="C270" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>822</v>
+        <v>30</v>
+      </c>
+      <c r="E270" s="1">
+        <v>2</v>
       </c>
       <c r="F270" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G270" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H270" s="10"/>
       <c r="I270" s="10"/>
       <c r="J270" s="10"/>
-      <c r="K270" s="10" t="s">
-        <v>28</v>
+      <c r="K270" s="9" t="s">
+        <v>820</v>
       </c>
       <c r="L270" s="10" t="s">
-        <v>28</v>
+        <v>821</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -12356,7 +12364,7 @@
         <v>812</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>823</v>
+        <v>26</v>
       </c>
       <c r="C271" s="9" t="s">
         <v>14</v>
@@ -12364,28 +12372,24 @@
       <c r="D271" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E271" s="1">
-        <v>5</v>
+      <c r="E271" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="F271" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G271" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H271" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I271" s="10" t="s">
-        <v>824</v>
-      </c>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
       <c r="J271" s="10"/>
-      <c r="K271" s="9" t="s">
-        <v>825</v>
+      <c r="K271" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="L271" s="10" t="s">
-        <v>826</v>
+        <v>28</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -12393,16 +12397,16 @@
         <v>812</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C272" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="E272" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F272" s="11" t="s">
         <v>17</v>
@@ -12411,14 +12415,18 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H272" s="10"/>
-      <c r="I272" s="10"/>
+      <c r="H272" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I272" s="10" t="s">
+        <v>824</v>
+      </c>
       <c r="J272" s="10"/>
-      <c r="K272" s="10" t="s">
-        <v>828</v>
+      <c r="K272" s="9" t="s">
+        <v>825</v>
       </c>
       <c r="L272" s="10" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -12426,7 +12434,7 @@
         <v>812</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>14</v>
@@ -12435,7 +12443,7 @@
         <v>228</v>
       </c>
       <c r="E273" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F273" s="11" t="s">
         <v>17</v>
@@ -12448,10 +12456,10 @@
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
       <c r="K273" s="10" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="L273" s="10" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -12459,19 +12467,19 @@
         <v>812</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E274" s="1">
-        <v>950</v>
+        <v>2</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G274" s="11" t="b">
         <f>TRUE()</f>
@@ -12481,10 +12489,10 @@
       <c r="I274" s="10"/>
       <c r="J274" s="10"/>
       <c r="K274" s="10" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="L274" s="10" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -12492,36 +12500,32 @@
         <v>812</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E275" s="1">
-        <v>7</v>
+        <v>950</v>
       </c>
       <c r="F275" s="11" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G275" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H275" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I275" s="10" t="s">
-        <v>837</v>
-      </c>
+      <c r="H275" s="10"/>
+      <c r="I275" s="10"/>
       <c r="J275" s="10"/>
       <c r="K275" s="10" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L275" s="10" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -12529,17 +12533,16 @@
         <v>812</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E276" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E276" s="1">
+        <v>7</v>
       </c>
       <c r="F276" s="11" t="s">
         <v>17</v>
@@ -12549,15 +12552,17 @@
         <v>1</v>
       </c>
       <c r="H276" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I276" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="I276" s="10" t="s">
+        <v>837</v>
+      </c>
       <c r="J276" s="10"/>
       <c r="K276" s="10" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="L276" s="10" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
@@ -12565,7 +12570,7 @@
         <v>812</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C277" s="9" t="s">
         <v>14</v>
@@ -12574,15 +12579,15 @@
         <v>111</v>
       </c>
       <c r="E277" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F277" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G277" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H277" s="10" t="s">
         <v>112</v>
@@ -12590,10 +12595,10 @@
       <c r="I277" s="10"/>
       <c r="J277" s="10"/>
       <c r="K277" s="10" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="L277" s="10" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -12601,7 +12606,7 @@
         <v>812</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>14</v>
@@ -12610,15 +12615,15 @@
         <v>111</v>
       </c>
       <c r="E278" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F278" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G278" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H278" s="10" t="s">
         <v>112</v>
@@ -12626,10 +12631,10 @@
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
       <c r="K278" s="10" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="L278" s="10" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -12637,7 +12642,7 @@
         <v>812</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C279" s="9" t="s">
         <v>14</v>
@@ -12646,15 +12651,15 @@
         <v>111</v>
       </c>
       <c r="E279" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F279" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G279" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H279" s="10" t="s">
         <v>112</v>
@@ -12662,10 +12667,10 @@
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
       <c r="K279" s="10" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="L279" s="10" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
@@ -12673,7 +12678,7 @@
         <v>812</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C280" s="9" t="s">
         <v>14</v>
@@ -12682,15 +12687,15 @@
         <v>111</v>
       </c>
       <c r="E280" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F280" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G280" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H280" s="10" t="s">
         <v>112</v>
@@ -12698,10 +12703,10 @@
       <c r="I280" s="10"/>
       <c r="J280" s="10"/>
       <c r="K280" s="10" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="L280" s="10" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -12709,27 +12714,35 @@
         <v>812</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F281" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="E281" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F281" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G281" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H281" s="10"/>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H281" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
       <c r="K281" s="10" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="L281" s="10" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -12737,7 +12750,7 @@
         <v>812</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>14</v>
@@ -12745,28 +12758,19 @@
       <c r="D282" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E282" s="1">
-        <v>0</v>
-      </c>
-      <c r="F282" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F282" s="11"/>
       <c r="G282" s="11" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H282" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I282" s="10" t="s">
-        <v>858</v>
-      </c>
+      <c r="H282" s="10"/>
+      <c r="I282" s="10"/>
       <c r="J282" s="10"/>
-      <c r="K282" s="9" t="s">
-        <v>859</v>
+      <c r="K282" s="10" t="s">
+        <v>856</v>
       </c>
       <c r="L282" s="10" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -12774,32 +12778,36 @@
         <v>812</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E283" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F283" s="11" t="s">
-        <v>862</v>
+        <v>17</v>
       </c>
       <c r="G283" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H283" s="10"/>
-      <c r="I283" s="10"/>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H283" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I283" s="10" t="s">
+        <v>858</v>
+      </c>
       <c r="J283" s="10"/>
-      <c r="K283" s="10" t="s">
-        <v>863</v>
+      <c r="K283" s="9" t="s">
+        <v>859</v>
       </c>
       <c r="L283" s="10" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -12807,7 +12815,7 @@
         <v>812</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>14</v>
@@ -12829,10 +12837,10 @@
       <c r="I284" s="10"/>
       <c r="J284" s="10"/>
       <c r="K284" s="10" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="L284" s="10" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -12840,7 +12848,7 @@
         <v>812</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>14</v>
@@ -12849,7 +12857,7 @@
         <v>30</v>
       </c>
       <c r="E285" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F285" s="11" t="s">
         <v>862</v>
@@ -12862,10 +12870,10 @@
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
       <c r="K285" s="10" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="L285" s="10" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -12873,7 +12881,7 @@
         <v>812</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>14</v>
@@ -12895,10 +12903,10 @@
       <c r="I286" s="10"/>
       <c r="J286" s="10"/>
       <c r="K286" s="10" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="L286" s="10" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -12906,7 +12914,7 @@
         <v>812</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>14</v>
@@ -12915,10 +12923,10 @@
         <v>30</v>
       </c>
       <c r="E287" s="1">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>17</v>
+        <v>862</v>
       </c>
       <c r="G287" s="11" t="b">
         <f>TRUE()</f>
@@ -12928,10 +12936,10 @@
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
       <c r="K287" s="10" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="L287" s="10" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -12939,7 +12947,7 @@
         <v>812</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>14</v>
@@ -12948,10 +12956,10 @@
         <v>30</v>
       </c>
       <c r="E288" s="1">
-        <v>670</v>
+        <v>0.03</v>
       </c>
       <c r="F288" s="11" t="s">
-        <v>878</v>
+        <v>17</v>
       </c>
       <c r="G288" s="11" t="b">
         <f>TRUE()</f>
@@ -12960,11 +12968,11 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
       <c r="J288" s="10"/>
-      <c r="K288" s="9" t="s">
-        <v>879</v>
+      <c r="K288" s="10" t="s">
+        <v>875</v>
       </c>
       <c r="L288" s="10" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -12972,36 +12980,32 @@
         <v>812</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E289" s="1">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>17</v>
+        <v>878</v>
       </c>
       <c r="G289" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H289" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I289" s="10" t="s">
-        <v>882</v>
-      </c>
+      <c r="H289" s="10"/>
+      <c r="I289" s="10"/>
       <c r="J289" s="10"/>
       <c r="K289" s="9" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="L289" s="10" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -13009,16 +13013,16 @@
         <v>812</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C290" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E290" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F290" s="11" t="s">
         <v>17</v>
@@ -13027,14 +13031,18 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H290" s="10"/>
-      <c r="I290" s="10"/>
+      <c r="H290" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I290" s="10" t="s">
+        <v>882</v>
+      </c>
       <c r="J290" s="10"/>
-      <c r="K290" s="10" t="s">
-        <v>886</v>
+      <c r="K290" s="9" t="s">
+        <v>883</v>
       </c>
       <c r="L290" s="10" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -13042,7 +13050,7 @@
         <v>812</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>14</v>
@@ -13064,10 +13072,10 @@
       <c r="I291" s="10"/>
       <c r="J291" s="10"/>
       <c r="K291" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="L291" s="10" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -13075,7 +13083,7 @@
         <v>812</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>14</v>
@@ -13084,23 +13092,23 @@
         <v>30</v>
       </c>
       <c r="E292" s="1">
-        <v>195</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G292" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
       <c r="J292" s="10"/>
-      <c r="K292" s="9" t="s">
-        <v>892</v>
+      <c r="K292" s="10" t="s">
+        <v>889</v>
       </c>
       <c r="L292" s="10" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -13108,7 +13116,7 @@
         <v>812</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>14</v>
@@ -13117,7 +13125,7 @@
         <v>30</v>
       </c>
       <c r="E293" s="1">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="F293" s="11" t="s">
         <v>43</v>
@@ -13130,10 +13138,10 @@
       <c r="I293" s="10"/>
       <c r="J293" s="10"/>
       <c r="K293" s="9" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="L293" s="10" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -13141,7 +13149,7 @@
         <v>812</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>14</v>
@@ -13150,23 +13158,23 @@
         <v>30</v>
       </c>
       <c r="E294" s="1">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G294" s="11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
-      <c r="K294" s="10" t="s">
-        <v>898</v>
+      <c r="K294" s="9" t="s">
+        <v>895</v>
       </c>
       <c r="L294" s="10" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -13174,7 +13182,7 @@
         <v>812</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C295" s="9" t="s">
         <v>14</v>
@@ -13183,7 +13191,7 @@
         <v>30</v>
       </c>
       <c r="E295" s="1">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="F295" s="11" t="s">
         <v>17</v>
@@ -13195,11 +13203,11 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
       <c r="J295" s="10"/>
-      <c r="K295" s="9" t="s">
-        <v>900</v>
+      <c r="K295" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="L295" s="10" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -13207,7 +13215,7 @@
         <v>812</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C296" s="9" t="s">
         <v>14</v>
@@ -13216,10 +13224,10 @@
         <v>30</v>
       </c>
       <c r="E296" s="1">
-        <v>180</v>
+        <v>1.33</v>
       </c>
       <c r="F296" s="11" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G296" s="11" t="b">
         <f>TRUE()</f>
@@ -13228,11 +13236,11 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
-      <c r="K296" s="10" t="s">
-        <v>903</v>
+      <c r="K296" s="9" t="s">
+        <v>900</v>
       </c>
       <c r="L296" s="10" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
@@ -13240,7 +13248,7 @@
         <v>812</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C297" s="9" t="s">
         <v>14</v>
@@ -13249,7 +13257,7 @@
         <v>30</v>
       </c>
       <c r="E297" s="1">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F297" s="11" t="s">
         <v>51</v>
@@ -13262,10 +13270,10 @@
       <c r="I297" s="10"/>
       <c r="J297" s="10"/>
       <c r="K297" s="10" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="L297" s="10" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
@@ -13273,36 +13281,32 @@
         <v>812</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C298" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E298" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G298" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H298" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I298" s="10" t="s">
-        <v>909</v>
-      </c>
+      <c r="H298" s="10"/>
+      <c r="I298" s="10"/>
       <c r="J298" s="10"/>
       <c r="K298" s="10" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="L298" s="10" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -13310,7 +13314,7 @@
         <v>812</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C299" s="9" t="s">
         <v>14</v>
@@ -13331,13 +13335,15 @@
       <c r="H299" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I299" s="10"/>
+      <c r="I299" s="10" t="s">
+        <v>909</v>
+      </c>
       <c r="J299" s="10"/>
       <c r="K299" s="10" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="L299" s="10" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
@@ -13345,7 +13351,7 @@
         <v>812</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C300" s="9" t="s">
         <v>14</v>
@@ -13356,7 +13362,9 @@
       <c r="E300" s="1">
         <v>0</v>
       </c>
-      <c r="F300" s="11"/>
+      <c r="F300" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G300" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -13364,15 +13372,13 @@
       <c r="H300" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I300" s="10" t="s">
-        <v>916</v>
-      </c>
+      <c r="I300" s="10"/>
       <c r="J300" s="10"/>
       <c r="K300" s="10" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="L300" s="10" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
@@ -13380,32 +13386,34 @@
         <v>812</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C301" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E301" s="1">
-        <v>195</v>
-      </c>
-      <c r="F301" s="11" t="s">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F301" s="11"/>
       <c r="G301" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H301" s="10"/>
-      <c r="I301" s="10"/>
+      <c r="H301" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I301" s="10" t="s">
+        <v>916</v>
+      </c>
       <c r="J301" s="10"/>
-      <c r="K301" s="9" t="s">
-        <v>920</v>
+      <c r="K301" s="10" t="s">
+        <v>917</v>
       </c>
       <c r="L301" s="10" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -13413,7 +13421,7 @@
         <v>812</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C302" s="9" t="s">
         <v>14</v>
@@ -13422,10 +13430,10 @@
         <v>30</v>
       </c>
       <c r="E302" s="1">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="F302" s="11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G302" s="11" t="b">
         <f>TRUE()</f>
@@ -13434,11 +13442,11 @@
       <c r="H302" s="10"/>
       <c r="I302" s="10"/>
       <c r="J302" s="10"/>
-      <c r="K302" s="10" t="s">
-        <v>923</v>
+      <c r="K302" s="9" t="s">
+        <v>920</v>
       </c>
       <c r="L302" s="10" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
@@ -13446,34 +13454,32 @@
         <v>812</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C303" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E303" s="1">
-        <v>0</v>
-      </c>
-      <c r="F303" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="F303" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G303" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H303" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I303" s="10" t="s">
-        <v>926</v>
-      </c>
+      <c r="H303" s="10"/>
+      <c r="I303" s="10"/>
       <c r="J303" s="10"/>
       <c r="K303" s="10" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="L303" s="10" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
@@ -13481,32 +13487,34 @@
         <v>812</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C304" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E304" s="1">
-        <v>1</v>
-      </c>
-      <c r="F304" s="11" t="s">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F304" s="11"/>
       <c r="G304" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H304" s="10"/>
-      <c r="I304" s="10"/>
+      <c r="H304" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I304" s="10" t="s">
+        <v>926</v>
+      </c>
       <c r="J304" s="10"/>
       <c r="K304" s="10" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="L304" s="10" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
@@ -13514,7 +13522,7 @@
         <v>812</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C305" s="9" t="s">
         <v>14</v>
@@ -13523,7 +13531,7 @@
         <v>30</v>
       </c>
       <c r="E305" s="1">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="F305" s="11" t="s">
         <v>17</v>
@@ -13536,10 +13544,10 @@
       <c r="I305" s="10"/>
       <c r="J305" s="10"/>
       <c r="K305" s="10" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="L305" s="10" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -13547,7 +13555,7 @@
         <v>812</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C306" s="9" t="s">
         <v>14</v>
@@ -13556,10 +13564,10 @@
         <v>30</v>
       </c>
       <c r="E306" s="1">
-        <v>100</v>
+        <v>1E-3</v>
       </c>
       <c r="F306" s="11" t="s">
-        <v>936</v>
+        <v>17</v>
       </c>
       <c r="G306" s="11" t="b">
         <f>TRUE()</f>
@@ -13569,10 +13577,10 @@
       <c r="I306" s="10"/>
       <c r="J306" s="10"/>
       <c r="K306" s="10" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="L306" s="10" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
@@ -13580,32 +13588,32 @@
         <v>812</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E307" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>128</v>
+        <v>936</v>
       </c>
       <c r="G307" s="11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H307" s="10"/>
       <c r="I307" s="10"/>
       <c r="J307" s="10"/>
       <c r="K307" s="10" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="L307" s="10" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
@@ -13613,7 +13621,7 @@
         <v>812</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C308" s="9" t="s">
         <v>90</v>
@@ -13635,10 +13643,10 @@
       <c r="I308" s="10"/>
       <c r="J308" s="10"/>
       <c r="K308" s="10" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="L308" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
@@ -13646,16 +13654,19 @@
         <v>812</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C309" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>87</v>
+        <v>30</v>
+      </c>
+      <c r="E309" s="1">
+        <v>0</v>
       </c>
       <c r="F309" s="11" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="G309" s="11" t="b">
         <f>FALSE()</f>
@@ -13665,10 +13676,10 @@
       <c r="I309" s="10"/>
       <c r="J309" s="10"/>
       <c r="K309" s="10" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="L309" s="10" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -13676,19 +13687,16 @@
         <v>812</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C310" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E310" s="1">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F310" s="11" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G310" s="11" t="b">
         <f>FALSE()</f>
@@ -13698,10 +13706,10 @@
       <c r="I310" s="10"/>
       <c r="J310" s="10"/>
       <c r="K310" s="10" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="L310" s="10" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -13709,7 +13717,7 @@
         <v>812</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C311" s="9" t="s">
         <v>90</v>
@@ -13731,9 +13739,42 @@
       <c r="I311" s="10"/>
       <c r="J311" s="10"/>
       <c r="K311" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="L311" s="10" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A312" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D312" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E312" s="1">
+        <v>0</v>
+      </c>
+      <c r="F312" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G312" s="11" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H312" s="10"/>
+      <c r="I312" s="10"/>
+      <c r="J312" s="10"/>
+      <c r="K312" s="10" t="s">
         <v>950</v>
       </c>
-      <c r="L311" s="10" t="s">
+      <c r="L312" s="10" t="s">
         <v>950</v>
       </c>
     </row>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwagner\Documents\NREL\projects\SolarPILOT\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD95DE2-4884-48F4-B22B-4828B95AAF74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C78A1B-BC61-429A-9242-C7566D876F54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="961">
   <si>
     <t>Domain</t>
   </si>
@@ -2902,6 +2902,18 @@
   </si>
   <si>
     <t>Correction of circumsolar ratio based on energy balance</t>
+  </si>
+  <si>
+    <t>map_color</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>Specified receiver map color</t>
+  </si>
+  <si>
+    <t>Specified receiver map color (hex)</t>
   </si>
 </sst>
 </file>
@@ -2998,8 +3010,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L313" totalsRowShown="0">
-  <autoFilter ref="A1:L313" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L314" totalsRowShown="0">
+  <autoFilter ref="A1:L314" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="String name"/>
@@ -3315,11 +3327,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L313"/>
+  <dimension ref="A1:L314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G262" sqref="G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11224,26 +11236,28 @@
         <v>666</v>
       </c>
       <c r="B258" t="s">
-        <v>780</v>
+        <v>957</v>
       </c>
       <c r="C258" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D258" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>958</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G258" s="2" t="b">
-        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>781</v>
+        <v>959</v>
       </c>
       <c r="L258" s="3" t="s">
-        <v>781</v>
+        <v>960</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -11251,29 +11265,26 @@
         <v>666</v>
       </c>
       <c r="B259" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C259" t="s">
         <v>90</v>
       </c>
       <c r="D259" t="s">
-        <v>30</v>
-      </c>
-      <c r="E259" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="G259" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -11281,7 +11292,7 @@
         <v>666</v>
       </c>
       <c r="B260" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C260" t="s">
         <v>90</v>
@@ -11290,20 +11301,20 @@
         <v>30</v>
       </c>
       <c r="E260" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="G260" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K260" t="s">
-        <v>786</v>
+      <c r="K260" s="3" t="s">
+        <v>783</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -11311,7 +11322,7 @@
         <v>666</v>
       </c>
       <c r="B261" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C261" t="s">
         <v>90</v>
@@ -11320,20 +11331,20 @@
         <v>30</v>
       </c>
       <c r="E261" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>789</v>
+        <v>43</v>
       </c>
       <c r="G261" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K261" s="3" t="s">
-        <v>790</v>
+      <c r="K261" t="s">
+        <v>786</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -11341,7 +11352,7 @@
         <v>666</v>
       </c>
       <c r="B262" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C262" t="s">
         <v>90</v>
@@ -11350,20 +11361,20 @@
         <v>30</v>
       </c>
       <c r="E262" s="1">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>17</v>
+        <v>789</v>
       </c>
       <c r="G262" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
@@ -11371,7 +11382,7 @@
         <v>666</v>
       </c>
       <c r="B263" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C263" t="s">
         <v>90</v>
@@ -11380,20 +11391,20 @@
         <v>30</v>
       </c>
       <c r="E263" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G263" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K263" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -11401,7 +11412,7 @@
         <v>666</v>
       </c>
       <c r="B264" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C264" t="s">
         <v>90</v>
@@ -11413,17 +11424,17 @@
         <v>0</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>789</v>
+        <v>17</v>
       </c>
       <c r="G264" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -11431,7 +11442,7 @@
         <v>666</v>
       </c>
       <c r="B265" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C265" t="s">
         <v>90</v>
@@ -11450,10 +11461,10 @@
         <v>0</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -11461,7 +11472,7 @@
         <v>666</v>
       </c>
       <c r="B266" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C266" t="s">
         <v>90</v>
@@ -11473,17 +11484,17 @@
         <v>0</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>43</v>
+        <v>789</v>
       </c>
       <c r="G266" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K266" t="s">
-        <v>804</v>
+      <c r="K266" s="3" t="s">
+        <v>801</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -11491,7 +11502,7 @@
         <v>666</v>
       </c>
       <c r="B267" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C267" t="s">
         <v>90</v>
@@ -11510,10 +11521,10 @@
         <v>0</v>
       </c>
       <c r="K267" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -11521,7 +11532,7 @@
         <v>666</v>
       </c>
       <c r="B268" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C268" t="s">
         <v>90</v>
@@ -11540,40 +11551,40 @@
         <v>0</v>
       </c>
       <c r="K268" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="L268" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>812</v>
+        <v>666</v>
       </c>
       <c r="B269" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C269" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D269" t="s">
         <v>30</v>
       </c>
       <c r="E269" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G269" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K269" s="3" t="s">
-        <v>814</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K269" t="s">
+        <v>810</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -11581,7 +11592,7 @@
         <v>812</v>
       </c>
       <c r="B270" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C270" t="s">
         <v>14</v>
@@ -11590,7 +11601,7 @@
         <v>30</v>
       </c>
       <c r="E270" s="1">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>51</v>
@@ -11600,10 +11611,10 @@
         <v>1</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="L270" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -11611,7 +11622,7 @@
         <v>812</v>
       </c>
       <c r="B271" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
@@ -11620,20 +11631,20 @@
         <v>30</v>
       </c>
       <c r="E271" s="1">
-        <v>2</v>
+        <v>-180</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G271" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K271" t="s">
-        <v>820</v>
+      <c r="K271" s="3" t="s">
+        <v>817</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -11641,29 +11652,29 @@
         <v>812</v>
       </c>
       <c r="B272" t="s">
-        <v>26</v>
+        <v>819</v>
       </c>
       <c r="C272" t="s">
         <v>14</v>
       </c>
       <c r="D272" t="s">
-        <v>21</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>822</v>
+        <v>30</v>
+      </c>
+      <c r="E272" s="1">
+        <v>2</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G272" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K272" s="3" t="s">
-        <v>28</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K272" t="s">
+        <v>820</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>28</v>
+        <v>821</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -11671,7 +11682,7 @@
         <v>812</v>
       </c>
       <c r="B273" t="s">
-        <v>823</v>
+        <v>26</v>
       </c>
       <c r="C273" t="s">
         <v>14</v>
@@ -11679,27 +11690,21 @@
       <c r="D273" t="s">
         <v>21</v>
       </c>
-      <c r="E273" s="1">
-        <v>5</v>
+      <c r="E273" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G273" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H273" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I273" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="K273" t="s">
-        <v>825</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L273" s="3" t="s">
-        <v>826</v>
+        <v>28</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -11707,16 +11712,16 @@
         <v>812</v>
       </c>
       <c r="B274" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
       </c>
       <c r="D274" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="E274" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>17</v>
@@ -11725,11 +11730,17 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K274" s="3" t="s">
-        <v>828</v>
+      <c r="H274" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="K274" t="s">
+        <v>825</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -11737,7 +11748,7 @@
         <v>812</v>
       </c>
       <c r="B275" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
@@ -11746,7 +11757,7 @@
         <v>228</v>
       </c>
       <c r="E275" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>17</v>
@@ -11756,10 +11767,10 @@
         <v>1</v>
       </c>
       <c r="K275" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -11767,29 +11778,29 @@
         <v>812</v>
       </c>
       <c r="B276" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C276" t="s">
         <v>14</v>
       </c>
       <c r="D276" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E276" s="1">
-        <v>950</v>
+        <v>2</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G276" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
@@ -11797,35 +11808,29 @@
         <v>812</v>
       </c>
       <c r="B277" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C277" t="s">
         <v>14</v>
       </c>
       <c r="D277" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E277" s="1">
-        <v>7</v>
+        <v>950</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G277" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H277" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I277" s="3" t="s">
-        <v>837</v>
-      </c>
       <c r="K277" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -11833,17 +11838,16 @@
         <v>812</v>
       </c>
       <c r="B278" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C278" t="s">
         <v>14</v>
       </c>
       <c r="D278" t="s">
-        <v>111</v>
-      </c>
-      <c r="E278" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E278" s="1">
+        <v>7</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>17</v>
@@ -11853,13 +11857,16 @@
         <v>1</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="K278" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -11867,7 +11874,7 @@
         <v>812</v>
       </c>
       <c r="B279" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C279" t="s">
         <v>14</v>
@@ -11876,24 +11883,24 @@
         <v>111</v>
       </c>
       <c r="E279" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G279" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H279" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K279" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
@@ -11901,7 +11908,7 @@
         <v>812</v>
       </c>
       <c r="B280" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C280" t="s">
         <v>14</v>
@@ -11910,24 +11917,24 @@
         <v>111</v>
       </c>
       <c r="E280" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G280" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H280" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -11935,7 +11942,7 @@
         <v>812</v>
       </c>
       <c r="B281" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C281" t="s">
         <v>14</v>
@@ -11944,24 +11951,24 @@
         <v>111</v>
       </c>
       <c r="E281" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G281" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H281" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="L281" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -11969,7 +11976,7 @@
         <v>812</v>
       </c>
       <c r="B282" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
@@ -11978,24 +11985,24 @@
         <v>111</v>
       </c>
       <c r="E282" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G282" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H282" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K282" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -12003,23 +12010,33 @@
         <v>812</v>
       </c>
       <c r="B283" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
       </c>
       <c r="D283" t="s">
-        <v>21</v>
+        <v>111</v>
+      </c>
+      <c r="E283" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G283" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="K283" s="3" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -12027,7 +12044,7 @@
         <v>812</v>
       </c>
       <c r="B284" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
@@ -12035,27 +12052,15 @@
       <c r="D284" t="s">
         <v>21</v>
       </c>
-      <c r="E284" s="1">
-        <v>0</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G284" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H284" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I284" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="K284" t="s">
-        <v>859</v>
+      <c r="K284" s="3" t="s">
+        <v>856</v>
       </c>
       <c r="L284" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -12063,29 +12068,35 @@
         <v>812</v>
       </c>
       <c r="B285" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
       </c>
       <c r="D285" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E285" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>862</v>
+        <v>17</v>
       </c>
       <c r="G285" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K285" s="3" t="s">
-        <v>863</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="K285" t="s">
+        <v>859</v>
       </c>
       <c r="L285" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -12093,7 +12104,7 @@
         <v>812</v>
       </c>
       <c r="B286" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C286" t="s">
         <v>14</v>
@@ -12112,10 +12123,10 @@
         <v>1</v>
       </c>
       <c r="K286" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="L286" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -12123,7 +12134,7 @@
         <v>812</v>
       </c>
       <c r="B287" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
@@ -12132,7 +12143,7 @@
         <v>30</v>
       </c>
       <c r="E287" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>862</v>
@@ -12142,10 +12153,10 @@
         <v>1</v>
       </c>
       <c r="K287" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="L287" s="3" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -12153,7 +12164,7 @@
         <v>812</v>
       </c>
       <c r="B288" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
@@ -12172,10 +12183,10 @@
         <v>1</v>
       </c>
       <c r="K288" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="L288" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -12183,7 +12194,7 @@
         <v>812</v>
       </c>
       <c r="B289" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C289" t="s">
         <v>14</v>
@@ -12192,20 +12203,20 @@
         <v>30</v>
       </c>
       <c r="E289" s="1">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>17</v>
+        <v>862</v>
       </c>
       <c r="G289" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K289" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="L289" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -12213,7 +12224,7 @@
         <v>812</v>
       </c>
       <c r="B290" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C290" t="s">
         <v>14</v>
@@ -12222,20 +12233,20 @@
         <v>30</v>
       </c>
       <c r="E290" s="1">
-        <v>670</v>
+        <v>0.03</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>878</v>
+        <v>17</v>
       </c>
       <c r="G290" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K290" t="s">
-        <v>879</v>
+      <c r="K290" s="3" t="s">
+        <v>875</v>
       </c>
       <c r="L290" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -12243,35 +12254,29 @@
         <v>812</v>
       </c>
       <c r="B291" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C291" t="s">
         <v>14</v>
       </c>
       <c r="D291" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E291" s="1">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>17</v>
+        <v>878</v>
       </c>
       <c r="G291" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H291" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I291" s="3" t="s">
-        <v>882</v>
-      </c>
       <c r="K291" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="L291" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -12279,16 +12284,16 @@
         <v>812</v>
       </c>
       <c r="B292" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C292" t="s">
         <v>14</v>
       </c>
       <c r="D292" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E292" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>17</v>
@@ -12297,11 +12302,17 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K292" s="3" t="s">
-        <v>886</v>
+      <c r="H292" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="K292" t="s">
+        <v>883</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -12309,7 +12320,7 @@
         <v>812</v>
       </c>
       <c r="B293" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C293" t="s">
         <v>14</v>
@@ -12328,10 +12339,10 @@
         <v>1</v>
       </c>
       <c r="K293" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="L293" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -12339,7 +12350,7 @@
         <v>812</v>
       </c>
       <c r="B294" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C294" t="s">
         <v>14</v>
@@ -12348,20 +12359,20 @@
         <v>30</v>
       </c>
       <c r="E294" s="1">
-        <v>195</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G294" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K294" t="s">
-        <v>892</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>889</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -12369,7 +12380,7 @@
         <v>812</v>
       </c>
       <c r="B295" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C295" t="s">
         <v>14</v>
@@ -12378,7 +12389,7 @@
         <v>30</v>
       </c>
       <c r="E295" s="1">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>43</v>
@@ -12388,10 +12399,10 @@
         <v>0</v>
       </c>
       <c r="K295" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -12399,7 +12410,7 @@
         <v>812</v>
       </c>
       <c r="B296" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C296" t="s">
         <v>14</v>
@@ -12408,20 +12419,20 @@
         <v>30</v>
       </c>
       <c r="E296" s="1">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G296" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K296" s="3" t="s">
-        <v>898</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K296" t="s">
+        <v>895</v>
       </c>
       <c r="L296" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
@@ -12429,7 +12440,7 @@
         <v>812</v>
       </c>
       <c r="B297" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C297" t="s">
         <v>14</v>
@@ -12438,7 +12449,7 @@
         <v>30</v>
       </c>
       <c r="E297" s="1">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>17</v>
@@ -12447,11 +12458,11 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K297" t="s">
-        <v>900</v>
+      <c r="K297" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="L297" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
@@ -12459,7 +12470,7 @@
         <v>812</v>
       </c>
       <c r="B298" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C298" t="s">
         <v>14</v>
@@ -12468,20 +12479,20 @@
         <v>30</v>
       </c>
       <c r="E298" s="1">
-        <v>180</v>
+        <v>1.33</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G298" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K298" s="3" t="s">
-        <v>903</v>
+      <c r="K298" t="s">
+        <v>900</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -12489,7 +12500,7 @@
         <v>812</v>
       </c>
       <c r="B299" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C299" t="s">
         <v>14</v>
@@ -12498,7 +12509,7 @@
         <v>30</v>
       </c>
       <c r="E299" s="1">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>51</v>
@@ -12508,10 +12519,10 @@
         <v>1</v>
       </c>
       <c r="K299" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
@@ -12519,35 +12530,29 @@
         <v>812</v>
       </c>
       <c r="B300" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C300" t="s">
         <v>14</v>
       </c>
       <c r="D300" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E300" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G300" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H300" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I300" s="3" t="s">
-        <v>909</v>
-      </c>
       <c r="K300" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="L300" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
@@ -12555,7 +12560,7 @@
         <v>812</v>
       </c>
       <c r="B301" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C301" t="s">
         <v>14</v>
@@ -12576,11 +12581,14 @@
       <c r="H301" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="I301" s="3" t="s">
+        <v>909</v>
+      </c>
       <c r="K301" s="3" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -12588,7 +12596,7 @@
         <v>812</v>
       </c>
       <c r="B302" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C302" t="s">
         <v>14</v>
@@ -12599,6 +12607,9 @@
       <c r="E302" s="1">
         <v>0</v>
       </c>
+      <c r="F302" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G302" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -12606,14 +12617,11 @@
       <c r="H302" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I302" s="3" t="s">
-        <v>916</v>
-      </c>
       <c r="K302" s="3" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
@@ -12621,29 +12629,32 @@
         <v>812</v>
       </c>
       <c r="B303" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C303" t="s">
         <v>14</v>
       </c>
       <c r="D303" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E303" s="1">
-        <v>195</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G303" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K303" t="s">
-        <v>920</v>
+      <c r="H303" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="K303" s="3" t="s">
+        <v>917</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
@@ -12651,7 +12662,7 @@
         <v>812</v>
       </c>
       <c r="B304" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C304" t="s">
         <v>14</v>
@@ -12660,20 +12671,20 @@
         <v>30</v>
       </c>
       <c r="E304" s="1">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G304" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K304" s="3" t="s">
-        <v>923</v>
+      <c r="K304" t="s">
+        <v>920</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
@@ -12681,32 +12692,29 @@
         <v>812</v>
       </c>
       <c r="B305" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C305" t="s">
         <v>14</v>
       </c>
       <c r="D305" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E305" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G305" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H305" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I305" s="3" t="s">
-        <v>926</v>
-      </c>
       <c r="K305" s="3" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -12714,29 +12722,32 @@
         <v>812</v>
       </c>
       <c r="B306" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C306" t="s">
         <v>14</v>
       </c>
       <c r="D306" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E306" s="1">
-        <v>1</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G306" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
+      <c r="H306" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="K306" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
@@ -12744,7 +12755,7 @@
         <v>812</v>
       </c>
       <c r="B307" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C307" t="s">
         <v>14</v>
@@ -12753,7 +12764,7 @@
         <v>30</v>
       </c>
       <c r="E307" s="1">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>17</v>
@@ -12763,10 +12774,10 @@
         <v>1</v>
       </c>
       <c r="K307" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
@@ -12774,7 +12785,7 @@
         <v>812</v>
       </c>
       <c r="B308" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C308" t="s">
         <v>14</v>
@@ -12783,20 +12794,20 @@
         <v>30</v>
       </c>
       <c r="E308" s="1">
-        <v>100</v>
+        <v>1E-3</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>936</v>
+        <v>17</v>
       </c>
       <c r="G308" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K308" s="3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
@@ -12804,29 +12815,29 @@
         <v>812</v>
       </c>
       <c r="B309" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C309" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D309" t="s">
         <v>30</v>
       </c>
       <c r="E309" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>128</v>
+        <v>936</v>
       </c>
       <c r="G309" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K309" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="L309" s="3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -12834,7 +12845,7 @@
         <v>812</v>
       </c>
       <c r="B310" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C310" t="s">
         <v>90</v>
@@ -12853,10 +12864,10 @@
         <v>0</v>
       </c>
       <c r="K310" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -12864,26 +12875,29 @@
         <v>812</v>
       </c>
       <c r="B311" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C311" t="s">
         <v>90</v>
       </c>
       <c r="D311" t="s">
-        <v>87</v>
+        <v>30</v>
+      </c>
+      <c r="E311" s="1">
+        <v>0</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="G311" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K311" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="L311" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
@@ -12891,29 +12905,26 @@
         <v>812</v>
       </c>
       <c r="B312" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C312" t="s">
         <v>90</v>
       </c>
       <c r="D312" t="s">
-        <v>30</v>
-      </c>
-      <c r="E312" s="1">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G312" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K312" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
@@ -12921,7 +12932,7 @@
         <v>812</v>
       </c>
       <c r="B313" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C313" t="s">
         <v>90</v>
@@ -12940,9 +12951,39 @@
         <v>0</v>
       </c>
       <c r="K313" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>812</v>
+      </c>
+      <c r="B314" t="s">
+        <v>949</v>
+      </c>
+      <c r="C314" t="s">
+        <v>90</v>
+      </c>
+      <c r="D314" t="s">
+        <v>30</v>
+      </c>
+      <c r="E314" s="1">
+        <v>0</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G314" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K314" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="L313" s="3" t="s">
+      <c r="L314" s="3" t="s">
         <v>950</v>
       </c>
     </row>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwagner\Documents\NREL\projects\SolarPILOT\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHamilt2\Documents\solarPILOT_build\SolarPILOT\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C78A1B-BC61-429A-9242-C7566D876F54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF09015-F0DF-4886-92C0-54242CCE2AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="963">
   <si>
     <t>Domain</t>
   </si>
@@ -2914,6 +2916,12 @@
   </si>
   <si>
     <t>Specified receiver map color (hex)</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>SolarPILOT code base version number</t>
   </si>
 </sst>
 </file>
@@ -3010,8 +3018,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L314" totalsRowShown="0">
-  <autoFilter ref="A1:L314" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L315" totalsRowShown="0">
+  <autoFilter ref="A1:L315" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="String name"/>
@@ -3327,31 +3335,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L314"/>
+  <dimension ref="A1:L315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G262" sqref="G262"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="114.42578125" customWidth="1"/>
-    <col min="13" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.453125"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.54296875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="114.453125" customWidth="1"/>
+    <col min="13" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3389,7 +3397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3422,7 +3430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3458,7 +3466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3488,7 +3496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3518,7 +3526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3548,7 +3556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3578,7 +3586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3608,7 +3616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3644,7 +3652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3674,7 +3682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3704,7 +3712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3734,7 +3742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3764,7 +3772,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3794,7 +3802,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3821,7 +3829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3851,7 +3859,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3887,7 +3895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3917,7 +3925,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3944,7 +3952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3974,7 +3982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4001,7 +4009,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -4030,7 +4038,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4060,7 +4068,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4090,7 +4098,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -4120,7 +4128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -4150,7 +4158,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -4180,7 +4188,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -4210,7 +4218,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -4241,7 +4249,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -4271,7 +4279,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -4301,7 +4309,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -4331,7 +4339,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -4361,7 +4369,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -4391,7 +4399,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -4421,7 +4429,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -4451,7 +4459,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -4481,7 +4489,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -4511,7 +4519,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -4541,7 +4549,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -4568,7 +4576,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -4595,7 +4603,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -4625,7 +4633,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -4655,7 +4663,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -4685,7 +4693,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -4715,7 +4723,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -4745,7 +4753,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -4775,7 +4783,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -4805,7 +4813,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4835,7 +4843,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -4865,7 +4873,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -4895,7 +4903,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -4925,7 +4933,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -4955,7 +4963,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -4985,7 +4993,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>190</v>
       </c>
@@ -5048,7 +5056,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -5078,7 +5086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -5108,7 +5116,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>190</v>
       </c>
@@ -5138,7 +5146,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -5168,7 +5176,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>190</v>
       </c>
@@ -5198,7 +5206,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -5225,7 +5233,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -5252,7 +5260,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -5285,7 +5293,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -5315,7 +5323,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5345,7 +5353,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -5369,7 +5377,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -5396,7 +5404,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -5429,7 +5437,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -5459,7 +5467,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>190</v>
       </c>
@@ -5489,7 +5497,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -5525,7 +5533,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -5552,7 +5560,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>190</v>
       </c>
@@ -5579,7 +5587,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>190</v>
       </c>
@@ -5606,7 +5614,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -5642,7 +5650,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -5676,7 +5684,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>190</v>
       </c>
@@ -5707,7 +5715,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>190</v>
       </c>
@@ -5738,7 +5746,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -5769,7 +5777,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -5800,7 +5808,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -5837,7 +5845,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -5868,7 +5876,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -5905,7 +5913,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -5936,7 +5944,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -5966,7 +5974,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -5996,7 +6004,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -6023,7 +6031,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -6053,7 +6061,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -6083,7 +6091,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -6119,7 +6127,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -6150,7 +6158,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -6177,7 +6185,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -6207,7 +6215,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -6234,7 +6242,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6264,7 +6272,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -6291,10 +6299,10 @@
         <v>323</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -6321,10 +6329,10 @@
         <v>326</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>190</v>
       </c>
@@ -6353,7 +6361,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>190</v>
       </c>
@@ -6383,7 +6391,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>190</v>
       </c>
@@ -6413,7 +6421,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>332</v>
       </c>
@@ -6443,7 +6451,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>332</v>
       </c>
@@ -6473,7 +6481,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>332</v>
       </c>
@@ -6509,7 +6517,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>332</v>
       </c>
@@ -6539,7 +6547,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>332</v>
       </c>
@@ -6569,7 +6577,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>332</v>
       </c>
@@ -6599,7 +6607,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>332</v>
       </c>
@@ -6629,7 +6637,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>332</v>
       </c>
@@ -6659,7 +6667,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -6689,7 +6697,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -6719,7 +6727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>332</v>
       </c>
@@ -6749,7 +6757,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -6779,7 +6787,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>332</v>
       </c>
@@ -6809,7 +6817,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -6839,7 +6847,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>332</v>
       </c>
@@ -6869,7 +6877,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>332</v>
       </c>
@@ -6899,7 +6907,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>332</v>
       </c>
@@ -6929,7 +6937,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>332</v>
       </c>
@@ -6965,7 +6973,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>332</v>
       </c>
@@ -7001,7 +7009,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>332</v>
       </c>
@@ -7031,7 +7039,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>332</v>
       </c>
@@ -7058,7 +7066,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>332</v>
       </c>
@@ -7088,7 +7096,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>332</v>
       </c>
@@ -7119,7 +7127,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>332</v>
       </c>
@@ -7153,7 +7161,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>332</v>
       </c>
@@ -7181,7 +7189,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>332</v>
       </c>
@@ -7215,7 +7223,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>332</v>
       </c>
@@ -7249,7 +7257,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>332</v>
       </c>
@@ -7285,7 +7293,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>332</v>
       </c>
@@ -7319,7 +7327,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>332</v>
       </c>
@@ -7353,7 +7361,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>332</v>
       </c>
@@ -7380,7 +7388,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>332</v>
       </c>
@@ -7407,7 +7415,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>332</v>
       </c>
@@ -7437,7 +7445,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>332</v>
       </c>
@@ -7467,7 +7475,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>332</v>
       </c>
@@ -7497,7 +7505,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>332</v>
       </c>
@@ -7527,7 +7535,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>332</v>
       </c>
@@ -7557,7 +7565,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>332</v>
       </c>
@@ -7587,7 +7595,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>332</v>
       </c>
@@ -7617,7 +7625,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>332</v>
       </c>
@@ -7647,7 +7655,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>332</v>
       </c>
@@ -7677,7 +7685,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>332</v>
       </c>
@@ -7707,7 +7715,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>332</v>
       </c>
@@ -7746,7 +7754,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>332</v>
       </c>
@@ -7779,7 +7787,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>332</v>
       </c>
@@ -7806,7 +7814,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>332</v>
       </c>
@@ -7836,7 +7844,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>332</v>
       </c>
@@ -7866,7 +7874,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>332</v>
       </c>
@@ -7896,7 +7904,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>332</v>
       </c>
@@ -7926,7 +7934,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>332</v>
       </c>
@@ -7956,7 +7964,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>332</v>
       </c>
@@ -7986,7 +7994,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>332</v>
       </c>
@@ -8016,7 +8024,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>332</v>
       </c>
@@ -8046,7 +8054,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -8076,7 +8084,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>332</v>
       </c>
@@ -8106,7 +8114,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>332</v>
       </c>
@@ -8136,7 +8144,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -8166,7 +8174,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>332</v>
       </c>
@@ -8196,7 +8204,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>332</v>
       </c>
@@ -8226,7 +8234,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -8256,7 +8264,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -8286,7 +8294,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -8316,7 +8324,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>332</v>
       </c>
@@ -8346,7 +8354,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>513</v>
       </c>
@@ -8376,7 +8384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>513</v>
       </c>
@@ -8400,7 +8408,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>513</v>
       </c>
@@ -8430,7 +8438,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>513</v>
       </c>
@@ -8460,7 +8468,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>513</v>
       </c>
@@ -8491,7 +8499,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>513</v>
       </c>
@@ -8515,7 +8523,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>513</v>
       </c>
@@ -8549,7 +8557,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>513</v>
       </c>
@@ -8583,7 +8591,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>513</v>
       </c>
@@ -8617,7 +8625,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>513</v>
       </c>
@@ -8651,7 +8659,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>513</v>
       </c>
@@ -8681,7 +8689,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>513</v>
       </c>
@@ -8711,7 +8719,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>513</v>
       </c>
@@ -8741,7 +8749,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>513</v>
       </c>
@@ -8771,7 +8779,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>513</v>
       </c>
@@ -8801,7 +8809,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>513</v>
       </c>
@@ -8831,7 +8839,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>513</v>
       </c>
@@ -8861,7 +8869,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>513</v>
       </c>
@@ -8891,7 +8899,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>513</v>
       </c>
@@ -8921,7 +8929,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>513</v>
       </c>
@@ -8951,7 +8959,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>513</v>
       </c>
@@ -8981,7 +8989,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>513</v>
       </c>
@@ -9011,7 +9019,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>576</v>
       </c>
@@ -9047,7 +9055,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>576</v>
       </c>
@@ -9069,7 +9077,7 @@
       </c>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>576</v>
       </c>
@@ -9099,7 +9107,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>576</v>
       </c>
@@ -9132,7 +9140,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>576</v>
       </c>
@@ -9165,7 +9173,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>576</v>
       </c>
@@ -9198,7 +9206,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>576</v>
       </c>
@@ -9228,7 +9236,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>576</v>
       </c>
@@ -9258,7 +9266,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>576</v>
       </c>
@@ -9288,7 +9296,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>576</v>
       </c>
@@ -9318,7 +9326,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>576</v>
       </c>
@@ -9348,7 +9356,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>576</v>
       </c>
@@ -9375,7 +9383,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>576</v>
       </c>
@@ -9405,7 +9413,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>576</v>
       </c>
@@ -9438,7 +9446,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>576</v>
       </c>
@@ -9470,7 +9478,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>619</v>
       </c>
@@ -9500,7 +9508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>619</v>
       </c>
@@ -9527,7 +9535,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>619</v>
       </c>
@@ -9554,7 +9562,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>619</v>
       </c>
@@ -9587,7 +9595,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>619</v>
       </c>
@@ -9618,7 +9626,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>619</v>
       </c>
@@ -9652,7 +9660,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>619</v>
       </c>
@@ -9686,7 +9694,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>619</v>
       </c>
@@ -9720,7 +9728,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>619</v>
       </c>
@@ -9754,7 +9762,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>619</v>
       </c>
@@ -9788,7 +9796,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>619</v>
       </c>
@@ -9822,7 +9830,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>619</v>
       </c>
@@ -9856,7 +9864,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>619</v>
       </c>
@@ -9890,7 +9898,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>619</v>
       </c>
@@ -9924,7 +9932,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>619</v>
       </c>
@@ -9958,7 +9966,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>619</v>
       </c>
@@ -9982,7 +9990,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>619</v>
       </c>
@@ -10009,7 +10017,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>619</v>
       </c>
@@ -10045,7 +10053,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>666</v>
       </c>
@@ -10075,7 +10083,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>666</v>
       </c>
@@ -10111,7 +10119,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>666</v>
       </c>
@@ -10141,7 +10149,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>666</v>
       </c>
@@ -10171,7 +10179,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>666</v>
       </c>
@@ -10204,7 +10212,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>666</v>
       </c>
@@ -10234,7 +10242,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>666</v>
       </c>
@@ -10264,7 +10272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>666</v>
       </c>
@@ -10291,7 +10299,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>666</v>
       </c>
@@ -10322,7 +10330,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>666</v>
       </c>
@@ -10350,7 +10358,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>666</v>
       </c>
@@ -10384,7 +10392,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>666</v>
       </c>
@@ -10418,7 +10426,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>666</v>
       </c>
@@ -10451,7 +10459,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>666</v>
       </c>
@@ -10484,7 +10492,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>666</v>
       </c>
@@ -10514,7 +10522,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>666</v>
       </c>
@@ -10550,7 +10558,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>666</v>
       </c>
@@ -10580,7 +10588,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>666</v>
       </c>
@@ -10610,7 +10618,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>666</v>
       </c>
@@ -10640,7 +10648,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>666</v>
       </c>
@@ -10670,7 +10678,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>666</v>
       </c>
@@ -10700,7 +10708,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>666</v>
       </c>
@@ -10733,7 +10741,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>666</v>
       </c>
@@ -10766,7 +10774,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>666</v>
       </c>
@@ -10796,7 +10804,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>666</v>
       </c>
@@ -10826,7 +10834,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>666</v>
       </c>
@@ -10856,7 +10864,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>666</v>
       </c>
@@ -10883,7 +10891,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>666</v>
       </c>
@@ -10913,7 +10921,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>666</v>
       </c>
@@ -10943,7 +10951,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>666</v>
       </c>
@@ -10973,7 +10981,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>666</v>
       </c>
@@ -11009,7 +11017,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>666</v>
       </c>
@@ -11045,7 +11053,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>666</v>
       </c>
@@ -11075,7 +11083,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>666</v>
       </c>
@@ -11108,7 +11116,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>666</v>
       </c>
@@ -11141,7 +11149,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>666</v>
       </c>
@@ -11171,7 +11179,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>666</v>
       </c>
@@ -11201,7 +11209,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>666</v>
       </c>
@@ -11231,7 +11239,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>666</v>
       </c>
@@ -11260,7 +11268,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>666</v>
       </c>
@@ -11287,7 +11295,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>666</v>
       </c>
@@ -11317,7 +11325,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>666</v>
       </c>
@@ -11347,7 +11355,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>666</v>
       </c>
@@ -11377,7 +11385,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>666</v>
       </c>
@@ -11407,7 +11415,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>666</v>
       </c>
@@ -11437,7 +11445,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>666</v>
       </c>
@@ -11467,7 +11475,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>666</v>
       </c>
@@ -11497,7 +11505,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>666</v>
       </c>
@@ -11527,7 +11535,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>666</v>
       </c>
@@ -11557,7 +11565,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>666</v>
       </c>
@@ -11587,42 +11595,35 @@
         <v>811</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>812</v>
       </c>
       <c r="B270" t="s">
-        <v>813</v>
+        <v>961</v>
       </c>
       <c r="C270" t="s">
         <v>14</v>
       </c>
       <c r="D270" t="s">
-        <v>30</v>
-      </c>
-      <c r="E270" s="1">
-        <v>180</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G270" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K270" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="L270" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K270" t="s">
+        <v>962</v>
+      </c>
+      <c r="L270" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>812</v>
       </c>
       <c r="B271" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
@@ -11631,7 +11632,7 @@
         <v>30</v>
       </c>
       <c r="E271" s="1">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>51</v>
@@ -11641,18 +11642,18 @@
         <v>1</v>
       </c>
       <c r="K271" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>812</v>
       </c>
       <c r="B272" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C272" t="s">
         <v>14</v>
@@ -11661,58 +11662,58 @@
         <v>30</v>
       </c>
       <c r="E272" s="1">
-        <v>2</v>
+        <v>-180</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G272" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K272" t="s">
-        <v>820</v>
+      <c r="K272" s="3" t="s">
+        <v>817</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>812</v>
       </c>
       <c r="B273" t="s">
-        <v>26</v>
+        <v>819</v>
       </c>
       <c r="C273" t="s">
         <v>14</v>
       </c>
       <c r="D273" t="s">
-        <v>21</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>822</v>
+        <v>30</v>
+      </c>
+      <c r="E273" s="1">
+        <v>2</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G273" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K273" s="3" t="s">
-        <v>28</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K273" t="s">
+        <v>820</v>
       </c>
       <c r="L273" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>812</v>
       </c>
       <c r="B274" t="s">
-        <v>823</v>
+        <v>26</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
@@ -11720,44 +11721,38 @@
       <c r="D274" t="s">
         <v>21</v>
       </c>
-      <c r="E274" s="1">
-        <v>5</v>
+      <c r="E274" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G274" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H274" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I274" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="K274" t="s">
-        <v>825</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>812</v>
       </c>
       <c r="B275" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
       </c>
       <c r="D275" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="E275" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>17</v>
@@ -11766,19 +11761,25 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K275" s="3" t="s">
-        <v>828</v>
+      <c r="H275" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="K275" t="s">
+        <v>825</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>812</v>
       </c>
       <c r="B276" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C276" t="s">
         <v>14</v>
@@ -11787,7 +11788,7 @@
         <v>228</v>
       </c>
       <c r="E276" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>17</v>
@@ -11797,94 +11798,87 @@
         <v>1</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>812</v>
       </c>
       <c r="B277" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C277" t="s">
         <v>14</v>
       </c>
       <c r="D277" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E277" s="1">
-        <v>950</v>
+        <v>2</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G277" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K277" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>812</v>
       </c>
       <c r="B278" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C278" t="s">
         <v>14</v>
       </c>
       <c r="D278" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E278" s="1">
-        <v>7</v>
+        <v>950</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G278" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H278" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I278" s="3" t="s">
-        <v>837</v>
-      </c>
       <c r="K278" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>812</v>
       </c>
       <c r="B279" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C279" t="s">
         <v>14</v>
       </c>
       <c r="D279" t="s">
-        <v>111</v>
-      </c>
-      <c r="E279" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E279" s="1">
+        <v>7</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>17</v>
@@ -11894,21 +11888,24 @@
         <v>1</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="K279" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>812</v>
       </c>
       <c r="B280" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C280" t="s">
         <v>14</v>
@@ -11917,32 +11914,32 @@
         <v>111</v>
       </c>
       <c r="E280" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G280" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H280" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>812</v>
       </c>
       <c r="B281" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C281" t="s">
         <v>14</v>
@@ -11951,32 +11948,32 @@
         <v>111</v>
       </c>
       <c r="E281" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G281" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H281" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="L281" s="3" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>812</v>
       </c>
       <c r="B282" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
@@ -11985,32 +11982,32 @@
         <v>111</v>
       </c>
       <c r="E282" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G282" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H282" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K282" s="3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>812</v>
       </c>
       <c r="B283" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
@@ -12019,56 +12016,66 @@
         <v>111</v>
       </c>
       <c r="E283" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G283" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H283" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K283" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>812</v>
       </c>
       <c r="B284" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
       </c>
       <c r="D284" t="s">
-        <v>21</v>
+        <v>111</v>
+      </c>
+      <c r="E284" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G284" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="K284" s="3" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="L284" s="3" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>812</v>
       </c>
       <c r="B285" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
@@ -12076,65 +12083,59 @@
       <c r="D285" t="s">
         <v>21</v>
       </c>
-      <c r="E285" s="1">
-        <v>0</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G285" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H285" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I285" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="K285" t="s">
-        <v>859</v>
+      <c r="K285" s="3" t="s">
+        <v>856</v>
       </c>
       <c r="L285" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>812</v>
       </c>
       <c r="B286" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C286" t="s">
         <v>14</v>
       </c>
       <c r="D286" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E286" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>862</v>
+        <v>17</v>
       </c>
       <c r="G286" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K286" s="3" t="s">
-        <v>863</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="K286" t="s">
+        <v>859</v>
       </c>
       <c r="L286" s="3" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>812</v>
       </c>
       <c r="B287" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
@@ -12153,18 +12154,18 @@
         <v>1</v>
       </c>
       <c r="K287" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="L287" s="3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>812</v>
       </c>
       <c r="B288" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
@@ -12173,7 +12174,7 @@
         <v>30</v>
       </c>
       <c r="E288" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>862</v>
@@ -12183,18 +12184,18 @@
         <v>1</v>
       </c>
       <c r="K288" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="L288" s="3" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>812</v>
       </c>
       <c r="B289" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C289" t="s">
         <v>14</v>
@@ -12213,18 +12214,18 @@
         <v>1</v>
       </c>
       <c r="K289" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="L289" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>812</v>
       </c>
       <c r="B290" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C290" t="s">
         <v>14</v>
@@ -12233,28 +12234,28 @@
         <v>30</v>
       </c>
       <c r="E290" s="1">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>17</v>
+        <v>862</v>
       </c>
       <c r="G290" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K290" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="L290" s="3" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>812</v>
       </c>
       <c r="B291" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C291" t="s">
         <v>14</v>
@@ -12263,73 +12264,67 @@
         <v>30</v>
       </c>
       <c r="E291" s="1">
-        <v>670</v>
+        <v>0.03</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>878</v>
+        <v>17</v>
       </c>
       <c r="G291" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K291" t="s">
-        <v>879</v>
+      <c r="K291" s="3" t="s">
+        <v>875</v>
       </c>
       <c r="L291" s="3" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>812</v>
       </c>
       <c r="B292" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C292" t="s">
         <v>14</v>
       </c>
       <c r="D292" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E292" s="1">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>17</v>
+        <v>878</v>
       </c>
       <c r="G292" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H292" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I292" s="3" t="s">
-        <v>882</v>
-      </c>
       <c r="K292" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>812</v>
       </c>
       <c r="B293" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C293" t="s">
         <v>14</v>
       </c>
       <c r="D293" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E293" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>17</v>
@@ -12338,19 +12333,25 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K293" s="3" t="s">
-        <v>886</v>
+      <c r="H293" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="K293" t="s">
+        <v>883</v>
       </c>
       <c r="L293" s="3" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>812</v>
       </c>
       <c r="B294" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C294" t="s">
         <v>14</v>
@@ -12369,18 +12370,18 @@
         <v>1</v>
       </c>
       <c r="K294" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>812</v>
       </c>
       <c r="B295" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C295" t="s">
         <v>14</v>
@@ -12389,28 +12390,28 @@
         <v>30</v>
       </c>
       <c r="E295" s="1">
-        <v>195</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G295" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K295" t="s">
-        <v>892</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>889</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>812</v>
       </c>
       <c r="B296" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C296" t="s">
         <v>14</v>
@@ -12419,7 +12420,7 @@
         <v>30</v>
       </c>
       <c r="E296" s="1">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>43</v>
@@ -12429,18 +12430,18 @@
         <v>0</v>
       </c>
       <c r="K296" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="L296" s="3" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>812</v>
       </c>
       <c r="B297" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C297" t="s">
         <v>14</v>
@@ -12449,28 +12450,28 @@
         <v>30</v>
       </c>
       <c r="E297" s="1">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G297" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K297" s="3" t="s">
-        <v>898</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K297" t="s">
+        <v>895</v>
       </c>
       <c r="L297" s="3" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>812</v>
       </c>
       <c r="B298" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C298" t="s">
         <v>14</v>
@@ -12479,7 +12480,7 @@
         <v>30</v>
       </c>
       <c r="E298" s="1">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>17</v>
@@ -12488,19 +12489,19 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K298" t="s">
-        <v>900</v>
+      <c r="K298" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>812</v>
       </c>
       <c r="B299" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C299" t="s">
         <v>14</v>
@@ -12509,28 +12510,28 @@
         <v>30</v>
       </c>
       <c r="E299" s="1">
-        <v>180</v>
+        <v>1.33</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G299" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K299" s="3" t="s">
-        <v>903</v>
+      <c r="K299" t="s">
+        <v>900</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>812</v>
       </c>
       <c r="B300" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C300" t="s">
         <v>14</v>
@@ -12539,7 +12540,7 @@
         <v>30</v>
       </c>
       <c r="E300" s="1">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>51</v>
@@ -12549,54 +12550,48 @@
         <v>1</v>
       </c>
       <c r="K300" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="L300" s="3" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>812</v>
       </c>
       <c r="B301" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C301" t="s">
         <v>14</v>
       </c>
       <c r="D301" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E301" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G301" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H301" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I301" s="3" t="s">
-        <v>909</v>
-      </c>
       <c r="K301" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>812</v>
       </c>
       <c r="B302" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C302" t="s">
         <v>14</v>
@@ -12617,19 +12612,22 @@
       <c r="H302" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="I302" s="3" t="s">
+        <v>909</v>
+      </c>
       <c r="K302" s="3" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>812</v>
       </c>
       <c r="B303" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C303" t="s">
         <v>14</v>
@@ -12640,6 +12638,9 @@
       <c r="E303" s="1">
         <v>0</v>
       </c>
+      <c r="F303" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G303" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -12647,52 +12648,52 @@
       <c r="H303" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I303" s="3" t="s">
-        <v>916</v>
-      </c>
       <c r="K303" s="3" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>812</v>
       </c>
       <c r="B304" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C304" t="s">
         <v>14</v>
       </c>
       <c r="D304" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E304" s="1">
-        <v>195</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G304" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K304" t="s">
-        <v>920</v>
+      <c r="H304" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="K304" s="3" t="s">
+        <v>917</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>812</v>
       </c>
       <c r="B305" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C305" t="s">
         <v>14</v>
@@ -12701,91 +12702,91 @@
         <v>30</v>
       </c>
       <c r="E305" s="1">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G305" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K305" s="3" t="s">
-        <v>923</v>
+      <c r="K305" t="s">
+        <v>920</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>812</v>
       </c>
       <c r="B306" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C306" t="s">
         <v>14</v>
       </c>
       <c r="D306" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E306" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G306" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H306" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I306" s="3" t="s">
-        <v>926</v>
-      </c>
       <c r="K306" s="3" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>812</v>
       </c>
       <c r="B307" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C307" t="s">
         <v>14</v>
       </c>
       <c r="D307" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E307" s="1">
-        <v>1</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G307" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
+      <c r="H307" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="K307" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>812</v>
       </c>
       <c r="B308" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C308" t="s">
         <v>14</v>
@@ -12794,7 +12795,7 @@
         <v>30</v>
       </c>
       <c r="E308" s="1">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>17</v>
@@ -12804,18 +12805,18 @@
         <v>1</v>
       </c>
       <c r="K308" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>812</v>
       </c>
       <c r="B309" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C309" t="s">
         <v>14</v>
@@ -12824,58 +12825,58 @@
         <v>30</v>
       </c>
       <c r="E309" s="1">
-        <v>100</v>
+        <v>1E-3</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>936</v>
+        <v>17</v>
       </c>
       <c r="G309" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K309" s="3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="L309" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>812</v>
       </c>
       <c r="B310" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C310" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D310" t="s">
         <v>30</v>
       </c>
       <c r="E310" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>128</v>
+        <v>936</v>
       </c>
       <c r="G310" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K310" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>812</v>
       </c>
       <c r="B311" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C311" t="s">
         <v>90</v>
@@ -12894,75 +12895,75 @@
         <v>0</v>
       </c>
       <c r="K311" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="L311" s="3" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>812</v>
       </c>
       <c r="B312" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C312" t="s">
         <v>90</v>
       </c>
       <c r="D312" t="s">
-        <v>87</v>
+        <v>30</v>
+      </c>
+      <c r="E312" s="1">
+        <v>0</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="G312" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K312" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>812</v>
       </c>
       <c r="B313" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C313" t="s">
         <v>90</v>
       </c>
       <c r="D313" t="s">
-        <v>30</v>
-      </c>
-      <c r="E313" s="1">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G313" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K313" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="L313" s="3" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>812</v>
       </c>
       <c r="B314" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C314" t="s">
         <v>90</v>
@@ -12981,9 +12982,39 @@
         <v>0</v>
       </c>
       <c r="K314" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>812</v>
+      </c>
+      <c r="B315" t="s">
+        <v>949</v>
+      </c>
+      <c r="C315" t="s">
+        <v>90</v>
+      </c>
+      <c r="D315" t="s">
+        <v>30</v>
+      </c>
+      <c r="E315" s="1">
+        <v>0</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G315" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K315" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="L314" s="3" t="s">
+      <c r="L315" s="3" t="s">
         <v>950</v>
       </c>
     </row>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwagner\Documents\NREL\projects\SolarPILOT\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\solarpilot\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C78A1B-BC61-429A-9242-C7566D876F54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ACEA10-C1ED-47A0-A9F4-1B7CEB317B88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,6 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="973">
   <si>
     <t>Domain</t>
   </si>
@@ -2214,21 +2208,9 @@
     <t>rec_cav_cdepth</t>
   </si>
   <si>
-    <t>Cavity curvature centroid offset</t>
-  </si>
-  <si>
-    <t>Offset of centroid of cavity absorber surface from the aperture plane. (Positive-&gt;Increased depth)</t>
-  </si>
-  <si>
     <t>rec_cav_rad</t>
   </si>
   <si>
-    <t>Receiver cavity curvature radius</t>
-  </si>
-  <si>
-    <t>Radius of the receiver cavity absorbing surface</t>
-  </si>
-  <si>
     <t>rec_diameter</t>
   </si>
   <si>
@@ -2307,9 +2289,6 @@
     <t>rec_type</t>
   </si>
   <si>
-    <t>External cylindrical=0;Flat plate=2</t>
-  </si>
-  <si>
     <t>Receiver type</t>
   </si>
   <si>
@@ -2322,27 +2301,6 @@
     <t>Receiver width</t>
   </si>
   <si>
-    <t>Receiver width for cavity or flat receivers</t>
-  </si>
-  <si>
-    <t>span_max</t>
-  </si>
-  <si>
-    <t>Max. receiver panel span angle</t>
-  </si>
-  <si>
-    <t>Maximum (CW) bound of the arc defining the receiver surface</t>
-  </si>
-  <si>
-    <t>span_min</t>
-  </si>
-  <si>
-    <t>Min. receiver panel span angle</t>
-  </si>
-  <si>
-    <t>Minimum (CCW) bound of the arc defining the receiver surface</t>
-  </si>
-  <si>
     <t>therm_loss_base</t>
   </si>
   <si>
@@ -2914,6 +2872,78 @@
   </si>
   <si>
     <t>Specified receiver map color (hex)</t>
+  </si>
+  <si>
+    <t>External cylindrical=0;Cavity=1;Flat plate=2</t>
+  </si>
+  <si>
+    <t>rec_cav_tlip</t>
+  </si>
+  <si>
+    <t>Receiver cavity top lip fractional height</t>
+  </si>
+  <si>
+    <t>Fraction of the total receiver height occupied by the top lip in a cavity geometry</t>
+  </si>
+  <si>
+    <t>rec_cav_blip</t>
+  </si>
+  <si>
+    <t>Receiver cavity bottom lip fractional height</t>
+  </si>
+  <si>
+    <t>Fraction of the total receiver height occupied by the bottom lip in a cavity geometry</t>
+  </si>
+  <si>
+    <t>Receiver cavity active surface radius</t>
+  </si>
+  <si>
+    <t>Radius of the circle circumscribing all active absorber surfaces</t>
+  </si>
+  <si>
+    <t>rec_cav_apwfrac</t>
+  </si>
+  <si>
+    <t>Receiver cavity aperture width fraction</t>
+  </si>
+  <si>
+    <t>Width of cavity aperture relative to maximum width at the aperture plane</t>
+  </si>
+  <si>
+    <t>rec_cav_apw</t>
+  </si>
+  <si>
+    <t>Receiver cavity aperture width</t>
+  </si>
+  <si>
+    <t>Calculated aperture width based on cavity geometry and aperture width fraction</t>
+  </si>
+  <si>
+    <t>Receiver aperture width for flat plate geometry</t>
+  </si>
+  <si>
+    <t>aperture_area</t>
+  </si>
+  <si>
+    <t>Receiver aperture area</t>
+  </si>
+  <si>
+    <t>Area of the aperture available to heliostat aiming</t>
+  </si>
+  <si>
+    <t>rec_cav_aph</t>
+  </si>
+  <si>
+    <t>Receiver cavity aperture height</t>
+  </si>
+  <si>
+    <t>Calculated aperture height based on receiver height and lip height fractions</t>
+  </si>
+  <si>
+    <t>Cavity absorber centroid aperture offset</t>
+  </si>
+  <si>
+    <t>Offset of circle circumscribing cavity absorber surfaces from the aperture plane; fraction of cavity radius; positive yields greater receiver depth</t>
   </si>
 </sst>
 </file>
@@ -3010,8 +3040,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L314" totalsRowShown="0">
-  <autoFilter ref="A1:L314" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L318" totalsRowShown="0">
+  <autoFilter ref="A1:L318" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="String name"/>
@@ -3327,31 +3357,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L314"/>
+  <dimension ref="A1:L318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G262" sqref="G262"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="114.42578125" customWidth="1"/>
-    <col min="13" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.5546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="114.44140625" customWidth="1"/>
+    <col min="13" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3389,7 +3419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3422,7 +3452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3458,7 +3488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3488,7 +3518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3518,7 +3548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3548,7 +3578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3578,7 +3608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3608,7 +3638,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3644,7 +3674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3674,7 +3704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3704,7 +3734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3734,7 +3764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3764,7 +3794,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3794,7 +3824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3821,7 +3851,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3851,7 +3881,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3887,7 +3917,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3917,7 +3947,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3944,7 +3974,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3974,7 +4004,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4001,12 +4031,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="C22" t="s">
         <v>90</v>
@@ -4024,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4060,7 +4090,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4090,7 +4120,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -4120,7 +4150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -4150,7 +4180,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -4180,7 +4210,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -4210,7 +4240,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -4241,7 +4271,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -4271,7 +4301,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -4301,7 +4331,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -4331,7 +4361,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -4361,7 +4391,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -4391,7 +4421,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -4421,7 +4451,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -4451,7 +4481,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -4481,7 +4511,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -4511,7 +4541,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -4541,7 +4571,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -4568,7 +4598,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -4595,7 +4625,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -4625,7 +4655,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -4655,7 +4685,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -4685,7 +4715,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -4715,7 +4745,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -4745,7 +4775,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -4775,7 +4805,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -4805,7 +4835,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4835,7 +4865,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -4865,7 +4895,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -4895,7 +4925,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -4925,7 +4955,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -4955,7 +4985,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -4985,7 +5015,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -5015,7 +5045,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>190</v>
       </c>
@@ -5048,7 +5078,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -5078,7 +5108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -5108,7 +5138,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>190</v>
       </c>
@@ -5138,7 +5168,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -5168,7 +5198,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>190</v>
       </c>
@@ -5198,7 +5228,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -5225,7 +5255,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -5252,7 +5282,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -5285,7 +5315,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -5315,7 +5345,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5345,7 +5375,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -5369,7 +5399,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -5396,7 +5426,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -5429,7 +5459,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -5459,7 +5489,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>190</v>
       </c>
@@ -5489,7 +5519,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -5525,7 +5555,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -5552,7 +5582,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>190</v>
       </c>
@@ -5579,7 +5609,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>190</v>
       </c>
@@ -5606,7 +5636,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -5642,7 +5672,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -5676,7 +5706,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>190</v>
       </c>
@@ -5707,7 +5737,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>190</v>
       </c>
@@ -5738,7 +5768,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -5769,7 +5799,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -5800,7 +5830,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -5837,7 +5867,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -5868,7 +5898,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -5905,7 +5935,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -5936,7 +5966,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -5966,7 +5996,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -5996,7 +6026,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -6023,7 +6053,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -6053,7 +6083,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -6083,7 +6113,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -6119,7 +6149,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -6150,7 +6180,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -6177,7 +6207,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -6207,7 +6237,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -6234,7 +6264,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6264,7 +6294,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -6294,7 +6324,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -6324,12 +6354,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>190</v>
       </c>
       <c r="B99" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -6347,13 +6377,13 @@
         <v>1</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>190</v>
       </c>
@@ -6383,7 +6413,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>190</v>
       </c>
@@ -6413,7 +6443,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>332</v>
       </c>
@@ -6443,7 +6473,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>332</v>
       </c>
@@ -6473,7 +6503,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>332</v>
       </c>
@@ -6509,7 +6539,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>332</v>
       </c>
@@ -6539,7 +6569,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>332</v>
       </c>
@@ -6569,7 +6599,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>332</v>
       </c>
@@ -6599,7 +6629,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>332</v>
       </c>
@@ -6629,7 +6659,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>332</v>
       </c>
@@ -6659,7 +6689,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -6689,7 +6719,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -6719,7 +6749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>332</v>
       </c>
@@ -6749,7 +6779,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -6779,7 +6809,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>332</v>
       </c>
@@ -6809,7 +6839,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -6839,7 +6869,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>332</v>
       </c>
@@ -6869,7 +6899,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>332</v>
       </c>
@@ -6899,7 +6929,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>332</v>
       </c>
@@ -6929,7 +6959,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>332</v>
       </c>
@@ -6965,7 +6995,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>332</v>
       </c>
@@ -7001,7 +7031,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>332</v>
       </c>
@@ -7031,7 +7061,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>332</v>
       </c>
@@ -7058,7 +7088,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>332</v>
       </c>
@@ -7088,7 +7118,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>332</v>
       </c>
@@ -7119,7 +7149,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>332</v>
       </c>
@@ -7153,7 +7183,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>332</v>
       </c>
@@ -7181,7 +7211,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>332</v>
       </c>
@@ -7215,7 +7245,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>332</v>
       </c>
@@ -7249,7 +7279,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>332</v>
       </c>
@@ -7285,7 +7315,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>332</v>
       </c>
@@ -7319,7 +7349,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>332</v>
       </c>
@@ -7353,7 +7383,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>332</v>
       </c>
@@ -7380,7 +7410,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>332</v>
       </c>
@@ -7407,7 +7437,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>332</v>
       </c>
@@ -7437,7 +7467,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>332</v>
       </c>
@@ -7467,7 +7497,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>332</v>
       </c>
@@ -7497,7 +7527,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>332</v>
       </c>
@@ -7527,7 +7557,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>332</v>
       </c>
@@ -7557,7 +7587,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>332</v>
       </c>
@@ -7587,7 +7617,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>332</v>
       </c>
@@ -7617,7 +7647,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>332</v>
       </c>
@@ -7647,7 +7677,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>332</v>
       </c>
@@ -7677,7 +7707,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>332</v>
       </c>
@@ -7707,7 +7737,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>332</v>
       </c>
@@ -7746,7 +7776,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>332</v>
       </c>
@@ -7779,7 +7809,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>332</v>
       </c>
@@ -7806,7 +7836,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>332</v>
       </c>
@@ -7836,7 +7866,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>332</v>
       </c>
@@ -7866,7 +7896,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>332</v>
       </c>
@@ -7896,7 +7926,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>332</v>
       </c>
@@ -7926,7 +7956,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>332</v>
       </c>
@@ -7956,7 +7986,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>332</v>
       </c>
@@ -7986,7 +8016,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>332</v>
       </c>
@@ -8016,7 +8046,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>332</v>
       </c>
@@ -8046,7 +8076,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -8076,7 +8106,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>332</v>
       </c>
@@ -8106,7 +8136,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>332</v>
       </c>
@@ -8136,7 +8166,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -8166,7 +8196,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>332</v>
       </c>
@@ -8196,7 +8226,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>332</v>
       </c>
@@ -8226,7 +8256,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -8256,7 +8286,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -8286,7 +8316,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -8316,7 +8346,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>332</v>
       </c>
@@ -8346,7 +8376,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>513</v>
       </c>
@@ -8376,7 +8406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>513</v>
       </c>
@@ -8400,7 +8430,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>513</v>
       </c>
@@ -8430,7 +8460,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>513</v>
       </c>
@@ -8460,7 +8490,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>513</v>
       </c>
@@ -8491,7 +8521,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>513</v>
       </c>
@@ -8515,7 +8545,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>513</v>
       </c>
@@ -8549,7 +8579,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>513</v>
       </c>
@@ -8583,7 +8613,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>513</v>
       </c>
@@ -8617,7 +8647,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>513</v>
       </c>
@@ -8651,7 +8681,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>513</v>
       </c>
@@ -8681,7 +8711,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>513</v>
       </c>
@@ -8711,7 +8741,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>513</v>
       </c>
@@ -8741,7 +8771,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>513</v>
       </c>
@@ -8771,7 +8801,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>513</v>
       </c>
@@ -8801,7 +8831,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>513</v>
       </c>
@@ -8831,7 +8861,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>513</v>
       </c>
@@ -8861,7 +8891,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>513</v>
       </c>
@@ -8891,7 +8921,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>513</v>
       </c>
@@ -8921,7 +8951,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>513</v>
       </c>
@@ -8951,7 +8981,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>513</v>
       </c>
@@ -8981,7 +9011,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>513</v>
       </c>
@@ -9011,7 +9041,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>576</v>
       </c>
@@ -9047,7 +9077,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>576</v>
       </c>
@@ -9069,7 +9099,7 @@
       </c>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>576</v>
       </c>
@@ -9099,7 +9129,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>576</v>
       </c>
@@ -9132,7 +9162,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>576</v>
       </c>
@@ -9165,7 +9195,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>576</v>
       </c>
@@ -9198,7 +9228,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>576</v>
       </c>
@@ -9228,7 +9258,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>576</v>
       </c>
@@ -9258,7 +9288,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>576</v>
       </c>
@@ -9288,7 +9318,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>576</v>
       </c>
@@ -9318,7 +9348,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>576</v>
       </c>
@@ -9348,7 +9378,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>576</v>
       </c>
@@ -9375,7 +9405,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>576</v>
       </c>
@@ -9405,7 +9435,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>576</v>
       </c>
@@ -9438,7 +9468,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>576</v>
       </c>
@@ -9470,7 +9500,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>619</v>
       </c>
@@ -9500,7 +9530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>619</v>
       </c>
@@ -9527,7 +9557,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>619</v>
       </c>
@@ -9554,7 +9584,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>619</v>
       </c>
@@ -9587,7 +9617,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>619</v>
       </c>
@@ -9618,7 +9648,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>619</v>
       </c>
@@ -9652,7 +9682,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>619</v>
       </c>
@@ -9686,7 +9716,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>619</v>
       </c>
@@ -9720,7 +9750,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>619</v>
       </c>
@@ -9754,7 +9784,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>619</v>
       </c>
@@ -9788,7 +9818,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>619</v>
       </c>
@@ -9822,7 +9852,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>619</v>
       </c>
@@ -9856,7 +9886,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>619</v>
       </c>
@@ -9890,7 +9920,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>619</v>
       </c>
@@ -9924,7 +9954,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>619</v>
       </c>
@@ -9958,7 +9988,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>619</v>
       </c>
@@ -9982,7 +10012,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>619</v>
       </c>
@@ -10009,7 +10039,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>619</v>
       </c>
@@ -10045,7 +10075,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>666</v>
       </c>
@@ -10075,7 +10105,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>666</v>
       </c>
@@ -10111,7 +10141,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>666</v>
       </c>
@@ -10141,7 +10171,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>666</v>
       </c>
@@ -10171,7 +10201,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>666</v>
       </c>
@@ -10197,6 +10227,9 @@
       <c r="I224" s="3" t="s">
         <v>681</v>
       </c>
+      <c r="J224" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="K224" s="3" t="s">
         <v>682</v>
       </c>
@@ -10204,7 +10237,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>666</v>
       </c>
@@ -10234,7 +10267,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>666</v>
       </c>
@@ -10264,7 +10297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>666</v>
       </c>
@@ -10291,7 +10324,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>666</v>
       </c>
@@ -10322,7 +10355,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>666</v>
       </c>
@@ -10350,7 +10383,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>666</v>
       </c>
@@ -10384,7 +10417,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>666</v>
       </c>
@@ -10418,7 +10451,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>666</v>
       </c>
@@ -10432,7 +10465,7 @@
         <v>228</v>
       </c>
       <c r="E232" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>17</v>
@@ -10440,9 +10473,6 @@
       <c r="G232" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
-      </c>
-      <c r="J232" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="K232" s="3" t="s">
         <v>696</v>
@@ -10451,7 +10481,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>666</v>
       </c>
@@ -10484,7 +10514,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>666</v>
       </c>
@@ -10514,7 +10544,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>666</v>
       </c>
@@ -10550,7 +10580,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>666</v>
       </c>
@@ -10580,7 +10610,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>666</v>
       </c>
@@ -10610,7 +10640,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>666</v>
       </c>
@@ -10640,7 +10670,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>666</v>
       </c>
@@ -10670,7 +10700,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>666</v>
       </c>
@@ -10700,7 +10730,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>666</v>
       </c>
@@ -10717,28 +10747,25 @@
         <v>0</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G241" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J241" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="K241" s="3" t="s">
-        <v>727</v>
+        <v>971</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>666</v>
       </c>
       <c r="B242" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C242" t="s">
         <v>14</v>
@@ -10756,22 +10783,19 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J242" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="K242" s="3" t="s">
-        <v>730</v>
+        <v>956</v>
       </c>
       <c r="L242" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>666</v>
       </c>
       <c r="B243" t="s">
-        <v>732</v>
+        <v>950</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
@@ -10780,28 +10804,27 @@
         <v>30</v>
       </c>
       <c r="E243" s="1">
-        <v>17.649999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G243" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K243" t="s">
-        <v>733</v>
+        <v>1</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>951</v>
       </c>
       <c r="L243" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>666</v>
       </c>
       <c r="B244" t="s">
-        <v>735</v>
+        <v>953</v>
       </c>
       <c r="C244" t="s">
         <v>14</v>
@@ -10810,28 +10833,27 @@
         <v>30</v>
       </c>
       <c r="E244" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G244" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K244" t="s">
-        <v>736</v>
+        <v>1</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>954</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>666</v>
       </c>
       <c r="B245" t="s">
-        <v>738</v>
+        <v>958</v>
       </c>
       <c r="C245" t="s">
         <v>14</v>
@@ -10840,55 +10862,57 @@
         <v>30</v>
       </c>
       <c r="E245" s="1">
-        <v>21.6</v>
+        <v>1</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G245" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K245" t="s">
-        <v>739</v>
+        <v>1</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>959</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>666</v>
       </c>
       <c r="B246" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="C246" t="s">
         <v>14</v>
       </c>
       <c r="D246" t="s">
-        <v>21</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>742</v>
+        <v>30</v>
+      </c>
+      <c r="E246" s="1">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G246" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K246" s="3" t="s">
-        <v>743</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K246" t="s">
+        <v>729</v>
       </c>
       <c r="L246" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>666</v>
       </c>
       <c r="B247" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="C247" t="s">
         <v>14</v>
@@ -10900,25 +10924,25 @@
         <v>0</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G247" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K247" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="L247" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>666</v>
       </c>
       <c r="B248" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="C248" t="s">
         <v>14</v>
@@ -10927,7 +10951,7 @@
         <v>30</v>
       </c>
       <c r="E248" s="1">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>43</v>
@@ -10937,120 +10961,105 @@
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>666</v>
       </c>
       <c r="B249" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="C249" t="s">
         <v>14</v>
       </c>
       <c r="D249" t="s">
-        <v>30</v>
-      </c>
-      <c r="E249" s="1">
-        <v>0</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>738</v>
       </c>
       <c r="G249" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K249" t="s">
-        <v>751</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>739</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>666</v>
       </c>
       <c r="B250" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="C250" t="s">
         <v>14</v>
       </c>
       <c r="D250" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E250" s="1">
         <v>0</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G250" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H250" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I250" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="K250" s="3" t="s">
-        <v>755</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K250" t="s">
+        <v>741</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>666</v>
       </c>
       <c r="B251" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="C251" t="s">
         <v>14</v>
       </c>
       <c r="D251" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G251" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H251" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I251" s="3" t="s">
-        <v>758</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>666</v>
       </c>
       <c r="B252" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="C252" t="s">
         <v>14</v>
@@ -11059,7 +11068,7 @@
         <v>30</v>
       </c>
       <c r="E252" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>43</v>
@@ -11069,84 +11078,90 @@
         <v>1</v>
       </c>
       <c r="K252" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>666</v>
       </c>
       <c r="B253" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="C253" t="s">
         <v>14</v>
       </c>
       <c r="D253" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E253" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G253" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J253" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K253" t="s">
-        <v>765</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>751</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>666</v>
       </c>
       <c r="B254" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="C254" t="s">
         <v>14</v>
       </c>
       <c r="D254" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E254" s="1">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G254" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J254" s="3" t="s">
-        <v>274</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>949</v>
       </c>
       <c r="K254" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="L254" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>666</v>
       </c>
       <c r="B255" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C255" t="s">
         <v>14</v>
@@ -11155,58 +11170,58 @@
         <v>30</v>
       </c>
       <c r="E255" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>702</v>
+        <v>43</v>
       </c>
       <c r="G255" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K255" s="3" t="s">
-        <v>771</v>
+      <c r="K255" t="s">
+        <v>757</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>666</v>
       </c>
       <c r="B256" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="C256" t="s">
         <v>14</v>
       </c>
       <c r="D256" t="s">
-        <v>15</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>774</v>
+        <v>30</v>
+      </c>
+      <c r="E256" s="1">
+        <v>30</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>17</v>
+        <v>702</v>
       </c>
       <c r="G256" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K256" s="3" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="L256" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>666</v>
       </c>
       <c r="B257" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="C257" t="s">
         <v>14</v>
@@ -11215,7 +11230,7 @@
         <v>15</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>17</v>
@@ -11225,104 +11240,104 @@
         <v>0</v>
       </c>
       <c r="K257" s="3" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="L257" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>666</v>
       </c>
       <c r="B258" t="s">
-        <v>957</v>
+        <v>765</v>
       </c>
       <c r="C258" t="s">
         <v>14</v>
       </c>
       <c r="D258" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>958</v>
+        <v>762</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G258" s="2" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>959</v>
+        <v>766</v>
       </c>
       <c r="L258" s="3" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>666</v>
       </c>
       <c r="B259" t="s">
-        <v>780</v>
+        <v>945</v>
       </c>
       <c r="C259" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D259" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>946</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G259" s="2" t="b">
-        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>781</v>
+        <v>947</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>666</v>
       </c>
       <c r="B260" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C260" t="s">
         <v>90</v>
       </c>
       <c r="D260" t="s">
-        <v>30</v>
-      </c>
-      <c r="E260" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="G260" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>666</v>
       </c>
       <c r="B261" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="C261" t="s">
         <v>90</v>
@@ -11331,28 +11346,28 @@
         <v>30</v>
       </c>
       <c r="E261" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="G261" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K261" t="s">
-        <v>786</v>
+      <c r="K261" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>666</v>
       </c>
       <c r="B262" t="s">
-        <v>788</v>
+        <v>965</v>
       </c>
       <c r="C262" t="s">
         <v>90</v>
@@ -11364,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>789</v>
+        <v>128</v>
       </c>
       <c r="G262" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>790</v>
+        <v>966</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>666</v>
       </c>
       <c r="B263" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="C263" t="s">
         <v>90</v>
@@ -11391,28 +11406,28 @@
         <v>30</v>
       </c>
       <c r="E263" s="1">
-        <v>1.2</v>
+        <v>195</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G263" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K263" s="3" t="s">
-        <v>793</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K263" t="s">
+        <v>774</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>666</v>
       </c>
       <c r="B264" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="C264" t="s">
         <v>90</v>
@@ -11424,25 +11439,25 @@
         <v>0</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>17</v>
+        <v>777</v>
       </c>
       <c r="G264" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>666</v>
       </c>
       <c r="B265" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="C265" t="s">
         <v>90</v>
@@ -11451,28 +11466,28 @@
         <v>30</v>
       </c>
       <c r="E265" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>789</v>
+        <v>17</v>
       </c>
       <c r="G265" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>666</v>
       </c>
       <c r="B266" t="s">
-        <v>800</v>
+        <v>961</v>
       </c>
       <c r="C266" t="s">
         <v>90</v>
@@ -11484,25 +11499,24 @@
         <v>0</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>789</v>
+        <v>43</v>
       </c>
       <c r="G266" s="2" t="b">
-        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>801</v>
+        <v>962</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>666</v>
       </c>
       <c r="B267" t="s">
-        <v>803</v>
+        <v>968</v>
       </c>
       <c r="C267" t="s">
         <v>90</v>
@@ -11517,22 +11531,21 @@
         <v>43</v>
       </c>
       <c r="G267" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K267" t="s">
-        <v>804</v>
+        <v>0</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>969</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>666</v>
       </c>
       <c r="B268" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="C268" t="s">
         <v>90</v>
@@ -11544,25 +11557,25 @@
         <v>0</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G268" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K268" t="s">
-        <v>807</v>
+      <c r="K268" s="3" t="s">
+        <v>784</v>
       </c>
       <c r="L268" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>666</v>
       </c>
       <c r="B269" t="s">
-        <v>809</v>
+        <v>785</v>
       </c>
       <c r="C269" t="s">
         <v>90</v>
@@ -11574,217 +11587,211 @@
         <v>0</v>
       </c>
       <c r="F269" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G269" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>666</v>
+      </c>
+      <c r="B270" t="s">
+        <v>788</v>
+      </c>
+      <c r="C270" t="s">
+        <v>90</v>
+      </c>
+      <c r="D270" t="s">
+        <v>30</v>
+      </c>
+      <c r="E270" s="1">
+        <v>0</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G270" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="L270" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>666</v>
+      </c>
+      <c r="B271" t="s">
+        <v>791</v>
+      </c>
+      <c r="C271" t="s">
+        <v>90</v>
+      </c>
+      <c r="D271" t="s">
+        <v>30</v>
+      </c>
+      <c r="E271" s="1">
+        <v>0</v>
+      </c>
+      <c r="F271" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G269" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K269" t="s">
-        <v>810</v>
-      </c>
-      <c r="L269" s="3" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>812</v>
-      </c>
-      <c r="B270" t="s">
-        <v>813</v>
-      </c>
-      <c r="C270" t="s">
-        <v>14</v>
-      </c>
-      <c r="D270" t="s">
-        <v>30</v>
-      </c>
-      <c r="E270" s="1">
+      <c r="G271" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K271" t="s">
+        <v>792</v>
+      </c>
+      <c r="L271" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>666</v>
+      </c>
+      <c r="B272" t="s">
+        <v>794</v>
+      </c>
+      <c r="C272" t="s">
+        <v>90</v>
+      </c>
+      <c r="D272" t="s">
+        <v>30</v>
+      </c>
+      <c r="E272" s="1">
+        <v>0</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G272" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K272" t="s">
+        <v>795</v>
+      </c>
+      <c r="L272" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>666</v>
+      </c>
+      <c r="B273" t="s">
+        <v>797</v>
+      </c>
+      <c r="C273" t="s">
+        <v>90</v>
+      </c>
+      <c r="D273" t="s">
+        <v>30</v>
+      </c>
+      <c r="E273" s="1">
+        <v>0</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G273" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K273" t="s">
+        <v>798</v>
+      </c>
+      <c r="L273" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>800</v>
+      </c>
+      <c r="B274" t="s">
+        <v>801</v>
+      </c>
+      <c r="C274" t="s">
+        <v>14</v>
+      </c>
+      <c r="D274" t="s">
+        <v>30</v>
+      </c>
+      <c r="E274" s="1">
         <v>180</v>
       </c>
-      <c r="F270" s="2" t="s">
+      <c r="F274" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G270" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K270" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="L270" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>812</v>
-      </c>
-      <c r="B271" t="s">
-        <v>816</v>
-      </c>
-      <c r="C271" t="s">
-        <v>14</v>
-      </c>
-      <c r="D271" t="s">
-        <v>30</v>
-      </c>
-      <c r="E271" s="1">
+      <c r="G274" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>800</v>
+      </c>
+      <c r="B275" t="s">
+        <v>804</v>
+      </c>
+      <c r="C275" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" t="s">
+        <v>30</v>
+      </c>
+      <c r="E275" s="1">
         <v>-180</v>
       </c>
-      <c r="F271" s="2" t="s">
+      <c r="F275" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G271" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K271" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="L271" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>812</v>
-      </c>
-      <c r="B272" t="s">
-        <v>819</v>
-      </c>
-      <c r="C272" t="s">
-        <v>14</v>
-      </c>
-      <c r="D272" t="s">
-        <v>30</v>
-      </c>
-      <c r="E272" s="1">
-        <v>2</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G272" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K272" t="s">
-        <v>820</v>
-      </c>
-      <c r="L272" s="3" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>812</v>
-      </c>
-      <c r="B273" t="s">
-        <v>26</v>
-      </c>
-      <c r="C273" t="s">
-        <v>14</v>
-      </c>
-      <c r="D273" t="s">
-        <v>21</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G273" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K273" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L273" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>812</v>
-      </c>
-      <c r="B274" t="s">
-        <v>823</v>
-      </c>
-      <c r="C274" t="s">
-        <v>14</v>
-      </c>
-      <c r="D274" t="s">
-        <v>21</v>
-      </c>
-      <c r="E274" s="1">
-        <v>5</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G274" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H274" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I274" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="K274" t="s">
-        <v>825</v>
-      </c>
-      <c r="L274" s="3" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>812</v>
-      </c>
-      <c r="B275" t="s">
-        <v>827</v>
-      </c>
-      <c r="C275" t="s">
-        <v>14</v>
-      </c>
-      <c r="D275" t="s">
-        <v>228</v>
-      </c>
-      <c r="E275" s="1">
-        <v>4</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G275" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K275" s="3" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B276" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="C276" t="s">
         <v>14</v>
       </c>
       <c r="D276" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="E276" s="1">
         <v>2</v>
@@ -11796,49 +11803,49 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K276" s="3" t="s">
-        <v>831</v>
+      <c r="K276" t="s">
+        <v>808</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B277" t="s">
-        <v>833</v>
+        <v>26</v>
       </c>
       <c r="C277" t="s">
         <v>14</v>
       </c>
       <c r="D277" t="s">
-        <v>30</v>
-      </c>
-      <c r="E277" s="1">
-        <v>950</v>
+        <v>21</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G277" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="K277" s="3" t="s">
-        <v>834</v>
+        <v>28</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B278" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="C278" t="s">
         <v>14</v>
@@ -11847,7 +11854,7 @@
         <v>21</v>
       </c>
       <c r="E278" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>17</v>
@@ -11860,31 +11867,30 @@
         <v>22</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="K278" s="3" t="s">
-        <v>838</v>
+        <v>812</v>
+      </c>
+      <c r="K278" t="s">
+        <v>813</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B279" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="C279" t="s">
         <v>14</v>
       </c>
       <c r="D279" t="s">
-        <v>111</v>
-      </c>
-      <c r="E279" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="E279" s="1">
+        <v>4</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>17</v>
@@ -11893,124 +11899,115 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H279" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="K279" s="3" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B280" t="s">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="C280" t="s">
         <v>14</v>
       </c>
       <c r="D280" t="s">
-        <v>111</v>
-      </c>
-      <c r="E280" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>228</v>
+      </c>
+      <c r="E280" s="1">
+        <v>2</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G280" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H280" s="3" t="s">
-        <v>112</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B281" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="C281" t="s">
         <v>14</v>
       </c>
       <c r="D281" t="s">
-        <v>111</v>
-      </c>
-      <c r="E281" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E281" s="1">
+        <v>950</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G281" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H281" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="K281" s="3" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="L281" s="3" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B282" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
       </c>
       <c r="D282" t="s">
-        <v>111</v>
-      </c>
-      <c r="E282" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E282" s="1">
+        <v>7</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G282" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>825</v>
       </c>
       <c r="K282" s="3" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B283" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
@@ -12033,696 +12030,706 @@
         <v>112</v>
       </c>
       <c r="K283" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="L283" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>800</v>
+      </c>
+      <c r="B284" t="s">
+        <v>831</v>
+      </c>
+      <c r="C284" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" t="s">
+        <v>111</v>
+      </c>
+      <c r="E284" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G284" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>800</v>
+      </c>
+      <c r="B285" t="s">
+        <v>834</v>
+      </c>
+      <c r="C285" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" t="s">
+        <v>111</v>
+      </c>
+      <c r="E285" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G285" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>800</v>
+      </c>
+      <c r="B286" t="s">
+        <v>837</v>
+      </c>
+      <c r="C286" t="s">
+        <v>14</v>
+      </c>
+      <c r="D286" t="s">
+        <v>111</v>
+      </c>
+      <c r="E286" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G286" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="L286" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>800</v>
+      </c>
+      <c r="B287" t="s">
+        <v>840</v>
+      </c>
+      <c r="C287" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" t="s">
+        <v>111</v>
+      </c>
+      <c r="E287" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G287" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K287" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="L287" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>800</v>
+      </c>
+      <c r="B288" t="s">
+        <v>843</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" t="s">
+        <v>21</v>
+      </c>
+      <c r="G288" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>800</v>
+      </c>
+      <c r="B289" t="s">
+        <v>845</v>
+      </c>
+      <c r="C289" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" t="s">
+        <v>21</v>
+      </c>
+      <c r="E289" s="1">
+        <v>0</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G289" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="K289" t="s">
+        <v>847</v>
+      </c>
+      <c r="L289" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>800</v>
+      </c>
+      <c r="B290" t="s">
+        <v>849</v>
+      </c>
+      <c r="C290" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" t="s">
+        <v>30</v>
+      </c>
+      <c r="E290" s="1">
+        <v>1</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G290" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>800</v>
+      </c>
+      <c r="B291" t="s">
         <v>853</v>
       </c>
-      <c r="L283" s="3" t="s">
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" t="s">
+        <v>30</v>
+      </c>
+      <c r="E291" s="1">
+        <v>1</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G291" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K291" s="3" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>812</v>
-      </c>
-      <c r="B284" t="s">
+      <c r="L291" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="C284" t="s">
-        <v>14</v>
-      </c>
-      <c r="D284" t="s">
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>800</v>
+      </c>
+      <c r="B292" t="s">
+        <v>856</v>
+      </c>
+      <c r="C292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" t="s">
+        <v>30</v>
+      </c>
+      <c r="E292" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G292" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="L292" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>800</v>
+      </c>
+      <c r="B293" t="s">
+        <v>859</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" t="s">
+        <v>30</v>
+      </c>
+      <c r="E293" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G293" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K293" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="L293" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>800</v>
+      </c>
+      <c r="B294" t="s">
+        <v>862</v>
+      </c>
+      <c r="C294" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" t="s">
+        <v>30</v>
+      </c>
+      <c r="E294" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G294" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="L294" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>800</v>
+      </c>
+      <c r="B295" t="s">
+        <v>865</v>
+      </c>
+      <c r="C295" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" t="s">
+        <v>30</v>
+      </c>
+      <c r="E295" s="1">
+        <v>670</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="G295" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K295" t="s">
+        <v>867</v>
+      </c>
+      <c r="L295" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>800</v>
+      </c>
+      <c r="B296" t="s">
+        <v>869</v>
+      </c>
+      <c r="C296" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" t="s">
         <v>21</v>
       </c>
-      <c r="G284" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K284" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="L284" s="3" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>812</v>
-      </c>
-      <c r="B285" t="s">
-        <v>857</v>
-      </c>
-      <c r="C285" t="s">
-        <v>14</v>
-      </c>
-      <c r="D285" t="s">
+      <c r="E296" s="1">
+        <v>0</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G296" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="K296" t="s">
+        <v>871</v>
+      </c>
+      <c r="L296" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>800</v>
+      </c>
+      <c r="B297" t="s">
+        <v>873</v>
+      </c>
+      <c r="C297" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" t="s">
+        <v>30</v>
+      </c>
+      <c r="E297" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G297" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>800</v>
+      </c>
+      <c r="B298" t="s">
+        <v>876</v>
+      </c>
+      <c r="C298" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" t="s">
+        <v>30</v>
+      </c>
+      <c r="E298" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G298" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>800</v>
+      </c>
+      <c r="B299" t="s">
+        <v>879</v>
+      </c>
+      <c r="C299" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" t="s">
+        <v>30</v>
+      </c>
+      <c r="E299" s="1">
+        <v>195</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G299" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K299" t="s">
+        <v>880</v>
+      </c>
+      <c r="L299" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>800</v>
+      </c>
+      <c r="B300" t="s">
+        <v>882</v>
+      </c>
+      <c r="C300" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" t="s">
+        <v>30</v>
+      </c>
+      <c r="E300" s="1">
+        <v>16</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G300" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K300" t="s">
+        <v>883</v>
+      </c>
+      <c r="L300" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>800</v>
+      </c>
+      <c r="B301" t="s">
+        <v>885</v>
+      </c>
+      <c r="C301" t="s">
+        <v>14</v>
+      </c>
+      <c r="D301" t="s">
+        <v>30</v>
+      </c>
+      <c r="E301" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G301" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K301" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="L301" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>800</v>
+      </c>
+      <c r="B302" t="s">
+        <v>887</v>
+      </c>
+      <c r="C302" t="s">
+        <v>14</v>
+      </c>
+      <c r="D302" t="s">
+        <v>30</v>
+      </c>
+      <c r="E302" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G302" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K302" t="s">
+        <v>888</v>
+      </c>
+      <c r="L302" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>800</v>
+      </c>
+      <c r="B303" t="s">
+        <v>890</v>
+      </c>
+      <c r="C303" t="s">
+        <v>14</v>
+      </c>
+      <c r="D303" t="s">
+        <v>30</v>
+      </c>
+      <c r="E303" s="1">
+        <v>180</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G303" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K303" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="L303" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>800</v>
+      </c>
+      <c r="B304" t="s">
+        <v>893</v>
+      </c>
+      <c r="C304" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" t="s">
+        <v>30</v>
+      </c>
+      <c r="E304" s="1">
+        <v>85</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G304" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K304" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="L304" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>800</v>
+      </c>
+      <c r="B305" t="s">
+        <v>896</v>
+      </c>
+      <c r="C305" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" t="s">
         <v>21</v>
       </c>
-      <c r="E285" s="1">
-        <v>0</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G285" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H285" s="3" t="s">
+      <c r="E305" s="1">
+        <v>0</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G305" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H305" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I285" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="K285" t="s">
-        <v>859</v>
-      </c>
-      <c r="L285" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>812</v>
-      </c>
-      <c r="B286" t="s">
-        <v>861</v>
-      </c>
-      <c r="C286" t="s">
-        <v>14</v>
-      </c>
-      <c r="D286" t="s">
-        <v>30</v>
-      </c>
-      <c r="E286" s="1">
-        <v>1</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="G286" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K286" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="L286" s="3" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>812</v>
-      </c>
-      <c r="B287" t="s">
-        <v>865</v>
-      </c>
-      <c r="C287" t="s">
-        <v>14</v>
-      </c>
-      <c r="D287" t="s">
-        <v>30</v>
-      </c>
-      <c r="E287" s="1">
-        <v>1</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="G287" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K287" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="L287" s="3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>812</v>
-      </c>
-      <c r="B288" t="s">
-        <v>868</v>
-      </c>
-      <c r="C288" t="s">
-        <v>14</v>
-      </c>
-      <c r="D288" t="s">
-        <v>30</v>
-      </c>
-      <c r="E288" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="G288" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K288" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="L288" s="3" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>812</v>
-      </c>
-      <c r="B289" t="s">
-        <v>871</v>
-      </c>
-      <c r="C289" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" t="s">
-        <v>30</v>
-      </c>
-      <c r="E289" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="G289" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K289" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="L289" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>812</v>
-      </c>
-      <c r="B290" t="s">
-        <v>874</v>
-      </c>
-      <c r="C290" t="s">
-        <v>14</v>
-      </c>
-      <c r="D290" t="s">
-        <v>30</v>
-      </c>
-      <c r="E290" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G290" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K290" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="L290" s="3" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>812</v>
-      </c>
-      <c r="B291" t="s">
-        <v>877</v>
-      </c>
-      <c r="C291" t="s">
-        <v>14</v>
-      </c>
-      <c r="D291" t="s">
-        <v>30</v>
-      </c>
-      <c r="E291" s="1">
-        <v>670</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="G291" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K291" t="s">
-        <v>879</v>
-      </c>
-      <c r="L291" s="3" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>812</v>
-      </c>
-      <c r="B292" t="s">
-        <v>881</v>
-      </c>
-      <c r="C292" t="s">
-        <v>14</v>
-      </c>
-      <c r="D292" t="s">
-        <v>21</v>
-      </c>
-      <c r="E292" s="1">
-        <v>0</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G292" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H292" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I292" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="K292" t="s">
-        <v>883</v>
-      </c>
-      <c r="L292" s="3" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>812</v>
-      </c>
-      <c r="B293" t="s">
-        <v>885</v>
-      </c>
-      <c r="C293" t="s">
-        <v>14</v>
-      </c>
-      <c r="D293" t="s">
-        <v>30</v>
-      </c>
-      <c r="E293" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G293" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K293" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="L293" s="3" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>812</v>
-      </c>
-      <c r="B294" t="s">
-        <v>888</v>
-      </c>
-      <c r="C294" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" t="s">
-        <v>30</v>
-      </c>
-      <c r="E294" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G294" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K294" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="L294" s="3" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>812</v>
-      </c>
-      <c r="B295" t="s">
-        <v>891</v>
-      </c>
-      <c r="C295" t="s">
-        <v>14</v>
-      </c>
-      <c r="D295" t="s">
-        <v>30</v>
-      </c>
-      <c r="E295" s="1">
-        <v>195</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G295" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K295" t="s">
-        <v>892</v>
-      </c>
-      <c r="L295" s="3" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>812</v>
-      </c>
-      <c r="B296" t="s">
-        <v>894</v>
-      </c>
-      <c r="C296" t="s">
-        <v>14</v>
-      </c>
-      <c r="D296" t="s">
-        <v>30</v>
-      </c>
-      <c r="E296" s="1">
-        <v>16</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G296" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K296" t="s">
-        <v>895</v>
-      </c>
-      <c r="L296" s="3" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>812</v>
-      </c>
-      <c r="B297" t="s">
+      <c r="I305" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="C297" t="s">
-        <v>14</v>
-      </c>
-      <c r="D297" t="s">
-        <v>30</v>
-      </c>
-      <c r="E297" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G297" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K297" s="3" t="s">
+      <c r="K305" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="L297" s="3" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>812</v>
-      </c>
-      <c r="B298" t="s">
+      <c r="L305" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="C298" t="s">
-        <v>14</v>
-      </c>
-      <c r="D298" t="s">
-        <v>30</v>
-      </c>
-      <c r="E298" s="1">
-        <v>1.33</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G298" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K298" t="s">
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>800</v>
+      </c>
+      <c r="B306" t="s">
         <v>900</v>
-      </c>
-      <c r="L298" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>812</v>
-      </c>
-      <c r="B299" t="s">
-        <v>902</v>
-      </c>
-      <c r="C299" t="s">
-        <v>14</v>
-      </c>
-      <c r="D299" t="s">
-        <v>30</v>
-      </c>
-      <c r="E299" s="1">
-        <v>180</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G299" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K299" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="L299" s="3" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>812</v>
-      </c>
-      <c r="B300" t="s">
-        <v>905</v>
-      </c>
-      <c r="C300" t="s">
-        <v>14</v>
-      </c>
-      <c r="D300" t="s">
-        <v>30</v>
-      </c>
-      <c r="E300" s="1">
-        <v>85</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G300" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K300" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="L300" s="3" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>812</v>
-      </c>
-      <c r="B301" t="s">
-        <v>908</v>
-      </c>
-      <c r="C301" t="s">
-        <v>14</v>
-      </c>
-      <c r="D301" t="s">
-        <v>21</v>
-      </c>
-      <c r="E301" s="1">
-        <v>0</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G301" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H301" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I301" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="K301" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="L301" s="3" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>812</v>
-      </c>
-      <c r="B302" t="s">
-        <v>912</v>
-      </c>
-      <c r="C302" t="s">
-        <v>14</v>
-      </c>
-      <c r="D302" t="s">
-        <v>21</v>
-      </c>
-      <c r="E302" s="1">
-        <v>0</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G302" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H302" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K302" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="L302" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>812</v>
-      </c>
-      <c r="B303" t="s">
-        <v>915</v>
-      </c>
-      <c r="C303" t="s">
-        <v>14</v>
-      </c>
-      <c r="D303" t="s">
-        <v>21</v>
-      </c>
-      <c r="E303" s="1">
-        <v>0</v>
-      </c>
-      <c r="G303" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H303" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I303" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="K303" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="L303" s="3" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>812</v>
-      </c>
-      <c r="B304" t="s">
-        <v>919</v>
-      </c>
-      <c r="C304" t="s">
-        <v>14</v>
-      </c>
-      <c r="D304" t="s">
-        <v>30</v>
-      </c>
-      <c r="E304" s="1">
-        <v>195</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G304" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K304" t="s">
-        <v>920</v>
-      </c>
-      <c r="L304" s="3" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>812</v>
-      </c>
-      <c r="B305" t="s">
-        <v>922</v>
-      </c>
-      <c r="C305" t="s">
-        <v>14</v>
-      </c>
-      <c r="D305" t="s">
-        <v>30</v>
-      </c>
-      <c r="E305" s="1">
-        <v>1</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G305" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K305" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="L305" s="3" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>812</v>
-      </c>
-      <c r="B306" t="s">
-        <v>925</v>
       </c>
       <c r="C306" t="s">
         <v>14</v>
@@ -12733,6 +12740,9 @@
       <c r="E306" s="1">
         <v>0</v>
       </c>
+      <c r="F306" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G306" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -12740,229 +12750,235 @@
       <c r="H306" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I306" s="3" t="s">
+      <c r="K306" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="L306" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>800</v>
+      </c>
+      <c r="B307" t="s">
+        <v>903</v>
+      </c>
+      <c r="C307" t="s">
+        <v>14</v>
+      </c>
+      <c r="D307" t="s">
+        <v>21</v>
+      </c>
+      <c r="E307" s="1">
+        <v>0</v>
+      </c>
+      <c r="G307" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K307" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="L307" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>800</v>
+      </c>
+      <c r="B308" t="s">
+        <v>907</v>
+      </c>
+      <c r="C308" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" t="s">
+        <v>30</v>
+      </c>
+      <c r="E308" s="1">
+        <v>195</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G308" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K308" t="s">
+        <v>908</v>
+      </c>
+      <c r="L308" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>800</v>
+      </c>
+      <c r="B309" t="s">
+        <v>910</v>
+      </c>
+      <c r="C309" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" t="s">
+        <v>30</v>
+      </c>
+      <c r="E309" s="1">
+        <v>1</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G309" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K309" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="L309" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>800</v>
+      </c>
+      <c r="B310" t="s">
+        <v>913</v>
+      </c>
+      <c r="C310" t="s">
+        <v>14</v>
+      </c>
+      <c r="D310" t="s">
+        <v>21</v>
+      </c>
+      <c r="E310" s="1">
+        <v>0</v>
+      </c>
+      <c r="G310" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="L310" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>800</v>
+      </c>
+      <c r="B311" t="s">
+        <v>917</v>
+      </c>
+      <c r="C311" t="s">
+        <v>14</v>
+      </c>
+      <c r="D311" t="s">
+        <v>30</v>
+      </c>
+      <c r="E311" s="1">
+        <v>1</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G311" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="L311" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>800</v>
+      </c>
+      <c r="B312" t="s">
+        <v>920</v>
+      </c>
+      <c r="C312" t="s">
+        <v>14</v>
+      </c>
+      <c r="D312" t="s">
+        <v>30</v>
+      </c>
+      <c r="E312" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G312" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="L312" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>800</v>
+      </c>
+      <c r="B313" t="s">
+        <v>923</v>
+      </c>
+      <c r="C313" t="s">
+        <v>14</v>
+      </c>
+      <c r="D313" t="s">
+        <v>30</v>
+      </c>
+      <c r="E313" s="1">
+        <v>100</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G313" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="L313" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="K306" s="3" t="s">
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>800</v>
+      </c>
+      <c r="B314" t="s">
         <v>927</v>
-      </c>
-      <c r="L306" s="3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>812</v>
-      </c>
-      <c r="B307" t="s">
-        <v>929</v>
-      </c>
-      <c r="C307" t="s">
-        <v>14</v>
-      </c>
-      <c r="D307" t="s">
-        <v>30</v>
-      </c>
-      <c r="E307" s="1">
-        <v>1</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G307" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K307" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="L307" s="3" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>812</v>
-      </c>
-      <c r="B308" t="s">
-        <v>932</v>
-      </c>
-      <c r="C308" t="s">
-        <v>14</v>
-      </c>
-      <c r="D308" t="s">
-        <v>30</v>
-      </c>
-      <c r="E308" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G308" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K308" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="L308" s="3" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>812</v>
-      </c>
-      <c r="B309" t="s">
-        <v>935</v>
-      </c>
-      <c r="C309" t="s">
-        <v>14</v>
-      </c>
-      <c r="D309" t="s">
-        <v>30</v>
-      </c>
-      <c r="E309" s="1">
-        <v>100</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="G309" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K309" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="L309" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>812</v>
-      </c>
-      <c r="B310" t="s">
-        <v>939</v>
-      </c>
-      <c r="C310" t="s">
-        <v>90</v>
-      </c>
-      <c r="D310" t="s">
-        <v>30</v>
-      </c>
-      <c r="E310" s="1">
-        <v>0</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G310" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K310" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="L310" s="3" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>812</v>
-      </c>
-      <c r="B311" t="s">
-        <v>942</v>
-      </c>
-      <c r="C311" t="s">
-        <v>90</v>
-      </c>
-      <c r="D311" t="s">
-        <v>30</v>
-      </c>
-      <c r="E311" s="1">
-        <v>0</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G311" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K311" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="L311" s="3" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>812</v>
-      </c>
-      <c r="B312" t="s">
-        <v>945</v>
-      </c>
-      <c r="C312" t="s">
-        <v>90</v>
-      </c>
-      <c r="D312" t="s">
-        <v>87</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G312" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K312" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="L312" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>812</v>
-      </c>
-      <c r="B313" t="s">
-        <v>947</v>
-      </c>
-      <c r="C313" t="s">
-        <v>90</v>
-      </c>
-      <c r="D313" t="s">
-        <v>30</v>
-      </c>
-      <c r="E313" s="1">
-        <v>0</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G313" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K313" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="L313" s="3" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>812</v>
-      </c>
-      <c r="B314" t="s">
-        <v>949</v>
       </c>
       <c r="C314" t="s">
         <v>90</v>
@@ -12974,17 +12990,134 @@
         <v>0</v>
       </c>
       <c r="F314" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G314" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>800</v>
+      </c>
+      <c r="B315" t="s">
+        <v>930</v>
+      </c>
+      <c r="C315" t="s">
+        <v>90</v>
+      </c>
+      <c r="D315" t="s">
+        <v>30</v>
+      </c>
+      <c r="E315" s="1">
+        <v>0</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G315" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>800</v>
+      </c>
+      <c r="B316" t="s">
+        <v>933</v>
+      </c>
+      <c r="C316" t="s">
+        <v>90</v>
+      </c>
+      <c r="D316" t="s">
+        <v>87</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G316" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>800</v>
+      </c>
+      <c r="B317" t="s">
+        <v>935</v>
+      </c>
+      <c r="C317" t="s">
+        <v>90</v>
+      </c>
+      <c r="D317" t="s">
+        <v>30</v>
+      </c>
+      <c r="E317" s="1">
+        <v>0</v>
+      </c>
+      <c r="F317" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G314" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K314" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="L314" s="3" t="s">
-        <v>950</v>
+      <c r="G317" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>800</v>
+      </c>
+      <c r="B318" t="s">
+        <v>937</v>
+      </c>
+      <c r="C318" t="s">
+        <v>90</v>
+      </c>
+      <c r="D318" t="s">
+        <v>30</v>
+      </c>
+      <c r="E318" s="1">
+        <v>0</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G318" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K318" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>938</v>
       </c>
     </row>
   </sheetData>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\solarpilot\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ACEA10-C1ED-47A0-A9F4-1B7CEB317B88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13E346A-A132-4A07-81CE-D9AD07318D65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2880,42 +2880,27 @@
     <t>rec_cav_tlip</t>
   </si>
   <si>
-    <t>Receiver cavity top lip fractional height</t>
-  </si>
-  <si>
     <t>Fraction of the total receiver height occupied by the top lip in a cavity geometry</t>
   </si>
   <si>
     <t>rec_cav_blip</t>
   </si>
   <si>
-    <t>Receiver cavity bottom lip fractional height</t>
-  </si>
-  <si>
     <t>Fraction of the total receiver height occupied by the bottom lip in a cavity geometry</t>
   </si>
   <si>
-    <t>Receiver cavity active surface radius</t>
-  </si>
-  <si>
     <t>Radius of the circle circumscribing all active absorber surfaces</t>
   </si>
   <si>
     <t>rec_cav_apwfrac</t>
   </si>
   <si>
-    <t>Receiver cavity aperture width fraction</t>
-  </si>
-  <si>
     <t>Width of cavity aperture relative to maximum width at the aperture plane</t>
   </si>
   <si>
     <t>rec_cav_apw</t>
   </si>
   <si>
-    <t>Receiver cavity aperture width</t>
-  </si>
-  <si>
     <t>Calculated aperture width based on cavity geometry and aperture width fraction</t>
   </si>
   <si>
@@ -2934,9 +2919,6 @@
     <t>rec_cav_aph</t>
   </si>
   <si>
-    <t>Receiver cavity aperture height</t>
-  </si>
-  <si>
     <t>Calculated aperture height based on receiver height and lip height fractions</t>
   </si>
   <si>
@@ -2944,6 +2926,24 @@
   </si>
   <si>
     <t>Offset of circle circumscribing cavity absorber surfaces from the aperture plane; fraction of cavity radius; positive yields greater receiver depth</t>
+  </si>
+  <si>
+    <t>Cavity active surface radius</t>
+  </si>
+  <si>
+    <t>Cavity top lip fractional height</t>
+  </si>
+  <si>
+    <t>Cavity bottom lip fractional height</t>
+  </si>
+  <si>
+    <t>Cavity aperture width fraction</t>
+  </si>
+  <si>
+    <t>Cavity aperture width</t>
+  </si>
+  <si>
+    <t>Cavity aperture height</t>
   </si>
 </sst>
 </file>
@@ -3360,8 +3360,8 @@
   <dimension ref="A1:L318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K268" sqref="K268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10754,10 +10754,10 @@
         <v>1</v>
       </c>
       <c r="K241" s="3" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
@@ -10784,10 +10784,10 @@
         <v>1</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="L242" s="3" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
@@ -10813,10 +10813,10 @@
         <v>1</v>
       </c>
       <c r="K243" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="L243" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="L243" s="3" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
@@ -10824,7 +10824,7 @@
         <v>666</v>
       </c>
       <c r="B244" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C244" t="s">
         <v>14</v>
@@ -10842,10 +10842,10 @@
         <v>1</v>
       </c>
       <c r="K244" s="3" t="s">
-        <v>954</v>
+        <v>969</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
@@ -10853,7 +10853,7 @@
         <v>666</v>
       </c>
       <c r="B245" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C245" t="s">
         <v>14</v>
@@ -10871,10 +10871,10 @@
         <v>1</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
@@ -11183,7 +11183,7 @@
         <v>757</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
@@ -11367,7 +11367,7 @@
         <v>666</v>
       </c>
       <c r="B262" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C262" t="s">
         <v>90</v>
@@ -11386,10 +11386,10 @@
         <v>0</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
@@ -11487,7 +11487,7 @@
         <v>666</v>
       </c>
       <c r="B266" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C266" t="s">
         <v>90</v>
@@ -11505,10 +11505,10 @@
         <v>0</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>962</v>
+        <v>971</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
@@ -11516,7 +11516,7 @@
         <v>666</v>
       </c>
       <c r="B267" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C267" t="s">
         <v>90</v>
@@ -11534,10 +11534,10 @@
         <v>0</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\solarpilot\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13E346A-A132-4A07-81CE-D9AD07318D65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D714DA-A5AB-4EB9-9122-57C0FEC56627}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3360,8 +3360,8 @@
   <dimension ref="A1:L318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K268" sqref="K268"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E248" sqref="E248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10744,7 +10744,7 @@
         <v>30</v>
       </c>
       <c r="E241" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>17</v>
@@ -10774,7 +10774,7 @@
         <v>30</v>
       </c>
       <c r="E242" s="1">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>43</v>
@@ -11134,7 +11134,7 @@
         <v>21</v>
       </c>
       <c r="E254" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>17</v>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\solarpilot\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14401F03-D1A4-4ED9-AAF5-804435C7D41A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98CE24B-A9E7-49FD-A3E8-00E2237D3933}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="975">
   <si>
     <t>Domain</t>
   </si>
@@ -3366,8 +3366,8 @@
   <dimension ref="A1:L319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E283" sqref="E283"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11140,7 +11140,7 @@
         <v>21</v>
       </c>
       <c r="E254" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>17</v>
@@ -11738,6 +11738,9 @@
       </c>
       <c r="D274" t="s">
         <v>21</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G274" s="2" t="b">
         <v>0</v>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\solarpilot\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98CE24B-A9E7-49FD-A3E8-00E2237D3933}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F36744-22DE-430E-ADA6-33FD9FFF40DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="975">
   <si>
     <t>Domain</t>
   </si>
@@ -2925,9 +2925,6 @@
     <t>Cavity absorber centroid aperture offset</t>
   </si>
   <si>
-    <t>Offset of circle circumscribing cavity absorber surfaces from the aperture plane; fraction of cavity radius; positive yields greater receiver depth</t>
-  </si>
-  <si>
     <t>Cavity active surface radius</t>
   </si>
   <si>
@@ -2950,6 +2947,9 @@
   </si>
   <si>
     <t>SolarPILOT code base version number</t>
+  </si>
+  <si>
+    <t>Offset of centroid of cavity absorber surfaces from the aperture plane (fraction of cavity radius); positive yields greater receiver depth</t>
   </si>
 </sst>
 </file>
@@ -3366,8 +3366,8 @@
   <dimension ref="A1:L319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E255" sqref="E255"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5992,8 +5992,7 @@
         <v>17</v>
       </c>
       <c r="G86" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>287</v>
@@ -6022,8 +6021,7 @@
         <v>17</v>
       </c>
       <c r="G87" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>290</v>
@@ -6320,8 +6318,8 @@
         <v>17</v>
       </c>
       <c r="G97" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>323</v>
@@ -6350,8 +6348,8 @@
         <v>17</v>
       </c>
       <c r="G98" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>326</v>
@@ -10750,7 +10748,7 @@
         <v>30</v>
       </c>
       <c r="E241" s="1">
-        <v>0.1</v>
+        <v>-0.25</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>17</v>
@@ -10763,7 +10761,7 @@
         <v>965</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -10780,7 +10778,7 @@
         <v>30</v>
       </c>
       <c r="E242" s="1">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>43</v>
@@ -10790,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="L242" s="3" t="s">
         <v>954</v>
@@ -10810,7 +10808,7 @@
         <v>30</v>
       </c>
       <c r="E243" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>17</v>
@@ -10818,8 +10816,11 @@
       <c r="G243" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="J243" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="K243" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="L243" s="3" t="s">
         <v>951</v>
@@ -10839,7 +10840,7 @@
         <v>30</v>
       </c>
       <c r="E244" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>17</v>
@@ -10847,8 +10848,11 @@
       <c r="G244" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="J244" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="K244" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L244" s="3" t="s">
         <v>953</v>
@@ -10876,8 +10880,11 @@
       <c r="G245" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="J245" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="K245" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L245" s="3" t="s">
         <v>956</v>
@@ -11511,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L266" s="3" t="s">
         <v>958</v>
@@ -11540,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L267" s="3" t="s">
         <v>964</v>
@@ -11731,7 +11738,7 @@
         <v>800</v>
       </c>
       <c r="B274" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
@@ -11746,10 +11753,10 @@
         <v>0</v>
       </c>
       <c r="K274" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L274" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,30 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHamilt2\Documents\solarPILOT_build\SolarPILOT\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\solarpilot\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF09015-F0DF-4886-92C0-54242CCE2AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F36744-22DE-430E-ADA6-33FD9FFF40DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="975">
   <si>
     <t>Domain</t>
   </si>
@@ -2216,21 +2208,9 @@
     <t>rec_cav_cdepth</t>
   </si>
   <si>
-    <t>Cavity curvature centroid offset</t>
-  </si>
-  <si>
-    <t>Offset of centroid of cavity absorber surface from the aperture plane. (Positive-&gt;Increased depth)</t>
-  </si>
-  <si>
     <t>rec_cav_rad</t>
   </si>
   <si>
-    <t>Receiver cavity curvature radius</t>
-  </si>
-  <si>
-    <t>Radius of the receiver cavity absorbing surface</t>
-  </si>
-  <si>
     <t>rec_diameter</t>
   </si>
   <si>
@@ -2309,9 +2289,6 @@
     <t>rec_type</t>
   </si>
   <si>
-    <t>External cylindrical=0;Flat plate=2</t>
-  </si>
-  <si>
     <t>Receiver type</t>
   </si>
   <si>
@@ -2324,27 +2301,6 @@
     <t>Receiver width</t>
   </si>
   <si>
-    <t>Receiver width for cavity or flat receivers</t>
-  </si>
-  <si>
-    <t>span_max</t>
-  </si>
-  <si>
-    <t>Max. receiver panel span angle</t>
-  </si>
-  <si>
-    <t>Maximum (CW) bound of the arc defining the receiver surface</t>
-  </si>
-  <si>
-    <t>span_min</t>
-  </si>
-  <si>
-    <t>Min. receiver panel span angle</t>
-  </si>
-  <si>
-    <t>Minimum (CCW) bound of the arc defining the receiver surface</t>
-  </si>
-  <si>
     <t>therm_loss_base</t>
   </si>
   <si>
@@ -2918,10 +2874,82 @@
     <t>Specified receiver map color (hex)</t>
   </si>
   <si>
+    <t>External cylindrical=0;Cavity=1;Flat plate=2</t>
+  </si>
+  <si>
+    <t>rec_cav_tlip</t>
+  </si>
+  <si>
+    <t>Fraction of the total receiver height occupied by the top lip in a cavity geometry</t>
+  </si>
+  <si>
+    <t>rec_cav_blip</t>
+  </si>
+  <si>
+    <t>Fraction of the total receiver height occupied by the bottom lip in a cavity geometry</t>
+  </si>
+  <si>
+    <t>Radius of the circle circumscribing all active absorber surfaces</t>
+  </si>
+  <si>
+    <t>rec_cav_apwfrac</t>
+  </si>
+  <si>
+    <t>Width of cavity aperture relative to maximum width at the aperture plane</t>
+  </si>
+  <si>
+    <t>rec_cav_apw</t>
+  </si>
+  <si>
+    <t>Calculated aperture width based on cavity geometry and aperture width fraction</t>
+  </si>
+  <si>
+    <t>Receiver aperture width for flat plate geometry</t>
+  </si>
+  <si>
+    <t>aperture_area</t>
+  </si>
+  <si>
+    <t>Receiver aperture area</t>
+  </si>
+  <si>
+    <t>Area of the aperture available to heliostat aiming</t>
+  </si>
+  <si>
+    <t>rec_cav_aph</t>
+  </si>
+  <si>
+    <t>Calculated aperture height based on receiver height and lip height fractions</t>
+  </si>
+  <si>
+    <t>Cavity absorber centroid aperture offset</t>
+  </si>
+  <si>
+    <t>Cavity active surface radius</t>
+  </si>
+  <si>
+    <t>Cavity top lip fractional height</t>
+  </si>
+  <si>
+    <t>Cavity bottom lip fractional height</t>
+  </si>
+  <si>
+    <t>Cavity aperture width fraction</t>
+  </si>
+  <si>
+    <t>Cavity aperture width</t>
+  </si>
+  <si>
+    <t>Cavity aperture height</t>
+  </si>
+  <si>
     <t>version</t>
   </si>
   <si>
     <t>SolarPILOT code base version number</t>
+  </si>
+  <si>
+    <t>Offset of centroid of cavity absorber surfaces from the aperture plane (fraction of cavity radius); positive yields greater receiver depth</t>
   </si>
 </sst>
 </file>
@@ -3018,8 +3046,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L315" totalsRowShown="0">
-  <autoFilter ref="A1:L315" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L319" totalsRowShown="0">
+  <autoFilter ref="A1:L319" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="String name"/>
@@ -3335,31 +3363,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L315"/>
+  <dimension ref="A1:L319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L104" sqref="L104"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="114.453125" customWidth="1"/>
-    <col min="13" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="114.42578125" customWidth="1"/>
+    <col min="13" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3397,7 +3425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3430,7 +3458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3466,7 +3494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3496,7 +3524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3526,7 +3554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3556,7 +3584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3586,7 +3614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3616,7 +3644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3652,7 +3680,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3682,7 +3710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3712,7 +3740,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3742,7 +3770,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3772,7 +3800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3802,7 +3830,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3829,7 +3857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3859,7 +3887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3895,7 +3923,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3925,7 +3953,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3952,7 +3980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3982,7 +4010,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4009,12 +4037,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="C22" t="s">
         <v>90</v>
@@ -4032,13 +4060,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4068,7 +4096,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4098,7 +4126,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -4128,7 +4156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -4158,7 +4186,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -4188,7 +4216,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -4218,7 +4246,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -4249,7 +4277,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -4279,7 +4307,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -4309,7 +4337,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -4339,7 +4367,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -4369,7 +4397,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -4399,7 +4427,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -4429,7 +4457,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -4459,7 +4487,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -4489,7 +4517,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -4519,7 +4547,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -4549,7 +4577,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -4576,7 +4604,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -4603,7 +4631,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -4633,7 +4661,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -4663,7 +4691,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -4693,7 +4721,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -4723,7 +4751,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -4753,7 +4781,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -4783,7 +4811,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -4813,7 +4841,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4843,7 +4871,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -4873,7 +4901,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -4903,7 +4931,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -4933,7 +4961,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -4963,7 +4991,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -4993,7 +5021,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -5023,7 +5051,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>190</v>
       </c>
@@ -5056,7 +5084,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -5086,7 +5114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -5116,7 +5144,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>190</v>
       </c>
@@ -5146,7 +5174,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -5176,7 +5204,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>190</v>
       </c>
@@ -5206,7 +5234,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -5233,7 +5261,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -5260,7 +5288,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -5293,7 +5321,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -5323,7 +5351,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5353,7 +5381,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -5377,7 +5405,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -5404,7 +5432,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -5437,7 +5465,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -5467,7 +5495,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>190</v>
       </c>
@@ -5497,7 +5525,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -5533,7 +5561,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -5560,7 +5588,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>190</v>
       </c>
@@ -5587,7 +5615,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>190</v>
       </c>
@@ -5614,7 +5642,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -5650,7 +5678,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -5684,7 +5712,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>190</v>
       </c>
@@ -5715,7 +5743,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>190</v>
       </c>
@@ -5746,7 +5774,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -5777,7 +5805,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -5808,7 +5836,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -5845,7 +5873,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -5876,7 +5904,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -5913,7 +5941,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -5944,7 +5972,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -5964,8 +5992,7 @@
         <v>17</v>
       </c>
       <c r="G86" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>287</v>
@@ -5974,7 +6001,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -5994,8 +6021,7 @@
         <v>17</v>
       </c>
       <c r="G87" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>290</v>
@@ -6004,7 +6030,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -6031,7 +6057,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -6061,7 +6087,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -6091,7 +6117,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -6127,7 +6153,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -6158,7 +6184,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -6185,7 +6211,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -6215,7 +6241,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -6242,7 +6268,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6272,7 +6298,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -6292,17 +6318,17 @@
         <v>17</v>
       </c>
       <c r="G97" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>323</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -6322,22 +6348,22 @@
         <v>17</v>
       </c>
       <c r="G98" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>326</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>190</v>
       </c>
       <c r="B99" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -6355,13 +6381,13 @@
         <v>1</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>190</v>
       </c>
@@ -6391,7 +6417,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>190</v>
       </c>
@@ -6421,7 +6447,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>332</v>
       </c>
@@ -6451,7 +6477,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>332</v>
       </c>
@@ -6481,7 +6507,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>332</v>
       </c>
@@ -6517,7 +6543,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>332</v>
       </c>
@@ -6547,7 +6573,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>332</v>
       </c>
@@ -6577,7 +6603,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>332</v>
       </c>
@@ -6607,7 +6633,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>332</v>
       </c>
@@ -6637,7 +6663,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>332</v>
       </c>
@@ -6667,7 +6693,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -6697,7 +6723,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -6727,7 +6753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>332</v>
       </c>
@@ -6757,7 +6783,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -6787,7 +6813,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>332</v>
       </c>
@@ -6817,7 +6843,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -6847,7 +6873,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>332</v>
       </c>
@@ -6877,7 +6903,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>332</v>
       </c>
@@ -6907,7 +6933,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>332</v>
       </c>
@@ -6937,7 +6963,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>332</v>
       </c>
@@ -6973,7 +6999,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>332</v>
       </c>
@@ -7009,7 +7035,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>332</v>
       </c>
@@ -7039,7 +7065,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>332</v>
       </c>
@@ -7066,7 +7092,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>332</v>
       </c>
@@ -7096,7 +7122,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>332</v>
       </c>
@@ -7127,7 +7153,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>332</v>
       </c>
@@ -7161,7 +7187,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>332</v>
       </c>
@@ -7189,7 +7215,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>332</v>
       </c>
@@ -7223,7 +7249,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>332</v>
       </c>
@@ -7257,7 +7283,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>332</v>
       </c>
@@ -7293,7 +7319,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>332</v>
       </c>
@@ -7327,7 +7353,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>332</v>
       </c>
@@ -7361,7 +7387,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>332</v>
       </c>
@@ -7388,7 +7414,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>332</v>
       </c>
@@ -7415,7 +7441,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>332</v>
       </c>
@@ -7445,7 +7471,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>332</v>
       </c>
@@ -7475,7 +7501,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>332</v>
       </c>
@@ -7505,7 +7531,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>332</v>
       </c>
@@ -7535,7 +7561,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>332</v>
       </c>
@@ -7565,7 +7591,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>332</v>
       </c>
@@ -7595,7 +7621,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>332</v>
       </c>
@@ -7625,7 +7651,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>332</v>
       </c>
@@ -7655,7 +7681,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>332</v>
       </c>
@@ -7685,7 +7711,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>332</v>
       </c>
@@ -7715,7 +7741,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>332</v>
       </c>
@@ -7754,7 +7780,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>332</v>
       </c>
@@ -7787,7 +7813,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>332</v>
       </c>
@@ -7814,7 +7840,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>332</v>
       </c>
@@ -7844,7 +7870,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>332</v>
       </c>
@@ -7874,7 +7900,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>332</v>
       </c>
@@ -7904,7 +7930,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>332</v>
       </c>
@@ -7934,7 +7960,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>332</v>
       </c>
@@ -7964,7 +7990,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>332</v>
       </c>
@@ -7994,7 +8020,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>332</v>
       </c>
@@ -8024,7 +8050,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>332</v>
       </c>
@@ -8054,7 +8080,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -8084,7 +8110,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>332</v>
       </c>
@@ -8114,7 +8140,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>332</v>
       </c>
@@ -8144,7 +8170,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -8174,7 +8200,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>332</v>
       </c>
@@ -8204,7 +8230,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>332</v>
       </c>
@@ -8234,7 +8260,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -8264,7 +8290,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -8294,7 +8320,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -8324,7 +8350,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>332</v>
       </c>
@@ -8354,7 +8380,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>513</v>
       </c>
@@ -8384,7 +8410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>513</v>
       </c>
@@ -8408,7 +8434,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>513</v>
       </c>
@@ -8438,7 +8464,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>513</v>
       </c>
@@ -8468,7 +8494,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>513</v>
       </c>
@@ -8499,7 +8525,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>513</v>
       </c>
@@ -8523,7 +8549,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>513</v>
       </c>
@@ -8557,7 +8583,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>513</v>
       </c>
@@ -8591,7 +8617,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>513</v>
       </c>
@@ -8625,7 +8651,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>513</v>
       </c>
@@ -8659,7 +8685,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>513</v>
       </c>
@@ -8689,7 +8715,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>513</v>
       </c>
@@ -8719,7 +8745,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>513</v>
       </c>
@@ -8749,7 +8775,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>513</v>
       </c>
@@ -8779,7 +8805,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>513</v>
       </c>
@@ -8809,7 +8835,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>513</v>
       </c>
@@ -8839,7 +8865,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>513</v>
       </c>
@@ -8869,7 +8895,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>513</v>
       </c>
@@ -8899,7 +8925,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>513</v>
       </c>
@@ -8929,7 +8955,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>513</v>
       </c>
@@ -8959,7 +8985,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>513</v>
       </c>
@@ -8989,7 +9015,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>513</v>
       </c>
@@ -9019,7 +9045,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>576</v>
       </c>
@@ -9055,7 +9081,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>576</v>
       </c>
@@ -9077,7 +9103,7 @@
       </c>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>576</v>
       </c>
@@ -9107,7 +9133,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>576</v>
       </c>
@@ -9140,7 +9166,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>576</v>
       </c>
@@ -9173,7 +9199,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>576</v>
       </c>
@@ -9206,7 +9232,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>576</v>
       </c>
@@ -9236,7 +9262,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>576</v>
       </c>
@@ -9266,7 +9292,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>576</v>
       </c>
@@ -9296,7 +9322,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>576</v>
       </c>
@@ -9326,7 +9352,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>576</v>
       </c>
@@ -9356,7 +9382,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>576</v>
       </c>
@@ -9383,7 +9409,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>576</v>
       </c>
@@ -9413,7 +9439,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>576</v>
       </c>
@@ -9446,7 +9472,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>576</v>
       </c>
@@ -9478,7 +9504,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>619</v>
       </c>
@@ -9508,7 +9534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>619</v>
       </c>
@@ -9535,7 +9561,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>619</v>
       </c>
@@ -9562,7 +9588,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>619</v>
       </c>
@@ -9595,7 +9621,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>619</v>
       </c>
@@ -9626,7 +9652,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>619</v>
       </c>
@@ -9660,7 +9686,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>619</v>
       </c>
@@ -9694,7 +9720,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>619</v>
       </c>
@@ -9728,7 +9754,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>619</v>
       </c>
@@ -9762,7 +9788,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>619</v>
       </c>
@@ -9796,7 +9822,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>619</v>
       </c>
@@ -9830,7 +9856,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>619</v>
       </c>
@@ -9864,7 +9890,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>619</v>
       </c>
@@ -9898,7 +9924,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>619</v>
       </c>
@@ -9932,7 +9958,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>619</v>
       </c>
@@ -9966,7 +9992,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>619</v>
       </c>
@@ -9990,7 +10016,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>619</v>
       </c>
@@ -10017,7 +10043,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>619</v>
       </c>
@@ -10053,7 +10079,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>666</v>
       </c>
@@ -10083,7 +10109,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>666</v>
       </c>
@@ -10119,7 +10145,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>666</v>
       </c>
@@ -10149,7 +10175,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>666</v>
       </c>
@@ -10179,7 +10205,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>666</v>
       </c>
@@ -10205,6 +10231,9 @@
       <c r="I224" s="3" t="s">
         <v>681</v>
       </c>
+      <c r="J224" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="K224" s="3" t="s">
         <v>682</v>
       </c>
@@ -10212,7 +10241,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>666</v>
       </c>
@@ -10242,7 +10271,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>666</v>
       </c>
@@ -10272,7 +10301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>666</v>
       </c>
@@ -10299,7 +10328,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>666</v>
       </c>
@@ -10330,7 +10359,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>666</v>
       </c>
@@ -10358,7 +10387,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>666</v>
       </c>
@@ -10392,7 +10421,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>666</v>
       </c>
@@ -10426,7 +10455,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>666</v>
       </c>
@@ -10440,7 +10469,7 @@
         <v>228</v>
       </c>
       <c r="E232" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>17</v>
@@ -10448,9 +10477,6 @@
       <c r="G232" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
-      </c>
-      <c r="J232" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="K232" s="3" t="s">
         <v>696</v>
@@ -10459,7 +10485,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>666</v>
       </c>
@@ -10492,7 +10518,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>666</v>
       </c>
@@ -10522,7 +10548,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>666</v>
       </c>
@@ -10558,7 +10584,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>666</v>
       </c>
@@ -10588,7 +10614,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>666</v>
       </c>
@@ -10618,7 +10644,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>666</v>
       </c>
@@ -10648,7 +10674,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>666</v>
       </c>
@@ -10678,7 +10704,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>666</v>
       </c>
@@ -10708,7 +10734,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>666</v>
       </c>
@@ -10722,31 +10748,28 @@
         <v>30</v>
       </c>
       <c r="E241" s="1">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G241" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J241" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="K241" s="3" t="s">
-        <v>727</v>
+        <v>965</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>666</v>
       </c>
       <c r="B242" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C242" t="s">
         <v>14</v>
@@ -10755,7 +10778,7 @@
         <v>30</v>
       </c>
       <c r="E242" s="1">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>43</v>
@@ -10764,22 +10787,19 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J242" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="K242" s="3" t="s">
-        <v>730</v>
+        <v>966</v>
       </c>
       <c r="L242" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>666</v>
       </c>
       <c r="B243" t="s">
-        <v>732</v>
+        <v>950</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
@@ -10788,28 +10808,30 @@
         <v>30</v>
       </c>
       <c r="E243" s="1">
-        <v>17.649999999999999</v>
+        <v>0</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G243" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K243" t="s">
-        <v>733</v>
+        <v>1</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>967</v>
       </c>
       <c r="L243" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>666</v>
       </c>
       <c r="B244" t="s">
-        <v>735</v>
+        <v>952</v>
       </c>
       <c r="C244" t="s">
         <v>14</v>
@@ -10821,25 +10843,27 @@
         <v>0</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G244" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K244" t="s">
-        <v>736</v>
+        <v>1</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>968</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>666</v>
       </c>
       <c r="B245" t="s">
-        <v>738</v>
+        <v>955</v>
       </c>
       <c r="C245" t="s">
         <v>14</v>
@@ -10848,55 +10872,60 @@
         <v>30</v>
       </c>
       <c r="E245" s="1">
-        <v>21.6</v>
+        <v>1</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G245" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K245" t="s">
-        <v>739</v>
+        <v>1</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>969</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>666</v>
       </c>
       <c r="B246" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="C246" t="s">
         <v>14</v>
       </c>
       <c r="D246" t="s">
-        <v>21</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>742</v>
+        <v>30</v>
+      </c>
+      <c r="E246" s="1">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G246" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K246" s="3" t="s">
-        <v>743</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K246" t="s">
+        <v>729</v>
       </c>
       <c r="L246" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>666</v>
       </c>
       <c r="B247" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="C247" t="s">
         <v>14</v>
@@ -10908,25 +10937,25 @@
         <v>0</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G247" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K247" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="L247" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>666</v>
       </c>
       <c r="B248" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="C248" t="s">
         <v>14</v>
@@ -10935,7 +10964,7 @@
         <v>30</v>
       </c>
       <c r="E248" s="1">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>43</v>
@@ -10945,120 +10974,105 @@
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>666</v>
       </c>
       <c r="B249" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="C249" t="s">
         <v>14</v>
       </c>
       <c r="D249" t="s">
-        <v>30</v>
-      </c>
-      <c r="E249" s="1">
-        <v>0</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>738</v>
       </c>
       <c r="G249" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K249" t="s">
-        <v>751</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>739</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>666</v>
       </c>
       <c r="B250" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="C250" t="s">
         <v>14</v>
       </c>
       <c r="D250" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E250" s="1">
         <v>0</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G250" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H250" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I250" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="K250" s="3" t="s">
-        <v>755</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K250" t="s">
+        <v>741</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>666</v>
       </c>
       <c r="B251" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="C251" t="s">
         <v>14</v>
       </c>
       <c r="D251" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G251" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H251" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I251" s="3" t="s">
-        <v>758</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>666</v>
       </c>
       <c r="B252" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="C252" t="s">
         <v>14</v>
@@ -11067,7 +11081,7 @@
         <v>30</v>
       </c>
       <c r="E252" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>43</v>
@@ -11077,84 +11091,90 @@
         <v>1</v>
       </c>
       <c r="K252" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>666</v>
       </c>
       <c r="B253" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="C253" t="s">
         <v>14</v>
       </c>
       <c r="D253" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E253" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G253" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J253" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K253" t="s">
-        <v>765</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>751</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>666</v>
       </c>
       <c r="B254" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="C254" t="s">
         <v>14</v>
       </c>
       <c r="D254" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E254" s="1">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G254" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J254" s="3" t="s">
-        <v>274</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>949</v>
       </c>
       <c r="K254" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="L254" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>666</v>
       </c>
       <c r="B255" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C255" t="s">
         <v>14</v>
@@ -11163,58 +11183,58 @@
         <v>30</v>
       </c>
       <c r="E255" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>702</v>
+        <v>43</v>
       </c>
       <c r="G255" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K255" s="3" t="s">
-        <v>771</v>
+      <c r="K255" t="s">
+        <v>757</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>666</v>
       </c>
       <c r="B256" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="C256" t="s">
         <v>14</v>
       </c>
       <c r="D256" t="s">
-        <v>15</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>774</v>
+        <v>30</v>
+      </c>
+      <c r="E256" s="1">
+        <v>30</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>17</v>
+        <v>702</v>
       </c>
       <c r="G256" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K256" s="3" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="L256" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>666</v>
       </c>
       <c r="B257" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="C257" t="s">
         <v>14</v>
@@ -11223,7 +11243,7 @@
         <v>15</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>17</v>
@@ -11233,104 +11253,104 @@
         <v>0</v>
       </c>
       <c r="K257" s="3" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="L257" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>666</v>
       </c>
       <c r="B258" t="s">
-        <v>957</v>
+        <v>765</v>
       </c>
       <c r="C258" t="s">
         <v>14</v>
       </c>
       <c r="D258" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>958</v>
+        <v>762</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G258" s="2" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>959</v>
+        <v>766</v>
       </c>
       <c r="L258" s="3" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>666</v>
       </c>
       <c r="B259" t="s">
-        <v>780</v>
+        <v>945</v>
       </c>
       <c r="C259" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D259" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>946</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G259" s="2" t="b">
-        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>781</v>
+        <v>947</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>666</v>
       </c>
       <c r="B260" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C260" t="s">
         <v>90</v>
       </c>
       <c r="D260" t="s">
-        <v>30</v>
-      </c>
-      <c r="E260" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="G260" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>666</v>
       </c>
       <c r="B261" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="C261" t="s">
         <v>90</v>
@@ -11339,28 +11359,28 @@
         <v>30</v>
       </c>
       <c r="E261" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="G261" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K261" t="s">
-        <v>786</v>
+      <c r="K261" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>666</v>
       </c>
       <c r="B262" t="s">
-        <v>788</v>
+        <v>960</v>
       </c>
       <c r="C262" t="s">
         <v>90</v>
@@ -11372,25 +11392,25 @@
         <v>0</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>789</v>
+        <v>128</v>
       </c>
       <c r="G262" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>790</v>
+        <v>961</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>666</v>
       </c>
       <c r="B263" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="C263" t="s">
         <v>90</v>
@@ -11399,28 +11419,28 @@
         <v>30</v>
       </c>
       <c r="E263" s="1">
-        <v>1.2</v>
+        <v>195</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G263" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K263" s="3" t="s">
-        <v>793</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K263" t="s">
+        <v>774</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>666</v>
       </c>
       <c r="B264" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="C264" t="s">
         <v>90</v>
@@ -11432,25 +11452,25 @@
         <v>0</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>17</v>
+        <v>777</v>
       </c>
       <c r="G264" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>666</v>
       </c>
       <c r="B265" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="C265" t="s">
         <v>90</v>
@@ -11459,28 +11479,28 @@
         <v>30</v>
       </c>
       <c r="E265" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>789</v>
+        <v>17</v>
       </c>
       <c r="G265" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>666</v>
       </c>
       <c r="B266" t="s">
-        <v>800</v>
+        <v>957</v>
       </c>
       <c r="C266" t="s">
         <v>90</v>
@@ -11492,25 +11512,24 @@
         <v>0</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>789</v>
+        <v>43</v>
       </c>
       <c r="G266" s="2" t="b">
-        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>801</v>
+        <v>970</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>666</v>
       </c>
       <c r="B267" t="s">
-        <v>803</v>
+        <v>963</v>
       </c>
       <c r="C267" t="s">
         <v>90</v>
@@ -11525,22 +11544,21 @@
         <v>43</v>
       </c>
       <c r="G267" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K267" t="s">
-        <v>804</v>
+        <v>0</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>971</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>666</v>
       </c>
       <c r="B268" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="C268" t="s">
         <v>90</v>
@@ -11552,25 +11570,25 @@
         <v>0</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G268" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K268" t="s">
-        <v>807</v>
+      <c r="K268" s="3" t="s">
+        <v>784</v>
       </c>
       <c r="L268" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>666</v>
       </c>
       <c r="B269" t="s">
-        <v>809</v>
+        <v>785</v>
       </c>
       <c r="C269" t="s">
         <v>90</v>
@@ -11582,138 +11600,145 @@
         <v>0</v>
       </c>
       <c r="F269" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G269" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>666</v>
+      </c>
+      <c r="B270" t="s">
+        <v>788</v>
+      </c>
+      <c r="C270" t="s">
+        <v>90</v>
+      </c>
+      <c r="D270" t="s">
+        <v>30</v>
+      </c>
+      <c r="E270" s="1">
+        <v>0</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G270" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="L270" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>666</v>
+      </c>
+      <c r="B271" t="s">
+        <v>791</v>
+      </c>
+      <c r="C271" t="s">
+        <v>90</v>
+      </c>
+      <c r="D271" t="s">
+        <v>30</v>
+      </c>
+      <c r="E271" s="1">
+        <v>0</v>
+      </c>
+      <c r="F271" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G269" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K269" t="s">
-        <v>810</v>
-      </c>
-      <c r="L269" s="3" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>812</v>
-      </c>
-      <c r="B270" t="s">
-        <v>961</v>
-      </c>
-      <c r="C270" t="s">
-        <v>14</v>
-      </c>
-      <c r="D270" t="s">
-        <v>21</v>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K270" t="s">
-        <v>962</v>
-      </c>
-      <c r="L270" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>812</v>
-      </c>
-      <c r="B271" t="s">
-        <v>813</v>
-      </c>
-      <c r="C271" t="s">
-        <v>14</v>
-      </c>
-      <c r="D271" t="s">
-        <v>30</v>
-      </c>
-      <c r="E271" s="1">
-        <v>180</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="G271" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K271" s="3" t="s">
-        <v>814</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K271" t="s">
+        <v>792</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>812</v>
+        <v>666</v>
       </c>
       <c r="B272" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="C272" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D272" t="s">
         <v>30</v>
       </c>
       <c r="E272" s="1">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G272" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K272" s="3" t="s">
-        <v>817</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K272" t="s">
+        <v>795</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>812</v>
+        <v>666</v>
       </c>
       <c r="B273" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="C273" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D273" t="s">
         <v>30</v>
       </c>
       <c r="E273" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G273" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="K273" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="L273" s="3" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B274" t="s">
-        <v>26</v>
+        <v>972</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
@@ -11721,101 +11746,91 @@
       <c r="D274" t="s">
         <v>21</v>
       </c>
-      <c r="E274" s="1" t="s">
-        <v>822</v>
-      </c>
       <c r="F274" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G274" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K274" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L274" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="K274" t="s">
+        <v>973</v>
+      </c>
+      <c r="L274" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B275" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
       </c>
       <c r="D275" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E275" s="1">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G275" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H275" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I275" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="K275" t="s">
-        <v>825</v>
+      <c r="K275" s="3" t="s">
+        <v>802</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B276" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
       <c r="C276" t="s">
         <v>14</v>
       </c>
       <c r="D276" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="E276" s="1">
-        <v>4</v>
+        <v>-180</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G276" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B277" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="C277" t="s">
         <v>14</v>
       </c>
       <c r="D277" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="E277" s="1">
         <v>2</v>
@@ -11827,49 +11842,49 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K277" s="3" t="s">
-        <v>831</v>
+      <c r="K277" t="s">
+        <v>808</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B278" t="s">
-        <v>833</v>
+        <v>26</v>
       </c>
       <c r="C278" t="s">
         <v>14</v>
       </c>
       <c r="D278" t="s">
-        <v>30</v>
-      </c>
-      <c r="E278" s="1">
-        <v>950</v>
+        <v>21</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G278" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="K278" s="3" t="s">
-        <v>834</v>
+        <v>28</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B279" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="C279" t="s">
         <v>14</v>
@@ -11878,7 +11893,7 @@
         <v>21</v>
       </c>
       <c r="E279" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>17</v>
@@ -11891,31 +11906,30 @@
         <v>22</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="K279" s="3" t="s">
-        <v>838</v>
+        <v>812</v>
+      </c>
+      <c r="K279" t="s">
+        <v>813</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B280" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="C280" t="s">
         <v>14</v>
       </c>
       <c r="D280" t="s">
-        <v>111</v>
-      </c>
-      <c r="E280" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="E280" s="1">
+        <v>4</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>17</v>
@@ -11924,124 +11938,115 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H280" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="K280" s="3" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B281" t="s">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="C281" t="s">
         <v>14</v>
       </c>
       <c r="D281" t="s">
-        <v>111</v>
-      </c>
-      <c r="E281" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>228</v>
+      </c>
+      <c r="E281" s="1">
+        <v>2</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G281" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H281" s="3" t="s">
-        <v>112</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="L281" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B282" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
       </c>
       <c r="D282" t="s">
-        <v>111</v>
-      </c>
-      <c r="E282" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E282" s="1">
+        <v>950</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G282" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H282" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="K282" s="3" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B283" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
       </c>
       <c r="D283" t="s">
-        <v>111</v>
-      </c>
-      <c r="E283" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E283" s="1">
+        <v>7</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G283" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>825</v>
       </c>
       <c r="K283" s="3" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B284" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
@@ -12064,696 +12069,706 @@
         <v>112</v>
       </c>
       <c r="K284" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>800</v>
+      </c>
+      <c r="B285" t="s">
+        <v>831</v>
+      </c>
+      <c r="C285" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" t="s">
+        <v>111</v>
+      </c>
+      <c r="E285" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G285" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>800</v>
+      </c>
+      <c r="B286" t="s">
+        <v>834</v>
+      </c>
+      <c r="C286" t="s">
+        <v>14</v>
+      </c>
+      <c r="D286" t="s">
+        <v>111</v>
+      </c>
+      <c r="E286" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G286" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="L286" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>800</v>
+      </c>
+      <c r="B287" t="s">
+        <v>837</v>
+      </c>
+      <c r="C287" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" t="s">
+        <v>111</v>
+      </c>
+      <c r="E287" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G287" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K287" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="L287" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>800</v>
+      </c>
+      <c r="B288" t="s">
+        <v>840</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" t="s">
+        <v>111</v>
+      </c>
+      <c r="E288" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G288" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>800</v>
+      </c>
+      <c r="B289" t="s">
+        <v>843</v>
+      </c>
+      <c r="C289" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" t="s">
+        <v>21</v>
+      </c>
+      <c r="G289" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="L289" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>800</v>
+      </c>
+      <c r="B290" t="s">
+        <v>845</v>
+      </c>
+      <c r="C290" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" t="s">
+        <v>21</v>
+      </c>
+      <c r="E290" s="1">
+        <v>0</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G290" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="K290" t="s">
+        <v>847</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>800</v>
+      </c>
+      <c r="B291" t="s">
+        <v>849</v>
+      </c>
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" t="s">
+        <v>30</v>
+      </c>
+      <c r="E291" s="1">
+        <v>1</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G291" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="L291" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>800</v>
+      </c>
+      <c r="B292" t="s">
         <v>853</v>
       </c>
-      <c r="L284" s="3" t="s">
+      <c r="C292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" t="s">
+        <v>30</v>
+      </c>
+      <c r="E292" s="1">
+        <v>1</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G292" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K292" s="3" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>812</v>
-      </c>
-      <c r="B285" t="s">
+      <c r="L292" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="C285" t="s">
-        <v>14</v>
-      </c>
-      <c r="D285" t="s">
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>800</v>
+      </c>
+      <c r="B293" t="s">
+        <v>856</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" t="s">
+        <v>30</v>
+      </c>
+      <c r="E293" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G293" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K293" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="L293" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>800</v>
+      </c>
+      <c r="B294" t="s">
+        <v>859</v>
+      </c>
+      <c r="C294" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" t="s">
+        <v>30</v>
+      </c>
+      <c r="E294" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G294" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="L294" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>800</v>
+      </c>
+      <c r="B295" t="s">
+        <v>862</v>
+      </c>
+      <c r="C295" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" t="s">
+        <v>30</v>
+      </c>
+      <c r="E295" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G295" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="L295" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>800</v>
+      </c>
+      <c r="B296" t="s">
+        <v>865</v>
+      </c>
+      <c r="C296" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" t="s">
+        <v>30</v>
+      </c>
+      <c r="E296" s="1">
+        <v>670</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="G296" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K296" t="s">
+        <v>867</v>
+      </c>
+      <c r="L296" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>800</v>
+      </c>
+      <c r="B297" t="s">
+        <v>869</v>
+      </c>
+      <c r="C297" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" t="s">
         <v>21</v>
       </c>
-      <c r="G285" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K285" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="L285" s="3" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>812</v>
-      </c>
-      <c r="B286" t="s">
-        <v>857</v>
-      </c>
-      <c r="C286" t="s">
-        <v>14</v>
-      </c>
-      <c r="D286" t="s">
+      <c r="E297" s="1">
+        <v>0</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G297" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="K297" t="s">
+        <v>871</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>800</v>
+      </c>
+      <c r="B298" t="s">
+        <v>873</v>
+      </c>
+      <c r="C298" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" t="s">
+        <v>30</v>
+      </c>
+      <c r="E298" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G298" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>800</v>
+      </c>
+      <c r="B299" t="s">
+        <v>876</v>
+      </c>
+      <c r="C299" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" t="s">
+        <v>30</v>
+      </c>
+      <c r="E299" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G299" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K299" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="L299" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>800</v>
+      </c>
+      <c r="B300" t="s">
+        <v>879</v>
+      </c>
+      <c r="C300" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" t="s">
+        <v>30</v>
+      </c>
+      <c r="E300" s="1">
+        <v>195</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G300" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K300" t="s">
+        <v>880</v>
+      </c>
+      <c r="L300" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>800</v>
+      </c>
+      <c r="B301" t="s">
+        <v>882</v>
+      </c>
+      <c r="C301" t="s">
+        <v>14</v>
+      </c>
+      <c r="D301" t="s">
+        <v>30</v>
+      </c>
+      <c r="E301" s="1">
+        <v>16</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G301" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K301" t="s">
+        <v>883</v>
+      </c>
+      <c r="L301" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>800</v>
+      </c>
+      <c r="B302" t="s">
+        <v>885</v>
+      </c>
+      <c r="C302" t="s">
+        <v>14</v>
+      </c>
+      <c r="D302" t="s">
+        <v>30</v>
+      </c>
+      <c r="E302" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G302" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K302" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="L302" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>800</v>
+      </c>
+      <c r="B303" t="s">
+        <v>887</v>
+      </c>
+      <c r="C303" t="s">
+        <v>14</v>
+      </c>
+      <c r="D303" t="s">
+        <v>30</v>
+      </c>
+      <c r="E303" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G303" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K303" t="s">
+        <v>888</v>
+      </c>
+      <c r="L303" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>800</v>
+      </c>
+      <c r="B304" t="s">
+        <v>890</v>
+      </c>
+      <c r="C304" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" t="s">
+        <v>30</v>
+      </c>
+      <c r="E304" s="1">
+        <v>180</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G304" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K304" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="L304" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>800</v>
+      </c>
+      <c r="B305" t="s">
+        <v>893</v>
+      </c>
+      <c r="C305" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" t="s">
+        <v>30</v>
+      </c>
+      <c r="E305" s="1">
+        <v>85</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G305" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K305" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="L305" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>800</v>
+      </c>
+      <c r="B306" t="s">
+        <v>896</v>
+      </c>
+      <c r="C306" t="s">
+        <v>14</v>
+      </c>
+      <c r="D306" t="s">
         <v>21</v>
       </c>
-      <c r="E286" s="1">
-        <v>0</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G286" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H286" s="3" t="s">
+      <c r="E306" s="1">
+        <v>0</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G306" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H306" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I286" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="K286" t="s">
-        <v>859</v>
-      </c>
-      <c r="L286" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>812</v>
-      </c>
-      <c r="B287" t="s">
-        <v>861</v>
-      </c>
-      <c r="C287" t="s">
-        <v>14</v>
-      </c>
-      <c r="D287" t="s">
-        <v>30</v>
-      </c>
-      <c r="E287" s="1">
-        <v>1</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="G287" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K287" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="L287" s="3" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>812</v>
-      </c>
-      <c r="B288" t="s">
-        <v>865</v>
-      </c>
-      <c r="C288" t="s">
-        <v>14</v>
-      </c>
-      <c r="D288" t="s">
-        <v>30</v>
-      </c>
-      <c r="E288" s="1">
-        <v>1</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="G288" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K288" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="L288" s="3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>812</v>
-      </c>
-      <c r="B289" t="s">
-        <v>868</v>
-      </c>
-      <c r="C289" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" t="s">
-        <v>30</v>
-      </c>
-      <c r="E289" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="G289" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K289" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="L289" s="3" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>812</v>
-      </c>
-      <c r="B290" t="s">
-        <v>871</v>
-      </c>
-      <c r="C290" t="s">
-        <v>14</v>
-      </c>
-      <c r="D290" t="s">
-        <v>30</v>
-      </c>
-      <c r="E290" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="G290" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K290" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="L290" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>812</v>
-      </c>
-      <c r="B291" t="s">
-        <v>874</v>
-      </c>
-      <c r="C291" t="s">
-        <v>14</v>
-      </c>
-      <c r="D291" t="s">
-        <v>30</v>
-      </c>
-      <c r="E291" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G291" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K291" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="L291" s="3" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>812</v>
-      </c>
-      <c r="B292" t="s">
-        <v>877</v>
-      </c>
-      <c r="C292" t="s">
-        <v>14</v>
-      </c>
-      <c r="D292" t="s">
-        <v>30</v>
-      </c>
-      <c r="E292" s="1">
-        <v>670</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="G292" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K292" t="s">
-        <v>879</v>
-      </c>
-      <c r="L292" s="3" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>812</v>
-      </c>
-      <c r="B293" t="s">
-        <v>881</v>
-      </c>
-      <c r="C293" t="s">
-        <v>14</v>
-      </c>
-      <c r="D293" t="s">
-        <v>21</v>
-      </c>
-      <c r="E293" s="1">
-        <v>0</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G293" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H293" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I293" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="K293" t="s">
-        <v>883</v>
-      </c>
-      <c r="L293" s="3" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>812</v>
-      </c>
-      <c r="B294" t="s">
-        <v>885</v>
-      </c>
-      <c r="C294" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" t="s">
-        <v>30</v>
-      </c>
-      <c r="E294" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G294" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K294" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="L294" s="3" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>812</v>
-      </c>
-      <c r="B295" t="s">
-        <v>888</v>
-      </c>
-      <c r="C295" t="s">
-        <v>14</v>
-      </c>
-      <c r="D295" t="s">
-        <v>30</v>
-      </c>
-      <c r="E295" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G295" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K295" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="L295" s="3" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>812</v>
-      </c>
-      <c r="B296" t="s">
-        <v>891</v>
-      </c>
-      <c r="C296" t="s">
-        <v>14</v>
-      </c>
-      <c r="D296" t="s">
-        <v>30</v>
-      </c>
-      <c r="E296" s="1">
-        <v>195</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G296" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K296" t="s">
-        <v>892</v>
-      </c>
-      <c r="L296" s="3" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>812</v>
-      </c>
-      <c r="B297" t="s">
-        <v>894</v>
-      </c>
-      <c r="C297" t="s">
-        <v>14</v>
-      </c>
-      <c r="D297" t="s">
-        <v>30</v>
-      </c>
-      <c r="E297" s="1">
-        <v>16</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G297" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K297" t="s">
-        <v>895</v>
-      </c>
-      <c r="L297" s="3" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>812</v>
-      </c>
-      <c r="B298" t="s">
+      <c r="I306" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="C298" t="s">
-        <v>14</v>
-      </c>
-      <c r="D298" t="s">
-        <v>30</v>
-      </c>
-      <c r="E298" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G298" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K298" s="3" t="s">
+      <c r="K306" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="L298" s="3" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>812</v>
-      </c>
-      <c r="B299" t="s">
+      <c r="L306" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="C299" t="s">
-        <v>14</v>
-      </c>
-      <c r="D299" t="s">
-        <v>30</v>
-      </c>
-      <c r="E299" s="1">
-        <v>1.33</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G299" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K299" t="s">
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>800</v>
+      </c>
+      <c r="B307" t="s">
         <v>900</v>
-      </c>
-      <c r="L299" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>812</v>
-      </c>
-      <c r="B300" t="s">
-        <v>902</v>
-      </c>
-      <c r="C300" t="s">
-        <v>14</v>
-      </c>
-      <c r="D300" t="s">
-        <v>30</v>
-      </c>
-      <c r="E300" s="1">
-        <v>180</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G300" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K300" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="L300" s="3" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>812</v>
-      </c>
-      <c r="B301" t="s">
-        <v>905</v>
-      </c>
-      <c r="C301" t="s">
-        <v>14</v>
-      </c>
-      <c r="D301" t="s">
-        <v>30</v>
-      </c>
-      <c r="E301" s="1">
-        <v>85</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G301" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K301" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="L301" s="3" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>812</v>
-      </c>
-      <c r="B302" t="s">
-        <v>908</v>
-      </c>
-      <c r="C302" t="s">
-        <v>14</v>
-      </c>
-      <c r="D302" t="s">
-        <v>21</v>
-      </c>
-      <c r="E302" s="1">
-        <v>0</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G302" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H302" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I302" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="K302" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="L302" s="3" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>812</v>
-      </c>
-      <c r="B303" t="s">
-        <v>912</v>
-      </c>
-      <c r="C303" t="s">
-        <v>14</v>
-      </c>
-      <c r="D303" t="s">
-        <v>21</v>
-      </c>
-      <c r="E303" s="1">
-        <v>0</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G303" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H303" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K303" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="L303" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>812</v>
-      </c>
-      <c r="B304" t="s">
-        <v>915</v>
-      </c>
-      <c r="C304" t="s">
-        <v>14</v>
-      </c>
-      <c r="D304" t="s">
-        <v>21</v>
-      </c>
-      <c r="E304" s="1">
-        <v>0</v>
-      </c>
-      <c r="G304" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H304" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I304" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="K304" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="L304" s="3" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>812</v>
-      </c>
-      <c r="B305" t="s">
-        <v>919</v>
-      </c>
-      <c r="C305" t="s">
-        <v>14</v>
-      </c>
-      <c r="D305" t="s">
-        <v>30</v>
-      </c>
-      <c r="E305" s="1">
-        <v>195</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G305" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K305" t="s">
-        <v>920</v>
-      </c>
-      <c r="L305" s="3" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>812</v>
-      </c>
-      <c r="B306" t="s">
-        <v>922</v>
-      </c>
-      <c r="C306" t="s">
-        <v>14</v>
-      </c>
-      <c r="D306" t="s">
-        <v>30</v>
-      </c>
-      <c r="E306" s="1">
-        <v>1</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G306" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K306" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="L306" s="3" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>812</v>
-      </c>
-      <c r="B307" t="s">
-        <v>925</v>
       </c>
       <c r="C307" t="s">
         <v>14</v>
@@ -12764,6 +12779,9 @@
       <c r="E307" s="1">
         <v>0</v>
       </c>
+      <c r="F307" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G307" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -12771,229 +12789,235 @@
       <c r="H307" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I307" s="3" t="s">
+      <c r="K307" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="L307" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>800</v>
+      </c>
+      <c r="B308" t="s">
+        <v>903</v>
+      </c>
+      <c r="C308" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" t="s">
+        <v>21</v>
+      </c>
+      <c r="E308" s="1">
+        <v>0</v>
+      </c>
+      <c r="G308" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K308" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="L308" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>800</v>
+      </c>
+      <c r="B309" t="s">
+        <v>907</v>
+      </c>
+      <c r="C309" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" t="s">
+        <v>30</v>
+      </c>
+      <c r="E309" s="1">
+        <v>195</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G309" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K309" t="s">
+        <v>908</v>
+      </c>
+      <c r="L309" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>800</v>
+      </c>
+      <c r="B310" t="s">
+        <v>910</v>
+      </c>
+      <c r="C310" t="s">
+        <v>14</v>
+      </c>
+      <c r="D310" t="s">
+        <v>30</v>
+      </c>
+      <c r="E310" s="1">
+        <v>1</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G310" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="L310" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>800</v>
+      </c>
+      <c r="B311" t="s">
+        <v>913</v>
+      </c>
+      <c r="C311" t="s">
+        <v>14</v>
+      </c>
+      <c r="D311" t="s">
+        <v>21</v>
+      </c>
+      <c r="E311" s="1">
+        <v>0</v>
+      </c>
+      <c r="G311" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="L311" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>800</v>
+      </c>
+      <c r="B312" t="s">
+        <v>917</v>
+      </c>
+      <c r="C312" t="s">
+        <v>14</v>
+      </c>
+      <c r="D312" t="s">
+        <v>30</v>
+      </c>
+      <c r="E312" s="1">
+        <v>1</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G312" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="L312" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>800</v>
+      </c>
+      <c r="B313" t="s">
+        <v>920</v>
+      </c>
+      <c r="C313" t="s">
+        <v>14</v>
+      </c>
+      <c r="D313" t="s">
+        <v>30</v>
+      </c>
+      <c r="E313" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G313" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>800</v>
+      </c>
+      <c r="B314" t="s">
+        <v>923</v>
+      </c>
+      <c r="C314" t="s">
+        <v>14</v>
+      </c>
+      <c r="D314" t="s">
+        <v>30</v>
+      </c>
+      <c r="E314" s="1">
+        <v>100</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G314" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="L314" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="K307" s="3" t="s">
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>800</v>
+      </c>
+      <c r="B315" t="s">
         <v>927</v>
-      </c>
-      <c r="L307" s="3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
-        <v>812</v>
-      </c>
-      <c r="B308" t="s">
-        <v>929</v>
-      </c>
-      <c r="C308" t="s">
-        <v>14</v>
-      </c>
-      <c r="D308" t="s">
-        <v>30</v>
-      </c>
-      <c r="E308" s="1">
-        <v>1</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G308" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K308" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="L308" s="3" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
-        <v>812</v>
-      </c>
-      <c r="B309" t="s">
-        <v>932</v>
-      </c>
-      <c r="C309" t="s">
-        <v>14</v>
-      </c>
-      <c r="D309" t="s">
-        <v>30</v>
-      </c>
-      <c r="E309" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G309" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K309" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="L309" s="3" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A310" t="s">
-        <v>812</v>
-      </c>
-      <c r="B310" t="s">
-        <v>935</v>
-      </c>
-      <c r="C310" t="s">
-        <v>14</v>
-      </c>
-      <c r="D310" t="s">
-        <v>30</v>
-      </c>
-      <c r="E310" s="1">
-        <v>100</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="G310" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K310" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="L310" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>812</v>
-      </c>
-      <c r="B311" t="s">
-        <v>939</v>
-      </c>
-      <c r="C311" t="s">
-        <v>90</v>
-      </c>
-      <c r="D311" t="s">
-        <v>30</v>
-      </c>
-      <c r="E311" s="1">
-        <v>0</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G311" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K311" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="L311" s="3" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>812</v>
-      </c>
-      <c r="B312" t="s">
-        <v>942</v>
-      </c>
-      <c r="C312" t="s">
-        <v>90</v>
-      </c>
-      <c r="D312" t="s">
-        <v>30</v>
-      </c>
-      <c r="E312" s="1">
-        <v>0</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G312" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K312" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="L312" s="3" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>812</v>
-      </c>
-      <c r="B313" t="s">
-        <v>945</v>
-      </c>
-      <c r="C313" t="s">
-        <v>90</v>
-      </c>
-      <c r="D313" t="s">
-        <v>87</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G313" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K313" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="L313" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>812</v>
-      </c>
-      <c r="B314" t="s">
-        <v>947</v>
-      </c>
-      <c r="C314" t="s">
-        <v>90</v>
-      </c>
-      <c r="D314" t="s">
-        <v>30</v>
-      </c>
-      <c r="E314" s="1">
-        <v>0</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G314" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K314" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="L314" s="3" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>812</v>
-      </c>
-      <c r="B315" t="s">
-        <v>949</v>
       </c>
       <c r="C315" t="s">
         <v>90</v>
@@ -13005,17 +13029,134 @@
         <v>0</v>
       </c>
       <c r="F315" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G315" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>800</v>
+      </c>
+      <c r="B316" t="s">
+        <v>930</v>
+      </c>
+      <c r="C316" t="s">
+        <v>90</v>
+      </c>
+      <c r="D316" t="s">
+        <v>30</v>
+      </c>
+      <c r="E316" s="1">
+        <v>0</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G316" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>800</v>
+      </c>
+      <c r="B317" t="s">
+        <v>933</v>
+      </c>
+      <c r="C317" t="s">
+        <v>90</v>
+      </c>
+      <c r="D317" t="s">
+        <v>87</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G317" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>800</v>
+      </c>
+      <c r="B318" t="s">
+        <v>935</v>
+      </c>
+      <c r="C318" t="s">
+        <v>90</v>
+      </c>
+      <c r="D318" t="s">
+        <v>30</v>
+      </c>
+      <c r="E318" s="1">
+        <v>0</v>
+      </c>
+      <c r="F318" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G315" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K315" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="L315" s="3" t="s">
-        <v>950</v>
+      <c r="G318" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K318" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>800</v>
+      </c>
+      <c r="B319" t="s">
+        <v>937</v>
+      </c>
+      <c r="C319" t="s">
+        <v>90</v>
+      </c>
+      <c r="D319" t="s">
+        <v>30</v>
+      </c>
+      <c r="E319" s="1">
+        <v>0</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G319" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>938</v>
       </c>
     </row>
   </sheetData>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\solarpilot\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHamilt2\Documents\solarPILOT_build\SolarPILOT\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F36744-22DE-430E-ADA6-33FD9FFF40DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE0BCCC-2A73-4785-85AC-E5EC68BC55AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="1010">
   <si>
     <t>Domain</t>
   </si>
@@ -2235,9 +2246,6 @@
     <t>Receiver height</t>
   </si>
   <si>
-    <t>Height of the absorbing component</t>
-  </si>
-  <si>
     <t>rec_name</t>
   </si>
   <si>
@@ -2874,9 +2882,6 @@
     <t>Specified receiver map color (hex)</t>
   </si>
   <si>
-    <t>External cylindrical=0;Cavity=1;Flat plate=2</t>
-  </si>
-  <si>
     <t>rec_cav_tlip</t>
   </si>
   <si>
@@ -2904,9 +2909,6 @@
     <t>Calculated aperture width based on cavity geometry and aperture width fraction</t>
   </si>
   <si>
-    <t>Receiver aperture width for flat plate geometry</t>
-  </si>
-  <si>
     <t>aperture_area</t>
   </si>
   <si>
@@ -2950,6 +2952,120 @@
   </si>
   <si>
     <t>Offset of centroid of cavity absorber surfaces from the aperture plane (fraction of cavity radius); positive yields greater receiver depth</t>
+  </si>
+  <si>
+    <t>max_curtain_depth</t>
+  </si>
+  <si>
+    <t>Particle curtain entrance depth</t>
+  </si>
+  <si>
+    <t>Particle curtain entrance depth from the aperature</t>
+  </si>
+  <si>
+    <t>norm_heights_depths</t>
+  </si>
+  <si>
+    <t>curtain_type</t>
+  </si>
+  <si>
+    <t>Particle curtain type</t>
+  </si>
+  <si>
+    <t>Particle curtain geometrical configuration</t>
+  </si>
+  <si>
+    <t>curtain_radius</t>
+  </si>
+  <si>
+    <t>curtain_width</t>
+  </si>
+  <si>
+    <t>Particle curtain width</t>
+  </si>
+  <si>
+    <t>Particle curtain radius</t>
+  </si>
+  <si>
+    <t>Particle curtain radius of curvature</t>
+  </si>
+  <si>
+    <t>is_snout</t>
+  </si>
+  <si>
+    <t>Is SNOUT enabled?</t>
+  </si>
+  <si>
+    <t>snout_depth</t>
+  </si>
+  <si>
+    <t>snout_vert_angle</t>
+  </si>
+  <si>
+    <t>snout_horiz_angle</t>
+  </si>
+  <si>
+    <t>SNOUT depth</t>
+  </si>
+  <si>
+    <t>Distance from aperture window to SNOUT front plane</t>
+  </si>
+  <si>
+    <t>Vertical SNOUT angle</t>
+  </si>
+  <si>
+    <t>SNOUT angle from aperture normal</t>
+  </si>
+  <si>
+    <t>Horizontal SNOUT angle</t>
+  </si>
+  <si>
+    <t>SNOUT spanning angle defined in the aperature vertical midplane</t>
+  </si>
+  <si>
+    <t>External cylindrical=0;Cavity=1;Flat plate=2;Falling particle=3</t>
+  </si>
+  <si>
+    <t>Flat=0;Curved=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver aperture width for flat plate and falling particle geometry </t>
+  </si>
+  <si>
+    <t>Height of the absorbing component (height of aperture for falling particle geometry)</t>
+  </si>
+  <si>
+    <t>0.5,0.8;</t>
+  </si>
+  <si>
+    <t>norm_curtain_height</t>
+  </si>
+  <si>
+    <t>norm_curtain_width</t>
+  </si>
+  <si>
+    <t>Normalized particle curtain width</t>
+  </si>
+  <si>
+    <t>Particle curtain width normalized to the aperture width</t>
+  </si>
+  <si>
+    <t>Normalized troughs heights and depths</t>
+  </si>
+  <si>
+    <t>Normalized troughs heights and depths starting from the receiver entrance and working down</t>
+  </si>
+  <si>
+    <t>Particle curtain height starting from the bottom of the aperture normalized to the aperture height</t>
+  </si>
+  <si>
+    <t>curtain_total_height</t>
+  </si>
+  <si>
+    <t>Particle curtain total height</t>
+  </si>
+  <si>
+    <t>Normalized particle curtain height</t>
   </si>
 </sst>
 </file>
@@ -2976,12 +3092,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2996,7 +3124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3028,6 +3156,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3046,8 +3185,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L319" totalsRowShown="0">
-  <autoFilter ref="A1:L319" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L331" totalsRowShown="0">
+  <autoFilter ref="A1:L331" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="receiver"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="String name"/>
@@ -3363,31 +3508,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L319"/>
+  <dimension ref="A1:L331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K256" sqref="K256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="114.42578125" customWidth="1"/>
-    <col min="13" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.453125"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.54296875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="114.453125" customWidth="1"/>
+    <col min="13" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3425,7 +3570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3458,7 +3603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3494,7 +3639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3524,7 +3669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3554,7 +3699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3584,7 +3729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3614,7 +3759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3644,7 +3789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3680,7 +3825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3710,7 +3855,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3740,7 +3885,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3770,7 +3915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3800,7 +3945,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3830,7 +3975,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3857,7 +4002,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3887,7 +4032,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3923,7 +4068,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3953,7 +4098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3980,7 +4125,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4010,7 +4155,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4037,12 +4182,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C22" t="s">
         <v>90</v>
@@ -4060,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4096,7 +4241,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4126,7 +4271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -4156,7 +4301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -4186,7 +4331,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -4216,7 +4361,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -4246,7 +4391,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -4277,7 +4422,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -4307,7 +4452,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -4337,7 +4482,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -4367,7 +4512,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -4397,7 +4542,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -4427,7 +4572,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -4457,7 +4602,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -4487,7 +4632,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -4517,7 +4662,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -4547,7 +4692,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -4577,7 +4722,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -4604,7 +4749,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -4631,7 +4776,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -4661,7 +4806,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -4691,7 +4836,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -4721,7 +4866,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -4751,7 +4896,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -4781,7 +4926,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -4811,7 +4956,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -4841,7 +4986,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4871,7 +5016,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -4901,7 +5046,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -4931,7 +5076,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -4961,7 +5106,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -4991,7 +5136,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -5021,7 +5166,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -5051,7 +5196,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>190</v>
       </c>
@@ -5084,7 +5229,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -5114,7 +5259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -5144,7 +5289,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>190</v>
       </c>
@@ -5174,7 +5319,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -5204,7 +5349,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>190</v>
       </c>
@@ -5234,7 +5379,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -5261,7 +5406,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -5288,7 +5433,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -5321,7 +5466,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -5351,7 +5496,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5381,7 +5526,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -5405,7 +5550,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -5432,7 +5577,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -5465,7 +5610,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -5495,7 +5640,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>190</v>
       </c>
@@ -5525,7 +5670,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -5561,7 +5706,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -5588,7 +5733,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>190</v>
       </c>
@@ -5615,7 +5760,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>190</v>
       </c>
@@ -5642,7 +5787,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -5678,7 +5823,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -5712,7 +5857,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>190</v>
       </c>
@@ -5743,7 +5888,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>190</v>
       </c>
@@ -5774,7 +5919,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -5805,7 +5950,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -5836,7 +5981,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -5873,7 +6018,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -5904,7 +6049,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -5941,7 +6086,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -5972,7 +6117,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -6001,7 +6146,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -6030,7 +6175,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -6057,7 +6202,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -6087,7 +6232,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -6117,7 +6262,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -6153,7 +6298,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -6184,7 +6329,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -6211,7 +6356,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -6241,7 +6386,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -6268,7 +6413,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6298,7 +6443,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -6328,7 +6473,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -6358,36 +6503,36 @@
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>190</v>
       </c>
       <c r="B99" t="s">
+        <v>938</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="C99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s">
-        <v>30</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K99" s="3" t="s">
+      <c r="L99" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="L99" s="3" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>190</v>
       </c>
@@ -6417,7 +6562,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>190</v>
       </c>
@@ -6447,7 +6592,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>332</v>
       </c>
@@ -6477,7 +6622,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>332</v>
       </c>
@@ -6507,7 +6652,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>332</v>
       </c>
@@ -6543,7 +6688,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>332</v>
       </c>
@@ -6573,7 +6718,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>332</v>
       </c>
@@ -6603,7 +6748,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>332</v>
       </c>
@@ -6633,7 +6778,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>332</v>
       </c>
@@ -6663,7 +6808,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>332</v>
       </c>
@@ -6693,7 +6838,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -6723,7 +6868,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -6753,7 +6898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>332</v>
       </c>
@@ -6783,7 +6928,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -6813,7 +6958,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>332</v>
       </c>
@@ -6843,7 +6988,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -6873,7 +7018,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>332</v>
       </c>
@@ -6903,7 +7048,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>332</v>
       </c>
@@ -6933,7 +7078,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>332</v>
       </c>
@@ -6963,7 +7108,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>332</v>
       </c>
@@ -6999,7 +7144,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>332</v>
       </c>
@@ -7035,7 +7180,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>332</v>
       </c>
@@ -7065,7 +7210,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>332</v>
       </c>
@@ -7092,7 +7237,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>332</v>
       </c>
@@ -7122,7 +7267,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>332</v>
       </c>
@@ -7153,7 +7298,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>332</v>
       </c>
@@ -7187,7 +7332,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>332</v>
       </c>
@@ -7215,7 +7360,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>332</v>
       </c>
@@ -7249,7 +7394,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>332</v>
       </c>
@@ -7283,7 +7428,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>332</v>
       </c>
@@ -7319,7 +7464,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>332</v>
       </c>
@@ -7353,7 +7498,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>332</v>
       </c>
@@ -7387,7 +7532,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>332</v>
       </c>
@@ -7414,7 +7559,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>332</v>
       </c>
@@ -7441,7 +7586,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>332</v>
       </c>
@@ -7471,7 +7616,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>332</v>
       </c>
@@ -7501,7 +7646,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>332</v>
       </c>
@@ -7531,7 +7676,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>332</v>
       </c>
@@ -7561,7 +7706,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>332</v>
       </c>
@@ -7591,7 +7736,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>332</v>
       </c>
@@ -7621,7 +7766,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>332</v>
       </c>
@@ -7651,7 +7796,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>332</v>
       </c>
@@ -7681,7 +7826,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>332</v>
       </c>
@@ -7711,7 +7856,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>332</v>
       </c>
@@ -7741,7 +7886,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>332</v>
       </c>
@@ -7780,7 +7925,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>332</v>
       </c>
@@ -7813,7 +7958,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>332</v>
       </c>
@@ -7840,7 +7985,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>332</v>
       </c>
@@ -7870,7 +8015,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>332</v>
       </c>
@@ -7900,7 +8045,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>332</v>
       </c>
@@ -7930,7 +8075,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>332</v>
       </c>
@@ -7960,7 +8105,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>332</v>
       </c>
@@ -7990,7 +8135,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>332</v>
       </c>
@@ -8020,7 +8165,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>332</v>
       </c>
@@ -8050,7 +8195,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>332</v>
       </c>
@@ -8080,7 +8225,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -8110,7 +8255,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>332</v>
       </c>
@@ -8140,7 +8285,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>332</v>
       </c>
@@ -8170,7 +8315,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -8200,7 +8345,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>332</v>
       </c>
@@ -8230,7 +8375,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>332</v>
       </c>
@@ -8260,7 +8405,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -8290,7 +8435,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -8320,7 +8465,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -8350,7 +8495,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>332</v>
       </c>
@@ -8380,7 +8525,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>513</v>
       </c>
@@ -8410,7 +8555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>513</v>
       </c>
@@ -8434,7 +8579,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>513</v>
       </c>
@@ -8464,7 +8609,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>513</v>
       </c>
@@ -8494,7 +8639,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>513</v>
       </c>
@@ -8525,7 +8670,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>513</v>
       </c>
@@ -8549,7 +8694,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>513</v>
       </c>
@@ -8583,7 +8728,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>513</v>
       </c>
@@ -8617,7 +8762,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>513</v>
       </c>
@@ -8651,7 +8796,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>513</v>
       </c>
@@ -8685,7 +8830,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>513</v>
       </c>
@@ -8715,7 +8860,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>513</v>
       </c>
@@ -8745,7 +8890,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>513</v>
       </c>
@@ -8775,7 +8920,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>513</v>
       </c>
@@ -8805,7 +8950,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>513</v>
       </c>
@@ -8835,7 +8980,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>513</v>
       </c>
@@ -8865,7 +9010,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>513</v>
       </c>
@@ -8895,7 +9040,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>513</v>
       </c>
@@ -8925,7 +9070,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>513</v>
       </c>
@@ -8955,7 +9100,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>513</v>
       </c>
@@ -8985,7 +9130,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>513</v>
       </c>
@@ -9015,7 +9160,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>513</v>
       </c>
@@ -9045,7 +9190,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>576</v>
       </c>
@@ -9081,7 +9226,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>576</v>
       </c>
@@ -9103,7 +9248,7 @@
       </c>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>576</v>
       </c>
@@ -9133,7 +9278,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>576</v>
       </c>
@@ -9166,7 +9311,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>576</v>
       </c>
@@ -9199,7 +9344,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>576</v>
       </c>
@@ -9232,7 +9377,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>576</v>
       </c>
@@ -9262,7 +9407,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>576</v>
       </c>
@@ -9292,7 +9437,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>576</v>
       </c>
@@ -9322,7 +9467,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>576</v>
       </c>
@@ -9352,7 +9497,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>576</v>
       </c>
@@ -9382,7 +9527,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>576</v>
       </c>
@@ -9409,7 +9554,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>576</v>
       </c>
@@ -9439,7 +9584,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>576</v>
       </c>
@@ -9472,7 +9617,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>576</v>
       </c>
@@ -9504,7 +9649,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>619</v>
       </c>
@@ -9534,7 +9679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>619</v>
       </c>
@@ -9561,7 +9706,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>619</v>
       </c>
@@ -9588,7 +9733,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>619</v>
       </c>
@@ -9621,7 +9766,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>619</v>
       </c>
@@ -9652,7 +9797,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>619</v>
       </c>
@@ -9686,7 +9831,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>619</v>
       </c>
@@ -9720,7 +9865,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>619</v>
       </c>
@@ -9754,7 +9899,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>619</v>
       </c>
@@ -9788,7 +9933,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>619</v>
       </c>
@@ -9822,7 +9967,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>619</v>
       </c>
@@ -9856,7 +10001,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>619</v>
       </c>
@@ -9890,7 +10035,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>619</v>
       </c>
@@ -9924,7 +10069,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>619</v>
       </c>
@@ -9958,7 +10103,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>619</v>
       </c>
@@ -9992,7 +10137,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>619</v>
       </c>
@@ -10016,7 +10161,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>619</v>
       </c>
@@ -10043,7 +10188,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>619</v>
       </c>
@@ -10079,7 +10224,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>666</v>
       </c>
@@ -10109,7 +10254,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>666</v>
       </c>
@@ -10145,7 +10290,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>666</v>
       </c>
@@ -10175,7 +10320,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>666</v>
       </c>
@@ -10205,7 +10350,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>666</v>
       </c>
@@ -10241,7 +10386,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>666</v>
       </c>
@@ -10271,7 +10416,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>666</v>
       </c>
@@ -10301,7 +10446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>666</v>
       </c>
@@ -10328,7 +10473,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>666</v>
       </c>
@@ -10359,7 +10504,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>666</v>
       </c>
@@ -10387,7 +10532,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>666</v>
       </c>
@@ -10421,7 +10566,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>666</v>
       </c>
@@ -10455,7 +10600,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>666</v>
       </c>
@@ -10485,7 +10630,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>666</v>
       </c>
@@ -10518,7 +10663,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>666</v>
       </c>
@@ -10548,7 +10693,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>666</v>
       </c>
@@ -10584,7 +10729,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>666</v>
       </c>
@@ -10614,7 +10759,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>666</v>
       </c>
@@ -10644,7 +10789,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>666</v>
       </c>
@@ -10674,7 +10819,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>666</v>
       </c>
@@ -10704,7 +10849,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>666</v>
       </c>
@@ -10734,7 +10879,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>666</v>
       </c>
@@ -10758,13 +10903,13 @@
         <v>1</v>
       </c>
       <c r="K241" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>666</v>
       </c>
@@ -10788,18 +10933,18 @@
         <v>1</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="L242" s="3" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>666</v>
       </c>
       <c r="B243" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
@@ -10820,18 +10965,18 @@
         <v>274</v>
       </c>
       <c r="K243" s="3" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="L243" s="3" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>666</v>
       </c>
       <c r="B244" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C244" t="s">
         <v>14</v>
@@ -10852,18 +10997,18 @@
         <v>274</v>
       </c>
       <c r="K244" s="3" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>666</v>
       </c>
       <c r="B245" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C245" t="s">
         <v>14</v>
@@ -10884,13 +11029,13 @@
         <v>274</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>666</v>
       </c>
@@ -10920,7 +11065,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>666</v>
       </c>
@@ -10950,7 +11095,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>666</v>
       </c>
@@ -10977,15 +11122,15 @@
         <v>735</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>666</v>
       </c>
       <c r="B249" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C249" t="s">
         <v>14</v>
@@ -10994,25 +11139,25 @@
         <v>21</v>
       </c>
       <c r="E249" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G249" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K249" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="G249" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K249" s="3" t="s">
-        <v>739</v>
-      </c>
       <c r="L249" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>666</v>
       </c>
       <c r="B250" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C250" t="s">
         <v>14</v>
@@ -11031,18 +11176,18 @@
         <v>1</v>
       </c>
       <c r="K250" t="s">
+        <v>740</v>
+      </c>
+      <c r="L250" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="L250" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>666</v>
       </c>
       <c r="B251" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C251" t="s">
         <v>14</v>
@@ -11061,18 +11206,18 @@
         <v>1</v>
       </c>
       <c r="K251" t="s">
+        <v>743</v>
+      </c>
+      <c r="L251" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="L251" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>666</v>
       </c>
       <c r="B252" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C252" t="s">
         <v>14</v>
@@ -11091,18 +11236,18 @@
         <v>1</v>
       </c>
       <c r="K252" t="s">
+        <v>746</v>
+      </c>
+      <c r="L252" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="L252" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>666</v>
       </c>
       <c r="B253" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C253" t="s">
         <v>14</v>
@@ -11124,21 +11269,21 @@
         <v>22</v>
       </c>
       <c r="I253" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="K253" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="K253" s="3" t="s">
+      <c r="L253" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="L253" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>666</v>
       </c>
       <c r="B254" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C254" t="s">
         <v>14</v>
@@ -11160,21 +11305,21 @@
         <v>22</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>949</v>
+        <v>995</v>
       </c>
       <c r="K254" t="s">
+        <v>753</v>
+      </c>
+      <c r="L254" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="L254" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>666</v>
       </c>
-      <c r="B255" t="s">
-        <v>756</v>
+      <c r="B255" s="11" t="s">
+        <v>755</v>
       </c>
       <c r="C255" t="s">
         <v>14</v>
@@ -11193,381 +11338,394 @@
         <v>1</v>
       </c>
       <c r="K255" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="B256" t="s">
-        <v>758</v>
-      </c>
-      <c r="C256" t="s">
-        <v>14</v>
-      </c>
-      <c r="D256" t="s">
-        <v>30</v>
-      </c>
-      <c r="E256" s="1">
-        <v>30</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="G256" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K256" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="L256" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="B256" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E256" s="13">
+        <v>1</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G256" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="15"/>
+      <c r="I256" s="15"/>
+      <c r="J256" s="15"/>
+      <c r="K256" s="15" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L256" s="12" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="B257" t="s">
-        <v>761</v>
-      </c>
-      <c r="C257" t="s">
-        <v>14</v>
-      </c>
-      <c r="D257" t="s">
-        <v>15</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G257" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K257" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="L257" s="3" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="B257" s="12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E257" s="13">
+        <v>1</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G257" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="15"/>
+      <c r="I257" s="15"/>
+      <c r="J257" s="15"/>
+      <c r="K257" s="15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L257" s="12" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="B258" t="s">
-        <v>765</v>
-      </c>
-      <c r="C258" t="s">
-        <v>14</v>
-      </c>
-      <c r="D258" t="s">
-        <v>15</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G258" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K258" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="L258" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B258" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E258" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F258" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G258" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="15"/>
+      <c r="I258" s="15"/>
+      <c r="J258" s="15"/>
+      <c r="K258" s="15" t="s">
+        <v>973</v>
+      </c>
+      <c r="L258" s="12" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>666</v>
       </c>
-      <c r="B259" t="s">
-        <v>945</v>
+      <c r="B259" s="11" t="s">
+        <v>975</v>
       </c>
       <c r="C259" t="s">
         <v>14</v>
       </c>
       <c r="D259" t="s">
-        <v>21</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>946</v>
+        <v>15</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>999</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K259" s="3" t="s">
-        <v>947</v>
+        <v>1</v>
+      </c>
+      <c r="K259" t="s">
+        <v>1004</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>666</v>
       </c>
-      <c r="B260" t="s">
-        <v>768</v>
+      <c r="B260" s="11" t="s">
+        <v>976</v>
       </c>
       <c r="C260" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D260" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E260" s="1">
+        <v>0</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G260" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>996</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="L260" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+      <c r="L260" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>666</v>
       </c>
-      <c r="B261" t="s">
-        <v>770</v>
+      <c r="B261" s="11" t="s">
+        <v>979</v>
       </c>
       <c r="C261" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D261" t="s">
         <v>30</v>
       </c>
       <c r="E261" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="G261" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K261" s="3" t="s">
-        <v>771</v>
+        <v>1</v>
+      </c>
+      <c r="K261" t="s">
+        <v>982</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>666</v>
       </c>
-      <c r="B262" t="s">
-        <v>960</v>
+      <c r="B262" s="11" t="s">
+        <v>984</v>
       </c>
       <c r="C262" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D262" t="s">
-        <v>30</v>
-      </c>
-      <c r="E262" s="1">
-        <v>0</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="E262" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G262" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K262" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="L262" s="3" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H262" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K262" t="s">
+        <v>985</v>
+      </c>
+      <c r="L262" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>666</v>
       </c>
-      <c r="B263" t="s">
-        <v>773</v>
+      <c r="B263" s="11" t="s">
+        <v>986</v>
       </c>
       <c r="C263" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D263" t="s">
         <v>30</v>
       </c>
       <c r="E263" s="1">
-        <v>195</v>
+        <v>1.5</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G263" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K263" t="s">
-        <v>774</v>
+        <v>989</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>666</v>
       </c>
-      <c r="B264" t="s">
-        <v>776</v>
+      <c r="B264" s="11" t="s">
+        <v>987</v>
       </c>
       <c r="C264" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D264" t="s">
         <v>30</v>
       </c>
       <c r="E264" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>777</v>
+        <v>51</v>
       </c>
       <c r="G264" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K264" s="3" t="s">
-        <v>778</v>
+        <v>1</v>
+      </c>
+      <c r="K264" t="s">
+        <v>991</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>666</v>
       </c>
-      <c r="B265" t="s">
-        <v>780</v>
+      <c r="B265" s="11" t="s">
+        <v>988</v>
       </c>
       <c r="C265" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D265" t="s">
         <v>30</v>
       </c>
       <c r="E265" s="1">
-        <v>1.2</v>
+        <v>120</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G265" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K265" s="3" t="s">
-        <v>781</v>
+        <v>1</v>
+      </c>
+      <c r="K265" t="s">
+        <v>993</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>666</v>
       </c>
       <c r="B266" t="s">
-        <v>957</v>
+        <v>757</v>
       </c>
       <c r="C266" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D266" t="s">
         <v>30</v>
       </c>
       <c r="E266" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>43</v>
+        <v>702</v>
       </c>
       <c r="G266" s="2" t="b">
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>970</v>
+        <v>758</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>666</v>
       </c>
       <c r="B267" t="s">
-        <v>963</v>
+        <v>760</v>
       </c>
       <c r="C267" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D267" t="s">
-        <v>30</v>
-      </c>
-      <c r="E267" s="1">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>761</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G267" s="2" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>971</v>
+        <v>762</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>666</v>
       </c>
       <c r="B268" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="C268" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D268" t="s">
-        <v>30</v>
-      </c>
-      <c r="E268" s="1">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>761</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>17</v>
@@ -11577,78 +11735,74 @@
         <v>0</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="L268" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>666</v>
       </c>
       <c r="B269" t="s">
-        <v>785</v>
+        <v>944</v>
       </c>
       <c r="C269" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D269" t="s">
-        <v>30</v>
-      </c>
-      <c r="E269" s="1">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>945</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>777</v>
+        <v>17</v>
       </c>
       <c r="G269" s="2" t="b">
-        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>786</v>
+        <v>946</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>666</v>
       </c>
       <c r="B270" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="C270" t="s">
         <v>90</v>
       </c>
       <c r="D270" t="s">
-        <v>30</v>
-      </c>
-      <c r="E270" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>777</v>
+        <v>17</v>
       </c>
       <c r="G270" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="L270" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>666</v>
       </c>
       <c r="B271" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="C271" t="s">
         <v>90</v>
@@ -11660,25 +11814,25 @@
         <v>0</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="G271" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K271" t="s">
-        <v>792</v>
+      <c r="K271" s="3" t="s">
+        <v>770</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>666</v>
       </c>
       <c r="B272" t="s">
-        <v>794</v>
+        <v>957</v>
       </c>
       <c r="C272" t="s">
         <v>90</v>
@@ -11690,25 +11844,25 @@
         <v>0</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="G272" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K272" t="s">
-        <v>795</v>
+      <c r="K272" s="3" t="s">
+        <v>958</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>666</v>
       </c>
       <c r="B273" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
       <c r="C273" t="s">
         <v>90</v>
@@ -11717,7 +11871,7 @@
         <v>30</v>
       </c>
       <c r="E273" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>43</v>
@@ -11727,520 +11881,490 @@
         <v>0</v>
       </c>
       <c r="K273" t="s">
+        <v>773</v>
+      </c>
+      <c r="L273" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>666</v>
+      </c>
+      <c r="B274" t="s">
+        <v>775</v>
+      </c>
+      <c r="C274" t="s">
+        <v>90</v>
+      </c>
+      <c r="D274" t="s">
+        <v>30</v>
+      </c>
+      <c r="E274" s="1">
+        <v>0</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G274" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>666</v>
+      </c>
+      <c r="B275" t="s">
+        <v>779</v>
+      </c>
+      <c r="C275" t="s">
+        <v>90</v>
+      </c>
+      <c r="D275" t="s">
+        <v>30</v>
+      </c>
+      <c r="E275" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G275" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="L275" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>666</v>
+      </c>
+      <c r="B276" t="s">
+        <v>955</v>
+      </c>
+      <c r="C276" t="s">
+        <v>90</v>
+      </c>
+      <c r="D276" t="s">
+        <v>30</v>
+      </c>
+      <c r="E276" s="1">
+        <v>0</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="L276" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>666</v>
+      </c>
+      <c r="B277" t="s">
+        <v>960</v>
+      </c>
+      <c r="C277" t="s">
+        <v>90</v>
+      </c>
+      <c r="D277" t="s">
+        <v>30</v>
+      </c>
+      <c r="E277" s="1">
+        <v>0</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G277" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="L277" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>666</v>
+      </c>
+      <c r="B278" t="s">
+        <v>782</v>
+      </c>
+      <c r="C278" t="s">
+        <v>90</v>
+      </c>
+      <c r="D278" t="s">
+        <v>30</v>
+      </c>
+      <c r="E278" s="1">
+        <v>0</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G278" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="L278" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>666</v>
+      </c>
+      <c r="B279" t="s">
+        <v>784</v>
+      </c>
+      <c r="C279" t="s">
+        <v>90</v>
+      </c>
+      <c r="D279" t="s">
+        <v>30</v>
+      </c>
+      <c r="E279" s="1">
+        <v>0</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G279" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="L279" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>666</v>
+      </c>
+      <c r="B280" t="s">
+        <v>787</v>
+      </c>
+      <c r="C280" t="s">
+        <v>90</v>
+      </c>
+      <c r="D280" t="s">
+        <v>30</v>
+      </c>
+      <c r="E280" s="1">
+        <v>0</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G280" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="L280" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>666</v>
+      </c>
+      <c r="B281" t="s">
+        <v>790</v>
+      </c>
+      <c r="C281" t="s">
+        <v>90</v>
+      </c>
+      <c r="D281" t="s">
+        <v>30</v>
+      </c>
+      <c r="E281" s="1">
+        <v>0</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G281" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K281" t="s">
+        <v>791</v>
+      </c>
+      <c r="L281" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>666</v>
+      </c>
+      <c r="B282" t="s">
+        <v>793</v>
+      </c>
+      <c r="C282" t="s">
+        <v>90</v>
+      </c>
+      <c r="D282" t="s">
+        <v>30</v>
+      </c>
+      <c r="E282" s="1">
+        <v>0</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G282" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K282" t="s">
+        <v>794</v>
+      </c>
+      <c r="L282" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>666</v>
+      </c>
+      <c r="B283" t="s">
+        <v>796</v>
+      </c>
+      <c r="C283" t="s">
+        <v>90</v>
+      </c>
+      <c r="D283" t="s">
+        <v>30</v>
+      </c>
+      <c r="E283" s="1">
+        <v>0</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G283" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K283" t="s">
+        <v>797</v>
+      </c>
+      <c r="L283" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="L273" s="3" t="s">
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>666</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C284" t="s">
+        <v>90</v>
+      </c>
+      <c r="D284" t="s">
+        <v>30</v>
+      </c>
+      <c r="E284" s="1">
+        <v>0</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K284" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L284" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>666</v>
+      </c>
+      <c r="B285" t="s">
+        <v>980</v>
+      </c>
+      <c r="C285" t="s">
+        <v>90</v>
+      </c>
+      <c r="D285" t="s">
+        <v>30</v>
+      </c>
+      <c r="E285" s="1">
+        <v>0</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K285" t="s">
+        <v>981</v>
+      </c>
+      <c r="L285" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="B286" t="s">
+        <v>969</v>
+      </c>
+      <c r="C286" t="s">
+        <v>14</v>
+      </c>
+      <c r="D286" t="s">
+        <v>21</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G286" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K286" t="s">
+        <v>970</v>
+      </c>
+      <c r="L286" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>799</v>
+      </c>
+      <c r="B287" t="s">
         <v>800</v>
       </c>
-      <c r="B274" t="s">
-        <v>972</v>
-      </c>
-      <c r="C274" t="s">
-        <v>14</v>
-      </c>
-      <c r="D274" t="s">
-        <v>21</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K274" t="s">
-        <v>973</v>
-      </c>
-      <c r="L274" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>800</v>
-      </c>
-      <c r="B275" t="s">
+      <c r="C287" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" t="s">
+        <v>30</v>
+      </c>
+      <c r="E287" s="1">
+        <v>180</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G287" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K287" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="C275" t="s">
-        <v>14</v>
-      </c>
-      <c r="D275" t="s">
-        <v>30</v>
-      </c>
-      <c r="E275" s="1">
-        <v>180</v>
-      </c>
-      <c r="F275" s="2" t="s">
+      <c r="L287" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>799</v>
+      </c>
+      <c r="B288" t="s">
+        <v>803</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" t="s">
+        <v>30</v>
+      </c>
+      <c r="E288" s="1">
+        <v>-180</v>
+      </c>
+      <c r="F288" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G275" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K275" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="L275" s="3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>800</v>
-      </c>
-      <c r="B276" t="s">
+      <c r="G288" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K288" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="C276" t="s">
-        <v>14</v>
-      </c>
-      <c r="D276" t="s">
-        <v>30</v>
-      </c>
-      <c r="E276" s="1">
-        <v>-180</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G276" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K276" s="3" t="s">
+      <c r="L288" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="L276" s="3" t="s">
+    </row>
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>799</v>
+      </c>
+      <c r="B289" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>800</v>
-      </c>
-      <c r="B277" t="s">
+      <c r="C289" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" t="s">
+        <v>30</v>
+      </c>
+      <c r="E289" s="1">
+        <v>2</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G289" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K289" t="s">
         <v>807</v>
       </c>
-      <c r="C277" t="s">
-        <v>14</v>
-      </c>
-      <c r="D277" t="s">
-        <v>30</v>
-      </c>
-      <c r="E277" s="1">
-        <v>2</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G277" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K277" t="s">
+      <c r="L289" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="L277" s="3" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>800</v>
-      </c>
-      <c r="B278" t="s">
+    </row>
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>799</v>
+      </c>
+      <c r="B290" t="s">
         <v>26</v>
-      </c>
-      <c r="C278" t="s">
-        <v>14</v>
-      </c>
-      <c r="D278" t="s">
-        <v>21</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G278" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K278" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L278" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>800</v>
-      </c>
-      <c r="B279" t="s">
-        <v>811</v>
-      </c>
-      <c r="C279" t="s">
-        <v>14</v>
-      </c>
-      <c r="D279" t="s">
-        <v>21</v>
-      </c>
-      <c r="E279" s="1">
-        <v>5</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G279" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H279" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I279" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="K279" t="s">
-        <v>813</v>
-      </c>
-      <c r="L279" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>800</v>
-      </c>
-      <c r="B280" t="s">
-        <v>815</v>
-      </c>
-      <c r="C280" t="s">
-        <v>14</v>
-      </c>
-      <c r="D280" t="s">
-        <v>228</v>
-      </c>
-      <c r="E280" s="1">
-        <v>4</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G280" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K280" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="L280" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>800</v>
-      </c>
-      <c r="B281" t="s">
-        <v>818</v>
-      </c>
-      <c r="C281" t="s">
-        <v>14</v>
-      </c>
-      <c r="D281" t="s">
-        <v>228</v>
-      </c>
-      <c r="E281" s="1">
-        <v>2</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G281" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K281" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="L281" s="3" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>800</v>
-      </c>
-      <c r="B282" t="s">
-        <v>821</v>
-      </c>
-      <c r="C282" t="s">
-        <v>14</v>
-      </c>
-      <c r="D282" t="s">
-        <v>30</v>
-      </c>
-      <c r="E282" s="1">
-        <v>950</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G282" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K282" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="L282" s="3" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>800</v>
-      </c>
-      <c r="B283" t="s">
-        <v>824</v>
-      </c>
-      <c r="C283" t="s">
-        <v>14</v>
-      </c>
-      <c r="D283" t="s">
-        <v>21</v>
-      </c>
-      <c r="E283" s="1">
-        <v>7</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G283" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H283" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I283" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="K283" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="L283" s="3" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>800</v>
-      </c>
-      <c r="B284" t="s">
-        <v>828</v>
-      </c>
-      <c r="C284" t="s">
-        <v>14</v>
-      </c>
-      <c r="D284" t="s">
-        <v>111</v>
-      </c>
-      <c r="E284" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G284" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H284" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K284" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="L284" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>800</v>
-      </c>
-      <c r="B285" t="s">
-        <v>831</v>
-      </c>
-      <c r="C285" t="s">
-        <v>14</v>
-      </c>
-      <c r="D285" t="s">
-        <v>111</v>
-      </c>
-      <c r="E285" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G285" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H285" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K285" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="L285" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>800</v>
-      </c>
-      <c r="B286" t="s">
-        <v>834</v>
-      </c>
-      <c r="C286" t="s">
-        <v>14</v>
-      </c>
-      <c r="D286" t="s">
-        <v>111</v>
-      </c>
-      <c r="E286" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G286" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H286" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K286" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="L286" s="3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>800</v>
-      </c>
-      <c r="B287" t="s">
-        <v>837</v>
-      </c>
-      <c r="C287" t="s">
-        <v>14</v>
-      </c>
-      <c r="D287" t="s">
-        <v>111</v>
-      </c>
-      <c r="E287" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G287" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H287" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K287" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="L287" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>800</v>
-      </c>
-      <c r="B288" t="s">
-        <v>840</v>
-      </c>
-      <c r="C288" t="s">
-        <v>14</v>
-      </c>
-      <c r="D288" t="s">
-        <v>111</v>
-      </c>
-      <c r="E288" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G288" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H288" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K288" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="L288" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>800</v>
-      </c>
-      <c r="B289" t="s">
-        <v>843</v>
-      </c>
-      <c r="C289" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" t="s">
-        <v>21</v>
-      </c>
-      <c r="G289" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K289" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="L289" s="3" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>800</v>
-      </c>
-      <c r="B290" t="s">
-        <v>845</v>
       </c>
       <c r="C290" t="s">
         <v>14</v>
@@ -12248,8 +12372,8 @@
       <c r="D290" t="s">
         <v>21</v>
       </c>
-      <c r="E290" s="1">
-        <v>0</v>
+      <c r="E290" s="1" t="s">
+        <v>809</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>17</v>
@@ -12258,905 +12382,1291 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H290" s="3" t="s">
+      <c r="K290" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>799</v>
+      </c>
+      <c r="B291" t="s">
+        <v>810</v>
+      </c>
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" t="s">
+        <v>21</v>
+      </c>
+      <c r="E291" s="1">
+        <v>5</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G291" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H291" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I290" s="3" t="s">
+      <c r="I291" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="K291" t="s">
+        <v>812</v>
+      </c>
+      <c r="L291" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>799</v>
+      </c>
+      <c r="B292" t="s">
+        <v>814</v>
+      </c>
+      <c r="C292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" t="s">
+        <v>228</v>
+      </c>
+      <c r="E292" s="1">
+        <v>4</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G292" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="L292" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>799</v>
+      </c>
+      <c r="B293" t="s">
+        <v>817</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" t="s">
+        <v>228</v>
+      </c>
+      <c r="E293" s="1">
+        <v>2</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G293" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K293" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="L293" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>799</v>
+      </c>
+      <c r="B294" t="s">
+        <v>820</v>
+      </c>
+      <c r="C294" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" t="s">
+        <v>30</v>
+      </c>
+      <c r="E294" s="1">
+        <v>950</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G294" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="L294" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>799</v>
+      </c>
+      <c r="B295" t="s">
+        <v>823</v>
+      </c>
+      <c r="C295" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" t="s">
+        <v>21</v>
+      </c>
+      <c r="E295" s="1">
+        <v>7</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G295" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="L295" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>799</v>
+      </c>
+      <c r="B296" t="s">
+        <v>827</v>
+      </c>
+      <c r="C296" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" t="s">
+        <v>111</v>
+      </c>
+      <c r="E296" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G296" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K296" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="L296" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>799</v>
+      </c>
+      <c r="B297" t="s">
+        <v>830</v>
+      </c>
+      <c r="C297" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" t="s">
+        <v>111</v>
+      </c>
+      <c r="E297" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G297" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>799</v>
+      </c>
+      <c r="B298" t="s">
+        <v>833</v>
+      </c>
+      <c r="C298" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" t="s">
+        <v>111</v>
+      </c>
+      <c r="E298" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G298" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>799</v>
+      </c>
+      <c r="B299" t="s">
+        <v>836</v>
+      </c>
+      <c r="C299" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" t="s">
+        <v>111</v>
+      </c>
+      <c r="E299" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G299" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K299" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="L299" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>799</v>
+      </c>
+      <c r="B300" t="s">
+        <v>839</v>
+      </c>
+      <c r="C300" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" t="s">
+        <v>111</v>
+      </c>
+      <c r="E300" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G300" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K300" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="L300" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>799</v>
+      </c>
+      <c r="B301" t="s">
+        <v>842</v>
+      </c>
+      <c r="C301" t="s">
+        <v>14</v>
+      </c>
+      <c r="D301" t="s">
+        <v>21</v>
+      </c>
+      <c r="G301" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K301" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="L301" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>799</v>
+      </c>
+      <c r="B302" t="s">
+        <v>844</v>
+      </c>
+      <c r="C302" t="s">
+        <v>14</v>
+      </c>
+      <c r="D302" t="s">
+        <v>21</v>
+      </c>
+      <c r="E302" s="1">
+        <v>0</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G302" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="K302" t="s">
         <v>846</v>
       </c>
-      <c r="K290" t="s">
+      <c r="L302" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="L290" s="3" t="s">
+    </row>
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>799</v>
+      </c>
+      <c r="B303" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>800</v>
-      </c>
-      <c r="B291" t="s">
+      <c r="C303" t="s">
+        <v>14</v>
+      </c>
+      <c r="D303" t="s">
+        <v>30</v>
+      </c>
+      <c r="E303" s="1">
+        <v>1</v>
+      </c>
+      <c r="F303" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C291" t="s">
-        <v>14</v>
-      </c>
-      <c r="D291" t="s">
-        <v>30</v>
-      </c>
-      <c r="E291" s="1">
-        <v>1</v>
-      </c>
-      <c r="F291" s="2" t="s">
+      <c r="G303" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K303" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="G291" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K291" s="3" t="s">
+      <c r="L303" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="L291" s="3" t="s">
+    </row>
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>799</v>
+      </c>
+      <c r="B304" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>800</v>
-      </c>
-      <c r="B292" t="s">
+      <c r="C304" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" t="s">
+        <v>30</v>
+      </c>
+      <c r="E304" s="1">
+        <v>1</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="G304" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K304" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="C292" t="s">
-        <v>14</v>
-      </c>
-      <c r="D292" t="s">
-        <v>30</v>
-      </c>
-      <c r="E292" s="1">
-        <v>1</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="G292" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K292" s="3" t="s">
+      <c r="L304" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="L292" s="3" t="s">
+    </row>
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>799</v>
+      </c>
+      <c r="B305" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>800</v>
-      </c>
-      <c r="B293" t="s">
+      <c r="C305" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" t="s">
+        <v>30</v>
+      </c>
+      <c r="E305" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="G305" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K305" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="C293" t="s">
-        <v>14</v>
-      </c>
-      <c r="D293" t="s">
-        <v>30</v>
-      </c>
-      <c r="E293" s="1">
+      <c r="L305" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>799</v>
+      </c>
+      <c r="B306" t="s">
+        <v>858</v>
+      </c>
+      <c r="C306" t="s">
+        <v>14</v>
+      </c>
+      <c r="D306" t="s">
+        <v>30</v>
+      </c>
+      <c r="E306" s="1">
         <v>0.1</v>
       </c>
-      <c r="F293" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="G293" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K293" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="L293" s="3" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>800</v>
-      </c>
-      <c r="B294" t="s">
+      <c r="F306" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="G306" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K306" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="C294" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" t="s">
-        <v>30</v>
-      </c>
-      <c r="E294" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="G294" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K294" s="3" t="s">
+      <c r="L306" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="L294" s="3" t="s">
+    </row>
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>799</v>
+      </c>
+      <c r="B307" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>800</v>
-      </c>
-      <c r="B295" t="s">
+      <c r="C307" t="s">
+        <v>14</v>
+      </c>
+      <c r="D307" t="s">
+        <v>30</v>
+      </c>
+      <c r="E307" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G307" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K307" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="C295" t="s">
-        <v>14</v>
-      </c>
-      <c r="D295" t="s">
-        <v>30</v>
-      </c>
-      <c r="E295" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G295" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K295" s="3" t="s">
+      <c r="L307" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="L295" s="3" t="s">
+    </row>
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>799</v>
+      </c>
+      <c r="B308" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>800</v>
-      </c>
-      <c r="B296" t="s">
+      <c r="C308" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" t="s">
+        <v>30</v>
+      </c>
+      <c r="E308" s="1">
+        <v>670</v>
+      </c>
+      <c r="F308" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="C296" t="s">
-        <v>14</v>
-      </c>
-      <c r="D296" t="s">
-        <v>30</v>
-      </c>
-      <c r="E296" s="1">
-        <v>670</v>
-      </c>
-      <c r="F296" s="2" t="s">
+      <c r="G308" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K308" t="s">
         <v>866</v>
       </c>
-      <c r="G296" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K296" t="s">
+      <c r="L308" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="L296" s="3" t="s">
+    </row>
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>799</v>
+      </c>
+      <c r="B309" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>800</v>
-      </c>
-      <c r="B297" t="s">
+      <c r="C309" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" t="s">
+        <v>21</v>
+      </c>
+      <c r="E309" s="1">
+        <v>0</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G309" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I309" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="C297" t="s">
-        <v>14</v>
-      </c>
-      <c r="D297" t="s">
+      <c r="K309" t="s">
+        <v>870</v>
+      </c>
+      <c r="L309" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>799</v>
+      </c>
+      <c r="B310" t="s">
+        <v>872</v>
+      </c>
+      <c r="C310" t="s">
+        <v>14</v>
+      </c>
+      <c r="D310" t="s">
+        <v>30</v>
+      </c>
+      <c r="E310" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G310" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="L310" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>799</v>
+      </c>
+      <c r="B311" t="s">
+        <v>875</v>
+      </c>
+      <c r="C311" t="s">
+        <v>14</v>
+      </c>
+      <c r="D311" t="s">
+        <v>30</v>
+      </c>
+      <c r="E311" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G311" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="L311" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>799</v>
+      </c>
+      <c r="B312" t="s">
+        <v>878</v>
+      </c>
+      <c r="C312" t="s">
+        <v>14</v>
+      </c>
+      <c r="D312" t="s">
+        <v>30</v>
+      </c>
+      <c r="E312" s="1">
+        <v>195</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G312" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K312" t="s">
+        <v>879</v>
+      </c>
+      <c r="L312" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>799</v>
+      </c>
+      <c r="B313" t="s">
+        <v>881</v>
+      </c>
+      <c r="C313" t="s">
+        <v>14</v>
+      </c>
+      <c r="D313" t="s">
+        <v>30</v>
+      </c>
+      <c r="E313" s="1">
+        <v>16</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G313" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K313" t="s">
+        <v>882</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>799</v>
+      </c>
+      <c r="B314" t="s">
+        <v>884</v>
+      </c>
+      <c r="C314" t="s">
+        <v>14</v>
+      </c>
+      <c r="D314" t="s">
+        <v>30</v>
+      </c>
+      <c r="E314" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G314" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>799</v>
+      </c>
+      <c r="B315" t="s">
+        <v>886</v>
+      </c>
+      <c r="C315" t="s">
+        <v>14</v>
+      </c>
+      <c r="D315" t="s">
+        <v>30</v>
+      </c>
+      <c r="E315" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G315" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K315" t="s">
+        <v>887</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>799</v>
+      </c>
+      <c r="B316" t="s">
+        <v>889</v>
+      </c>
+      <c r="C316" t="s">
+        <v>14</v>
+      </c>
+      <c r="D316" t="s">
+        <v>30</v>
+      </c>
+      <c r="E316" s="1">
+        <v>180</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G316" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>799</v>
+      </c>
+      <c r="B317" t="s">
+        <v>892</v>
+      </c>
+      <c r="C317" t="s">
+        <v>14</v>
+      </c>
+      <c r="D317" t="s">
+        <v>30</v>
+      </c>
+      <c r="E317" s="1">
+        <v>85</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G317" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>799</v>
+      </c>
+      <c r="B318" t="s">
+        <v>895</v>
+      </c>
+      <c r="C318" t="s">
+        <v>14</v>
+      </c>
+      <c r="D318" t="s">
         <v>21</v>
       </c>
-      <c r="E297" s="1">
-        <v>0</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G297" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H297" s="3" t="s">
+      <c r="E318" s="1">
+        <v>0</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G318" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H318" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I297" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="K297" t="s">
-        <v>871</v>
-      </c>
-      <c r="L297" s="3" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>800</v>
-      </c>
-      <c r="B298" t="s">
-        <v>873</v>
-      </c>
-      <c r="C298" t="s">
-        <v>14</v>
-      </c>
-      <c r="D298" t="s">
-        <v>30</v>
-      </c>
-      <c r="E298" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G298" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K298" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="L298" s="3" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>800</v>
-      </c>
-      <c r="B299" t="s">
-        <v>876</v>
-      </c>
-      <c r="C299" t="s">
-        <v>14</v>
-      </c>
-      <c r="D299" t="s">
-        <v>30</v>
-      </c>
-      <c r="E299" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G299" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K299" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="L299" s="3" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>800</v>
-      </c>
-      <c r="B300" t="s">
-        <v>879</v>
-      </c>
-      <c r="C300" t="s">
-        <v>14</v>
-      </c>
-      <c r="D300" t="s">
-        <v>30</v>
-      </c>
-      <c r="E300" s="1">
+      <c r="I318" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="K318" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>799</v>
+      </c>
+      <c r="B319" t="s">
+        <v>899</v>
+      </c>
+      <c r="C319" t="s">
+        <v>14</v>
+      </c>
+      <c r="D319" t="s">
+        <v>21</v>
+      </c>
+      <c r="E319" s="1">
+        <v>0</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G319" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>799</v>
+      </c>
+      <c r="B320" t="s">
+        <v>902</v>
+      </c>
+      <c r="C320" t="s">
+        <v>14</v>
+      </c>
+      <c r="D320" t="s">
+        <v>21</v>
+      </c>
+      <c r="E320" s="1">
+        <v>0</v>
+      </c>
+      <c r="G320" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="K320" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="L320" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>799</v>
+      </c>
+      <c r="B321" t="s">
+        <v>906</v>
+      </c>
+      <c r="C321" t="s">
+        <v>14</v>
+      </c>
+      <c r="D321" t="s">
+        <v>30</v>
+      </c>
+      <c r="E321" s="1">
         <v>195</v>
       </c>
-      <c r="F300" s="2" t="s">
+      <c r="F321" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G300" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K300" t="s">
-        <v>880</v>
-      </c>
-      <c r="L300" s="3" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>800</v>
-      </c>
-      <c r="B301" t="s">
-        <v>882</v>
-      </c>
-      <c r="C301" t="s">
-        <v>14</v>
-      </c>
-      <c r="D301" t="s">
-        <v>30</v>
-      </c>
-      <c r="E301" s="1">
-        <v>16</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G301" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K301" t="s">
-        <v>883</v>
-      </c>
-      <c r="L301" s="3" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>800</v>
-      </c>
-      <c r="B302" t="s">
-        <v>885</v>
-      </c>
-      <c r="C302" t="s">
-        <v>14</v>
-      </c>
-      <c r="D302" t="s">
-        <v>30</v>
-      </c>
-      <c r="E302" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G302" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K302" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="L302" s="3" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>800</v>
-      </c>
-      <c r="B303" t="s">
-        <v>887</v>
-      </c>
-      <c r="C303" t="s">
-        <v>14</v>
-      </c>
-      <c r="D303" t="s">
-        <v>30</v>
-      </c>
-      <c r="E303" s="1">
-        <v>1.33</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G303" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K303" t="s">
-        <v>888</v>
-      </c>
-      <c r="L303" s="3" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>800</v>
-      </c>
-      <c r="B304" t="s">
-        <v>890</v>
-      </c>
-      <c r="C304" t="s">
-        <v>14</v>
-      </c>
-      <c r="D304" t="s">
-        <v>30</v>
-      </c>
-      <c r="E304" s="1">
-        <v>180</v>
-      </c>
-      <c r="F304" s="2" t="s">
+      <c r="G321" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K321" t="s">
+        <v>907</v>
+      </c>
+      <c r="L321" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>799</v>
+      </c>
+      <c r="B322" t="s">
+        <v>909</v>
+      </c>
+      <c r="C322" t="s">
+        <v>14</v>
+      </c>
+      <c r="D322" t="s">
+        <v>30</v>
+      </c>
+      <c r="E322" s="1">
+        <v>1</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G322" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K322" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="L322" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>799</v>
+      </c>
+      <c r="B323" t="s">
+        <v>912</v>
+      </c>
+      <c r="C323" t="s">
+        <v>14</v>
+      </c>
+      <c r="D323" t="s">
+        <v>21</v>
+      </c>
+      <c r="E323" s="1">
+        <v>0</v>
+      </c>
+      <c r="G323" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="L323" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>799</v>
+      </c>
+      <c r="B324" t="s">
+        <v>916</v>
+      </c>
+      <c r="C324" t="s">
+        <v>14</v>
+      </c>
+      <c r="D324" t="s">
+        <v>30</v>
+      </c>
+      <c r="E324" s="1">
+        <v>1</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G324" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="L324" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>799</v>
+      </c>
+      <c r="B325" t="s">
+        <v>919</v>
+      </c>
+      <c r="C325" t="s">
+        <v>14</v>
+      </c>
+      <c r="D325" t="s">
+        <v>30</v>
+      </c>
+      <c r="E325" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G325" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K325" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="L325" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>799</v>
+      </c>
+      <c r="B326" t="s">
+        <v>922</v>
+      </c>
+      <c r="C326" t="s">
+        <v>14</v>
+      </c>
+      <c r="D326" t="s">
+        <v>30</v>
+      </c>
+      <c r="E326" s="1">
+        <v>100</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="G326" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="L326" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>799</v>
+      </c>
+      <c r="B327" t="s">
+        <v>926</v>
+      </c>
+      <c r="C327" t="s">
+        <v>90</v>
+      </c>
+      <c r="D327" t="s">
+        <v>30</v>
+      </c>
+      <c r="E327" s="1">
+        <v>0</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G327" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K327" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="L327" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>799</v>
+      </c>
+      <c r="B328" t="s">
+        <v>929</v>
+      </c>
+      <c r="C328" t="s">
+        <v>90</v>
+      </c>
+      <c r="D328" t="s">
+        <v>30</v>
+      </c>
+      <c r="E328" s="1">
+        <v>0</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G328" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="L328" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>799</v>
+      </c>
+      <c r="B329" t="s">
+        <v>932</v>
+      </c>
+      <c r="C329" t="s">
+        <v>90</v>
+      </c>
+      <c r="D329" t="s">
+        <v>87</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G329" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="L329" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>799</v>
+      </c>
+      <c r="B330" t="s">
+        <v>934</v>
+      </c>
+      <c r="C330" t="s">
+        <v>90</v>
+      </c>
+      <c r="D330" t="s">
+        <v>30</v>
+      </c>
+      <c r="E330" s="1">
+        <v>0</v>
+      </c>
+      <c r="F330" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G304" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K304" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="L304" s="3" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>800</v>
-      </c>
-      <c r="B305" t="s">
-        <v>893</v>
-      </c>
-      <c r="C305" t="s">
-        <v>14</v>
-      </c>
-      <c r="D305" t="s">
-        <v>30</v>
-      </c>
-      <c r="E305" s="1">
-        <v>85</v>
-      </c>
-      <c r="F305" s="2" t="s">
+      <c r="G330" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K330" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="L330" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>799</v>
+      </c>
+      <c r="B331" t="s">
+        <v>936</v>
+      </c>
+      <c r="C331" t="s">
+        <v>90</v>
+      </c>
+      <c r="D331" t="s">
+        <v>30</v>
+      </c>
+      <c r="E331" s="1">
+        <v>0</v>
+      </c>
+      <c r="F331" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G305" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K305" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="L305" s="3" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>800</v>
-      </c>
-      <c r="B306" t="s">
-        <v>896</v>
-      </c>
-      <c r="C306" t="s">
-        <v>14</v>
-      </c>
-      <c r="D306" t="s">
-        <v>21</v>
-      </c>
-      <c r="E306" s="1">
-        <v>0</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G306" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H306" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I306" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="K306" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="L306" s="3" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>800</v>
-      </c>
-      <c r="B307" t="s">
-        <v>900</v>
-      </c>
-      <c r="C307" t="s">
-        <v>14</v>
-      </c>
-      <c r="D307" t="s">
-        <v>21</v>
-      </c>
-      <c r="E307" s="1">
-        <v>0</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G307" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H307" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K307" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="L307" s="3" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>800</v>
-      </c>
-      <c r="B308" t="s">
-        <v>903</v>
-      </c>
-      <c r="C308" t="s">
-        <v>14</v>
-      </c>
-      <c r="D308" t="s">
-        <v>21</v>
-      </c>
-      <c r="E308" s="1">
-        <v>0</v>
-      </c>
-      <c r="G308" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H308" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I308" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="K308" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="L308" s="3" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>800</v>
-      </c>
-      <c r="B309" t="s">
-        <v>907</v>
-      </c>
-      <c r="C309" t="s">
-        <v>14</v>
-      </c>
-      <c r="D309" t="s">
-        <v>30</v>
-      </c>
-      <c r="E309" s="1">
-        <v>195</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G309" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K309" t="s">
-        <v>908</v>
-      </c>
-      <c r="L309" s="3" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>800</v>
-      </c>
-      <c r="B310" t="s">
-        <v>910</v>
-      </c>
-      <c r="C310" t="s">
-        <v>14</v>
-      </c>
-      <c r="D310" t="s">
-        <v>30</v>
-      </c>
-      <c r="E310" s="1">
-        <v>1</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G310" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K310" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="L310" s="3" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>800</v>
-      </c>
-      <c r="B311" t="s">
-        <v>913</v>
-      </c>
-      <c r="C311" t="s">
-        <v>14</v>
-      </c>
-      <c r="D311" t="s">
-        <v>21</v>
-      </c>
-      <c r="E311" s="1">
-        <v>0</v>
-      </c>
-      <c r="G311" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H311" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I311" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="K311" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="L311" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>800</v>
-      </c>
-      <c r="B312" t="s">
-        <v>917</v>
-      </c>
-      <c r="C312" t="s">
-        <v>14</v>
-      </c>
-      <c r="D312" t="s">
-        <v>30</v>
-      </c>
-      <c r="E312" s="1">
-        <v>1</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G312" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K312" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="L312" s="3" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>800</v>
-      </c>
-      <c r="B313" t="s">
-        <v>920</v>
-      </c>
-      <c r="C313" t="s">
-        <v>14</v>
-      </c>
-      <c r="D313" t="s">
-        <v>30</v>
-      </c>
-      <c r="E313" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G313" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K313" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="L313" s="3" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>800</v>
-      </c>
-      <c r="B314" t="s">
-        <v>923</v>
-      </c>
-      <c r="C314" t="s">
-        <v>14</v>
-      </c>
-      <c r="D314" t="s">
-        <v>30</v>
-      </c>
-      <c r="E314" s="1">
-        <v>100</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="G314" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K314" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="L314" s="3" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>800</v>
-      </c>
-      <c r="B315" t="s">
-        <v>927</v>
-      </c>
-      <c r="C315" t="s">
-        <v>90</v>
-      </c>
-      <c r="D315" t="s">
-        <v>30</v>
-      </c>
-      <c r="E315" s="1">
-        <v>0</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G315" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K315" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="L315" s="3" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>800</v>
-      </c>
-      <c r="B316" t="s">
-        <v>930</v>
-      </c>
-      <c r="C316" t="s">
-        <v>90</v>
-      </c>
-      <c r="D316" t="s">
-        <v>30</v>
-      </c>
-      <c r="E316" s="1">
-        <v>0</v>
-      </c>
-      <c r="F316" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G316" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K316" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="L316" s="3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>800</v>
-      </c>
-      <c r="B317" t="s">
-        <v>933</v>
-      </c>
-      <c r="C317" t="s">
-        <v>90</v>
-      </c>
-      <c r="D317" t="s">
-        <v>87</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G317" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K317" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="L317" s="3" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>800</v>
-      </c>
-      <c r="B318" t="s">
-        <v>935</v>
-      </c>
-      <c r="C318" t="s">
-        <v>90</v>
-      </c>
-      <c r="D318" t="s">
-        <v>30</v>
-      </c>
-      <c r="E318" s="1">
-        <v>0</v>
-      </c>
-      <c r="F318" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G318" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K318" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="L318" s="3" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>800</v>
-      </c>
-      <c r="B319" t="s">
+      <c r="G331" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K331" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="C319" t="s">
-        <v>90</v>
-      </c>
-      <c r="D319" t="s">
-        <v>30</v>
-      </c>
-      <c r="E319" s="1">
-        <v>0</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G319" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K319" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="L319" s="3" t="s">
-        <v>938</v>
+      <c r="L331" s="3" t="s">
+        <v>937</v>
       </c>
     </row>
   </sheetData>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHamilt2\Documents\solarPILOT_build\SolarPILOT\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE0BCCC-2A73-4785-85AC-E5EC68BC55AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959FADA6-DD41-4681-8D8E-29335F4840F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2978,12 +2978,6 @@
     <t>curtain_radius</t>
   </si>
   <si>
-    <t>curtain_width</t>
-  </si>
-  <si>
-    <t>Particle curtain width</t>
-  </si>
-  <si>
     <t>Particle curtain radius</t>
   </si>
   <si>
@@ -3066,6 +3060,12 @@
   </si>
   <si>
     <t>Normalized particle curtain height</t>
+  </si>
+  <si>
+    <t>max_curtain_width</t>
+  </si>
+  <si>
+    <t>Particle curtain maximum width</t>
   </si>
 </sst>
 </file>
@@ -3092,24 +3092,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3124,7 +3112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3156,15 +3144,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3510,9 +3497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K256" sqref="K256"/>
+      <selection pane="bottomLeft" activeCell="L285" sqref="L285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11122,7 +11109,7 @@
         <v>735</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
@@ -11305,7 +11292,7 @@
         <v>22</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="K254" t="s">
         <v>753</v>
@@ -11314,129 +11301,132 @@
         <v>754</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+    <row r="255" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="11" t="s">
         <v>666</v>
       </c>
       <c r="B255" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="C255" t="s">
-        <v>14</v>
-      </c>
-      <c r="D255" t="s">
-        <v>30</v>
-      </c>
-      <c r="E255" s="1">
-        <v>17</v>
-      </c>
-      <c r="F255" s="2" t="s">
+      <c r="C255" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E255" s="12">
+        <v>17</v>
+      </c>
+      <c r="F255" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G255" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K255" t="s">
+      <c r="G255" s="13" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H255" s="14"/>
+      <c r="I255" s="14"/>
+      <c r="J255" s="14"/>
+      <c r="K255" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="L255" s="3" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="12" t="s">
+      <c r="L255" s="14" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="B256" s="12" t="s">
+      <c r="B256" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E256" s="12">
+        <v>1</v>
+      </c>
+      <c r="F256" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G256" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="14"/>
+      <c r="I256" s="14"/>
+      <c r="J256" s="14"/>
+      <c r="K256" s="14" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L256" s="11" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E257" s="12">
+        <v>1</v>
+      </c>
+      <c r="F257" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G257" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="14"/>
+      <c r="I257" s="14"/>
+      <c r="J257" s="14"/>
+      <c r="K257" s="14" t="s">
         <v>1000</v>
       </c>
-      <c r="C256" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D256" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E256" s="13">
-        <v>1</v>
-      </c>
-      <c r="F256" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G256" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="15"/>
-      <c r="I256" s="15"/>
-      <c r="J256" s="15"/>
-      <c r="K256" s="15" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L256" s="12" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="12" t="s">
+      <c r="L257" s="11" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="B257" s="12" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C257" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D257" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E257" s="13">
-        <v>1</v>
-      </c>
-      <c r="F257" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G257" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="15"/>
-      <c r="I257" s="15"/>
-      <c r="J257" s="15"/>
-      <c r="K257" s="15" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L257" s="12" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="B258" s="12" t="s">
+      <c r="B258" s="11" t="s">
         <v>972</v>
       </c>
-      <c r="C258" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D258" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E258" s="13">
+      <c r="C258" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E258" s="12">
         <v>1.5</v>
       </c>
-      <c r="F258" s="14" t="s">
+      <c r="F258" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G258" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="15"/>
-      <c r="I258" s="15"/>
-      <c r="J258" s="15"/>
-      <c r="K258" s="15" t="s">
+      <c r="G258" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="14"/>
+      <c r="I258" s="14"/>
+      <c r="J258" s="14"/>
+      <c r="K258" s="14" t="s">
         <v>973</v>
       </c>
-      <c r="L258" s="12" t="s">
+      <c r="L258" s="11" t="s">
         <v>974</v>
       </c>
     </row>
@@ -11454,7 +11444,7 @@
         <v>15</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>17</v>
@@ -11463,10 +11453,10 @@
         <v>1</v>
       </c>
       <c r="K259" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.35">
@@ -11495,7 +11485,7 @@
         <v>22</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="K260" s="3" t="s">
         <v>977</v>
@@ -11527,10 +11517,10 @@
         <v>1</v>
       </c>
       <c r="K261" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.35">
@@ -11538,7 +11528,7 @@
         <v>666</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C262" t="s">
         <v>14</v>
@@ -11558,10 +11548,10 @@
         <v>112</v>
       </c>
       <c r="K262" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="L262" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.35">
@@ -11569,7 +11559,7 @@
         <v>666</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C263" t="s">
         <v>14</v>
@@ -11587,10 +11577,10 @@
         <v>1</v>
       </c>
       <c r="K263" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.35">
@@ -11598,7 +11588,7 @@
         <v>666</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
@@ -11616,10 +11606,10 @@
         <v>1</v>
       </c>
       <c r="K264" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.35">
@@ -11627,7 +11617,7 @@
         <v>666</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
@@ -11645,10 +11635,10 @@
         <v>1</v>
       </c>
       <c r="K265" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.35">
@@ -12190,7 +12180,7 @@
         <v>666</v>
       </c>
       <c r="B284" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C284" t="s">
         <v>90</v>
@@ -12208,10 +12198,10 @@
         <v>0</v>
       </c>
       <c r="K284" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="L284" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.35">
@@ -12219,7 +12209,7 @@
         <v>666</v>
       </c>
       <c r="B285" t="s">
-        <v>980</v>
+        <v>1008</v>
       </c>
       <c r="C285" t="s">
         <v>90</v>
@@ -12237,10 +12227,10 @@
         <v>0</v>
       </c>
       <c r="K285" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="L285" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHamilt2\Documents\solarPILOT_build\SolarPILOT\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959FADA6-DD41-4681-8D8E-29335F4840F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB70C4B6-97F2-49D8-B17F-622B9FA5F3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2960,9 +2960,6 @@
     <t>Particle curtain entrance depth</t>
   </si>
   <si>
-    <t>Particle curtain entrance depth from the aperature</t>
-  </si>
-  <si>
     <t>norm_heights_depths</t>
   </si>
   <si>
@@ -3014,9 +3011,6 @@
     <t>Horizontal SNOUT angle</t>
   </si>
   <si>
-    <t>SNOUT spanning angle defined in the aperature vertical midplane</t>
-  </si>
-  <si>
     <t>External cylindrical=0;Cavity=1;Flat plate=2;Falling particle=3</t>
   </si>
   <si>
@@ -3066,6 +3060,12 @@
   </si>
   <si>
     <t>Particle curtain maximum width</t>
+  </si>
+  <si>
+    <t>SNOUT spanning angle defined in the aperture vertical midplane</t>
+  </si>
+  <si>
+    <t>Particle curtain entrance depth from the aperture</t>
   </si>
 </sst>
 </file>
@@ -3112,7 +3112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3143,16 +3143,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3497,29 +3487,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L285" sqref="L285"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L256" sqref="L256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="114.453125" customWidth="1"/>
-    <col min="13" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="114.42578125" customWidth="1"/>
+    <col min="13" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3557,7 +3547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3590,7 +3580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3626,7 +3616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3656,7 +3646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3686,7 +3676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3716,7 +3706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3746,7 +3736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3776,7 +3766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3812,7 +3802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3842,7 +3832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3872,7 +3862,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3902,7 +3892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3932,7 +3922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3962,7 +3952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3989,7 +3979,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -4019,7 +4009,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -4055,7 +4045,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4085,7 +4075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4112,7 +4102,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4142,7 +4132,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4169,7 +4159,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -4198,7 +4188,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4228,7 +4218,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4258,7 +4248,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -4288,7 +4278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -4318,7 +4308,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -4348,7 +4338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -4378,7 +4368,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -4409,7 +4399,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -4439,7 +4429,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -4469,7 +4459,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -4499,7 +4489,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -4529,7 +4519,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -4559,7 +4549,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -4589,7 +4579,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -4619,7 +4609,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -4649,7 +4639,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -4679,7 +4669,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -4709,7 +4699,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -4736,7 +4726,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -4763,7 +4753,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -4793,7 +4783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -4823,7 +4813,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -4853,7 +4843,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -4883,7 +4873,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -4913,7 +4903,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -4943,7 +4933,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -4973,7 +4963,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -5003,7 +4993,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -5033,7 +5023,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -5063,7 +5053,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -5093,7 +5083,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -5123,7 +5113,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -5153,7 +5143,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -5183,7 +5173,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>190</v>
       </c>
@@ -5216,7 +5206,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -5246,7 +5236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -5276,7 +5266,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>190</v>
       </c>
@@ -5306,7 +5296,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -5336,7 +5326,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>190</v>
       </c>
@@ -5366,7 +5356,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -5393,7 +5383,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -5420,7 +5410,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -5453,7 +5443,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -5483,7 +5473,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5513,7 +5503,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -5537,7 +5527,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -5564,7 +5554,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -5597,7 +5587,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -5627,7 +5617,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>190</v>
       </c>
@@ -5657,7 +5647,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -5693,7 +5683,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -5720,7 +5710,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>190</v>
       </c>
@@ -5747,7 +5737,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>190</v>
       </c>
@@ -5774,7 +5764,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -5810,7 +5800,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -5844,7 +5834,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>190</v>
       </c>
@@ -5875,7 +5865,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>190</v>
       </c>
@@ -5906,7 +5896,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -5937,7 +5927,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -5968,7 +5958,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -6005,7 +5995,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -6036,7 +6026,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -6073,7 +6063,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -6104,7 +6094,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -6133,7 +6123,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -6162,7 +6152,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -6189,7 +6179,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -6219,7 +6209,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -6249,7 +6239,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -6285,7 +6275,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -6316,7 +6306,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -6343,7 +6333,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -6373,7 +6363,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -6400,7 +6390,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6430,7 +6420,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -6460,7 +6450,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -6490,7 +6480,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>190</v>
       </c>
@@ -6519,7 +6509,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>190</v>
       </c>
@@ -6549,7 +6539,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>190</v>
       </c>
@@ -6579,7 +6569,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>332</v>
       </c>
@@ -6609,7 +6599,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>332</v>
       </c>
@@ -6639,7 +6629,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>332</v>
       </c>
@@ -6675,7 +6665,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>332</v>
       </c>
@@ -6705,7 +6695,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>332</v>
       </c>
@@ -6735,7 +6725,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>332</v>
       </c>
@@ -6765,7 +6755,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>332</v>
       </c>
@@ -6795,7 +6785,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>332</v>
       </c>
@@ -6825,7 +6815,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -6855,7 +6845,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -6885,7 +6875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>332</v>
       </c>
@@ -6915,7 +6905,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -6945,7 +6935,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>332</v>
       </c>
@@ -6975,7 +6965,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -7005,7 +6995,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>332</v>
       </c>
@@ -7035,7 +7025,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>332</v>
       </c>
@@ -7065,7 +7055,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>332</v>
       </c>
@@ -7095,7 +7085,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>332</v>
       </c>
@@ -7131,7 +7121,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>332</v>
       </c>
@@ -7167,7 +7157,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>332</v>
       </c>
@@ -7197,7 +7187,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>332</v>
       </c>
@@ -7224,7 +7214,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>332</v>
       </c>
@@ -7254,7 +7244,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>332</v>
       </c>
@@ -7285,7 +7275,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>332</v>
       </c>
@@ -7319,7 +7309,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>332</v>
       </c>
@@ -7347,7 +7337,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>332</v>
       </c>
@@ -7381,7 +7371,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>332</v>
       </c>
@@ -7415,7 +7405,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>332</v>
       </c>
@@ -7451,7 +7441,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>332</v>
       </c>
@@ -7485,7 +7475,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>332</v>
       </c>
@@ -7519,7 +7509,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>332</v>
       </c>
@@ -7546,7 +7536,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>332</v>
       </c>
@@ -7573,7 +7563,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>332</v>
       </c>
@@ -7603,7 +7593,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>332</v>
       </c>
@@ -7633,7 +7623,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>332</v>
       </c>
@@ -7663,7 +7653,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>332</v>
       </c>
@@ -7693,7 +7683,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>332</v>
       </c>
@@ -7723,7 +7713,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>332</v>
       </c>
@@ -7753,7 +7743,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>332</v>
       </c>
@@ -7783,7 +7773,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>332</v>
       </c>
@@ -7813,7 +7803,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>332</v>
       </c>
@@ -7843,7 +7833,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>332</v>
       </c>
@@ -7873,7 +7863,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>332</v>
       </c>
@@ -7912,7 +7902,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>332</v>
       </c>
@@ -7945,7 +7935,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>332</v>
       </c>
@@ -7972,7 +7962,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>332</v>
       </c>
@@ -8002,7 +7992,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>332</v>
       </c>
@@ -8032,7 +8022,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>332</v>
       </c>
@@ -8062,7 +8052,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>332</v>
       </c>
@@ -8092,7 +8082,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>332</v>
       </c>
@@ -8122,7 +8112,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>332</v>
       </c>
@@ -8152,7 +8142,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>332</v>
       </c>
@@ -8182,7 +8172,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>332</v>
       </c>
@@ -8212,7 +8202,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -8242,7 +8232,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>332</v>
       </c>
@@ -8272,7 +8262,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>332</v>
       </c>
@@ -8302,7 +8292,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -8332,7 +8322,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>332</v>
       </c>
@@ -8362,7 +8352,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>332</v>
       </c>
@@ -8392,7 +8382,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -8422,7 +8412,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -8452,7 +8442,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -8482,7 +8472,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>332</v>
       </c>
@@ -8512,7 +8502,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>513</v>
       </c>
@@ -8542,7 +8532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>513</v>
       </c>
@@ -8566,7 +8556,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>513</v>
       </c>
@@ -8596,7 +8586,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>513</v>
       </c>
@@ -8626,7 +8616,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>513</v>
       </c>
@@ -8657,7 +8647,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>513</v>
       </c>
@@ -8681,7 +8671,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>513</v>
       </c>
@@ -8715,7 +8705,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>513</v>
       </c>
@@ -8749,7 +8739,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>513</v>
       </c>
@@ -8783,7 +8773,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>513</v>
       </c>
@@ -8817,7 +8807,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>513</v>
       </c>
@@ -8847,7 +8837,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>513</v>
       </c>
@@ -8877,7 +8867,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>513</v>
       </c>
@@ -8907,7 +8897,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>513</v>
       </c>
@@ -8937,7 +8927,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>513</v>
       </c>
@@ -8967,7 +8957,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>513</v>
       </c>
@@ -8997,7 +8987,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>513</v>
       </c>
@@ -9027,7 +9017,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>513</v>
       </c>
@@ -9057,7 +9047,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>513</v>
       </c>
@@ -9087,7 +9077,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>513</v>
       </c>
@@ -9117,7 +9107,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>513</v>
       </c>
@@ -9147,7 +9137,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>513</v>
       </c>
@@ -9177,7 +9167,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>576</v>
       </c>
@@ -9213,7 +9203,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>576</v>
       </c>
@@ -9235,7 +9225,7 @@
       </c>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>576</v>
       </c>
@@ -9265,7 +9255,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>576</v>
       </c>
@@ -9298,7 +9288,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>576</v>
       </c>
@@ -9331,7 +9321,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>576</v>
       </c>
@@ -9364,7 +9354,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>576</v>
       </c>
@@ -9394,7 +9384,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>576</v>
       </c>
@@ -9424,7 +9414,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>576</v>
       </c>
@@ -9454,7 +9444,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>576</v>
       </c>
@@ -9484,7 +9474,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>576</v>
       </c>
@@ -9514,7 +9504,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>576</v>
       </c>
@@ -9541,7 +9531,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>576</v>
       </c>
@@ -9571,7 +9561,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>576</v>
       </c>
@@ -9604,7 +9594,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>576</v>
       </c>
@@ -9636,7 +9626,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>619</v>
       </c>
@@ -9666,7 +9656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>619</v>
       </c>
@@ -9693,7 +9683,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>619</v>
       </c>
@@ -9720,7 +9710,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>619</v>
       </c>
@@ -9753,7 +9743,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>619</v>
       </c>
@@ -9784,7 +9774,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>619</v>
       </c>
@@ -9818,7 +9808,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>619</v>
       </c>
@@ -9852,7 +9842,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>619</v>
       </c>
@@ -9886,7 +9876,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>619</v>
       </c>
@@ -9920,7 +9910,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>619</v>
       </c>
@@ -9954,7 +9944,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>619</v>
       </c>
@@ -9988,7 +9978,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>619</v>
       </c>
@@ -10022,7 +10012,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>619</v>
       </c>
@@ -10056,7 +10046,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>619</v>
       </c>
@@ -10090,7 +10080,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>619</v>
       </c>
@@ -10124,7 +10114,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>619</v>
       </c>
@@ -10148,7 +10138,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>619</v>
       </c>
@@ -10175,7 +10165,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>619</v>
       </c>
@@ -10211,7 +10201,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>666</v>
       </c>
@@ -10241,7 +10231,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>666</v>
       </c>
@@ -10277,7 +10267,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>666</v>
       </c>
@@ -10307,7 +10297,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>666</v>
       </c>
@@ -10337,7 +10327,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>666</v>
       </c>
@@ -10373,7 +10363,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>666</v>
       </c>
@@ -10403,7 +10393,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>666</v>
       </c>
@@ -10433,7 +10423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>666</v>
       </c>
@@ -10460,7 +10450,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>666</v>
       </c>
@@ -10491,7 +10481,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>666</v>
       </c>
@@ -10519,7 +10509,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>666</v>
       </c>
@@ -10553,7 +10543,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>666</v>
       </c>
@@ -10587,7 +10577,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>666</v>
       </c>
@@ -10617,7 +10607,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>666</v>
       </c>
@@ -10650,7 +10640,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>666</v>
       </c>
@@ -10680,7 +10670,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>666</v>
       </c>
@@ -10716,7 +10706,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>666</v>
       </c>
@@ -10746,7 +10736,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>666</v>
       </c>
@@ -10776,7 +10766,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>666</v>
       </c>
@@ -10806,7 +10796,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>666</v>
       </c>
@@ -10836,7 +10826,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>666</v>
       </c>
@@ -10866,7 +10856,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>666</v>
       </c>
@@ -10896,7 +10886,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>666</v>
       </c>
@@ -10926,7 +10916,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>666</v>
       </c>
@@ -10958,7 +10948,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>666</v>
       </c>
@@ -10990,7 +10980,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>666</v>
       </c>
@@ -11022,7 +11012,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>666</v>
       </c>
@@ -11052,7 +11042,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>666</v>
       </c>
@@ -11082,7 +11072,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>666</v>
       </c>
@@ -11109,10 +11099,10 @@
         <v>735</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>666</v>
       </c>
@@ -11139,7 +11129,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>666</v>
       </c>
@@ -11169,7 +11159,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>666</v>
       </c>
@@ -11199,7 +11189,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>666</v>
       </c>
@@ -11229,7 +11219,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>666</v>
       </c>
@@ -11265,7 +11255,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>666</v>
       </c>
@@ -11292,7 +11282,7 @@
         <v>22</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="K254" t="s">
         <v>753</v>
@@ -11301,141 +11291,129 @@
         <v>754</v>
       </c>
     </row>
-    <row r="255" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="11" t="s">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>666</v>
       </c>
-      <c r="B255" s="11" t="s">
+      <c r="B255" t="s">
         <v>755</v>
       </c>
-      <c r="C255" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D255" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E255" s="12">
-        <v>17</v>
-      </c>
-      <c r="F255" s="13" t="s">
+      <c r="C255" t="s">
+        <v>14</v>
+      </c>
+      <c r="D255" t="s">
+        <v>30</v>
+      </c>
+      <c r="E255" s="1">
+        <v>17</v>
+      </c>
+      <c r="F255" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G255" s="13" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H255" s="14"/>
-      <c r="I255" s="14"/>
-      <c r="J255" s="14"/>
-      <c r="K255" s="11" t="s">
+      <c r="G255" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K255" t="s">
         <v>756</v>
       </c>
-      <c r="L255" s="14" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="11" t="s">
+      <c r="L255" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>666</v>
       </c>
-      <c r="B256" s="11" t="s">
+      <c r="B256" t="s">
+        <v>996</v>
+      </c>
+      <c r="C256" t="s">
+        <v>14</v>
+      </c>
+      <c r="D256" t="s">
+        <v>30</v>
+      </c>
+      <c r="E256" s="1">
+        <v>1</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L256" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>666</v>
+      </c>
+      <c r="B257" t="s">
+        <v>997</v>
+      </c>
+      <c r="C257" t="s">
+        <v>14</v>
+      </c>
+      <c r="D257" t="s">
+        <v>30</v>
+      </c>
+      <c r="E257" s="1">
+        <v>1</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K257" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="C256" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D256" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E256" s="12">
-        <v>1</v>
-      </c>
-      <c r="F256" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G256" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="14"/>
-      <c r="I256" s="14"/>
-      <c r="J256" s="14"/>
-      <c r="K256" s="14" t="s">
-        <v>1007</v>
-      </c>
-      <c r="L256" s="11" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="11" t="s">
+      <c r="L257" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>666</v>
       </c>
-      <c r="B257" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="C257" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D257" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E257" s="12">
-        <v>1</v>
-      </c>
-      <c r="F257" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G257" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="14"/>
-      <c r="I257" s="14"/>
-      <c r="J257" s="14"/>
-      <c r="K257" s="14" t="s">
-        <v>1000</v>
-      </c>
-      <c r="L257" s="11" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="B258" s="11" t="s">
+      <c r="B258" t="s">
         <v>972</v>
       </c>
-      <c r="C258" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D258" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E258" s="12">
+      <c r="C258" t="s">
+        <v>14</v>
+      </c>
+      <c r="D258" t="s">
+        <v>30</v>
+      </c>
+      <c r="E258" s="1">
         <v>1.5</v>
       </c>
-      <c r="F258" s="13" t="s">
+      <c r="F258" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G258" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="14"/>
-      <c r="I258" s="14"/>
-      <c r="J258" s="14"/>
-      <c r="K258" s="14" t="s">
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K258" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="L258" s="11" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L258" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>666</v>
       </c>
-      <c r="B259" s="11" t="s">
-        <v>975</v>
+      <c r="B259" t="s">
+        <v>974</v>
       </c>
       <c r="C259" t="s">
         <v>14</v>
@@ -11444,7 +11422,7 @@
         <v>15</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>17</v>
@@ -11453,18 +11431,18 @@
         <v>1</v>
       </c>
       <c r="K259" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>666</v>
       </c>
-      <c r="B260" s="11" t="s">
-        <v>976</v>
+      <c r="B260" t="s">
+        <v>975</v>
       </c>
       <c r="C260" t="s">
         <v>14</v>
@@ -11485,21 +11463,21 @@
         <v>22</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="K260" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="L260" t="s">
         <v>977</v>
       </c>
-      <c r="L260" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>666</v>
       </c>
-      <c r="B261" s="11" t="s">
-        <v>979</v>
+      <c r="B261" t="s">
+        <v>978</v>
       </c>
       <c r="C261" t="s">
         <v>14</v>
@@ -11517,18 +11495,18 @@
         <v>1</v>
       </c>
       <c r="K261" t="s">
+        <v>979</v>
+      </c>
+      <c r="L261" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="L261" s="3" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>666</v>
       </c>
-      <c r="B262" s="11" t="s">
-        <v>982</v>
+      <c r="B262" t="s">
+        <v>981</v>
       </c>
       <c r="C262" t="s">
         <v>14</v>
@@ -11548,18 +11526,18 @@
         <v>112</v>
       </c>
       <c r="K262" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L262" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>666</v>
       </c>
-      <c r="B263" s="11" t="s">
-        <v>984</v>
+      <c r="B263" t="s">
+        <v>983</v>
       </c>
       <c r="C263" t="s">
         <v>14</v>
@@ -11577,18 +11555,18 @@
         <v>1</v>
       </c>
       <c r="K263" t="s">
+        <v>986</v>
+      </c>
+      <c r="L263" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="L263" s="3" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>666</v>
       </c>
-      <c r="B264" s="11" t="s">
-        <v>985</v>
+      <c r="B264" t="s">
+        <v>984</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
@@ -11606,18 +11584,18 @@
         <v>1</v>
       </c>
       <c r="K264" t="s">
+        <v>988</v>
+      </c>
+      <c r="L264" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="L264" s="3" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>666</v>
       </c>
-      <c r="B265" s="11" t="s">
-        <v>986</v>
+      <c r="B265" t="s">
+        <v>985</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
@@ -11635,13 +11613,13 @@
         <v>1</v>
       </c>
       <c r="K265" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>666</v>
       </c>
@@ -11671,7 +11649,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>666</v>
       </c>
@@ -11701,7 +11679,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>666</v>
       </c>
@@ -11731,7 +11709,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>666</v>
       </c>
@@ -11760,7 +11738,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>666</v>
       </c>
@@ -11787,7 +11765,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>666</v>
       </c>
@@ -11817,7 +11795,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>666</v>
       </c>
@@ -11847,7 +11825,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>666</v>
       </c>
@@ -11877,7 +11855,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>666</v>
       </c>
@@ -11907,7 +11885,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>666</v>
       </c>
@@ -11937,7 +11915,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>666</v>
       </c>
@@ -11966,7 +11944,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>666</v>
       </c>
@@ -11995,7 +11973,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>666</v>
       </c>
@@ -12025,7 +12003,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>666</v>
       </c>
@@ -12055,7 +12033,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>666</v>
       </c>
@@ -12085,7 +12063,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>666</v>
       </c>
@@ -12115,7 +12093,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>666</v>
       </c>
@@ -12145,7 +12123,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>666</v>
       </c>
@@ -12175,12 +12153,12 @@
         <v>798</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>666</v>
       </c>
       <c r="B284" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C284" t="s">
         <v>90</v>
@@ -12198,18 +12176,18 @@
         <v>0</v>
       </c>
       <c r="K284" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="L284" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>666</v>
       </c>
       <c r="B285" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C285" t="s">
         <v>90</v>
@@ -12227,13 +12205,13 @@
         <v>0</v>
       </c>
       <c r="K285" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="L285" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>799</v>
       </c>
@@ -12259,7 +12237,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>799</v>
       </c>
@@ -12289,7 +12267,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>799</v>
       </c>
@@ -12319,7 +12297,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>799</v>
       </c>
@@ -12349,7 +12327,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>799</v>
       </c>
@@ -12379,7 +12357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>799</v>
       </c>
@@ -12415,7 +12393,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>799</v>
       </c>
@@ -12445,7 +12423,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>799</v>
       </c>
@@ -12475,7 +12453,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>799</v>
       </c>
@@ -12505,7 +12483,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>799</v>
       </c>
@@ -12541,7 +12519,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>799</v>
       </c>
@@ -12575,7 +12553,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>799</v>
       </c>
@@ -12609,7 +12587,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>799</v>
       </c>
@@ -12643,7 +12621,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>799</v>
       </c>
@@ -12677,7 +12655,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>799</v>
       </c>
@@ -12711,7 +12689,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>799</v>
       </c>
@@ -12735,7 +12713,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>799</v>
       </c>
@@ -12771,7 +12749,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>799</v>
       </c>
@@ -12801,7 +12779,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>799</v>
       </c>
@@ -12831,7 +12809,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>799</v>
       </c>
@@ -12861,7 +12839,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>799</v>
       </c>
@@ -12891,7 +12869,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>799</v>
       </c>
@@ -12921,7 +12899,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>799</v>
       </c>
@@ -12951,7 +12929,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>799</v>
       </c>
@@ -12987,7 +12965,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>799</v>
       </c>
@@ -13017,7 +12995,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>799</v>
       </c>
@@ -13047,7 +13025,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>799</v>
       </c>
@@ -13077,7 +13055,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>799</v>
       </c>
@@ -13107,7 +13085,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>799</v>
       </c>
@@ -13137,7 +13115,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>799</v>
       </c>
@@ -13167,7 +13145,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>799</v>
       </c>
@@ -13197,7 +13175,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>799</v>
       </c>
@@ -13227,7 +13205,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>799</v>
       </c>
@@ -13263,7 +13241,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>799</v>
       </c>
@@ -13296,7 +13274,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>799</v>
       </c>
@@ -13329,7 +13307,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>799</v>
       </c>
@@ -13359,7 +13337,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>799</v>
       </c>
@@ -13389,7 +13367,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>799</v>
       </c>
@@ -13422,7 +13400,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>799</v>
       </c>
@@ -13452,7 +13430,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>799</v>
       </c>
@@ -13482,7 +13460,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>799</v>
       </c>
@@ -13512,7 +13490,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>799</v>
       </c>
@@ -13542,7 +13520,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>799</v>
       </c>
@@ -13572,7 +13550,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>799</v>
       </c>
@@ -13599,7 +13577,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>799</v>
       </c>
@@ -13629,7 +13607,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>799</v>
       </c>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHamilt2\Documents\solarPILOT_build\SolarPILOT\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB70C4B6-97F2-49D8-B17F-622B9FA5F3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7ECBAA-3B4F-4D1C-BDB7-D14AE380F768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3477,7 +3477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3487,29 +3487,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L256" sqref="L256"/>
+      <selection pane="bottomLeft" activeCell="E261" sqref="E261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="114.42578125" customWidth="1"/>
-    <col min="13" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.453125"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.54296875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="114.453125" customWidth="1"/>
+    <col min="13" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>190</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>190</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>190</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>190</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>190</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>190</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>190</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>190</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>190</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>190</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>190</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>332</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>332</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>332</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>332</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>332</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>332</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>332</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>332</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>332</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>332</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>332</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>332</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>332</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>332</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>332</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>332</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>332</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>332</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>332</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>332</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>332</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>332</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>332</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>332</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>332</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>332</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>332</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>332</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>332</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>332</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>332</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>332</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>332</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>332</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>332</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>332</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>332</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>332</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>332</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>332</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>332</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>332</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>332</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>332</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>332</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>332</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>332</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>332</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>332</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>332</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>332</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>332</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>332</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>332</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>513</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>513</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>513</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>513</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>513</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>513</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>513</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>513</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>513</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>513</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>513</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>513</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>513</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>513</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>513</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>513</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>513</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>513</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>513</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>513</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>513</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>513</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>576</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>576</v>
       </c>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>576</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>576</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>576</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>576</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>576</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>576</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>576</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>576</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>576</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>576</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>576</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>576</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>576</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>619</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>619</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>619</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>619</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>619</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>619</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>619</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>619</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>619</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>619</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>619</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>619</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>619</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>619</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>619</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>619</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>619</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>619</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>666</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>666</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>666</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>666</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>666</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>666</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>666</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>666</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>666</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>666</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>666</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>666</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>666</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>666</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>666</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>666</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>666</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>666</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>666</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>666</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>666</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>666</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>666</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>666</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>666</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>666</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>666</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>666</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>666</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>666</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>666</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>666</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>666</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>666</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>666</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>666</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>666</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>666</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>666</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>666</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>666</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>666</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>30</v>
       </c>
       <c r="E261" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>43</v>
@@ -11501,7 +11501,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>666</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>666</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>666</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>666</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>666</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>666</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>666</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>666</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>666</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>666</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>666</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>666</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>666</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>666</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>666</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>666</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>666</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>666</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>666</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>666</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>666</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>666</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>666</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>666</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>799</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>799</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>799</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>799</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>799</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>799</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>799</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>799</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>799</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>799</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>799</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>799</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>799</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>799</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>799</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>799</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>799</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>799</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>799</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>799</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>799</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>799</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>799</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>799</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>799</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>799</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>799</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>799</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>799</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>799</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>799</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>799</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>799</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>799</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>799</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>799</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>799</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>799</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>799</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>799</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>799</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>799</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>799</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>799</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>799</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>799</v>
       </c>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHamilt2\Documents\solarPILOT_build\SolarPILOT\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7ECBAA-3B4F-4D1C-BDB7-D14AE380F768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488F0113-7BA1-4A1E-BEF2-849A515C6BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="1013">
   <si>
     <t>Domain</t>
   </si>
@@ -2990,9 +2990,6 @@
     <t>snout_depth</t>
   </si>
   <si>
-    <t>snout_vert_angle</t>
-  </si>
-  <si>
     <t>snout_horiz_angle</t>
   </si>
   <si>
@@ -3002,12 +2999,6 @@
     <t>Distance from aperture window to SNOUT front plane</t>
   </si>
   <si>
-    <t>Vertical SNOUT angle</t>
-  </si>
-  <si>
-    <t>SNOUT angle from aperture normal</t>
-  </si>
-  <si>
     <t>Horizontal SNOUT angle</t>
   </si>
   <si>
@@ -3066,6 +3057,24 @@
   </si>
   <si>
     <t>Particle curtain entrance depth from the aperture</t>
+  </si>
+  <si>
+    <t>snout_vert_bot_angle</t>
+  </si>
+  <si>
+    <t>snout_vert_top_angle</t>
+  </si>
+  <si>
+    <t>Vertical SNOUT bottom angle</t>
+  </si>
+  <si>
+    <t>Vertical SNOUT top angle</t>
+  </si>
+  <si>
+    <t>SNOUT bottom surface angle from aperture normal</t>
+  </si>
+  <si>
+    <t>SNOUT top surface angle from aperture normal</t>
   </si>
 </sst>
 </file>
@@ -3162,14 +3171,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L331" totalsRowShown="0">
-  <autoFilter ref="A1:L331" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="receiver"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L332" totalsRowShown="0">
+  <autoFilter ref="A1:L332" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="String name"/>
@@ -3477,7 +3480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3485,31 +3488,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L331"/>
+  <dimension ref="A1:L332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E261" sqref="E261"/>
+      <selection pane="bottomLeft" activeCell="L264" sqref="L264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="114.453125" customWidth="1"/>
-    <col min="13" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="114.42578125" customWidth="1"/>
+    <col min="13" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3547,7 +3550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3580,7 +3583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3616,7 +3619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3832,7 +3835,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3862,7 +3865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3892,7 +3895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4102,7 +4105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4159,7 +4162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -4399,7 +4402,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -4519,7 +4522,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -4579,7 +4582,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -4609,7 +4612,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -4639,7 +4642,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -4753,7 +4756,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -4783,7 +4786,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -4813,7 +4816,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -4873,7 +4876,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -4903,7 +4906,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -4963,7 +4966,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -5053,7 +5056,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -5113,7 +5116,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>190</v>
       </c>
@@ -5206,7 +5209,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -5236,7 +5239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>190</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>190</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -5410,7 +5413,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -5473,7 +5476,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -5554,7 +5557,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -5617,7 +5620,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>190</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -5683,7 +5686,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -5710,7 +5713,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>190</v>
       </c>
@@ -5737,7 +5740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>190</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>190</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>190</v>
       </c>
@@ -5896,7 +5899,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -6063,7 +6066,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -6094,7 +6097,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -6123,7 +6126,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -6209,7 +6212,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -6306,7 +6309,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -6363,7 +6366,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -6390,7 +6393,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6420,7 +6423,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -6450,7 +6453,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>190</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>190</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>190</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>332</v>
       </c>
@@ -6599,7 +6602,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>332</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>332</v>
       </c>
@@ -6665,7 +6668,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>332</v>
       </c>
@@ -6695,7 +6698,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>332</v>
       </c>
@@ -6725,7 +6728,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>332</v>
       </c>
@@ -6755,7 +6758,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>332</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>332</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -6845,7 +6848,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -6875,7 +6878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>332</v>
       </c>
@@ -6905,7 +6908,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>332</v>
       </c>
@@ -6965,7 +6968,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -6995,7 +6998,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>332</v>
       </c>
@@ -7025,7 +7028,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>332</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>332</v>
       </c>
@@ -7085,7 +7088,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>332</v>
       </c>
@@ -7121,7 +7124,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>332</v>
       </c>
@@ -7157,7 +7160,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>332</v>
       </c>
@@ -7187,7 +7190,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>332</v>
       </c>
@@ -7214,7 +7217,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>332</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>332</v>
       </c>
@@ -7275,7 +7278,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>332</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>332</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>332</v>
       </c>
@@ -7371,7 +7374,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>332</v>
       </c>
@@ -7405,7 +7408,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>332</v>
       </c>
@@ -7441,7 +7444,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>332</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>332</v>
       </c>
@@ -7509,7 +7512,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>332</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>332</v>
       </c>
@@ -7563,7 +7566,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>332</v>
       </c>
@@ -7593,7 +7596,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>332</v>
       </c>
@@ -7623,7 +7626,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>332</v>
       </c>
@@ -7653,7 +7656,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>332</v>
       </c>
@@ -7683,7 +7686,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>332</v>
       </c>
@@ -7713,7 +7716,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>332</v>
       </c>
@@ -7743,7 +7746,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>332</v>
       </c>
@@ -7773,7 +7776,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>332</v>
       </c>
@@ -7803,7 +7806,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>332</v>
       </c>
@@ -7833,7 +7836,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>332</v>
       </c>
@@ -7863,7 +7866,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>332</v>
       </c>
@@ -7902,7 +7905,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>332</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>332</v>
       </c>
@@ -7962,7 +7965,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>332</v>
       </c>
@@ -7992,7 +7995,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>332</v>
       </c>
@@ -8022,7 +8025,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>332</v>
       </c>
@@ -8052,7 +8055,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>332</v>
       </c>
@@ -8082,7 +8085,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>332</v>
       </c>
@@ -8112,7 +8115,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>332</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>332</v>
       </c>
@@ -8172,7 +8175,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>332</v>
       </c>
@@ -8202,7 +8205,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -8232,7 +8235,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>332</v>
       </c>
@@ -8262,7 +8265,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>332</v>
       </c>
@@ -8292,7 +8295,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -8322,7 +8325,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>332</v>
       </c>
@@ -8352,7 +8355,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>332</v>
       </c>
@@ -8382,7 +8385,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -8412,7 +8415,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -8442,7 +8445,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -8472,7 +8475,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>332</v>
       </c>
@@ -8502,7 +8505,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>513</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>513</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>513</v>
       </c>
@@ -8586,7 +8589,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>513</v>
       </c>
@@ -8616,7 +8619,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>513</v>
       </c>
@@ -8647,7 +8650,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>513</v>
       </c>
@@ -8671,7 +8674,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>513</v>
       </c>
@@ -8705,7 +8708,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>513</v>
       </c>
@@ -8739,7 +8742,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>513</v>
       </c>
@@ -8773,7 +8776,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>513</v>
       </c>
@@ -8807,7 +8810,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>513</v>
       </c>
@@ -8837,7 +8840,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>513</v>
       </c>
@@ -8867,7 +8870,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>513</v>
       </c>
@@ -8897,7 +8900,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>513</v>
       </c>
@@ -8927,7 +8930,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>513</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>513</v>
       </c>
@@ -8987,7 +8990,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>513</v>
       </c>
@@ -9017,7 +9020,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>513</v>
       </c>
@@ -9047,7 +9050,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>513</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>513</v>
       </c>
@@ -9107,7 +9110,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>513</v>
       </c>
@@ -9137,7 +9140,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>513</v>
       </c>
@@ -9167,7 +9170,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>576</v>
       </c>
@@ -9203,7 +9206,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>576</v>
       </c>
@@ -9225,7 +9228,7 @@
       </c>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>576</v>
       </c>
@@ -9255,7 +9258,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>576</v>
       </c>
@@ -9288,7 +9291,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>576</v>
       </c>
@@ -9321,7 +9324,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>576</v>
       </c>
@@ -9354,7 +9357,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>576</v>
       </c>
@@ -9384,7 +9387,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>576</v>
       </c>
@@ -9414,7 +9417,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>576</v>
       </c>
@@ -9444,7 +9447,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>576</v>
       </c>
@@ -9474,7 +9477,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>576</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>576</v>
       </c>
@@ -9531,7 +9534,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>576</v>
       </c>
@@ -9561,7 +9564,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>576</v>
       </c>
@@ -9594,7 +9597,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>576</v>
       </c>
@@ -9626,7 +9629,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>619</v>
       </c>
@@ -9656,7 +9659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>619</v>
       </c>
@@ -9683,7 +9686,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>619</v>
       </c>
@@ -9710,7 +9713,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>619</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>619</v>
       </c>
@@ -9774,7 +9777,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>619</v>
       </c>
@@ -9808,7 +9811,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>619</v>
       </c>
@@ -9842,7 +9845,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>619</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>619</v>
       </c>
@@ -9910,7 +9913,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>619</v>
       </c>
@@ -9944,7 +9947,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>619</v>
       </c>
@@ -9978,7 +9981,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>619</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>619</v>
       </c>
@@ -10046,7 +10049,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>619</v>
       </c>
@@ -10080,7 +10083,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>619</v>
       </c>
@@ -10114,7 +10117,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>619</v>
       </c>
@@ -10138,7 +10141,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>619</v>
       </c>
@@ -10165,7 +10168,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>619</v>
       </c>
@@ -10201,7 +10204,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>666</v>
       </c>
@@ -10231,7 +10234,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>666</v>
       </c>
@@ -10267,7 +10270,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>666</v>
       </c>
@@ -10297,7 +10300,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>666</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>666</v>
       </c>
@@ -10363,7 +10366,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>666</v>
       </c>
@@ -10393,7 +10396,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>666</v>
       </c>
@@ -10423,7 +10426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>666</v>
       </c>
@@ -10450,7 +10453,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>666</v>
       </c>
@@ -10481,7 +10484,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>666</v>
       </c>
@@ -10509,7 +10512,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>666</v>
       </c>
@@ -10543,7 +10546,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>666</v>
       </c>
@@ -10577,7 +10580,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>666</v>
       </c>
@@ -10607,7 +10610,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>666</v>
       </c>
@@ -10640,7 +10643,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>666</v>
       </c>
@@ -10670,7 +10673,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>666</v>
       </c>
@@ -10706,7 +10709,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>666</v>
       </c>
@@ -10736,7 +10739,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>666</v>
       </c>
@@ -10766,7 +10769,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>666</v>
       </c>
@@ -10796,7 +10799,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>666</v>
       </c>
@@ -10826,7 +10829,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>666</v>
       </c>
@@ -10856,7 +10859,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>666</v>
       </c>
@@ -10886,7 +10889,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>666</v>
       </c>
@@ -10916,7 +10919,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>666</v>
       </c>
@@ -10948,7 +10951,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>666</v>
       </c>
@@ -10980,7 +10983,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>666</v>
       </c>
@@ -11012,7 +11015,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>666</v>
       </c>
@@ -11042,7 +11045,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>666</v>
       </c>
@@ -11072,7 +11075,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>666</v>
       </c>
@@ -11099,10 +11102,10 @@
         <v>735</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>666</v>
       </c>
@@ -11129,7 +11132,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>666</v>
       </c>
@@ -11159,7 +11162,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>666</v>
       </c>
@@ -11189,7 +11192,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>666</v>
       </c>
@@ -11219,7 +11222,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>666</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>666</v>
       </c>
@@ -11282,7 +11285,7 @@
         <v>22</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="K254" t="s">
         <v>753</v>
@@ -11291,7 +11294,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>666</v>
       </c>
@@ -11318,15 +11321,15 @@
         <v>756</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>666</v>
       </c>
       <c r="B256" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C256" t="s">
         <v>14</v>
@@ -11344,18 +11347,18 @@
         <v>1</v>
       </c>
       <c r="K256" s="3" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="L256" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>666</v>
       </c>
       <c r="B257" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C257" t="s">
         <v>14</v>
@@ -11373,13 +11376,13 @@
         <v>1</v>
       </c>
       <c r="K257" s="3" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="L257" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>666</v>
       </c>
@@ -11405,10 +11408,10 @@
         <v>973</v>
       </c>
       <c r="L258" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>666</v>
       </c>
@@ -11422,7 +11425,7 @@
         <v>15</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>17</v>
@@ -11431,13 +11434,13 @@
         <v>1</v>
       </c>
       <c r="K259" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>666</v>
       </c>
@@ -11463,7 +11466,7 @@
         <v>22</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K260" s="3" t="s">
         <v>976</v>
@@ -11472,7 +11475,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>666</v>
       </c>
@@ -11501,7 +11504,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>666</v>
       </c>
@@ -11532,7 +11535,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>666</v>
       </c>
@@ -11555,18 +11558,18 @@
         <v>1</v>
       </c>
       <c r="K263" t="s">
+        <v>985</v>
+      </c>
+      <c r="L263" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="L263" s="3" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>666</v>
       </c>
       <c r="B264" t="s">
-        <v>984</v>
+        <v>1008</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
@@ -11584,18 +11587,18 @@
         <v>1</v>
       </c>
       <c r="K264" t="s">
-        <v>988</v>
+        <v>1010</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>666</v>
       </c>
       <c r="B265" t="s">
-        <v>985</v>
+        <v>1007</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
@@ -11604,7 +11607,7 @@
         <v>30</v>
       </c>
       <c r="E265" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>51</v>
@@ -11613,18 +11616,18 @@
         <v>1</v>
       </c>
       <c r="K265" t="s">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>666</v>
       </c>
       <c r="B266" t="s">
-        <v>757</v>
+        <v>984</v>
       </c>
       <c r="C266" t="s">
         <v>14</v>
@@ -11633,58 +11636,57 @@
         <v>30</v>
       </c>
       <c r="E266" s="1">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>702</v>
+        <v>51</v>
       </c>
       <c r="G266" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K266" s="3" t="s">
-        <v>758</v>
+        <v>1</v>
+      </c>
+      <c r="K266" t="s">
+        <v>987</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>666</v>
       </c>
       <c r="B267" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C267" t="s">
         <v>14</v>
       </c>
       <c r="D267" t="s">
-        <v>15</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>761</v>
+        <v>30</v>
+      </c>
+      <c r="E267" s="1">
+        <v>30</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>17</v>
+        <v>702</v>
       </c>
       <c r="G267" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>666</v>
       </c>
       <c r="B268" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C268" t="s">
         <v>14</v>
@@ -11703,104 +11705,104 @@
         <v>0</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="L268" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>666</v>
       </c>
       <c r="B269" t="s">
-        <v>944</v>
+        <v>764</v>
       </c>
       <c r="C269" t="s">
         <v>14</v>
       </c>
       <c r="D269" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>945</v>
+        <v>761</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G269" s="2" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>946</v>
+        <v>765</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>666</v>
       </c>
       <c r="B270" t="s">
-        <v>767</v>
+        <v>944</v>
       </c>
       <c r="C270" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D270" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>945</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G270" s="2" t="b">
-        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>768</v>
+        <v>946</v>
       </c>
       <c r="L270" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>666</v>
       </c>
       <c r="B271" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C271" t="s">
         <v>90</v>
       </c>
       <c r="D271" t="s">
-        <v>30</v>
-      </c>
-      <c r="E271" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="G271" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K271" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>666</v>
       </c>
       <c r="B272" t="s">
-        <v>957</v>
+        <v>769</v>
       </c>
       <c r="C272" t="s">
         <v>90</v>
@@ -11819,18 +11821,18 @@
         <v>0</v>
       </c>
       <c r="K272" s="3" t="s">
-        <v>958</v>
+        <v>770</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>666</v>
       </c>
       <c r="B273" t="s">
-        <v>772</v>
+        <v>957</v>
       </c>
       <c r="C273" t="s">
         <v>90</v>
@@ -11839,28 +11841,28 @@
         <v>30</v>
       </c>
       <c r="E273" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="G273" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K273" t="s">
-        <v>773</v>
+      <c r="K273" s="3" t="s">
+        <v>958</v>
       </c>
       <c r="L273" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>666</v>
       </c>
       <c r="B274" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C274" t="s">
         <v>90</v>
@@ -11869,28 +11871,28 @@
         <v>30</v>
       </c>
       <c r="E274" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>776</v>
+        <v>43</v>
       </c>
       <c r="G274" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K274" s="3" t="s">
-        <v>777</v>
+      <c r="K274" t="s">
+        <v>773</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>666</v>
       </c>
       <c r="B275" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C275" t="s">
         <v>90</v>
@@ -11899,28 +11901,28 @@
         <v>30</v>
       </c>
       <c r="E275" s="1">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>17</v>
+        <v>776</v>
       </c>
       <c r="G275" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="K275" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>666</v>
       </c>
       <c r="B276" t="s">
-        <v>955</v>
+        <v>779</v>
       </c>
       <c r="C276" t="s">
         <v>90</v>
@@ -11929,27 +11931,28 @@
         <v>30</v>
       </c>
       <c r="E276" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G276" s="2" t="b">
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>967</v>
+        <v>780</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>666</v>
       </c>
       <c r="B277" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C277" t="s">
         <v>90</v>
@@ -11967,18 +11970,18 @@
         <v>0</v>
       </c>
       <c r="K277" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>666</v>
       </c>
       <c r="B278" t="s">
-        <v>782</v>
+        <v>960</v>
       </c>
       <c r="C278" t="s">
         <v>90</v>
@@ -11990,25 +11993,24 @@
         <v>0</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G278" s="2" t="b">
-        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K278" s="3" t="s">
-        <v>783</v>
+        <v>968</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>666</v>
       </c>
       <c r="B279" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C279" t="s">
         <v>90</v>
@@ -12020,25 +12022,25 @@
         <v>0</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>776</v>
+        <v>17</v>
       </c>
       <c r="G279" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K279" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>666</v>
       </c>
       <c r="B280" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C280" t="s">
         <v>90</v>
@@ -12057,18 +12059,18 @@
         <v>0</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>666</v>
       </c>
       <c r="B281" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C281" t="s">
         <v>90</v>
@@ -12080,25 +12082,25 @@
         <v>0</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>43</v>
+        <v>776</v>
       </c>
       <c r="G281" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K281" t="s">
-        <v>791</v>
+      <c r="K281" s="3" t="s">
+        <v>788</v>
       </c>
       <c r="L281" s="3" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>666</v>
       </c>
       <c r="B282" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C282" t="s">
         <v>90</v>
@@ -12117,18 +12119,18 @@
         <v>0</v>
       </c>
       <c r="K282" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>666</v>
       </c>
       <c r="B283" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C283" t="s">
         <v>90</v>
@@ -12147,18 +12149,18 @@
         <v>0</v>
       </c>
       <c r="K283" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>666</v>
       </c>
       <c r="B284" t="s">
-        <v>1003</v>
+        <v>796</v>
       </c>
       <c r="C284" t="s">
         <v>90</v>
@@ -12173,21 +12175,22 @@
         <v>43</v>
       </c>
       <c r="G284" s="2" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K284" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L284" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+        <v>797</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>666</v>
       </c>
       <c r="B285" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C285" t="s">
         <v>90</v>
@@ -12205,74 +12208,73 @@
         <v>0</v>
       </c>
       <c r="K285" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="L285" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>799</v>
+        <v>666</v>
       </c>
       <c r="B286" t="s">
-        <v>969</v>
+        <v>1003</v>
       </c>
       <c r="C286" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D286" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="E286" s="1">
+        <v>0</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G286" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K286" t="s">
-        <v>970</v>
+        <v>1004</v>
       </c>
       <c r="L286" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>799</v>
       </c>
       <c r="B287" t="s">
-        <v>800</v>
+        <v>969</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
       </c>
       <c r="D287" t="s">
-        <v>30</v>
-      </c>
-      <c r="E287" s="1">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G287" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K287" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="L287" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="K287" t="s">
+        <v>970</v>
+      </c>
+      <c r="L287" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>799</v>
       </c>
       <c r="B288" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
@@ -12281,7 +12283,7 @@
         <v>30</v>
       </c>
       <c r="E288" s="1">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>51</v>
@@ -12291,18 +12293,18 @@
         <v>1</v>
       </c>
       <c r="K288" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="L288" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>799</v>
       </c>
       <c r="B289" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C289" t="s">
         <v>14</v>
@@ -12311,58 +12313,58 @@
         <v>30</v>
       </c>
       <c r="E289" s="1">
-        <v>2</v>
+        <v>-180</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G289" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K289" t="s">
-        <v>807</v>
+      <c r="K289" s="3" t="s">
+        <v>804</v>
       </c>
       <c r="L289" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>799</v>
       </c>
       <c r="B290" t="s">
-        <v>26</v>
+        <v>806</v>
       </c>
       <c r="C290" t="s">
         <v>14</v>
       </c>
       <c r="D290" t="s">
-        <v>21</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>809</v>
+        <v>30</v>
+      </c>
+      <c r="E290" s="1">
+        <v>2</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G290" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K290" s="3" t="s">
-        <v>28</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K290" t="s">
+        <v>807</v>
       </c>
       <c r="L290" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>799</v>
       </c>
       <c r="B291" t="s">
-        <v>810</v>
+        <v>26</v>
       </c>
       <c r="C291" t="s">
         <v>14</v>
@@ -12370,44 +12372,38 @@
       <c r="D291" t="s">
         <v>21</v>
       </c>
-      <c r="E291" s="1">
-        <v>5</v>
+      <c r="E291" s="1" t="s">
+        <v>809</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G291" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H291" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I291" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="K291" t="s">
-        <v>812</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L291" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>799</v>
       </c>
       <c r="B292" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C292" t="s">
         <v>14</v>
       </c>
       <c r="D292" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="E292" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>17</v>
@@ -12416,19 +12412,25 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K292" s="3" t="s">
-        <v>815</v>
+      <c r="H292" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="K292" t="s">
+        <v>812</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>799</v>
       </c>
       <c r="B293" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C293" t="s">
         <v>14</v>
@@ -12437,7 +12439,7 @@
         <v>228</v>
       </c>
       <c r="E293" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>17</v>
@@ -12447,94 +12449,87 @@
         <v>1</v>
       </c>
       <c r="K293" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="L293" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>799</v>
       </c>
       <c r="B294" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C294" t="s">
         <v>14</v>
       </c>
       <c r="D294" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E294" s="1">
-        <v>950</v>
+        <v>2</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G294" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K294" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>799</v>
       </c>
       <c r="B295" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C295" t="s">
         <v>14</v>
       </c>
       <c r="D295" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E295" s="1">
-        <v>7</v>
+        <v>950</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G295" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H295" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I295" s="3" t="s">
-        <v>824</v>
-      </c>
       <c r="K295" s="3" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>799</v>
       </c>
       <c r="B296" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C296" t="s">
         <v>14</v>
       </c>
       <c r="D296" t="s">
-        <v>111</v>
-      </c>
-      <c r="E296" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E296" s="1">
+        <v>7</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>17</v>
@@ -12544,21 +12539,24 @@
         <v>1</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>824</v>
       </c>
       <c r="K296" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="L296" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>799</v>
       </c>
       <c r="B297" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C297" t="s">
         <v>14</v>
@@ -12567,32 +12565,32 @@
         <v>111</v>
       </c>
       <c r="E297" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G297" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H297" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K297" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="L297" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>799</v>
       </c>
       <c r="B298" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C298" t="s">
         <v>14</v>
@@ -12601,32 +12599,32 @@
         <v>111</v>
       </c>
       <c r="E298" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G298" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H298" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K298" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>799</v>
       </c>
       <c r="B299" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C299" t="s">
         <v>14</v>
@@ -12635,32 +12633,32 @@
         <v>111</v>
       </c>
       <c r="E299" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G299" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H299" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K299" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>799</v>
       </c>
       <c r="B300" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C300" t="s">
         <v>14</v>
@@ -12669,56 +12667,66 @@
         <v>111</v>
       </c>
       <c r="E300" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G300" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H300" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K300" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="L300" s="3" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>799</v>
       </c>
       <c r="B301" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C301" t="s">
         <v>14</v>
       </c>
       <c r="D301" t="s">
-        <v>21</v>
+        <v>111</v>
+      </c>
+      <c r="E301" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G301" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="K301" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>799</v>
       </c>
       <c r="B302" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C302" t="s">
         <v>14</v>
@@ -12726,65 +12734,59 @@
       <c r="D302" t="s">
         <v>21</v>
       </c>
-      <c r="E302" s="1">
-        <v>0</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G302" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H302" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I302" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="K302" t="s">
-        <v>846</v>
+      <c r="K302" s="3" t="s">
+        <v>843</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>799</v>
       </c>
       <c r="B303" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C303" t="s">
         <v>14</v>
       </c>
       <c r="D303" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E303" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>849</v>
+        <v>17</v>
       </c>
       <c r="G303" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K303" s="3" t="s">
-        <v>850</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="K303" t="s">
+        <v>846</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>799</v>
       </c>
       <c r="B304" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C304" t="s">
         <v>14</v>
@@ -12803,18 +12805,18 @@
         <v>1</v>
       </c>
       <c r="K304" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>799</v>
       </c>
       <c r="B305" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C305" t="s">
         <v>14</v>
@@ -12823,7 +12825,7 @@
         <v>30</v>
       </c>
       <c r="E305" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>849</v>
@@ -12833,18 +12835,18 @@
         <v>1</v>
       </c>
       <c r="K305" s="3" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>799</v>
       </c>
       <c r="B306" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C306" t="s">
         <v>14</v>
@@ -12863,18 +12865,18 @@
         <v>1</v>
       </c>
       <c r="K306" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>799</v>
       </c>
       <c r="B307" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C307" t="s">
         <v>14</v>
@@ -12883,28 +12885,28 @@
         <v>30</v>
       </c>
       <c r="E307" s="1">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>17</v>
+        <v>849</v>
       </c>
       <c r="G307" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K307" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>799</v>
       </c>
       <c r="B308" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C308" t="s">
         <v>14</v>
@@ -12913,73 +12915,67 @@
         <v>30</v>
       </c>
       <c r="E308" s="1">
-        <v>670</v>
+        <v>0.03</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>865</v>
+        <v>17</v>
       </c>
       <c r="G308" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K308" t="s">
-        <v>866</v>
+      <c r="K308" s="3" t="s">
+        <v>862</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>799</v>
       </c>
       <c r="B309" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C309" t="s">
         <v>14</v>
       </c>
       <c r="D309" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E309" s="1">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>17</v>
+        <v>865</v>
       </c>
       <c r="G309" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H309" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I309" s="3" t="s">
-        <v>869</v>
-      </c>
       <c r="K309" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="L309" s="3" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>799</v>
       </c>
       <c r="B310" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C310" t="s">
         <v>14</v>
       </c>
       <c r="D310" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E310" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>17</v>
@@ -12988,19 +12984,25 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K310" s="3" t="s">
-        <v>873</v>
+      <c r="H310" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="K310" t="s">
+        <v>870</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>799</v>
       </c>
       <c r="B311" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C311" t="s">
         <v>14</v>
@@ -13019,18 +13021,18 @@
         <v>1</v>
       </c>
       <c r="K311" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="L311" s="3" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>799</v>
       </c>
       <c r="B312" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C312" t="s">
         <v>14</v>
@@ -13039,28 +13041,28 @@
         <v>30</v>
       </c>
       <c r="E312" s="1">
-        <v>195</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G312" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K312" t="s">
-        <v>879</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>876</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>799</v>
       </c>
       <c r="B313" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C313" t="s">
         <v>14</v>
@@ -13069,7 +13071,7 @@
         <v>30</v>
       </c>
       <c r="E313" s="1">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>43</v>
@@ -13079,18 +13081,18 @@
         <v>0</v>
       </c>
       <c r="K313" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L313" s="3" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>799</v>
       </c>
       <c r="B314" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C314" t="s">
         <v>14</v>
@@ -13099,28 +13101,28 @@
         <v>30</v>
       </c>
       <c r="E314" s="1">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G314" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K314" s="3" t="s">
-        <v>885</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K314" t="s">
+        <v>882</v>
       </c>
       <c r="L314" s="3" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>799</v>
       </c>
       <c r="B315" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C315" t="s">
         <v>14</v>
@@ -13129,7 +13131,7 @@
         <v>30</v>
       </c>
       <c r="E315" s="1">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>17</v>
@@ -13138,19 +13140,19 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K315" t="s">
-        <v>887</v>
+      <c r="K315" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="L315" s="3" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>799</v>
       </c>
       <c r="B316" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C316" t="s">
         <v>14</v>
@@ -13159,28 +13161,28 @@
         <v>30</v>
       </c>
       <c r="E316" s="1">
-        <v>180</v>
+        <v>1.33</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G316" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K316" s="3" t="s">
-        <v>890</v>
+      <c r="K316" t="s">
+        <v>887</v>
       </c>
       <c r="L316" s="3" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>799</v>
       </c>
       <c r="B317" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C317" t="s">
         <v>14</v>
@@ -13189,7 +13191,7 @@
         <v>30</v>
       </c>
       <c r="E317" s="1">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>51</v>
@@ -13199,54 +13201,48 @@
         <v>1</v>
       </c>
       <c r="K317" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="L317" s="3" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>799</v>
       </c>
       <c r="B318" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C318" t="s">
         <v>14</v>
       </c>
       <c r="D318" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E318" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G318" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H318" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I318" s="3" t="s">
-        <v>896</v>
-      </c>
       <c r="K318" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="L318" s="3" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>799</v>
       </c>
       <c r="B319" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C319" t="s">
         <v>14</v>
@@ -13267,19 +13263,22 @@
       <c r="H319" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="I319" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="K319" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>799</v>
       </c>
       <c r="B320" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C320" t="s">
         <v>14</v>
@@ -13290,6 +13289,9 @@
       <c r="E320" s="1">
         <v>0</v>
       </c>
+      <c r="F320" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G320" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -13297,52 +13299,52 @@
       <c r="H320" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I320" s="3" t="s">
-        <v>903</v>
-      </c>
       <c r="K320" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="L320" s="3" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>799</v>
       </c>
       <c r="B321" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C321" t="s">
         <v>14</v>
       </c>
       <c r="D321" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E321" s="1">
-        <v>195</v>
-      </c>
-      <c r="F321" s="2" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G321" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K321" t="s">
-        <v>907</v>
+      <c r="H321" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="K321" s="3" t="s">
+        <v>904</v>
       </c>
       <c r="L321" s="3" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>799</v>
       </c>
       <c r="B322" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C322" t="s">
         <v>14</v>
@@ -13351,91 +13353,91 @@
         <v>30</v>
       </c>
       <c r="E322" s="1">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G322" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K322" s="3" t="s">
-        <v>910</v>
+      <c r="K322" t="s">
+        <v>907</v>
       </c>
       <c r="L322" s="3" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>799</v>
       </c>
       <c r="B323" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C323" t="s">
         <v>14</v>
       </c>
       <c r="D323" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E323" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G323" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H323" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I323" s="3" t="s">
-        <v>913</v>
-      </c>
       <c r="K323" s="3" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="L323" s="3" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>799</v>
       </c>
       <c r="B324" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C324" t="s">
         <v>14</v>
       </c>
       <c r="D324" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E324" s="1">
-        <v>1</v>
-      </c>
-      <c r="F324" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G324" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
+      <c r="H324" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>913</v>
+      </c>
       <c r="K324" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="L324" s="3" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>799</v>
       </c>
       <c r="B325" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C325" t="s">
         <v>14</v>
@@ -13444,7 +13446,7 @@
         <v>30</v>
       </c>
       <c r="E325" s="1">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>17</v>
@@ -13454,18 +13456,18 @@
         <v>1</v>
       </c>
       <c r="K325" s="3" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="L325" s="3" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>799</v>
       </c>
       <c r="B326" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C326" t="s">
         <v>14</v>
@@ -13474,58 +13476,58 @@
         <v>30</v>
       </c>
       <c r="E326" s="1">
-        <v>100</v>
+        <v>1E-3</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>923</v>
+        <v>17</v>
       </c>
       <c r="G326" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K326" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="L326" s="3" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>799</v>
       </c>
       <c r="B327" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C327" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D327" t="s">
         <v>30</v>
       </c>
       <c r="E327" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>128</v>
+        <v>923</v>
       </c>
       <c r="G327" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K327" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="L327" s="3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>799</v>
       </c>
       <c r="B328" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C328" t="s">
         <v>90</v>
@@ -13544,75 +13546,75 @@
         <v>0</v>
       </c>
       <c r="K328" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="L328" s="3" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>799</v>
       </c>
       <c r="B329" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C329" t="s">
         <v>90</v>
       </c>
       <c r="D329" t="s">
-        <v>87</v>
+        <v>30</v>
+      </c>
+      <c r="E329" s="1">
+        <v>0</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="G329" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K329" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="L329" s="3" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>799</v>
       </c>
       <c r="B330" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C330" t="s">
         <v>90</v>
       </c>
       <c r="D330" t="s">
-        <v>30</v>
-      </c>
-      <c r="E330" s="1">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G330" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K330" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="L330" s="3" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>799</v>
       </c>
       <c r="B331" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C331" t="s">
         <v>90</v>
@@ -13631,9 +13633,39 @@
         <v>0</v>
       </c>
       <c r="K331" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="L331" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>799</v>
+      </c>
+      <c r="B332" t="s">
+        <v>936</v>
+      </c>
+      <c r="C332" t="s">
+        <v>90</v>
+      </c>
+      <c r="D332" t="s">
+        <v>30</v>
+      </c>
+      <c r="E332" s="1">
+        <v>0</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G332" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K332" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="L331" s="3" t="s">
+      <c r="L332" s="3" t="s">
         <v>937</v>
       </c>
     </row>

--- a/tools/variable_map.xlsx
+++ b/tools/variable_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHamilt2\Documents\solarPILOT_build\SolarPILOT\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488F0113-7BA1-4A1E-BEF2-849A515C6BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC87DF07-C12B-496B-AAE7-6E24F5C5104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="1016">
   <si>
     <t>Domain</t>
   </si>
@@ -3075,6 +3075,15 @@
   </si>
   <si>
     <t>SNOUT top surface angle from aperture normal</t>
+  </si>
+  <si>
+    <t>Include dynamic heliostat grouping</t>
+  </si>
+  <si>
+    <t>is_dynamic_group</t>
+  </si>
+  <si>
+    <t>Include the dynamic heliostat grouping methodology in the SolTrace simulation</t>
   </si>
 </sst>
 </file>
@@ -3171,8 +3180,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L332" totalsRowShown="0">
-  <autoFilter ref="A1:L332" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L333" totalsRowShown="0">
+  <autoFilter ref="A1:L333" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Domain"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="String name"/>
@@ -3488,11 +3497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L332"/>
+  <dimension ref="A1:L333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L264" sqref="L264"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6102,28 +6111,31 @@
         <v>190</v>
       </c>
       <c r="B86" t="s">
-        <v>286</v>
+        <v>1014</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1000000</v>
+        <v>111</v>
+      </c>
+      <c r="E86" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>287</v>
+        <v>1013</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>288</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -6131,7 +6143,7 @@
         <v>190</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -6140,7 +6152,7 @@
         <v>228</v>
       </c>
       <c r="E87" s="1">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>17</v>
@@ -6149,10 +6161,10 @@
         <v>1</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -6160,26 +6172,28 @@
         <v>190</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E88" s="1">
-        <v>0.25</v>
+        <v>10000</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G88" s="2" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -6187,7 +6201,7 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -6195,21 +6209,18 @@
       <c r="D89" t="s">
         <v>30</v>
       </c>
-      <c r="E89">
-        <v>1000</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>17</v>
+      <c r="E89" s="1">
+        <v>0.25</v>
       </c>
       <c r="G89" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -6217,7 +6228,7 @@
         <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -6226,7 +6237,7 @@
         <v>30</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>17</v>
@@ -6236,10 +6247,10 @@
         <v>0</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -6247,35 +6258,29 @@
         <v>190</v>
       </c>
       <c r="B91" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>302</v>
+        <v>30</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G91" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>274</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -6283,30 +6288,35 @@
         <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>111</v>
-      </c>
-      <c r="E92" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G92" s="2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>112</v>
+        <v>303</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -6314,26 +6324,30 @@
         <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>21</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>310</v>
+        <v>111</v>
+      </c>
+      <c r="E93" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G93" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
+      <c r="H93" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="K93" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -6341,29 +6355,26 @@
         <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>228</v>
-      </c>
-      <c r="E94" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="G94" s="2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -6371,26 +6382,29 @@
         <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E95" s="1">
-        <v>2</v>
+        <v>-1</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G95" s="2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -6398,7 +6412,7 @@
         <v>190</v>
       </c>
       <c r="B96" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -6409,18 +6423,15 @@
       <c r="E96" s="1">
         <v>2</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G96" s="2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -6428,16 +6439,16 @@
         <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="E97" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>17</v>
@@ -6447,10 +6458,10 @@
         <v>1</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -6458,7 +6469,7 @@
         <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -6477,10 +6488,10 @@
         <v>1</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -6488,28 +6499,29 @@
         <v>190</v>
       </c>
       <c r="B99" t="s">
-        <v>938</v>
+        <v>325</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G99" s="2" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>939</v>
+        <v>326</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>940</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -6517,29 +6529,28 @@
         <v>190</v>
       </c>
       <c r="B100" t="s">
-        <v>328</v>
+        <v>938</v>
       </c>
       <c r="C100" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
         <v>30</v>
       </c>
       <c r="E100" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>51</v>
+ 